--- a/Data/full_fixed_params.xlsx
+++ b/Data/full_fixed_params.xlsx
@@ -530,88 +530,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3407021066602363</v>
+        <v>-1.499283696245891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1630749839791229</v>
+        <v>-8.581518187519819</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1356651720502619</v>
+        <v>-9.877130707824293</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09605795277128922</v>
+        <v>-6.791989089026548</v>
       </c>
       <c r="F2" t="n">
-        <v>0.333428608081312</v>
+        <v>5.407547551055273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07264479968285478</v>
+        <v>-2.327020871257353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5131320635361096</v>
+        <v>3.996658315711777</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3586951776241611</v>
+        <v>-14.49737049610626</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3173346022905849</v>
+        <v>-4.416812752421023</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05573618677594196</v>
+        <v>-11.40784580922</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1061621753057137</v>
+        <v>8.278204282573549</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05886807459868573</v>
+        <v>-14.53851449196083</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04064374589807859</v>
+        <v>1.049934562403949</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.06115562506343425</v>
+        <v>-8.081933675020679</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1671372568959504</v>
+        <v>-3.978177745431968</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2974823790848524</v>
+        <v>6.511808963487625</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.000244362415991406</v>
+        <v>-8.127830724838567</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2293290424382012</v>
+        <v>1.131546771250516</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5021432802761217</v>
+        <v>-0.9712927104897027</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2817073297728611</v>
+        <v>0.04705363227422943</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1133988720629124</v>
+        <v>-13.24896899575242</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3657171321679101</v>
+        <v>3.569842284690164</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3205303354806844</v>
+        <v>6.441620580196163</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0300247268759174</v>
+        <v>-28.52718773706647</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1035469449834919</v>
+        <v>7.955964163532448</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.465922513635169</v>
+        <v>-12.19948567342178</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3833902569158829</v>
+        <v>-12.75930707869428</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4036105694603186</v>
+        <v>-1.265327169348232</v>
       </c>
     </row>
     <row r="3">
@@ -619,88 +619,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.137322032106103</v>
+        <v>-2.573093250902121</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3496110008855327</v>
+        <v>-8.219281873012715</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6939328563748444</v>
+        <v>-9.414596487299942</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4533117652600674</v>
+        <v>-8.63020806036095</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1228794351052944</v>
+        <v>5.151051701285849</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4873150141032845</v>
+        <v>-2.703181286833682</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01788105410822033</v>
+        <v>3.188280851631191</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1316699702539357</v>
+        <v>-15.50481027989283</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.2117426818966025</v>
+        <v>-3.535145869603798</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.442705164675563</v>
+        <v>-13.19398427757279</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3825063228693092</v>
+        <v>6.64850465524002</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.5124339276792343</v>
+        <v>-13.447939627015</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4919213809481547</v>
+        <v>-2.102484528256221</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5308747299468002</v>
+        <v>-12.30686112004851</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3646395052290269</v>
+        <v>-3.653021484569557</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2224899449227858</v>
+        <v>5.842740823002843</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.4583601686109542</v>
+        <v>-5.067732652542933</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.2814401002509115</v>
+        <v>-0.995499488179858</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03358280561703508</v>
+        <v>-0.7404800716979283</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.2485321918194122</v>
+        <v>-2.74970473969563</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.6173750569225431</v>
+        <v>-13.19447480368239</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.02995733169425269</v>
+        <v>5.799848413856376</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.1559375609116168</v>
+        <v>8.173124367376431</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.495775524526569</v>
+        <v>-30.41397197999811</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.4367548522652213</v>
+        <v>6.315156689665018</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.04461606688950576</v>
+        <v>-14.33271778241913</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.1172972470031368</v>
+        <v>-10.7352160186912</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.1042261161664578</v>
+        <v>-0.4251773166527695</v>
       </c>
     </row>
     <row r="4">
@@ -708,88 +708,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3414234671007537</v>
+        <v>-1.514416471359347</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04521467848207048</v>
+        <v>-6.58311562028728</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2584566824207539</v>
+        <v>-10.85335323948121</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05923854348112523</v>
+        <v>-6.829020614448927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.23488155935295</v>
+        <v>6.017067320943054</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07108336190064862</v>
+        <v>-3.324867668073631</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3362869434133963</v>
+        <v>2.616728381667987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2860024185491578</v>
+        <v>-15.16745827247752</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1836282031633094</v>
+        <v>-5.544665134339286</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03534328468708965</v>
+        <v>-13.40615717130718</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01140789255277752</v>
+        <v>7.534777442666272</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.06574002693871003</v>
+        <v>-13.11082422650206</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.010627971090032</v>
+        <v>-2.512669752275275</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.144564876285304</v>
+        <v>-10.22353379945813</v>
       </c>
       <c r="P4" t="n">
-        <v>0.007697195073450055</v>
+        <v>-1.671320489137426</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1239928007122277</v>
+        <v>6.170451166743288</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.03900345230623642</v>
+        <v>-8.736265255205662</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2169802711422671</v>
+        <v>-0.492110326567988</v>
       </c>
       <c r="T4" t="n">
-        <v>0.399106791622046</v>
+        <v>-0.07096904772412849</v>
       </c>
       <c r="U4" t="n">
-        <v>0.204372368792693</v>
+        <v>0.07495143337542576</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.2169206327737232</v>
+        <v>-12.99069639275406</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2652367920351061</v>
+        <v>5.560551841798675</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2077280458562085</v>
+        <v>6.894600545084708</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.1195358196199864</v>
+        <v>-28.92599976527073</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.0234270749831167</v>
+        <v>7.285337277849067</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3482238297127735</v>
+        <v>-13.86447602131155</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2597671174261574</v>
+        <v>-14.1062903462553</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2754186182979412</v>
+        <v>-0.8515726841297813</v>
       </c>
     </row>
     <row r="5">
@@ -797,88 +797,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1094540648737753</v>
+        <v>-2.491908800540324</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07890545008844127</v>
+        <v>-7.700849043252678</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3759117918033105</v>
+        <v>-10.39515099261832</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.233812096252587</v>
+        <v>-7.824319372249077</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1136611158558535</v>
+        <v>5.509168531822607</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2393267979808829</v>
+        <v>-1.64374770742995</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2891060494101163</v>
+        <v>3.48280865456012</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1034699005823371</v>
+        <v>-13.45378266191168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05525735906806747</v>
+        <v>-5.143824880946768</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2028987048312901</v>
+        <v>-14.27468436011807</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1422635662193867</v>
+        <v>7.736781239432641</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.264506988053503</v>
+        <v>-15.07211679038085</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.186756453574201</v>
+        <v>0.4097017778777476</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.3247178468520642</v>
+        <v>-9.035134093692527</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1118422913366482</v>
+        <v>-2.402560742692059</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.07795780350954158</v>
+        <v>6.736102852774287</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1676414620080771</v>
+        <v>-7.091569235526622</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03065643434478524</v>
+        <v>-1.24183143765085</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2874617233791243</v>
+        <v>-1.488018349293668</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.02414275659336849</v>
+        <v>-1.209998197803809</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.3378964280110072</v>
+        <v>-12.80651197746106</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1041015445873862</v>
+        <v>5.841014822982633</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1134948281463622</v>
+        <v>8.111738848381973</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.1843007068953417</v>
+        <v>-28.22540809061913</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1533636852290508</v>
+        <v>9.696239203854335</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2586033998249397</v>
+        <v>-12.263071682538</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.08363867955749235</v>
+        <v>-11.97622723477007</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2146497728525356</v>
+        <v>-1.836505395562289</v>
       </c>
     </row>
     <row r="6">
@@ -886,88 +886,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3233981424367423</v>
+        <v>-1.118851507706415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1525064789877776</v>
+        <v>-7.455893016452518</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2128427807623473</v>
+        <v>-12.05559755708966</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01779445951959036</v>
+        <v>-6.944747683255228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3175150449750276</v>
+        <v>5.134056026815745</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06345687594406965</v>
+        <v>-3.438726944059228</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4682581394288103</v>
+        <v>4.2060036994496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3264341882507384</v>
+        <v>-14.47808952562418</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2733673837990232</v>
+        <v>-4.81792969274308</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06201946329547178</v>
+        <v>-10.95962889758081</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1213187201657313</v>
+        <v>7.064623419771839</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.06358701591687085</v>
+        <v>-14.70870593261188</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02870229290739232</v>
+        <v>-0.5488886214835853</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.07645992697376057</v>
+        <v>-9.814260062414915</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1012095830867636</v>
+        <v>-2.527354832487117</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.246860155378623</v>
+        <v>8.474978473364565</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01793713823891298</v>
+        <v>-6.35091604708898</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2263290654415639</v>
+        <v>-1.57755435166229</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4887136483204355</v>
+        <v>-0.3732324695134599</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2146220334529227</v>
+        <v>-0.239905318019721</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2150348618715385</v>
+        <v>-13.33891093004765</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3049715709174585</v>
+        <v>6.435282073445962</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2891234778720921</v>
+        <v>6.161504317177001</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.09085053970660638</v>
+        <v>-27.68296521243549</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.04408717893091898</v>
+        <v>7.212120978928945</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3722451469244759</v>
+        <v>-12.37503220718933</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2988424291390825</v>
+        <v>-11.96029673854068</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4091818940921857</v>
+        <v>-0.7219039484446181</v>
       </c>
     </row>
     <row r="7">
@@ -975,88 +975,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03965727484152567</v>
+        <v>-0.5549365288617132</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1356705425696468</v>
+        <v>-8.266520833126489</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4726137355330506</v>
+        <v>-12.54463950574364</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2407161467339731</v>
+        <v>-6.876649517381786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06427008677506996</v>
+        <v>5.033350495862244</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2440411429895889</v>
+        <v>-3.22824508058372</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2144055203976429</v>
+        <v>2.956650706381335</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06480676808457334</v>
+        <v>-14.65323838832587</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008017637485748796</v>
+        <v>-6.0950438648572</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2471122127995592</v>
+        <v>-12.91019837141433</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2058555683939701</v>
+        <v>7.750815178120281</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.3344158213917965</v>
+        <v>-14.37592065927657</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2190611727202114</v>
+        <v>-1.425202945482402</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.3468249459557359</v>
+        <v>-10.34853265210177</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1637906750494172</v>
+        <v>-2.683709323683996</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.007187210616411005</v>
+        <v>5.723394924555395</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.2479760916946538</v>
+        <v>-8.060320283473869</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.006344650720887163</v>
+        <v>-0.4139318768210511</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1915972116455633</v>
+        <v>-1.549064037459886</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.01525426418197973</v>
+        <v>-0.6317728204090018</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.3861487888104256</v>
+        <v>-14.74559084667549</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09235055805668083</v>
+        <v>6.101438165750872</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09132864451504191</v>
+        <v>7.013393045305103</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.2281731034237423</v>
+        <v>-29.03550388259495</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.2056652011186777</v>
+        <v>6.960188144613196</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1649814992309892</v>
+        <v>-12.65552039393787</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.08399667616834208</v>
+        <v>-12.96064755816277</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1031981125349205</v>
+        <v>-0.5659462394726873</v>
       </c>
     </row>
     <row r="8">
@@ -1064,88 +1064,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.05237112972007556</v>
+        <v>-1.485548086098219</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1580729742152953</v>
+        <v>-5.742977449546782</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5534458020262316</v>
+        <v>-12.51884099612406</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2669004453882846</v>
+        <v>-7.356485896454501</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02940270227409691</v>
+        <v>6.412850397218397</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3490421768518183</v>
+        <v>0.01954780416552726</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1862239926209276</v>
+        <v>3.47802110262269</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02766349877264004</v>
+        <v>-13.41538095888094</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0669305621276772</v>
+        <v>-6.495491768856009</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.3245560718800026</v>
+        <v>-12.75713451085006</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2287771897031919</v>
+        <v>8.636077781740306</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.3493867826410234</v>
+        <v>-13.48079209445147</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.2503076013615874</v>
+        <v>-1.30267352043762</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.4101386719341832</v>
+        <v>-10.95550099486504</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.170952842088204</v>
+        <v>-3.440252056898025</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.08296990891759515</v>
+        <v>5.400907238793135</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.3072756501606685</v>
+        <v>-8.842465360197039</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.05491041280020123</v>
+        <v>-0.6339943145450064</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1836631532328844</v>
+        <v>-1.819049228696433</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.09790605802005564</v>
+        <v>-0.4123918971214326</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.4491773301644943</v>
+        <v>-12.06845165305406</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04939824397563272</v>
+        <v>4.656130355912819</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04045365648803639</v>
+        <v>7.639509438122709</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.3384544565217021</v>
+        <v>-29.24858587897937</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.2574134123694465</v>
+        <v>5.873549243603807</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.08506962694146963</v>
+        <v>-12.71708966085951</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02491848395927806</v>
+        <v>-12.73265291404111</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0544563180139131</v>
+        <v>-0.4694646271844221</v>
       </c>
     </row>
     <row r="9">
@@ -1153,88 +1153,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4993184023014026</v>
+        <v>-1.755246080506436</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2880030984264443</v>
+        <v>-6.978551447896509</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05870640736865956</v>
+        <v>-11.55190600461317</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2094651885394807</v>
+        <v>-7.372954569056587</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4698520057372965</v>
+        <v>5.77710067021845</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08086479289964307</v>
+        <v>-3.58968549942301</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6291567745499026</v>
+        <v>4.378772857653122</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4779588867604159</v>
+        <v>-14.35876241165603</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3333446932519133</v>
+        <v>-4.402395636967086</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1240566548297182</v>
+        <v>-12.69806521446536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1861599381108532</v>
+        <v>9.182784566184289</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05856517628872013</v>
+        <v>-15.04492297520219</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1284387811823482</v>
+        <v>-0.77347316814997</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.01675632204629518</v>
+        <v>-10.5695864297625</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2048738587749049</v>
+        <v>-3.93051725844512</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3280926574772279</v>
+        <v>6.527783605836009</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1218275431082851</v>
+        <v>-6.964860451702519</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3967157535415224</v>
+        <v>0.130628275909169</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6182612214570165</v>
+        <v>-0.5824150477126731</v>
       </c>
       <c r="U9" t="n">
-        <v>0.362014837366523</v>
+        <v>1.452694797075084</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01748122118977358</v>
+        <v>-13.94942116728793</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4719739258098107</v>
+        <v>7.353357406546086</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4459208307447174</v>
+        <v>6.851370680280436</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.07587058153269116</v>
+        <v>-28.925538676397</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1386028577916853</v>
+        <v>6.720608592355267</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5168531188389236</v>
+        <v>-11.8312751429688</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.5006315739032721</v>
+        <v>-14.31732460173725</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4638905179789009</v>
+        <v>1.647518748387219</v>
       </c>
     </row>
     <row r="10">
@@ -1242,88 +1242,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003963311267241032</v>
+        <v>-0.8238183926427001</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1248459910968704</v>
+        <v>-7.753020337221599</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3891031427654051</v>
+        <v>-10.86090081661424</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.193659180186243</v>
+        <v>-6.188396374194133</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05909781812732073</v>
+        <v>5.835608976424853</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2837026209128787</v>
+        <v>-1.376693305679363</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2118942743108806</v>
+        <v>2.638115889826936</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03843782194403411</v>
+        <v>-14.35203577473119</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.003308580935769467</v>
+        <v>-6.964206350287409</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.2757679624745997</v>
+        <v>-15.03359750840927</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1540067046389475</v>
+        <v>8.637434352030475</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.3470093779586108</v>
+        <v>-13.4224317400625</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.1845695291769919</v>
+        <v>-0.7787359884450811</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.3708783690574409</v>
+        <v>-11.27378006151973</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.14534191631349</v>
+        <v>-4.774619239638163</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02714094747927875</v>
+        <v>4.02212796752292</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.2810176300470608</v>
+        <v>-7.563891302426686</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.03058549718691778</v>
+        <v>-1.267713199149974</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2563301064026072</v>
+        <v>-1.198339765351955</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.04946976310900772</v>
+        <v>-0.6271240402559304</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.4505420038397222</v>
+        <v>-15.6427505579295</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08431106335496416</v>
+        <v>6.527974772487789</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04557475959802618</v>
+        <v>5.962137094829809</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.2973393630556432</v>
+        <v>-29.57453085968796</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.2251098430557475</v>
+        <v>7.244603505598541</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1444533452878318</v>
+        <v>-13.26291104498005</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0689932993712262</v>
+        <v>-14.20236610367412</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1095503095020129</v>
+        <v>-0.3411063752337391</v>
       </c>
     </row>
     <row r="11">
@@ -1331,88 +1331,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1425186708304652</v>
+        <v>-1.898711526574541</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.05332805264229209</v>
+        <v>-8.065403712745606</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4096762390873908</v>
+        <v>-11.41834812055567</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2175538668329723</v>
+        <v>-6.969933540297429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09439935162750066</v>
+        <v>5.856264841676203</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1757138535246034</v>
+        <v>-2.702019171510805</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2727195867915986</v>
+        <v>3.167863408720137</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1308459419701293</v>
+        <v>-13.86316796289639</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0347832045313545</v>
+        <v>-4.834655726274329</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.220220008767774</v>
+        <v>-12.65116879834247</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1481591722966207</v>
+        <v>6.455274328349571</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.2526557926112385</v>
+        <v>-13.12059994016477</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.176087703334282</v>
+        <v>-0.7628537801536095</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.3210267906677852</v>
+        <v>-10.6454432174807</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.104474049895448</v>
+        <v>-5.659067903721421</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006914171464956737</v>
+        <v>6.553076963441707</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1431375273767765</v>
+        <v>-8.482697214710601</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0008435449854122257</v>
+        <v>-1.399123990603568</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2672366495837152</v>
+        <v>-0.8165805294612074</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01520088858714766</v>
+        <v>-1.573781270719417</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.3182245192099294</v>
+        <v>-12.32186911514863</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1139986423559435</v>
+        <v>5.656234635188881</v>
       </c>
       <c r="X11" t="n">
-        <v>0.09201993438567205</v>
+        <v>6.72197296037872</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.2288904448373016</v>
+        <v>-28.4785467218319</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.1676434628082495</v>
+        <v>6.117648287357058</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1668108717745528</v>
+        <v>-11.77693232040291</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1458287471421421</v>
+        <v>-12.30056340642218</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1386324574405052</v>
+        <v>-1.904089405628618</v>
       </c>
     </row>
   </sheetData>
@@ -1525,88 +1525,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.08976733800797945</v>
+        <v>-11.42956016084535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5505467608197242</v>
+        <v>7.698093248712912</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2352716627484689</v>
+        <v>-8.65417683372026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.409637745356624</v>
+        <v>-0.4538697293214842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1967652008214359</v>
+        <v>8.114533003888837</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002660503068189907</v>
+        <v>3.074259823754762</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4531340882600004</v>
+        <v>-13.54943980735142</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4239383278072347</v>
+        <v>5.762681808717247</v>
       </c>
       <c r="J2" t="n">
-        <v>0.184102188585245</v>
+        <v>-3.23417935082096</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0601919103143238</v>
+        <v>-2.729730602406366</v>
       </c>
       <c r="L2" t="n">
-        <v>0.248106387571095</v>
+        <v>6.461395364073001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.197304455966655</v>
+        <v>5.990446358101039</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2046755235378964</v>
+        <v>-4.103535250655002</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4089914248170579</v>
+        <v>-3.92964116616423</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1431238964931763</v>
+        <v>-5.352766987233914</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07181300554198738</v>
+        <v>-16.71223704767923</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1514069347370717</v>
+        <v>9.106710729187533</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2244609691408544</v>
+        <v>-3.291794914312517</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0269161690576403</v>
+        <v>-4.221821513990768</v>
       </c>
       <c r="U2" t="n">
-        <v>0.170801571336112</v>
+        <v>0.6701054333761771</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02232389817045499</v>
+        <v>3.08347598772228</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1806605694577447</v>
+        <v>-4.338481152653672</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2016856505160863</v>
+        <v>12.00495007215918</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1910040469879493</v>
+        <v>-10.26374533762149</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3653540786614085</v>
+        <v>14.6880507764781</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2003884609372839</v>
+        <v>6.00343388637329</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2331452727308985</v>
+        <v>8.007141735591123</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1158493931006479</v>
+        <v>8.29267532759709</v>
       </c>
     </row>
     <row r="3">
@@ -1614,88 +1614,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.7101384626319338</v>
+        <v>-12.32050435712423</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0400861290881438</v>
+        <v>9.275019429060938</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2981960471546675</v>
+        <v>-10.20994239410904</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1586333610855306</v>
+        <v>-1.4560482641934</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3054780593256649</v>
+        <v>7.066139740255717</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.5471827902477353</v>
+        <v>2.122320019082649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008208844965517603</v>
+        <v>-13.06735623990023</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1153417708000851</v>
+        <v>4.133400232451113</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3022197830265076</v>
+        <v>-4.385467251688172</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.5383579147727287</v>
+        <v>-3.767151009064431</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2767506011888787</v>
+        <v>6.556918824354847</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3675107067679646</v>
+        <v>5.851977344494898</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3862914304686422</v>
+        <v>-2.367455869604753</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.01824006508916343</v>
+        <v>-5.130244959022939</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.317427036363689</v>
+        <v>-6.310716082254847</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.4052417531265524</v>
+        <v>-18.51877115538336</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.3299145495432799</v>
+        <v>7.809247438809564</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3473478604259935</v>
+        <v>-4.947147138019415</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.5242273495464581</v>
+        <v>-2.475003869537118</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.2669979829564192</v>
+        <v>0.3895880283176362</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.5401678703353336</v>
+        <v>0.1823596187745252</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.2930800607890064</v>
+        <v>-4.101405343567056</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.2623813804668697</v>
+        <v>10.14348437111686</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.3356475306322911</v>
+        <v>-9.562922162081005</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.1516106654163167</v>
+        <v>13.91164423415846</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.3363634281529596</v>
+        <v>4.737567864798686</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.2781428411400528</v>
+        <v>9.309138038919253</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.4154420512142544</v>
+        <v>8.230656604399009</v>
       </c>
     </row>
     <row r="4">
@@ -1703,88 +1703,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2697007487889831</v>
+        <v>-12.71469503440685</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4002257123820422</v>
+        <v>9.92370642783157</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1212158855453269</v>
+        <v>-9.049234567135812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3097806185823964</v>
+        <v>-0.8403554941381142</v>
       </c>
       <c r="F4" t="n">
-        <v>0.076387442517829</v>
+        <v>8.354590711429399</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.196998072585209</v>
+        <v>3.084122145934878</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3383573939165523</v>
+        <v>-13.06710637774831</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3573986791887239</v>
+        <v>5.533054979361518</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1185050880132431</v>
+        <v>-1.184641265319676</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1167891641927332</v>
+        <v>-3.257388822788661</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1713486833597823</v>
+        <v>5.058885619856983</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1080925612835107</v>
+        <v>2.797224225202287</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.02258465619998055</v>
+        <v>-2.207111397315186</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3332808748150382</v>
+        <v>-4.32505086492867</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03531183207632894</v>
+        <v>-5.846186732990224</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0719747221545253</v>
+        <v>-17.83262226071395</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07107649113532816</v>
+        <v>8.705708266512961</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1027744493204296</v>
+        <v>-3.850601252896244</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.1343868720032721</v>
+        <v>-3.064824851923555</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09868497044624529</v>
+        <v>-0.5821885868242661</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.1428032593550083</v>
+        <v>1.830684744936075</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05715530135873714</v>
+        <v>-3.83241243308464</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1189785796996436</v>
+        <v>10.90507568274363</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.004278665438584142</v>
+        <v>-10.6392362215693</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.3423358037836328</v>
+        <v>13.46499777876281</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1196312773362132</v>
+        <v>4.248046550785737</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.07805759856601557</v>
+        <v>9.020517709137325</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01596974818811164</v>
+        <v>9.72182540362329</v>
       </c>
     </row>
     <row r="5">
@@ -1792,88 +1792,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4249022126942332</v>
+        <v>-12.97067506954866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2739196466914313</v>
+        <v>6.750608631779283</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06093792363161631</v>
+        <v>-8.591212017814673</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1517608990042555</v>
+        <v>-0.3284709351148418</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03870632113003798</v>
+        <v>6.465918395530771</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3841324197370851</v>
+        <v>1.301735964271365</v>
       </c>
       <c r="H5" t="n">
-        <v>0.233129328397441</v>
+        <v>-13.0680586210869</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2068243764667062</v>
+        <v>3.358680026565033</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.06384777707330025</v>
+        <v>-1.694860556439697</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2720589036770614</v>
+        <v>-2.567124508718197</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05015591773840685</v>
+        <v>4.62724399830152</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.07063047849726173</v>
+        <v>5.894328182351131</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.08845091802588481</v>
+        <v>-2.42153699650803</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2328383369370942</v>
+        <v>-5.568213791049243</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.09660049935103528</v>
+        <v>-5.976920604741391</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2779837797726775</v>
+        <v>-16.57983945320175</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2067536169617907</v>
+        <v>8.391971230280349</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1123653102888493</v>
+        <v>-3.445495078992455</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.2598499943110176</v>
+        <v>-2.515905405405362</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.07105194381501784</v>
+        <v>0.9752248590333725</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.2382450748306638</v>
+        <v>2.529582151296605</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001158184683342237</v>
+        <v>-4.497119888308635</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.03528350270112679</v>
+        <v>10.74231919044739</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.08094199504214264</v>
+        <v>-10.56882461400161</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1124587572185813</v>
+        <v>15.63906481658015</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.0537863944095077</v>
+        <v>3.778634796508655</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.008375662407283033</v>
+        <v>9.803824544080928</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.1552183612432905</v>
+        <v>8.355882086977219</v>
       </c>
     </row>
     <row r="6">
@@ -1881,88 +1881,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2128404474206681</v>
+        <v>-12.18829197686411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5462544534482087</v>
+        <v>9.625298903789576</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1668093799679716</v>
+        <v>-6.842840026668407</v>
       </c>
       <c r="E6" t="n">
-        <v>0.369136380757072</v>
+        <v>-0.7439308176182877</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1578639095580355</v>
+        <v>7.49893853240077</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09292841116842721</v>
+        <v>2.100522971556705</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4342884214716008</v>
+        <v>-10.69893353024976</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3949182516783791</v>
+        <v>6.130754530334077</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1861315202888902</v>
+        <v>-4.230994070315224</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0768353088587696</v>
+        <v>-1.459639616244282</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2113163698182806</v>
+        <v>5.541096998676137</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1331853168400204</v>
+        <v>4.153241846261457</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1488488814159681</v>
+        <v>-2.894384105875239</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4050836677947324</v>
+        <v>-4.555248648463332</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1246634858335408</v>
+        <v>-6.05431096465052</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01748310931130229</v>
+        <v>-16.7225026214571</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1098396306880506</v>
+        <v>6.282498441932733</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07540052570411049</v>
+        <v>-4.595048063067655</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.03158013346033556</v>
+        <v>-2.440326270264099</v>
       </c>
       <c r="U6" t="n">
-        <v>0.124375973699484</v>
+        <v>-0.07465465118905815</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.06634093477393785</v>
+        <v>3.501086229484613</v>
       </c>
       <c r="W6" t="n">
-        <v>0.171458797086159</v>
+        <v>-3.209206572491894</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1499797524494459</v>
+        <v>11.12873441587005</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.09033476571242999</v>
+        <v>-8.212145630235787</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3690261788122314</v>
+        <v>14.68881492061599</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1218031579809472</v>
+        <v>3.885401226126653</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1316804343813668</v>
+        <v>7.838468639313702</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1004275525214211</v>
+        <v>7.578391632722842</v>
       </c>
     </row>
     <row r="7">
@@ -1970,88 +1970,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5082897358213232</v>
+        <v>-12.43131802394749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2530810152004664</v>
+        <v>7.687294602002542</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01810706428046185</v>
+        <v>-8.690019867822221</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07560277648424985</v>
+        <v>-0.898336297166856</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05456739323052011</v>
+        <v>5.274112238148179</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3273444680367082</v>
+        <v>3.010842450528667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1516986854452022</v>
+        <v>-13.32807368096572</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0977492770169896</v>
+        <v>5.415748000431908</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1276861890020193</v>
+        <v>-2.532123812609931</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.3569466762268791</v>
+        <v>-4.072072315849392</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.05033242936529908</v>
+        <v>6.477998189677894</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.088234589381156</v>
+        <v>4.953953596690775</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1707362088076578</v>
+        <v>-3.431178413246552</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1971835488560909</v>
+        <v>-5.283622106923874</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.147231015050632</v>
+        <v>-5.345776091009658</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.2896477036011771</v>
+        <v>-17.85104720619205</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1810915263988151</v>
+        <v>9.330720814459537</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.04002036867719475</v>
+        <v>-4.419331393536083</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.3395023275819305</v>
+        <v>-4.121078879776907</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.12640868880273</v>
+        <v>0.2009938369358709</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.2828688905558918</v>
+        <v>0.9213461414698917</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.07122584962470101</v>
+        <v>-2.963024192479919</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.1101505083191158</v>
+        <v>11.16829200309957</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.1278014690821459</v>
+        <v>-9.004739360986335</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.05520416794462277</v>
+        <v>13.32552631357821</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.120086317201189</v>
+        <v>4.589629023710684</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.1127788906533829</v>
+        <v>8.872758133648722</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2001648727373628</v>
+        <v>9.098120374884815</v>
       </c>
     </row>
     <row r="8">
@@ -2059,88 +2059,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4383413839252923</v>
+        <v>-11.9030354515814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1363100298541246</v>
+        <v>7.751689828193447</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1920534998054354</v>
+        <v>-8.508700383261992</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003857721513621903</v>
+        <v>-1.017827920248639</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1269015747717902</v>
+        <v>4.702837582655001</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3927566575268396</v>
+        <v>3.407518483527562</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1738247811298064</v>
+        <v>-12.94337043495619</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02696174715648122</v>
+        <v>4.733718550178631</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1355610950282746</v>
+        <v>-2.507844439098692</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.3237720118426841</v>
+        <v>-2.217577243816657</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.09661867475967434</v>
+        <v>7.115216456559209</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1385078093313186</v>
+        <v>5.985109198726362</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.241415173843205</v>
+        <v>-2.861869650796581</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09319787800603521</v>
+        <v>-5.191706923461672</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2087845790657763</v>
+        <v>-6.298252747959077</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.3035731833213139</v>
+        <v>-18.14816488537085</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1529329541272286</v>
+        <v>8.77677739354951</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1873682787879028</v>
+        <v>-4.159713358605647</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.354872365274864</v>
+        <v>-3.734815506300321</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.1468251693053284</v>
+        <v>-0.6423810987005512</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.3884490267461501</v>
+        <v>-0.06909000467215615</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1226874539961159</v>
+        <v>-4.943721310280203</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.1388120317429031</v>
+        <v>10.85807387509097</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.2093288852020321</v>
+        <v>-9.725037252373594</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.006181767182950493</v>
+        <v>14.77693444354375</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.1573883657344863</v>
+        <v>3.211959213036864</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.1437596459405022</v>
+        <v>8.557828495722713</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.2651367238703307</v>
+        <v>7.139273221797636</v>
       </c>
     </row>
     <row r="9">
@@ -2148,88 +2148,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.112967899264581</v>
+        <v>-12.06539798245356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6389362838752375</v>
+        <v>8.666205768668972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2767186030609942</v>
+        <v>-9.008106849928534</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4729918746725697</v>
+        <v>-1.129732512827625</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2797336985183214</v>
+        <v>5.991788811460689</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08147399954270518</v>
+        <v>2.883353055909363</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5400468450587959</v>
+        <v>-11.23636218553994</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5038449042276608</v>
+        <v>6.230221524318649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2907330766960354</v>
+        <v>-2.302052766594879</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1051844915608025</v>
+        <v>-1.856181179055782</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3657751003789946</v>
+        <v>6.262912604890586</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2500881703131372</v>
+        <v>6.138110676594874</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2525861734877138</v>
+        <v>-2.267872694510938</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5163592802028006</v>
+        <v>-5.918572680933775</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2835622194413876</v>
+        <v>-5.09104862316911</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1546242651181426</v>
+        <v>-15.26454839846801</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2110151129671844</v>
+        <v>9.804143244270037</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3473351922229594</v>
+        <v>-3.819943087378079</v>
       </c>
       <c r="T9" t="n">
-        <v>0.07863600326940559</v>
+        <v>-1.254305562743258</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3195235114723125</v>
+        <v>0.009988555303512336</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05848526122275305</v>
+        <v>1.330706990220528</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3338156436636314</v>
+        <v>-5.473066644845995</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2910425451043367</v>
+        <v>11.25952395045728</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2821382308252333</v>
+        <v>-8.659112052206465</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.4923070136304133</v>
+        <v>15.45061589510995</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2790601938995242</v>
+        <v>4.807547980878132</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2800751831125145</v>
+        <v>7.919485499942828</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2310646883226798</v>
+        <v>8.255918191519118</v>
       </c>
     </row>
     <row r="10">
@@ -2237,88 +2237,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.538846930508416</v>
+        <v>-11.73712710760955</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2270372164363102</v>
+        <v>8.152847734676882</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0894310160853299</v>
+        <v>-8.764543673184511</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1245034965227196</v>
+        <v>-0.9672763483996318</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.117990924720697</v>
+        <v>6.708331325409961</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3498207968786258</v>
+        <v>2.0773837577951</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1994004807096598</v>
+        <v>-12.8013143828736</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1908316933078367</v>
+        <v>4.685108617389561</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1688105615663609</v>
+        <v>-4.68953778415452</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.3649493642065589</v>
+        <v>-2.212121040344103</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1064057762973737</v>
+        <v>4.543432953887678</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.1146379150616966</v>
+        <v>5.255813862061575</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.1911971828742169</v>
+        <v>-1.557704318253225</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1953365182116988</v>
+        <v>-5.279453049811914</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1786798265499073</v>
+        <v>-5.176016576721496</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.215776762329693</v>
+        <v>-20.25192023305355</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.2020293166655857</v>
+        <v>8.743752931712665</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.1160144391570161</v>
+        <v>-3.095883894266461</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.2682439824117953</v>
+        <v>-3.461770732942637</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.08919595460574382</v>
+        <v>-0.03529320344181362</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.2803721191613298</v>
+        <v>1.872488790450065</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.1339083793686633</v>
+        <v>-4.535039632384088</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.08745800355605637</v>
+        <v>10.39668095775088</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.08203660722594008</v>
+        <v>-11.72619939409116</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.08532782099733505</v>
+        <v>14.08804516193884</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.06882216408078892</v>
+        <v>3.006265237000958</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.09966854695536205</v>
+        <v>8.988603695957112</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1940437452255625</v>
+        <v>9.29266410820598</v>
       </c>
     </row>
     <row r="11">
@@ -2326,88 +2326,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3818978257595612</v>
+        <v>-11.54233749617842</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2517204110680514</v>
+        <v>6.916851022275468</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.06382278441214004</v>
+        <v>-8.835090487420276</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1269636504772795</v>
+        <v>-0.5710308153242634</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06741591427658361</v>
+        <v>7.243204528716243</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2526323677392635</v>
+        <v>1.036618897244911</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2578475331015024</v>
+        <v>-11.92358064105808</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1590915131128607</v>
+        <v>6.010227261146705</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.04268683184656215</v>
+        <v>-4.292659562024105</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2771679286360955</v>
+        <v>-2.09700064423319</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009528021462664259</v>
+        <v>5.581778889174535</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.09824610337829306</v>
+        <v>6.029584191749024</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1077789834860406</v>
+        <v>-0.6162306868086136</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1922672583142771</v>
+        <v>-4.709280142601698</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09911556037225025</v>
+        <v>-5.878452386721054</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2008981703526823</v>
+        <v>-18.03264397509116</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08056236386715383</v>
+        <v>7.751156001735063</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.07864279438265473</v>
+        <v>-3.733380912061932</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.3339242825007896</v>
+        <v>-0.6650783435611103</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.03989835019809686</v>
+        <v>1.580996164138341</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.2747679819927709</v>
+        <v>1.408577821155219</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0937258888922895</v>
+        <v>-3.071046961265348</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.09589841368908249</v>
+        <v>9.82927439231351</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.04081638470619842</v>
+        <v>-10.54204232234026</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.09181494438822355</v>
+        <v>13.7639354999087</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.0825358242469115</v>
+        <v>3.147271263151578</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.05117913713089764</v>
+        <v>9.39879697358176</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1832924554679834</v>
+        <v>9.704867822709764</v>
       </c>
     </row>
   </sheetData>
@@ -2520,88 +2520,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.174433057148751</v>
+        <v>-4.730989439473523</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08234264028529539</v>
+        <v>-15.51546988901533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1611378360671857</v>
+        <v>-10.37646680728966</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1686232576199051</v>
+        <v>-7.967207533569796</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1427210134438927</v>
+        <v>13.48131804776727</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2340194361099846</v>
+        <v>5.116161577140125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.21790456801375</v>
+        <v>1.211771613821349</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2627979772379884</v>
+        <v>-5.948833855680343</v>
       </c>
       <c r="J2" t="n">
-        <v>0.533279396414265</v>
+        <v>-1.767822108533083</v>
       </c>
       <c r="K2" t="n">
-        <v>0.607893266716915</v>
+        <v>-7.534494056347754</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2682433115293515</v>
+        <v>-2.74824391168511</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4681126999092348</v>
+        <v>-6.864251272172702</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4681402802096599</v>
+        <v>-4.55934561789055</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5634917326263537</v>
+        <v>12.20126144228337</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08457471044774148</v>
+        <v>-4.955023642139049</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3781210489012031</v>
+        <v>-3.062007671001718</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3679206275777331</v>
+        <v>-20.31843143313597</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4227068303872509</v>
+        <v>-19.92923835811315</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2059936740838639</v>
+        <v>-13.49521980489663</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09890906858509144</v>
+        <v>-9.30622485092252</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1382905554934965</v>
+        <v>-6.388248627045702</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09026593682932198</v>
+        <v>-3.111890764690893</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0674948238820111</v>
+        <v>-11.05321609448742</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.1663913590957396</v>
+        <v>-19.57797072239424</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1711206524892331</v>
+        <v>-8.169014668012641</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.170730041510889</v>
+        <v>-20.71555888620952</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.759794562025238</v>
+        <v>-33.02407972178445</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5244171944827128</v>
+        <v>-57.53788630671303</v>
       </c>
     </row>
     <row r="3">
@@ -2609,88 +2609,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.409777782381902</v>
+        <v>-1.860538403262356</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5115412169629924</v>
+        <v>-14.10938539790713</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3601512049962401</v>
+        <v>-8.700282295884104</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3518366300755426</v>
+        <v>-9.939618820820648</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3329956643006455</v>
+        <v>12.89985249451435</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2829119529900851</v>
+        <v>5.651258556365324</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2598190898737794</v>
+        <v>1.229938739637224</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2743413107530025</v>
+        <v>-4.357222232349756</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1436163127127573</v>
+        <v>-3.050645162364409</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1183125698307244</v>
+        <v>-6.507705752469445</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2402669410308587</v>
+        <v>-2.835798058533652</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05802228817984162</v>
+        <v>-7.388468445373558</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04116462327459119</v>
+        <v>-3.968179337604434</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05483177691193469</v>
+        <v>10.86712473249189</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.4715146278847577</v>
+        <v>-5.185097483384149</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2053610366378902</v>
+        <v>-4.975547116220048</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1796011869297291</v>
+        <v>-22.71326723587606</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.06441601482300469</v>
+        <v>-19.77908379489123</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2713291247649244</v>
+        <v>-13.59604751142786</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.3901815771414288</v>
+        <v>-10.58658744408914</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.4241047105109113</v>
+        <v>-9.606918010736567</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.384956367591607</v>
+        <v>-3.662226357908382</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.6452623691005492</v>
+        <v>-10.66525135527136</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.6352151365908423</v>
+        <v>-21.5067836384738</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.3484386670611336</v>
+        <v>-9.69672513392119</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.6357216933906362</v>
+        <v>-22.64617623590721</v>
       </c>
       <c r="AB3" t="n">
-        <v>-1.26120630138015</v>
+        <v>-33.92343820244115</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.9704641163471212</v>
+        <v>-55.69621200272378</v>
       </c>
     </row>
     <row r="4">
@@ -2698,88 +2698,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02377249466535946</v>
+        <v>-2.671755549845722</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.214070800329524</v>
+        <v>-15.04656054867057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07464957927869009</v>
+        <v>-10.91136862363913</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03076637660990374</v>
+        <v>-7.345809090650242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1309421398295012</v>
+        <v>13.19305561610817</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06536220645209219</v>
+        <v>3.784896262266735</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1346084838391434</v>
+        <v>0.4507268763522263</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1179523284809073</v>
+        <v>-4.268284356400976</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4648341110182332</v>
+        <v>-2.1960096442002</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5288843703870167</v>
+        <v>-7.851243843942267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1625335518002922</v>
+        <v>-2.436715878097586</v>
       </c>
       <c r="M4" t="n">
-        <v>0.358265887870611</v>
+        <v>-8.41920940323044</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3632586942044134</v>
+        <v>-3.050637019765805</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3832947674519248</v>
+        <v>11.39057234435433</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.03813992046986858</v>
+        <v>-4.803410021923264</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2126651850095214</v>
+        <v>-1.489251967949632</v>
       </c>
       <c r="R4" t="n">
-        <v>0.276550806750029</v>
+        <v>-22.48902873238601</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3339253507129625</v>
+        <v>-19.34508579449849</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1237578009416118</v>
+        <v>-12.85546695420959</v>
       </c>
       <c r="U4" t="n">
-        <v>0.008116531993057365</v>
+        <v>-9.008971928719456</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.01120813793477973</v>
+        <v>-9.481235069701075</v>
       </c>
       <c r="W4" t="n">
-        <v>0.008943777641950715</v>
+        <v>-3.362331589449363</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.1899460172391232</v>
+        <v>-11.30238535725584</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.2100036522442988</v>
+        <v>-18.50909195439996</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04790096960055798</v>
+        <v>-5.979753242342756</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.2617723613099346</v>
+        <v>-19.64608470947901</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.8448405152217024</v>
+        <v>-34.29346124206545</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5932052372150636</v>
+        <v>-57.94601631444791</v>
       </c>
     </row>
     <row r="5">
@@ -2787,88 +2787,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1784576972741317</v>
+        <v>-2.646695644998319</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3169447155411573</v>
+        <v>-15.81919450658175</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06673006506338811</v>
+        <v>-10.68235734355993</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1465039259384133</v>
+        <v>-6.886861717722548</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04029016274033284</v>
+        <v>14.36589295984076</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05935739590341532</v>
+        <v>4.741252559874924</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03559912041814938</v>
+        <v>1.454942674435695</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00471278522189017</v>
+        <v>-6.094567588855893</v>
       </c>
       <c r="J5" t="n">
-        <v>0.32672645777369</v>
+        <v>-0.8748034541512251</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3069477569789911</v>
+        <v>-7.952943060500421</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.004789844967851217</v>
+        <v>-2.807327756636242</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2296355233101315</v>
+        <v>-8.144047306304437</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2869186549437719</v>
+        <v>-4.384900605858634</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2341569847483312</v>
+        <v>10.82784205127814</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1579298945766624</v>
+        <v>-3.854740479522883</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09933962650788621</v>
+        <v>-3.05843258051346</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1322230481014437</v>
+        <v>-22.42676366842374</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1892027926572954</v>
+        <v>-20.55196721975671</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02614669785988857</v>
+        <v>-14.1933528671861</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1422147994501246</v>
+        <v>-9.547855634569176</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1378310071721273</v>
+        <v>-8.764009599498088</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1622715440044087</v>
+        <v>-3.147499836854486</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.3772227288753823</v>
+        <v>-11.55339245347888</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.4014127391515318</v>
+        <v>-21.27394772402394</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.08413078548541461</v>
+        <v>-10.71097406829227</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.3642975748040737</v>
+        <v>-21.64719858563421</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.025542211629071</v>
+        <v>-32.41200675246662</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.8101097329434943</v>
+        <v>-56.31320756047714</v>
       </c>
     </row>
     <row r="6">
@@ -2876,88 +2876,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06428126677180213</v>
+        <v>-0.8568540918931651</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0606175031851752</v>
+        <v>-15.48551414829179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1589672358617954</v>
+        <v>-8.504021246600569</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09472737947931958</v>
+        <v>-8.909452173013413</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2226877969741657</v>
+        <v>12.87165792860501</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1168191323345138</v>
+        <v>4.96195433380729</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2517986000850572</v>
+        <v>2.275079649229545</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1377202849318567</v>
+        <v>-3.873933484185681</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5227075819357212</v>
+        <v>-0.8375341394134859</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5554874012278624</v>
+        <v>-9.620466957558108</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2242719082678319</v>
+        <v>-1.156659065656285</v>
       </c>
       <c r="M6" t="n">
-        <v>0.399686148146671</v>
+        <v>-6.540463835250405</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5114416035009255</v>
+        <v>-2.457687703656071</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4940318164392141</v>
+        <v>12.2778126694996</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008826713509006295</v>
+        <v>-4.956254457794087</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.354954202305735</v>
+        <v>-4.145717121669588</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3413025908893547</v>
+        <v>-22.45258861503288</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4044531930566975</v>
+        <v>-19.69758319062472</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1694340467544182</v>
+        <v>-12.04558009622871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06988382593598882</v>
+        <v>-10.80706553255954</v>
       </c>
       <c r="V6" t="n">
-        <v>0.09849519603542023</v>
+        <v>-6.916892177804916</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03216902221680842</v>
+        <v>-5.009210836726529</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.1216370210314168</v>
+        <v>-11.55032806475421</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.2029719780700294</v>
+        <v>-21.04463387760484</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1218383497848662</v>
+        <v>-9.849486834437004</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.1698300403471276</v>
+        <v>-21.68136367721675</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.8061452975723625</v>
+        <v>-33.25139340264997</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.596305405144159</v>
+        <v>-56.80620816263595</v>
       </c>
     </row>
     <row r="7">
@@ -2965,88 +2965,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2706042570859976</v>
+        <v>-0.9889662899632079</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3063989730389113</v>
+        <v>-17.48696460113235</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1593185099467009</v>
+        <v>-11.03915405025886</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1703968172840205</v>
+        <v>-8.217881878946603</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1307116292995993</v>
+        <v>11.52806799405489</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1173788593188518</v>
+        <v>4.518322498427125</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0909346024556776</v>
+        <v>2.672996321584169</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09158057999390787</v>
+        <v>-3.899980713758243</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2811922569143225</v>
+        <v>-2.677102003039843</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3260626282129189</v>
+        <v>-6.691721279804422</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03672571449227807</v>
+        <v>-2.655376593786566</v>
       </c>
       <c r="M7" t="n">
-        <v>0.19411161253956</v>
+        <v>-8.639845769358876</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1410040446889082</v>
+        <v>-1.408803180103952</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1642145701533436</v>
+        <v>9.452715192767386</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1786262546912182</v>
+        <v>-5.155191098861693</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05943355591109276</v>
+        <v>-2.702578231230047</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1160510468172768</v>
+        <v>-21.30052925442069</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2284585334054499</v>
+        <v>-18.63176252308286</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.08488451972542273</v>
+        <v>-12.89815312093992</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.2589867721736451</v>
+        <v>-10.81258693817444</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.2333090737089135</v>
+        <v>-9.619492786473131</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1881963976912914</v>
+        <v>-4.646215364381527</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.3780552315843061</v>
+        <v>-12.89313932969739</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.4361842925558297</v>
+        <v>-20.06144704553471</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.116231590324312</v>
+        <v>-8.701289414221499</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.4519842427170694</v>
+        <v>-21.26426162943476</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.088308282504974</v>
+        <v>-34.66917298113198</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.7741365767521298</v>
+        <v>-57.52695995279711</v>
       </c>
     </row>
     <row r="8">
@@ -3054,88 +3054,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2407824599270575</v>
+        <v>-1.958773245890935</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3992128508544379</v>
+        <v>-17.48426869570791</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.181165369759292</v>
+        <v>-11.8388196722915</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2414959881873935</v>
+        <v>-9.264770470724482</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1512353710727276</v>
+        <v>14.7087566968796</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2207601892955448</v>
+        <v>4.512131161424268</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1332267319244222</v>
+        <v>0.8551893636690986</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1179114802672441</v>
+        <v>-5.984675416024703</v>
       </c>
       <c r="J8" t="n">
-        <v>0.205568430145969</v>
+        <v>-2.980478675212452</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2255310808491941</v>
+        <v>-8.004834550190591</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1127115435388484</v>
+        <v>-3.44836962784475</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1007354432067904</v>
+        <v>-10.32211885606877</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1660562921032882</v>
+        <v>-2.175386644023906</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1011206942333286</v>
+        <v>12.86623562767229</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2461693142578011</v>
+        <v>-3.867040449362194</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.02015101359633545</v>
+        <v>-2.425395682886466</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02315747248677141</v>
+        <v>-23.12765255636327</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03797308306002217</v>
+        <v>-19.82999085659484</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.07126877409802138</v>
+        <v>-13.28691495444418</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.2113775776797668</v>
+        <v>-11.69741698802966</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.2505811238711462</v>
+        <v>-8.087296734246824</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.2562031694419112</v>
+        <v>-1.932091489807689</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.419469070408043</v>
+        <v>-8.715115344976805</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.4548190953855088</v>
+        <v>-21.42390136153901</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.2436062490572949</v>
+        <v>-8.512591982289825</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.4569898497132356</v>
+        <v>-21.89734490757166</v>
       </c>
       <c r="AB8" t="n">
-        <v>-1.096798394091388</v>
+        <v>-32.68283234223671</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.8975793056697169</v>
+        <v>-56.25607875061612</v>
       </c>
     </row>
     <row r="9">
@@ -3143,88 +3143,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1614810515687895</v>
+        <v>-3.039172149626915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05454228148403512</v>
+        <v>-14.33812460306587</v>
       </c>
       <c r="D9" t="n">
-        <v>0.309105507913712</v>
+        <v>-8.950465968513567</v>
       </c>
       <c r="E9" t="n">
-        <v>0.16547934946403</v>
+        <v>-6.769532228144874</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3404060379094167</v>
+        <v>13.47864391466559</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2640729994145044</v>
+        <v>4.307259502943323</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4106612958573613</v>
+        <v>1.640030740646826</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2877943639366787</v>
+        <v>-4.806716428646023</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6777379828327746</v>
+        <v>-2.938729329760291</v>
       </c>
       <c r="K9" t="n">
-        <v>0.710711836840097</v>
+        <v>-7.788695703427058</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3439530887922152</v>
+        <v>-2.993508116268919</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5743297770827922</v>
+        <v>-8.149629572810117</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6050419055329498</v>
+        <v>-2.393497379050544</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5809501685355025</v>
+        <v>11.91814676468836</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1561188574663863</v>
+        <v>-4.599782329345726</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4903960909034156</v>
+        <v>-2.430907794975022</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4660975563202238</v>
+        <v>-21.8140432534308</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5148042544968572</v>
+        <v>-22.09057492718794</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3713776711468507</v>
+        <v>-12.99771398714275</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1630871749230341</v>
+        <v>-9.953416399569594</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1863094739793369</v>
+        <v>-6.774073964252344</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1355962273919195</v>
+        <v>-2.495545979488897</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.008099541143578137</v>
+        <v>-10.61145334718388</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01735430245192998</v>
+        <v>-18.85826023007744</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2305615416443534</v>
+        <v>-7.130746853289425</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01762688627952598</v>
+        <v>-20.76264191442424</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.7516238668753472</v>
+        <v>-33.7201077792804</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3978237689334937</v>
+        <v>-55.74097839167393</v>
       </c>
     </row>
     <row r="10">
@@ -3232,88 +3232,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2153973259669783</v>
+        <v>-1.533866890190239</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3432095141454672</v>
+        <v>-13.44583115784165</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.06856352278421848</v>
+        <v>-8.976290549081721</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1552922227522942</v>
+        <v>-7.59346674155727</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0802045453943811</v>
+        <v>13.57973303434361</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1280142646677187</v>
+        <v>4.722792049473592</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.07812416958646719</v>
+        <v>1.979871989412425</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1101366403235454</v>
+        <v>-5.410167271212993</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2891306893913956</v>
+        <v>0.6097942100100422</v>
       </c>
       <c r="K10" t="n">
-        <v>0.293027252786528</v>
+        <v>-7.193175411774227</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.06373948264098594</v>
+        <v>-3.048334110593273</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1265781519525369</v>
+        <v>-8.098653125408067</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2651205376922197</v>
+        <v>-3.875650490179753</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2961351559708514</v>
+        <v>11.14824059845821</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.2184962520186211</v>
+        <v>-3.741019491534341</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02436757445669743</v>
+        <v>-3.654042879357143</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1067295412377335</v>
+        <v>-21.74371996399497</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1227105593196938</v>
+        <v>-18.58269460959276</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.01363631518862735</v>
+        <v>-13.82178400745956</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.228947568900214</v>
+        <v>-10.79843620860016</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.2026717574974245</v>
+        <v>-7.792810910876128</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.2518766467651128</v>
+        <v>-3.461584392120328</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.427690043904282</v>
+        <v>-9.451925195952057</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.4090276514372937</v>
+        <v>-18.41189798460768</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.1273512543926154</v>
+        <v>-7.561474563311091</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.4338931489720081</v>
+        <v>-19.80196120144744</v>
       </c>
       <c r="AB10" t="n">
-        <v>-1.055497874534403</v>
+        <v>-33.95517683515182</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.8187060306170637</v>
+        <v>-57.22112642934228</v>
       </c>
     </row>
     <row r="11">
@@ -3321,88 +3321,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1479851113375724</v>
+        <v>-2.592431747575743</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3172675060498901</v>
+        <v>-15.50111088590584</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07101043800187236</v>
+        <v>-8.104858577486027</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1655304379173769</v>
+        <v>-9.154363279761332</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04937018705184731</v>
+        <v>13.70474506758429</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09305872873379059</v>
+        <v>4.833229019569921</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02682442951848241</v>
+        <v>1.135818268106591</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.04197719764974069</v>
+        <v>-4.452291951839364</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2894535124689626</v>
+        <v>-3.097316451767028</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3764694223940793</v>
+        <v>-5.722292055695758</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.05233739608583841</v>
+        <v>-1.713760189128303</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2100204113805299</v>
+        <v>-6.74871135982647</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2203376684890649</v>
+        <v>-3.071221350202751</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1871018472121068</v>
+        <v>12.48406267815906</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1188447930356092</v>
+        <v>-5.296278982743747</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1839348521177432</v>
+        <v>-1.556870023624318</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07284843370612737</v>
+        <v>-22.17704813531829</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2010051904822332</v>
+        <v>-21.14291108549022</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.02174289754660011</v>
+        <v>-12.6112084857301</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.2556250919630118</v>
+        <v>-10.40062182247384</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.1449982363654772</v>
+        <v>-9.091301242756968</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1574224005440525</v>
+        <v>-3.083064185466108</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.3304677208119498</v>
+        <v>-10.16953067575067</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.3855314082616716</v>
+        <v>-21.29531858384516</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.0837601721370225</v>
+        <v>-8.978533738217843</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.3408577632651326</v>
+        <v>-20.77003170073747</v>
       </c>
       <c r="AB11" t="n">
-        <v>-1.024375977736964</v>
+        <v>-34.43357784722393</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.772681246801542</v>
+        <v>-56.52360142136796</v>
       </c>
     </row>
   </sheetData>
@@ -3515,88 +3515,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2345156926148038</v>
+        <v>-0.4358278026783138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6549145006564326</v>
+        <v>-8.244330226862989</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1444738053466228</v>
+        <v>4.842217677365319</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01670750858647846</v>
+        <v>2.03670044374352</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.280282678754346</v>
+        <v>-9.01172538728998</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5194708561787215</v>
+        <v>-14.62097459220439</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2559038141957052</v>
+        <v>-2.600032681755485</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2647159695176171</v>
+        <v>-8.499528877688977</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08207468103780179</v>
+        <v>-2.941650592086139</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2486112354262788</v>
+        <v>-0.4701885176786949</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4122380876133913</v>
+        <v>-7.147085339515317</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1788027888574018</v>
+        <v>-17.82348088834677</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.02184116565896935</v>
+        <v>-11.49921804220697</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2066252684541164</v>
+        <v>2.31020692872829</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2430971108736814</v>
+        <v>14.75067109449429</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4449246498987917</v>
+        <v>2.64824074960538</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3594837907007289</v>
+        <v>-6.122907857474617</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1102737954780905</v>
+        <v>-2.676096243898272</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3059923045019034</v>
+        <v>-14.40401986527587</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1744377042692764</v>
+        <v>-16.12810022047367</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1871926599074073</v>
+        <v>-2.259933934961277</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1240543070938665</v>
+        <v>-16.50782704542205</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.2548424005473516</v>
+        <v>-1.204645999851525</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2092000731523165</v>
+        <v>-16.40360484187155</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1785713488402238</v>
+        <v>-5.299781564021091</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0719480439102429</v>
+        <v>-7.68470160222811</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1601623742042743</v>
+        <v>-16.33105783293353</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.09969215949746574</v>
+        <v>-20.15089751653112</v>
       </c>
     </row>
     <row r="3">
@@ -3604,88 +3604,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2600044074594905</v>
+        <v>0.7944366184375715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1698508678607297</v>
+        <v>-6.545156111763326</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.652508454188496</v>
+        <v>4.959787545268033</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4852195683723045</v>
+        <v>3.957789828691396</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7511320735268359</v>
+        <v>-12.82253162947161</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02226680050459351</v>
+        <v>-16.94342783213892</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.7667213503861092</v>
+        <v>-3.603600974899923</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.23584840338633</v>
+        <v>-8.234832884393951</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3801172915879547</v>
+        <v>-5.366212353748238</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3045744380113031</v>
+        <v>-1.259958488308652</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1838588363125563</v>
+        <v>-7.284843879688448</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3486300153857788</v>
+        <v>-17.96813298810224</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.5300428721050018</v>
+        <v>-12.91930462412173</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2753886115928738</v>
+        <v>-0.2388400636402253</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.221069390071383</v>
+        <v>14.64258629582432</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.0133825143116697</v>
+        <v>0.3858353597528925</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1059516234430113</v>
+        <v>-5.470002192986785</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3795750454223854</v>
+        <v>-4.444499456035004</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2379053702582445</v>
+        <v>-14.45080687844124</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.320661304358534</v>
+        <v>-16.19134552738828</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.3106461951912727</v>
+        <v>-4.528582630174309</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.6257766112059641</v>
+        <v>-15.61129100593766</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.7833750187132693</v>
+        <v>-1.683236009455488</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.2422518671194556</v>
+        <v>-17.38763683970786</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.2723176817982683</v>
+        <v>-4.7806909744718</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.4241906975987624</v>
+        <v>-5.293982879993618</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.3491050696386145</v>
+        <v>-13.66574487871919</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.3721606180491163</v>
+        <v>-21.47028072491256</v>
       </c>
     </row>
     <row r="4">
@@ -3693,88 +3693,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2018830686485233</v>
+        <v>1.566394440883078</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5280528021679406</v>
+        <v>-6.754219041031211</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2785306113329289</v>
+        <v>5.515378299653682</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09604082012647974</v>
+        <v>3.982339831991678</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3277647628165288</v>
+        <v>-9.788240445533791</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3384622718833322</v>
+        <v>-16.67875547086615</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.3360262762940179</v>
+        <v>-2.474880218927728</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1337640744923825</v>
+        <v>-12.2670748126704</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03590649000968156</v>
+        <v>-5.490974816699417</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09905152459545094</v>
+        <v>-2.275947060559792</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2447509856848837</v>
+        <v>-8.052112277076738</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08410485345679893</v>
+        <v>-18.03691598133391</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1105156603052</v>
+        <v>-12.60394498994158</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2011595557580089</v>
+        <v>0.3537732729739465</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1752607213070903</v>
+        <v>15.79840165715795</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3199643914923461</v>
+        <v>0.5028904548558986</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3030325490181658</v>
+        <v>-5.697962557734045</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.007408265414020607</v>
+        <v>-2.013869816594118</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2052719943312199</v>
+        <v>-14.15427400360942</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1319713201971104</v>
+        <v>-16.72154105279428</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1005729742494253</v>
+        <v>-1.311872089083068</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.1908814847820449</v>
+        <v>-17.08714365015912</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.4295188695380462</v>
+        <v>-0.6282534984208352</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1638997295746521</v>
+        <v>-16.665871395651</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1272041167591516</v>
+        <v>-6.191012652788157</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.08165035137760544</v>
+        <v>-6.906466832163483</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.111882009845809</v>
+        <v>-14.81237714842983</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05030948048531243</v>
+        <v>-22.00352239964898</v>
       </c>
     </row>
     <row r="5">
@@ -3782,88 +3782,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.007806603252317482</v>
+        <v>1.820753294129461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3381027602496405</v>
+        <v>-7.900419119221617</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3767063864848646</v>
+        <v>5.376326926229254</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2787422593831996</v>
+        <v>3.890708106752932</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5262305777510292</v>
+        <v>-9.655297495440347</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1717094852050752</v>
+        <v>-15.55228011886895</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4455473955893299</v>
+        <v>-3.531650748054488</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.006645375169045092</v>
+        <v>-10.03038711644743</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1381348475557461</v>
+        <v>-3.137952995638207</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02028729036268045</v>
+        <v>-1.814770061676507</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1246333468345453</v>
+        <v>-7.145912847944877</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.08869245208934536</v>
+        <v>-17.31545357311867</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.2636189776018497</v>
+        <v>-13.89273649746618</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.007071949808243466</v>
+        <v>0.2967111697950973</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01643073811273101</v>
+        <v>15.19663291063253</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2050991713028805</v>
+        <v>1.934318223347253</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2007825537433378</v>
+        <v>-4.591931101297923</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1435733639855474</v>
+        <v>-3.051714849129567</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03553997973241545</v>
+        <v>-15.08874404685373</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.06615955949262428</v>
+        <v>-13.87337484719142</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.04623173418110334</v>
+        <v>-4.038577012927822</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.4110904394088432</v>
+        <v>-17.55456190264532</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.5751404627547504</v>
+        <v>-0.2388957197332742</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.002212334790643894</v>
+        <v>-17.0424802383836</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03488238377163716</v>
+        <v>-6.201563730559188</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1413903182167062</v>
+        <v>-7.482980998039719</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.04751976970443617</v>
+        <v>-12.76825415912975</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.06300609472317306</v>
+        <v>-23.06219635862279</v>
       </c>
     </row>
     <row r="6">
@@ -3871,88 +3871,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2425299990390364</v>
+        <v>0.3277213664432979</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5682414846847268</v>
+        <v>-7.317272559614839</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.162487043762422</v>
+        <v>5.776323099305466</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05650615414090929</v>
+        <v>5.46499460182268</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2770590155870166</v>
+        <v>-10.62791873820073</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4080452027897604</v>
+        <v>-16.92535111503443</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2352244528577805</v>
+        <v>-2.626260442492198</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2805289554710994</v>
+        <v>-10.56688367876725</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03024982485127371</v>
+        <v>-4.599028233446367</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1483768802930567</v>
+        <v>-2.267546834335942</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3008387160030327</v>
+        <v>-8.330674875912401</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1454965835251702</v>
+        <v>-17.83195568730978</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1112805535317282</v>
+        <v>-12.35492688681065</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1968162156254938</v>
+        <v>-0.6780819359222434</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2674012665093873</v>
+        <v>15.17925299702142</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3835312145487988</v>
+        <v>1.732358599332285</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3640702380934451</v>
+        <v>-3.918937932353574</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.006168265812775575</v>
+        <v>-2.355890133332165</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2078845198208119</v>
+        <v>-9.928828681720733</v>
       </c>
       <c r="U6" t="n">
-        <v>0.142738416575447</v>
+        <v>-16.42751777494865</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1438873637723544</v>
+        <v>-2.866401975390292</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.1506131693733711</v>
+        <v>-17.07161448817905</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.3208714675297352</v>
+        <v>-2.415595460429348</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2300324324171439</v>
+        <v>-18.8883725477091</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1667932411640302</v>
+        <v>-3.26338507719821</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0567296620130961</v>
+        <v>-6.633101444899888</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.08704408331895747</v>
+        <v>-12.89418876112938</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1234758418296359</v>
+        <v>-22.54733398676915</v>
       </c>
     </row>
     <row r="7">
@@ -3960,88 +3960,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01004365756596358</v>
+        <v>0.05759395991870253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3291618628172061</v>
+        <v>-7.77389454497723</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4079322870713941</v>
+        <v>5.602009414978675</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3453680616892939</v>
+        <v>3.25292535323808</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5863278124657763</v>
+        <v>-9.170389815386693</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1979860278168747</v>
+        <v>-16.66836349047363</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5426861015158966</v>
+        <v>-3.623912130047422</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01195968304795067</v>
+        <v>-10.97673382682251</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2144771716316716</v>
+        <v>-6.804376429965384</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1080283627453559</v>
+        <v>-2.471452087613828</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.004747445400251765</v>
+        <v>-8.523613284398625</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.06474518614938522</v>
+        <v>-16.74844050291557</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.3761294231398024</v>
+        <v>-12.28023373068164</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.08026756097584098</v>
+        <v>-0.107693892688407</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02357764231198414</v>
+        <v>17.08280109021751</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.138395324747888</v>
+        <v>3.352095565838483</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1283169459696373</v>
+        <v>-5.625904392353632</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.2431973228627754</v>
+        <v>-3.465798432771226</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04090383708524586</v>
+        <v>-14.02430504552298</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.1086440784096123</v>
+        <v>-17.04964931134894</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.1714804737338293</v>
+        <v>-3.010997582965862</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.4603734682522508</v>
+        <v>-13.73432845478983</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.6213092451495439</v>
+        <v>-1.257128799300969</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.03012990436831084</v>
+        <v>-17.85257549894233</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.1675710548693007</v>
+        <v>-5.647828545122337</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.1849924219074282</v>
+        <v>-6.463251759449911</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.1272515483112223</v>
+        <v>-12.49191071866565</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.1851118970000909</v>
+        <v>-21.40910787213273</v>
       </c>
     </row>
     <row r="8">
@@ -4049,88 +4049,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1021337806509935</v>
+        <v>1.528173703980401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3048209402878394</v>
+        <v>-6.475825058431733</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4869266697699901</v>
+        <v>5.685164651170228</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4416105477951904</v>
+        <v>2.418060472111374</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6301430594476971</v>
+        <v>-10.17874351556575</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1434538410566212</v>
+        <v>-14.46460016504505</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5716719641436934</v>
+        <v>-2.99268467053151</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08863376753085016</v>
+        <v>-11.20657700673798</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2615891999051345</v>
+        <v>-5.422301392744725</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1469330106372464</v>
+        <v>-2.18938337036883</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.03979381351400002</v>
+        <v>-8.260413482451995</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1671816236686571</v>
+        <v>-17.94340578455499</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.3274108717635614</v>
+        <v>-12.64653578236629</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.1327841516151954</v>
+        <v>0.146955732367287</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.09122895153103004</v>
+        <v>15.05847134931685</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1568500470666518</v>
+        <v>0.0653748773534959</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03259454770089079</v>
+        <v>-7.319082954003643</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.279207062108536</v>
+        <v>-3.005224635154832</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01955612868099355</v>
+        <v>-13.74542062538775</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.1838704582174986</v>
+        <v>-14.89452192887352</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.1775056376029998</v>
+        <v>-3.571622841317949</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.486114574208667</v>
+        <v>-14.58644620551497</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.6197228878150041</v>
+        <v>-0.2071276356812186</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.10696484646397</v>
+        <v>-15.57887392409604</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.2637229629256273</v>
+        <v>-5.367969946584537</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.2888026513836201</v>
+        <v>-6.157542719079306</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.2203723210738988</v>
+        <v>-14.05640627349005</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.2107598070988718</v>
+        <v>-23.64824475012249</v>
       </c>
     </row>
     <row r="9">
@@ -4138,88 +4138,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3890210494271454</v>
+        <v>1.100159898920924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.716209088674622</v>
+        <v>-7.085556753612097</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03544720511722005</v>
+        <v>4.892942718252736</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04151086643006435</v>
+        <v>6.316440733277955</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1816746474317762</v>
+        <v>-9.915020547723563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5783091850055488</v>
+        <v>-13.60728532016699</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1186878167013087</v>
+        <v>-0.6240750761863216</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3916804320500072</v>
+        <v>-10.30762545775979</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1315105890383572</v>
+        <v>-2.807673366511532</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3675923976609228</v>
+        <v>-1.877129429153575</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4584402095508269</v>
+        <v>-5.644204413247759</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2422445520270352</v>
+        <v>-17.00361847567218</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04604477182892944</v>
+        <v>-14.29856642255101</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2774508429374252</v>
+        <v>1.161713376274604</v>
       </c>
       <c r="P9" t="n">
-        <v>0.392821063810555</v>
+        <v>15.11098427902776</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5332890313964707</v>
+        <v>2.551631168289823</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4682943832516467</v>
+        <v>-6.432289838135263</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1875241349651143</v>
+        <v>-2.025474266567148</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3901040335228667</v>
+        <v>-14.8392013714055</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3090779268149417</v>
+        <v>-14.8317723686939</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2630489477632028</v>
+        <v>-2.354812952102079</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.1064974396793753</v>
+        <v>-15.66909139885148</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.1754821483437648</v>
+        <v>-0.4435609891721155</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3842393882860328</v>
+        <v>-16.13899376553194</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2815250865208579</v>
+        <v>-6.161007252182563</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.117299209059319</v>
+        <v>-7.999523054851101</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3025370154174002</v>
+        <v>-12.64058827697009</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3118245242220087</v>
+        <v>-21.1821245633963</v>
       </c>
     </row>
     <row r="10">
@@ -4227,88 +4227,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.07202381688297754</v>
+        <v>0.6680147080048249</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2869513429925884</v>
+        <v>-6.963227618960012</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4127735327046074</v>
+        <v>5.707032701443151</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3060140628222594</v>
+        <v>2.453569040706773</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5409218089094838</v>
+        <v>-11.42750685054263</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1566618379918227</v>
+        <v>-14.56034702413524</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5189115339844628</v>
+        <v>-2.091243677652189</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01512735339514024</v>
+        <v>-9.640681595395776</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.175774733659452</v>
+        <v>-4.125178510532739</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1169740290883896</v>
+        <v>-0.7949214365728108</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05876583301445032</v>
+        <v>-7.655027125625529</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.1350812661857988</v>
+        <v>-19.54782268193789</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.3660704656286454</v>
+        <v>-14.61568738718096</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.07004055639470827</v>
+        <v>1.568640452125064</v>
       </c>
       <c r="P10" t="n">
-        <v>0.003516536724198188</v>
+        <v>15.72981061630295</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1842572694910938</v>
+        <v>1.19691432404149</v>
       </c>
       <c r="R10" t="n">
-        <v>0.128107266262842</v>
+        <v>-6.567306650619277</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.2207362834476925</v>
+        <v>-3.661798721497371</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0798435717335062</v>
+        <v>-15.00975989691428</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.1289066825107032</v>
+        <v>-16.25930359606587</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.108328391976977</v>
+        <v>-3.629263777066527</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.3880110476291985</v>
+        <v>-15.24065747344988</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.6632065254843651</v>
+        <v>-1.665352761215439</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.07572600574508982</v>
+        <v>-16.78595643963022</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.1467946553093961</v>
+        <v>-6.962125380714179</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.1937373736303062</v>
+        <v>-7.136375075098146</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.1623607866233288</v>
+        <v>-16.00792511464934</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1388191949977255</v>
+        <v>-22.23180330951073</v>
       </c>
     </row>
     <row r="11">
@@ -4316,88 +4316,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02950799676235456</v>
+        <v>0.447546825994479</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2938428829007199</v>
+        <v>-6.094089938917616</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4287521986092361</v>
+        <v>3.961953976939838</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3300529267026813</v>
+        <v>2.867142180793543</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5639064481825056</v>
+        <v>-11.46371633279532</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2248873638456452</v>
+        <v>-16.61320896084439</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4312093547216871</v>
+        <v>-1.07896840046625</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06016815086466118</v>
+        <v>-10.71405389877384</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.1838242421504275</v>
+        <v>-5.290581154537962</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.06002743091354112</v>
+        <v>-1.274605910787417</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09083111673127413</v>
+        <v>-10.15602960202144</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.003067144078762823</v>
+        <v>-19.02333176804108</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.2873438769107222</v>
+        <v>-12.17415106045846</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.05220541314338225</v>
+        <v>0.7952540096877687</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0322190312515028</v>
+        <v>14.10146245212054</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1039496780534829</v>
+        <v>1.894739621944225</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2047731230618524</v>
+        <v>-6.131260901625389</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1765140729205942</v>
+        <v>-2.024540518185882</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06511004359811183</v>
+        <v>-14.71944830514129</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0740654002724368</v>
+        <v>-14.24913724286376</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.05297477033050053</v>
+        <v>-2.06420917670938</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.4271939717488439</v>
+        <v>-16.83010913951408</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.5175869184955277</v>
+        <v>0.409467481696125</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.01984276565006766</v>
+        <v>-16.69488784730231</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.06558075475893027</v>
+        <v>-8.35414088124128</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.1881324186900099</v>
+        <v>-5.825363143203049</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.0740300878940959</v>
+        <v>-11.1305921261307</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1465476250828664</v>
+        <v>-21.85657019494157</v>
       </c>
     </row>
   </sheetData>
@@ -4510,88 +4510,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3398222807783148</v>
+        <v>0.119322480083627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07913572897273267</v>
+        <v>1.912251780106446</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.15152435158235</v>
+        <v>-13.12317889910927</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2434014797887235</v>
+        <v>7.393090832942335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07726593755420896</v>
+        <v>-13.14800862181191</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03613056944778181</v>
+        <v>-10.90570083512749</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08113633903793727</v>
+        <v>-19.43390001519124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5676077932440122</v>
+        <v>-2.650867707854568</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2825529412294449</v>
+        <v>6.652192533966749</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2672261010049647</v>
+        <v>2.681481458544217</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01800498721162805</v>
+        <v>-2.27082847201846</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2605476850548201</v>
+        <v>-12.89697759364528</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2378547107262434</v>
+        <v>7.274376508287691</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05559485579002896</v>
+        <v>0.08819051841245518</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08783081757303907</v>
+        <v>-2.264050432074391</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2491535018432405</v>
+        <v>-17.48598027772252</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2985994313020684</v>
+        <v>-22.44732438940243</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3047163759193617</v>
+        <v>11.60289772191553</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002155516388150577</v>
+        <v>-13.4967104417539</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3218399152533419</v>
+        <v>-19.65106493885188</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09178199828502397</v>
+        <v>-13.13733511322079</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2361432915891565</v>
+        <v>-12.89766652785286</v>
       </c>
       <c r="X2" t="n">
-        <v>0.539178703034509</v>
+        <v>-15.49987821226802</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.05107800972965969</v>
+        <v>-7.813828662337917</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.00429926407452464</v>
+        <v>-15.15417150911384</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01433287726989783</v>
+        <v>-41.84569902681284</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.2159684130370356</v>
+        <v>-25.50307258543626</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.1062967285716684</v>
+        <v>-53.81841194220351</v>
       </c>
     </row>
     <row r="3">
@@ -4599,88 +4599,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1921915263986023</v>
+        <v>-0.5839175459054937</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.352375855186505</v>
+        <v>0.2398260151063596</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6452096412054533</v>
+        <v>-11.9722061399759</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2303416762306347</v>
+        <v>5.719585417797192</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4888635925733806</v>
+        <v>-15.56779304807184</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.5147750677270168</v>
+        <v>-9.763496965643704</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6373951368539507</v>
+        <v>-19.39074320600004</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04530774419423844</v>
+        <v>-2.271672513025994</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1387089572579609</v>
+        <v>5.59712658539598</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2234251704026869</v>
+        <v>2.194278892289371</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4976680072298423</v>
+        <v>-3.361152065983147</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.2894030740413394</v>
+        <v>-14.300729226403</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.2695970955382987</v>
+        <v>5.308700450012998</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4383867859671439</v>
+        <v>-0.07987813542197575</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.4782434189893437</v>
+        <v>-1.992761300052564</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.223110694988934</v>
+        <v>-20.0379263262359</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.778796025360553</v>
+        <v>-22.98258282923605</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1588310624635189</v>
+        <v>13.96194731036361</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.4962720157042358</v>
+        <v>-12.94383972843458</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.1696739769695475</v>
+        <v>-21.87986800071126</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.4134598059496195</v>
+        <v>-13.90104638641823</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.2992564598153379</v>
+        <v>-13.18063820352102</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.0155464742279518</v>
+        <v>-16.24029360513688</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.4707828204645872</v>
+        <v>-9.762942871866469</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.4315225704019243</v>
+        <v>-18.78345944998318</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.4962001002940023</v>
+        <v>-43.13836240133372</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.7633646870226605</v>
+        <v>-29.81417655938957</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.6252095837359321</v>
+        <v>-53.88567067530008</v>
       </c>
     </row>
     <row r="4">
@@ -4688,88 +4688,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2287181364309159</v>
+        <v>-0.1833879367063478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02503191798269397</v>
+        <v>1.622394659888057</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2721254085499671</v>
+        <v>-11.12629284678147</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1748764238268734</v>
+        <v>4.338356496623273</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02930126228204757</v>
+        <v>-14.94443032351863</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1750088962596149</v>
+        <v>-10.28580672379702</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1765621934697181</v>
+        <v>-19.5016338307878</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4367994212590089</v>
+        <v>-1.859850042389045</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2416485582402695</v>
+        <v>5.936615297379414</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1761973134739755</v>
+        <v>2.528720452977516</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.007512572245723659</v>
+        <v>-1.380226704519115</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1672226468756319</v>
+        <v>-12.11238671416529</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1685410307243846</v>
+        <v>6.599292380833062</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.07025760604768756</v>
+        <v>1.482248909012385</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.07600479831693077</v>
+        <v>-2.011018485670921</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1600165165142101</v>
+        <v>-18.53593035756365</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.3461681496265112</v>
+        <v>-19.85394502723369</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2383381748102048</v>
+        <v>13.30365447404951</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.109504961895678</v>
+        <v>-12.70174223708421</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1565302312578443</v>
+        <v>-19.52506854733773</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.02899447602224019</v>
+        <v>-13.79383054086475</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1492381813326181</v>
+        <v>-13.72059193650062</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3994547548911742</v>
+        <v>-17.82755641010313</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.1161370358696829</v>
+        <v>-11.71561062821316</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.05624869693367818</v>
+        <v>-15.40747089334519</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.06770717434823299</v>
+        <v>-42.56671282845637</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.3445275267866725</v>
+        <v>-25.85701042376838</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.1816059641766348</v>
+        <v>-52.02714203017925</v>
       </c>
     </row>
     <row r="5">
@@ -4777,88 +4777,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0763732931595076</v>
+        <v>-1.086207026272792</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1413313643409656</v>
+        <v>1.32990677524961</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4729703489613014</v>
+        <v>-13.33944559983384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02862227497735335</v>
+        <v>6.42638421734264</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1881606708554638</v>
+        <v>-15.57829198291845</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3006954646516674</v>
+        <v>-10.72334886893462</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2864330440970128</v>
+        <v>-20.00545700054981</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3530868025073945</v>
+        <v>-3.26883558533282</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07683442324764254</v>
+        <v>4.971197477841205</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07033211147009884</v>
+        <v>2.641075048786963</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1994173338158068</v>
+        <v>-2.767114875094768</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.003076827301045013</v>
+        <v>-14.59250145992014</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.003599654170269598</v>
+        <v>6.32209740892865</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1843533501642562</v>
+        <v>0.7137280927595624</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1556495749828598</v>
+        <v>-3.030154456234721</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03789019550490039</v>
+        <v>-18.33190119770126</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.5468831543553189</v>
+        <v>-23.27027534497599</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1260589540050374</v>
+        <v>11.21610572062167</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.183483701198549</v>
+        <v>-12.94228821624274</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0261988238910989</v>
+        <v>-19.03202636525529</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1557778962175559</v>
+        <v>-14.53292607444507</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.06985926607512749</v>
+        <v>-12.55510786021508</v>
       </c>
       <c r="X5" t="n">
-        <v>0.254155162703304</v>
+        <v>-16.69276045552682</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.2796699882471894</v>
+        <v>-9.724501720183646</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1943084304601687</v>
+        <v>-18.02800384736078</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.2216802983137374</v>
+        <v>-41.45155711655524</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.5299521034672037</v>
+        <v>-26.57189705462877</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.3840756074594033</v>
+        <v>-53.72706297014959</v>
       </c>
     </row>
     <row r="6">
@@ -4866,88 +4866,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3235494812655438</v>
+        <v>-1.177697657561596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0655193823402174</v>
+        <v>2.38823631266912</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1860177943418091</v>
+        <v>-13.30252000135949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2729175723128479</v>
+        <v>6.204288278683215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01832020786340545</v>
+        <v>-14.20791647922049</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1070729508115297</v>
+        <v>-8.959642717964151</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2075474675928795</v>
+        <v>-20.20473202334441</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5189304044289834</v>
+        <v>-2.380588563577998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2602818595483445</v>
+        <v>4.8854862346735</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2462583205437865</v>
+        <v>1.908798391757936</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02543213600755895</v>
+        <v>-2.912055903847049</v>
       </c>
       <c r="M6" t="n">
-        <v>0.21976441450658</v>
+        <v>-13.67124281822993</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2083051599047696</v>
+        <v>7.011600944800068</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02072582277672548</v>
+        <v>-0.002472595807328837</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01832569882470249</v>
+        <v>-2.947254812987862</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2032956640175274</v>
+        <v>-17.76678274785909</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.3333486599327254</v>
+        <v>-21.27696664802866</v>
       </c>
       <c r="S6" t="n">
-        <v>0.247544032175516</v>
+        <v>14.23259910113146</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.005816592400456358</v>
+        <v>-11.53724151481735</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3017227170429187</v>
+        <v>-19.86764011876117</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02433806050400929</v>
+        <v>-13.07567484907544</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1833972700360274</v>
+        <v>-14.03786261550591</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4239767152142739</v>
+        <v>-14.39186791745096</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.08071148905635678</v>
+        <v>-9.831128711260877</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01120031688220684</v>
+        <v>-16.14114235247421</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.01456816404467658</v>
+        <v>-42.63474065406523</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.223582643967961</v>
+        <v>-25.47885777035675</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.06837839048210831</v>
+        <v>-52.32902032855208</v>
       </c>
     </row>
     <row r="7">
@@ -4955,88 +4955,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05168711259285461</v>
+        <v>-0.2254716250922746</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1867084997304486</v>
+        <v>1.79439847521023</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4872571374095543</v>
+        <v>-13.38036436155582</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.05799134719487362</v>
+        <v>5.575315945052601</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2091698394127067</v>
+        <v>-16.50535948045177</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3799753696535417</v>
+        <v>-10.6618551654141</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3704420561428543</v>
+        <v>-20.34349591135095</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2768324104819245</v>
+        <v>-3.056895466037574</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001783972561044955</v>
+        <v>5.624274406108111</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01233696362585388</v>
+        <v>4.140027260942773</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2446886037168777</v>
+        <v>-2.751013791600835</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.008389110788521892</v>
+        <v>-13.78835464869324</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.08684255074662317</v>
+        <v>4.745296712651037</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2706928269787388</v>
+        <v>0.1456451515105064</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.286005119657094</v>
+        <v>-2.679808785813179</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.03010229990437299</v>
+        <v>-17.94996598329283</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.5900674576239656</v>
+        <v>-21.58925358396551</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06000646983457969</v>
+        <v>12.0093027029453</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.3000908098586219</v>
+        <v>-13.25945305413839</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06893271693133884</v>
+        <v>-21.2637247057002</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.2352732500406108</v>
+        <v>-15.86709751911997</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.09872268949488183</v>
+        <v>-13.93648797072573</v>
       </c>
       <c r="X7" t="n">
-        <v>0.155762304476903</v>
+        <v>-16.33306398850613</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.3053063716084687</v>
+        <v>-10.63986995767945</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.1761800681553961</v>
+        <v>-17.94306693913901</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.2543485088991576</v>
+        <v>-41.37928803797455</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.6249432042022782</v>
+        <v>-28.24071647343213</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.3490090048013696</v>
+        <v>-51.63075273888285</v>
       </c>
     </row>
     <row r="8">
@@ -5044,88 +5044,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001168127378562395</v>
+        <v>-0.7240254549749703</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1810263959283415</v>
+        <v>0.3321975376839728</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5036743832935009</v>
+        <v>-14.32501980864877</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05215635796159193</v>
+        <v>4.736005982899492</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2528371939830914</v>
+        <v>-16.23759214374218</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4678147966687264</v>
+        <v>-11.29793960781238</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4104672242722065</v>
+        <v>-18.56318043289324</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2626218200191582</v>
+        <v>-2.541398768582424</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.001524147892050964</v>
+        <v>6.653221797002936</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1310587747346105</v>
+        <v>3.005751378311144</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.3269728741201565</v>
+        <v>-0.4003639644932599</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1451821317334193</v>
+        <v>-12.24043108698032</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.1104924427401434</v>
+        <v>6.189167686838188</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.3428594752700309</v>
+        <v>-1.145380978836767</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.348136847585245</v>
+        <v>-3.235327569426119</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.1242340737005796</v>
+        <v>-19.45120262543099</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.6319730542789428</v>
+        <v>-22.00477370460841</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.06763801636589842</v>
+        <v>12.36274464194809</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.3065231305766571</v>
+        <v>-13.02420092539248</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01149876175389705</v>
+        <v>-19.83069363715655</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.2460188637673719</v>
+        <v>-14.05046804151997</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1682113131638063</v>
+        <v>-14.87813170221848</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1303376805767936</v>
+        <v>-16.4567317715503</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.3852640196471173</v>
+        <v>-8.926439543496032</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.3239104392910144</v>
+        <v>-16.02406785027576</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.3253595425876583</v>
+        <v>-39.72586766169463</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.6117430289317043</v>
+        <v>-27.09684737825977</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3912126692381983</v>
+        <v>-53.98484339121055</v>
       </c>
     </row>
     <row r="9">
@@ -5133,88 +5133,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3764878208890012</v>
+        <v>-0.6387919169816805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.255664738529725</v>
+        <v>0.9634670233497507</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0230448049044541</v>
+        <v>-13.62123009348705</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3653309784554549</v>
+        <v>7.217155970784966</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1848751362370478</v>
+        <v>-14.43087800324831</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06980340116805681</v>
+        <v>-10.92833810312127</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04103974891684414</v>
+        <v>-19.72514046814889</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6499062306149807</v>
+        <v>-1.841876297328284</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4553350777675341</v>
+        <v>5.055422167294786</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3374152860636148</v>
+        <v>3.438938051227791</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1099459630529496</v>
+        <v>-1.330445862827808</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3683608513371164</v>
+        <v>-13.30206046880592</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3669471846858782</v>
+        <v>5.512890568671772</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1179506288623055</v>
+        <v>-0.2077115417223823</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1053312396960906</v>
+        <v>-3.464545608559598</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3711615053771514</v>
+        <v>-17.95073937905421</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.2211386899877303</v>
+        <v>-20.17348448610461</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4118528395259031</v>
+        <v>11.94744050586189</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1864601593782352</v>
+        <v>-13.19681253580551</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4277648922173704</v>
+        <v>-19.58333688616587</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2290234050795376</v>
+        <v>-14.50466028677203</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3727763272913735</v>
+        <v>-14.51066162939856</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6480589631462399</v>
+        <v>-15.81012519722426</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0781080070795023</v>
+        <v>-10.12551899481112</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1442338254840547</v>
+        <v>-18.30247944244455</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.103021912466413</v>
+        <v>-41.75714841833565</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.1369999222671312</v>
+        <v>-25.62673868066959</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01427743238400181</v>
+        <v>-52.29895327446248</v>
       </c>
     </row>
     <row r="10">
@@ -5222,88 +5222,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05295873017465391</v>
+        <v>-1.161663900667877</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1764777514002514</v>
+        <v>3.177812451861817</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5077680212548965</v>
+        <v>-14.95426478971651</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01019620286404649</v>
+        <v>5.670457867898445</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2518336370015913</v>
+        <v>-15.23806728045628</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3338492695072344</v>
+        <v>-9.876959877185868</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3749106238857836</v>
+        <v>-19.83889495334892</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2792423693042001</v>
+        <v>-3.44029892510032</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03523281089496008</v>
+        <v>6.46862710256688</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.03456255147818886</v>
+        <v>3.127664284145647</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2568953408214635</v>
+        <v>-2.832098762264715</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.07186506762308315</v>
+        <v>-12.6938130480515</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02377736447052886</v>
+        <v>5.017125009503755</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.336685801701535</v>
+        <v>1.215949833001584</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.2801204429748791</v>
+        <v>-1.668474239142145</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.04144873250033315</v>
+        <v>-18.6784037225469</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.573605302222233</v>
+        <v>-23.35138193748395</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01735522791234859</v>
+        <v>15.28170832633612</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.258732006126601</v>
+        <v>-13.92322009288543</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.01075157257405532</v>
+        <v>-19.8487159343053</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.1778263209601298</v>
+        <v>-13.4824879707472</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.04342573955289378</v>
+        <v>-13.82438621949426</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2297119372437188</v>
+        <v>-14.23333624361382</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.2897002273991127</v>
+        <v>-11.06045352179505</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.2651829523161511</v>
+        <v>-17.40233023375407</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.3019570493551396</v>
+        <v>-41.94723246383102</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.603076763824677</v>
+        <v>-27.22298496035004</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.3554709510334566</v>
+        <v>-52.06731234588537</v>
       </c>
     </row>
     <row r="11">
@@ -5311,88 +5311,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06579533620738008</v>
+        <v>-0.6756372636381323</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.08574531165440274</v>
+        <v>0.9702831080110008</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4009124383612481</v>
+        <v>-13.62591816347245</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05032543507730254</v>
+        <v>6.121929305506808</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.20231038974449</v>
+        <v>-14.64263623752272</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3192654096274153</v>
+        <v>-12.3540740447454</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3527677770965748</v>
+        <v>-19.02234749214045</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3319328672381937</v>
+        <v>-2.959549173297487</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1042209860679288</v>
+        <v>8.10199683090597</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.02341061224313505</v>
+        <v>2.246670107064008</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1918814363701299</v>
+        <v>-3.236902109695004</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001204952553619396</v>
+        <v>-12.80263375676705</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01677079816366861</v>
+        <v>7.772468321476889</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.2107226811625684</v>
+        <v>-0.4642727625816674</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.2309162226691597</v>
+        <v>-2.178396970210695</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02801542274053764</v>
+        <v>-18.97703067257859</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.5859405443930786</v>
+        <v>-20.98839706892431</v>
       </c>
       <c r="S11" t="n">
-        <v>0.09712321163504239</v>
+        <v>13.65861094569949</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1895743524442082</v>
+        <v>-12.08202274116302</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1039817281350865</v>
+        <v>-18.79370927924917</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.1368979849363676</v>
+        <v>-13.04970950082399</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.03190579197932532</v>
+        <v>-14.05275806435573</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2711757600956879</v>
+        <v>-16.25308338321175</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.2661397104771989</v>
+        <v>-8.808091976976822</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.1897871215972754</v>
+        <v>-17.70021269188829</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.2287804795372756</v>
+        <v>-40.5454638971584</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.5507713830689217</v>
+        <v>-26.85444272441991</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.3390196419862072</v>
+        <v>-53.35962364987115</v>
       </c>
     </row>
   </sheetData>
@@ -5505,88 +5505,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2636693031325658</v>
+        <v>-2.20670045167112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01344643500744241</v>
+        <v>-0.18804575898386</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02187951874988914</v>
+        <v>-5.183143914090504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2922832886053878</v>
+        <v>6.554844538772347</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3680192440433196</v>
+        <v>-5.401500110340766</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02524064184428843</v>
+        <v>-19.60149269210716</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2372251149713008</v>
+        <v>-10.85227970076275</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4218114307284524</v>
+        <v>-17.24786324368885</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1623793697781384</v>
+        <v>-2.834026941240352</v>
       </c>
       <c r="K2" t="n">
-        <v>0.19516769294533</v>
+        <v>2.87265772914547</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5354221700361701</v>
+        <v>4.864609648372197</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5629257908616605</v>
+        <v>-1.284619630356245</v>
       </c>
       <c r="N2" t="n">
-        <v>0.142450135639863</v>
+        <v>-0.03323175366844233</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5645659899575959</v>
+        <v>13.62713311869618</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2065712833446663</v>
+        <v>-7.07576135418106</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1350757565305561</v>
+        <v>-13.20149379570745</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08743475514958424</v>
+        <v>9.861411612583206</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03516442867461134</v>
+        <v>11.36755476323318</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3464987419299281</v>
+        <v>-4.585506866037409</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3750435065728106</v>
+        <v>3.146595757681947</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.2581548737145065</v>
+        <v>-2.986051569649987</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4014396204308188</v>
+        <v>-6.066002953490509</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.08454703076936296</v>
+        <v>-4.665209090110308</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07335040416803551</v>
+        <v>-1.256289616153795</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4365833094396162</v>
+        <v>-9.491425602390144</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2701715647080931</v>
+        <v>6.730748741337107</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1070355646549336</v>
+        <v>-3.943453125463938</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.1192901435806146</v>
+        <v>2.392713691273712</v>
       </c>
     </row>
     <row r="3">
@@ -5594,88 +5594,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.7569062035721738</v>
+        <v>-5.973286537136217</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5087591977121879</v>
+        <v>0.07569477888656451</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6522263064756527</v>
+        <v>-9.337299591030684</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1990024571374236</v>
+        <v>4.759118150478235</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1625672131504031</v>
+        <v>-6.05284432424521</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4363449152197111</v>
+        <v>-21.18750233228604</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.7370981902408755</v>
+        <v>-10.83944324303516</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02805553519461162</v>
+        <v>-18.84743557040495</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.336354971214601</v>
+        <v>-1.322249847750758</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2993014424264028</v>
+        <v>3.94207701364483</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009181995855475467</v>
+        <v>5.232657727348947</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05233641484047946</v>
+        <v>-2.023437706321196</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4307807867897625</v>
+        <v>-0.7068183931041109</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.02688782259046324</v>
+        <v>12.69849204207862</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.6256045548756336</v>
+        <v>-3.801078411801416</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.6387742659939437</v>
+        <v>-16.87499312602567</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.4013636198553043</v>
+        <v>9.709703162462947</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.5020274107037923</v>
+        <v>11.91922041098671</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2590118009896175</v>
+        <v>-5.705634597154774</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.1630987292123041</v>
+        <v>1.282355022001699</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.73444651616149</v>
+        <v>-4.508633526857858</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.09138044709067994</v>
+        <v>-9.308728516446639</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.6362643861063879</v>
+        <v>-3.713025615632528</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.4782431948438122</v>
+        <v>0.3491917399372801</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.04782110561824293</v>
+        <v>-8.982134680903433</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.243090912852786</v>
+        <v>5.751945528788633</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.3718355275449938</v>
+        <v>-4.671478705220499</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.6514341741584667</v>
+        <v>2.309375108032889</v>
       </c>
     </row>
     <row r="4">
@@ -5683,88 +5683,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3605642324140993</v>
+        <v>-4.591731786593158</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06679226067501351</v>
+        <v>1.171135008458762</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2313391506414281</v>
+        <v>-4.876789851065743</v>
       </c>
       <c r="E4" t="n">
-        <v>0.229582731339061</v>
+        <v>6.783024498254387</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2081600152903896</v>
+        <v>-5.493271303773418</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09053536226537651</v>
+        <v>-18.08858776364718</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.3599813511578812</v>
+        <v>-9.86303603222423</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3686958718357802</v>
+        <v>-17.3243669621387</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05565416069935827</v>
+        <v>-1.157748702689075</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05652600048922593</v>
+        <v>4.722978239177294</v>
       </c>
       <c r="L4" t="n">
-        <v>0.461609067276785</v>
+        <v>4.680066518377632</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4752139008814005</v>
+        <v>-1.992650064911051</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1231233144712569</v>
+        <v>-1.086938573654798</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3754941605333851</v>
+        <v>14.79469837877098</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2449609592992371</v>
+        <v>-6.37741937671938</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.2419655514549249</v>
+        <v>-15.37401829020909</v>
       </c>
       <c r="R4" t="n">
-        <v>0.006138415582021245</v>
+        <v>9.290800451092061</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.10786929645986</v>
+        <v>14.01670717288663</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1958202842674208</v>
+        <v>-4.471268158159658</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2728407169733704</v>
+        <v>4.966214919041488</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.286814372627791</v>
+        <v>-1.908047715342506</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3264793633934713</v>
+        <v>-6.64213537034277</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.2187169934665523</v>
+        <v>-6.630179085202519</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.001187338859074946</v>
+        <v>-2.137956491513708</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.3684494583806412</v>
+        <v>-8.851392570883441</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1772471669382064</v>
+        <v>6.523760897555801</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04056849897227359</v>
+        <v>-2.187714692622353</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.2195167406118077</v>
+        <v>1.629349177918977</v>
       </c>
     </row>
     <row r="5">
@@ -5772,88 +5772,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5528841195632499</v>
+        <v>-4.218951996456466</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2058186372040115</v>
+        <v>1.146494984618583</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3326094031710973</v>
+        <v>-7.597027646204406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04030852712837668</v>
+        <v>5.632243173713805</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06431083256543974</v>
+        <v>-4.472689570053193</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2363579178600821</v>
+        <v>-18.58720129979062</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4867484977763133</v>
+        <v>-11.24279157857042</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2815241279515115</v>
+        <v>-17.55964319768701</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.09180185873908218</v>
+        <v>-1.538498763497754</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.006894500162426667</v>
+        <v>2.333227912260036</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2753825904052499</v>
+        <v>7.342610512434886</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3417391808093457</v>
+        <v>-0.5780940755032188</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.246534232269341</v>
+        <v>-3.231965567214729</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2841336233811529</v>
+        <v>12.9553683580428</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3912739730308409</v>
+        <v>-4.314745116862239</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.3930338490173544</v>
+        <v>-15.2904691921433</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.07821973571894257</v>
+        <v>8.926006797771517</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.2568034627326671</v>
+        <v>11.20442128337212</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0721280110380603</v>
+        <v>-3.347171828449795</v>
       </c>
       <c r="U5" t="n">
-        <v>0.157737775931993</v>
+        <v>3.15940800704823</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.4787753024075379</v>
+        <v>-2.314193965043005</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2215664647435847</v>
+        <v>-6.727065153998058</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.3480835765067388</v>
+        <v>-5.689870288700947</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.2083633610436738</v>
+        <v>-2.862974752555766</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2391525648885595</v>
+        <v>-7.561007179322289</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01534824973234217</v>
+        <v>5.159570383505299</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1033437511486057</v>
+        <v>-3.534910099260686</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.3965363215418847</v>
+        <v>3.140145983355593</v>
       </c>
     </row>
     <row r="6">
@@ -5861,88 +5861,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2756423105858906</v>
+        <v>-3.898294261116473</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.008735473917025061</v>
+        <v>-1.754444089676046</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1157541880293457</v>
+        <v>-6.676154168884061</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2794396927196107</v>
+        <v>5.715445826517365</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2602633969057185</v>
+        <v>-4.852241032934655</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.006222984660909661</v>
+        <v>-18.09377330078415</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.351388931950152</v>
+        <v>-10.28132450597995</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4461939523818436</v>
+        <v>-20.79008895073115</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1054564062608478</v>
+        <v>-3.056202128315171</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1872766769111705</v>
+        <v>2.786833300075889</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4821712274433252</v>
+        <v>4.915907270225592</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5347058304029872</v>
+        <v>-2.955187012377352</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01775932581670571</v>
+        <v>-1.962973930308487</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4555378096840264</v>
+        <v>15.04250532575398</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.200826534351742</v>
+        <v>-6.420639732285759</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1613041545077894</v>
+        <v>-17.61262271866832</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1193209523264849</v>
+        <v>9.596150169506027</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.07996113101460978</v>
+        <v>12.56094910490427</v>
       </c>
       <c r="T6" t="n">
-        <v>0.289376032930403</v>
+        <v>-4.178179289359875</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3817978848092581</v>
+        <v>2.996542257296627</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.299328662981613</v>
+        <v>-2.696736337566433</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3646936263848782</v>
+        <v>-6.744069334214717</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.127724945416783</v>
+        <v>-5.388695419591602</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0064901593282361</v>
+        <v>-1.543734958718341</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3604159507655514</v>
+        <v>-8.309243979059193</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1951018721948197</v>
+        <v>4.089648871971184</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06405422716892481</v>
+        <v>-3.746347342467933</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.254240947350564</v>
+        <v>1.204619035398116</v>
       </c>
     </row>
     <row r="7">
@@ -5950,88 +5950,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6181266411999661</v>
+        <v>-4.910583134124808</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2075932796626915</v>
+        <v>0.5169959683448937</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.369523333815228</v>
+        <v>-7.874836285722507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02366087323643476</v>
+        <v>6.136449749248952</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06092317598101865</v>
+        <v>-5.33774411424744</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2882351708504969</v>
+        <v>-18.49648257462905</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4867374918763065</v>
+        <v>-11.45780316663823</v>
       </c>
       <c r="I7" t="n">
-        <v>0.201384395363998</v>
+        <v>-17.11051600848567</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.126218261112183</v>
+        <v>-1.027557645354342</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1072898286123242</v>
+        <v>3.824161025515265</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2046577630143792</v>
+        <v>2.594943940717455</v>
       </c>
       <c r="M7" t="n">
-        <v>0.266151585903668</v>
+        <v>-1.798405801260318</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2610266656353816</v>
+        <v>-0.7826299112991946</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2417426659892207</v>
+        <v>15.74790195089368</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.4228423716659911</v>
+        <v>-5.891160298105813</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.4731046718844513</v>
+        <v>-15.52954708343199</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1727621040468127</v>
+        <v>9.041877679435334</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.2743208230810097</v>
+        <v>12.71944797411215</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02429511321794892</v>
+        <v>-5.794447287659784</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05197469964983389</v>
+        <v>5.589477480306766</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.522144196935957</v>
+        <v>-2.521596585725724</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07053604166064656</v>
+        <v>-7.118425270286682</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.4006435478668161</v>
+        <v>-3.729967066918529</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.2551039760062463</v>
+        <v>-2.085446106771319</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1403285866892959</v>
+        <v>-8.384857841817178</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.02329334708334907</v>
+        <v>5.49351365882856</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.1681020518847409</v>
+        <v>-1.927792196995803</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.465974013584158</v>
+        <v>2.18151035845054</v>
       </c>
     </row>
     <row r="8">
@@ -6039,88 +6039,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6208903143481355</v>
+        <v>-5.162809780637633</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3531885863250115</v>
+        <v>1.327249279801908</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2959080991107046</v>
+        <v>-7.2668672645858</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01076417031595456</v>
+        <v>5.053762391740988</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05349551266657782</v>
+        <v>-6.21037610601058</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2749973632395287</v>
+        <v>-18.41192809947928</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6176020002196648</v>
+        <v>-10.41105595576574</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1822054733962686</v>
+        <v>-17.79768221002156</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1870459081023899</v>
+        <v>-2.903297464861616</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1414860683150789</v>
+        <v>3.275704801257744</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1288347274811485</v>
+        <v>2.744854767915782</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2598677184680335</v>
+        <v>-2.684839751796907</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.2719318604293054</v>
+        <v>-2.924925577661404</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1918071837732764</v>
+        <v>13.99115392148929</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.5410557759957345</v>
+        <v>-7.080213999714687</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.5017183529080683</v>
+        <v>-17.03426784526586</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.2049536394892724</v>
+        <v>8.713403122129696</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.3166344835751745</v>
+        <v>13.52142253225414</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.02204978940915656</v>
+        <v>-5.237795931612605</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06647481506220218</v>
+        <v>3.35658955489238</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.5628048025401776</v>
+        <v>-0.9804326970227671</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04375661762836905</v>
+        <v>-7.073950824162226</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.4669488166398085</v>
+        <v>-5.278176203775806</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.284864533877765</v>
+        <v>-2.780809115404163</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04110857814861998</v>
+        <v>-9.283524236514543</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.1180895353843637</v>
+        <v>6.996967553975229</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.145249169598314</v>
+        <v>-4.343699934376135</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.4859242657447</v>
+        <v>3.261335838607121</v>
       </c>
     </row>
     <row r="9">
@@ -6128,88 +6128,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1110334344972172</v>
+        <v>-4.54245093138158</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1564543790497403</v>
+        <v>0.3242098181798423</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02613966446224855</v>
+        <v>-7.250535032258456</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4391937098929234</v>
+        <v>5.41331031699281</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4427779754672834</v>
+        <v>-3.366822171546313</v>
       </c>
       <c r="G9" t="n">
-        <v>0.122687717712325</v>
+        <v>-19.64128660389759</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1886437274567381</v>
+        <v>-11.55898656875775</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6203295210174191</v>
+        <v>-18.1983844145658</v>
       </c>
       <c r="J9" t="n">
-        <v>0.334460229675449</v>
+        <v>-0.9732398159460242</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3228694867150583</v>
+        <v>2.392624867956001</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6344424566121455</v>
+        <v>4.166684360277761</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7014503297175883</v>
+        <v>-2.770683826891283</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1934467167696083</v>
+        <v>-2.476738132859415</v>
       </c>
       <c r="O9" t="n">
-        <v>0.564205145235832</v>
+        <v>14.79271674991753</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.08719526691644003</v>
+        <v>-4.640554892845697</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.08604535433536453</v>
+        <v>-15.41166846683214</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2838815104417963</v>
+        <v>8.304569914502371</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07795156555037744</v>
+        <v>13.19727160217763</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3816208352813639</v>
+        <v>-4.943156279332582</v>
       </c>
       <c r="U9" t="n">
-        <v>0.515995515672649</v>
+        <v>5.034092110966342</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.05983571460316495</v>
+        <v>-1.653564383497376</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5134581164834648</v>
+        <v>-6.255358307968297</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01419229607924094</v>
+        <v>-3.604657928413255</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1980236231285058</v>
+        <v>-2.417613249766976</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5563589792972656</v>
+        <v>-8.858507871203413</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.352504992264369</v>
+        <v>5.27638916651898</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2678958716345023</v>
+        <v>-2.948478788567233</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1043988493395336</v>
+        <v>2.272359112190569</v>
       </c>
     </row>
     <row r="10">
@@ -6217,88 +6217,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5996793436635457</v>
+        <v>-5.984288353677029</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2891419375605705</v>
+        <v>0.6746744171490304</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3201424644618915</v>
+        <v>-6.915822903160914</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01557061886866767</v>
+        <v>4.680443976197579</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01002813236067607</v>
+        <v>-5.32434081635485</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2927159791117819</v>
+        <v>-19.80169709025773</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5484713019947418</v>
+        <v>-10.95062813289227</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2055176397149119</v>
+        <v>-18.04112123258374</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1647031203638809</v>
+        <v>-0.873333658265901</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1161050519764796</v>
+        <v>3.717996417009128</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2191009826542416</v>
+        <v>3.635724929544899</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2361620792566886</v>
+        <v>-3.671744376426905</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.2590458774541444</v>
+        <v>-2.727465255481724</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2267698152340435</v>
+        <v>15.69641745156428</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.5050465124533295</v>
+        <v>-5.06010102728916</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.4367551862371262</v>
+        <v>-13.53920459991313</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.2240893279738243</v>
+        <v>9.677363398627806</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.314635349645335</v>
+        <v>13.30782647175415</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01414709275652212</v>
+        <v>-6.492523475639684</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08861790828967256</v>
+        <v>3.819951784470014</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.5420056509810663</v>
+        <v>-3.845027670741215</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08810612675228183</v>
+        <v>-5.804393085365699</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.3848122521768975</v>
+        <v>-4.021780136486127</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.2128082438938722</v>
+        <v>-0.3379063156119522</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1609319538369468</v>
+        <v>-8.425294325104641</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.01242339923716591</v>
+        <v>7.152353944537809</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.1523267278933477</v>
+        <v>-4.157816535498578</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.4699906998382326</v>
+        <v>2.384137159998872</v>
       </c>
     </row>
     <row r="11">
@@ -6306,88 +6306,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5020449565420839</v>
+        <v>-6.31148671760614</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2540275483313988</v>
+        <v>1.865115668047745</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2967547786021929</v>
+        <v>-8.070150264189021</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06266344395784276</v>
+        <v>5.27163633390651</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1256158674671307</v>
+        <v>-5.482146509078367</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.255303689298195</v>
+        <v>-18.801077368374</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5775476374229475</v>
+        <v>-10.4446208585825</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2266294211687866</v>
+        <v>-17.94406344861446</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.1029936873875395</v>
+        <v>-3.311118670269883</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0406504795105567</v>
+        <v>3.938728444665538</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2664546496607573</v>
+        <v>6.189944208109207</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3290648947466674</v>
+        <v>-3.333502163236645</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.146629867367672</v>
+        <v>-1.795915044762848</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2668035976555486</v>
+        <v>12.52634593923802</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.4153920904123397</v>
+        <v>-7.168847459609415</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.3902288530963318</v>
+        <v>-15.42164389566746</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1429523583418193</v>
+        <v>9.628462521495981</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2698686730275287</v>
+        <v>13.63036960400906</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02697729327333668</v>
+        <v>-4.781739859108646</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1479136067747475</v>
+        <v>2.244447418170973</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.4299646102029075</v>
+        <v>-3.012557796491952</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1617953187804303</v>
+        <v>-6.651647355290734</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.3119877607240111</v>
+        <v>-6.01240455254523</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.1198229929489145</v>
+        <v>-1.53177838676663</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1282553026328688</v>
+        <v>-8.704799151139461</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.01218338242170405</v>
+        <v>6.793535683018163</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.1298352290624163</v>
+        <v>-2.322767219114831</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.3992218773843519</v>
+        <v>3.648907419401274</v>
       </c>
     </row>
   </sheetData>
@@ -6500,88 +6500,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4680943398444535</v>
+        <v>5.37565806782176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4850245164988911</v>
+        <v>0.7350713255337289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1163136827934491</v>
+        <v>-10.43445865875436</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01346743032864142</v>
+        <v>0.09650515693932871</v>
       </c>
       <c r="F2" t="n">
-        <v>0.275298958991457</v>
+        <v>-7.818890619163957</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6366583431931556</v>
+        <v>-3.861355673416988</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2245816282054186</v>
+        <v>-10.34892920349341</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2790247188255409</v>
+        <v>-10.81784707203374</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5738856922114364</v>
+        <v>-12.95515933886028</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2219658834170858</v>
+        <v>-9.599089230327712</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.208341017464528</v>
+        <v>-4.320904238428435</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3090235678870998</v>
+        <v>-17.71802856065857</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4603961426345222</v>
+        <v>-16.34776576999051</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1528714875077349</v>
+        <v>-5.902606567665295</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.08089724608329107</v>
+        <v>2.364548774600142</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.5345719320067093</v>
+        <v>-9.511275987655679</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1883855353723751</v>
+        <v>-14.51475789571031</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0790603261423039</v>
+        <v>-12.2784903226838</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2820234807088364</v>
+        <v>-6.879301608316617</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.255386277180229</v>
+        <v>-2.455840884326475</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.2539246245492171</v>
+        <v>-1.128820571617211</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4366992298340881</v>
+        <v>-19.66542184600518</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4796613134298272</v>
+        <v>-8.084544673869384</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.1246676489561925</v>
+        <v>-6.71063955916155</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07073914364897703</v>
+        <v>-24.68454414620791</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.05619844318700146</v>
+        <v>-25.35280809656412</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.2372889998122981</v>
+        <v>-37.30935838931678</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.3933138608006594</v>
+        <v>-55.07430067617766</v>
       </c>
     </row>
     <row r="3">
@@ -6589,88 +6589,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0134674611272188</v>
+        <v>7.946527733726769</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01250298798141142</v>
+        <v>0.1712136030378568</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4074774570472396</v>
+        <v>-9.538541814468452</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5722220203372789</v>
+        <v>-1.721127043927749</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2239160728691661</v>
+        <v>-9.102099073026446</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.061247350914964</v>
+        <v>-3.680417929993351</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2632953863616599</v>
+        <v>-9.903654442904866</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.167088126504217</v>
+        <v>-10.58730877779867</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03738879773038251</v>
+        <v>-12.55529467435087</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3457965671507774</v>
+        <v>-9.987809310759593</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.6824289407090101</v>
+        <v>-3.407637172341544</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1726069949687783</v>
+        <v>-19.03803767039484</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.02879945967541087</v>
+        <v>-16.0734630342569</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.3136058062476254</v>
+        <v>-6.447300774142308</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.5486120553471516</v>
+        <v>3.655366923023933</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1.052121427259386</v>
+        <v>-7.772199143662664</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.2916051011656894</v>
+        <v>-15.94904303736837</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.4445751741894287</v>
+        <v>-13.40146579452874</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2640861318568419</v>
+        <v>-5.769925778790926</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.7683842595018471</v>
+        <v>-3.952096016771533</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.7067749759728985</v>
+        <v>-2.619781642603657</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.110612566655355</v>
+        <v>-20.53237222376499</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.1038095003256295</v>
+        <v>-8.917114896233072</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.6018723569798446</v>
+        <v>-6.550518935166902</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.5123151964556227</v>
+        <v>-24.78149739679709</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.5821830450297453</v>
+        <v>-25.39144632374348</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.8301586783494237</v>
+        <v>-37.61752295369298</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.867315544404189</v>
+        <v>-55.04139856610701</v>
       </c>
     </row>
     <row r="4">
@@ -6678,88 +6678,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4714057763485751</v>
+        <v>4.514273830233464</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3497476709025439</v>
+        <v>-0.3758771024158958</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08749118791113154</v>
+        <v>-10.44985164044824</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1483581308331887</v>
+        <v>0.7005605016286092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1795967776506514</v>
+        <v>-8.115845940693468</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6903508065620632</v>
+        <v>-6.307459811777906</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1808501458269751</v>
+        <v>-10.36712663703932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1745535214110547</v>
+        <v>-10.75896585537563</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4247540120294293</v>
+        <v>-10.35366695854726</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1161242082743923</v>
+        <v>-11.24740250895039</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2084559771815269</v>
+        <v>-5.026220678544047</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2319508788695956</v>
+        <v>-16.97450627145467</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3896236438743171</v>
+        <v>-14.85255873961117</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09260237451723902</v>
+        <v>-7.357187692327159</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1196428364182913</v>
+        <v>3.464034958426822</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.6172763212996543</v>
+        <v>-7.451738080532938</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04954427328027657</v>
+        <v>-15.38866791124603</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.1096994053010911</v>
+        <v>-14.52850300508373</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1668414636487097</v>
+        <v>-4.525468726998317</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.3648224165036583</v>
+        <v>-4.356381963009176</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.3509746556435641</v>
+        <v>-0.6539390496491109</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3339634856939331</v>
+        <v>-20.7155385330568</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2724191678953571</v>
+        <v>-8.521804781519998</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.1939748987497602</v>
+        <v>-6.611871642121786</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.1196380468197873</v>
+        <v>-23.64996352124182</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.1183250596582293</v>
+        <v>-24.26736264137191</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.4246374094633203</v>
+        <v>-34.67755960630738</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.4566620098617821</v>
+        <v>-54.73889099793163</v>
       </c>
     </row>
     <row r="5">
@@ -6767,88 +6767,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236618581433939</v>
+        <v>6.661428620901066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205484176189019</v>
+        <v>-1.610352605004441</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06352475525155452</v>
+        <v>-11.65327964911681</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2734378086577502</v>
+        <v>-1.295852330143588</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04549857317658337</v>
+        <v>-11.12477904800634</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8142701479825695</v>
+        <v>-4.854066697037062</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03758765297430813</v>
+        <v>-11.66927144036349</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08304682628143072</v>
+        <v>-11.80237801560579</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2614791417982221</v>
+        <v>-11.97341123071498</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.03402835361983192</v>
+        <v>-11.28331319849464</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.4235601446880717</v>
+        <v>-2.723996386326694</v>
       </c>
       <c r="M5" t="n">
-        <v>0.112906181012196</v>
+        <v>-15.2565568843032</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2189192995447869</v>
+        <v>-16.26125279081209</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1140435212205909</v>
+        <v>-4.454577221364468</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2619815183635142</v>
+        <v>2.590278455716075</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.7768446214031994</v>
+        <v>-6.582859939351592</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.08250973641364726</v>
+        <v>-15.65682187283564</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.2392302388045598</v>
+        <v>-13.94438025546355</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.02497749841548133</v>
+        <v>-5.144064099462504</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.453045879772302</v>
+        <v>-1.051926687618707</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.4640578150348587</v>
+        <v>-1.212202643925249</v>
       </c>
       <c r="W5" t="n">
-        <v>0.174063088223242</v>
+        <v>-20.67504308806271</v>
       </c>
       <c r="X5" t="n">
-        <v>0.168528098372818</v>
+        <v>-8.612181701033133</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.3421792213886167</v>
+        <v>-6.462520780685976</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.2697393599969899</v>
+        <v>-24.78751596584179</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.3172398119640379</v>
+        <v>-25.37921156139338</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.4816383377479566</v>
+        <v>-35.79911785871477</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.7145742664729837</v>
+        <v>-54.888739315938</v>
       </c>
     </row>
     <row r="6">
@@ -6856,88 +6856,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4360481364251625</v>
+        <v>8.170291770902436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4115181583662313</v>
+        <v>-1.407289275893639</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1277132526432532</v>
+        <v>-10.45340213846012</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1151655500701216</v>
+        <v>-2.209522756803686</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2928203198290243</v>
+        <v>-8.546179903631515</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5838849641031665</v>
+        <v>-4.016879748591049</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2330225652179637</v>
+        <v>-11.77881320827353</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2411379896731712</v>
+        <v>-11.16005856584683</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4678396383167937</v>
+        <v>-12.42290496031288</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1755469397212805</v>
+        <v>-10.82982462023575</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1632687976174258</v>
+        <v>-3.8854249938553</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2934046409611036</v>
+        <v>-17.0634241678455</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4337865305521285</v>
+        <v>-15.925993792793</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1412674072826317</v>
+        <v>-6.807722435399713</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1089233233903343</v>
+        <v>5.14557383597629</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.5834585499067421</v>
+        <v>-9.458212320150221</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1421359301589671</v>
+        <v>-15.79898448318757</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00998992039395815</v>
+        <v>-14.33819811344064</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2115304183467237</v>
+        <v>-7.334902871995229</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.2079238217991718</v>
+        <v>-2.551951996776017</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2912147351782336</v>
+        <v>-0.9937366263790821</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4280944938660622</v>
+        <v>-19.59751232975768</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3484838930991563</v>
+        <v>-7.650697048097102</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.1347896864716221</v>
+        <v>-8.545758787039741</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.08906548479933968</v>
+        <v>-25.98025464950705</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.08199689671964963</v>
+        <v>-23.75128464809288</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.3392015381379568</v>
+        <v>-35.79236652780829</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4332463153113133</v>
+        <v>-55.20403111995233</v>
       </c>
     </row>
     <row r="7">
@@ -6945,88 +6945,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1924410867866778</v>
+        <v>4.268385319019206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09367645738407024</v>
+        <v>-0.110020742077507</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.121298293601981</v>
+        <v>-11.24856750829235</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.399118531696374</v>
+        <v>1.007568825207574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03396256691359648</v>
+        <v>-7.773774078897375</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8438300571543604</v>
+        <v>-6.178101607636358</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02922757794495648</v>
+        <v>-11.86760465989233</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02290881815878024</v>
+        <v>-12.24706486819166</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1979601845358597</v>
+        <v>-11.72104870586387</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1476814499041279</v>
+        <v>-8.412078939292915</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4281928566315733</v>
+        <v>-5.6439007252207</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009300136937788639</v>
+        <v>-16.88914262624547</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2145500715663415</v>
+        <v>-16.65540617980534</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1383707859946237</v>
+        <v>-7.141158084016625</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.3231265330462631</v>
+        <v>3.406221748678142</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.825389602934768</v>
+        <v>-10.7523631709587</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.09239835765746106</v>
+        <v>-14.32484865889428</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.2834926858149435</v>
+        <v>-15.64302379193705</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.04399825268015561</v>
+        <v>-6.703678932874506</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.5603512442495833</v>
+        <v>-5.730592325772363</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.5295084252664539</v>
+        <v>-0.8883376991645981</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07553003068582903</v>
+        <v>-20.77947815914596</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09986464047245558</v>
+        <v>-8.253290507883353</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.4254762911778319</v>
+        <v>-6.756116566837028</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.3512495826064684</v>
+        <v>-25.23225541285971</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.3691980715772163</v>
+        <v>-24.32358633349752</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.6429346949980959</v>
+        <v>-36.49883373255174</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.6884571424297926</v>
+        <v>-54.7449147123307</v>
       </c>
     </row>
     <row r="8">
@@ -7034,88 +7034,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1952605185265606</v>
+        <v>7.34997250738412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09221285442041866</v>
+        <v>0.1183929630710425</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1491448790856437</v>
+        <v>-11.2207458187964</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4468037133041603</v>
+        <v>0.3436169312768902</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.025414510418514</v>
+        <v>-10.33570525285944</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8885026280128401</v>
+        <v>-2.494339625035775</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.113433167630387</v>
+        <v>-12.56539679252175</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01702886867502668</v>
+        <v>-8.745230579961001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1847033301695505</v>
+        <v>-13.53503225181688</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.146801650396525</v>
+        <v>-9.793104220617067</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.4746148420424819</v>
+        <v>-5.090671240997401</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03026065558679497</v>
+        <v>-18.72617638930802</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1562893251874237</v>
+        <v>-13.93418458895026</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.1807599280052938</v>
+        <v>-3.974657708979389</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2886811713123283</v>
+        <v>1.460077357848947</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.8853360960492636</v>
+        <v>-10.0731120295939</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1611295963102488</v>
+        <v>-15.87708594053273</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.2929780205647076</v>
+        <v>-14.0371623592044</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0884171062594043</v>
+        <v>-6.055704695015065</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.5801389959068917</v>
+        <v>-4.058510913594247</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.5470504857679483</v>
+        <v>-2.485171180075598</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05550106232863194</v>
+        <v>-20.02799677940899</v>
       </c>
       <c r="X8" t="n">
-        <v>0.06780074033703337</v>
+        <v>-8.234460508107377</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.4954854564079162</v>
+        <v>-6.122102071416764</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.3872236981965387</v>
+        <v>-25.40391042572452</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.3749770897731282</v>
+        <v>-25.86948293935456</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.596131652977421</v>
+        <v>-38.58746683663448</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.7170041270280667</v>
+        <v>-55.56841111743719</v>
       </c>
     </row>
     <row r="9">
@@ -7123,88 +7123,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5598670033781525</v>
+        <v>5.436159893454525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5722475713526135</v>
+        <v>-1.372267735731302</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2671614892908673</v>
+        <v>-10.28646581547588</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03366512896456333</v>
+        <v>0.8706790071007724</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4010992327441161</v>
+        <v>-7.923375834428944</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4935408909114213</v>
+        <v>-4.641714985099686</v>
       </c>
       <c r="H9" t="n">
-        <v>0.386027631147139</v>
+        <v>-11.65010773707462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4005066931198707</v>
+        <v>-10.1566010572303</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6465707668788333</v>
+        <v>-11.5624596670365</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3147481755086024</v>
+        <v>-9.324000602927764</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.04441257707366111</v>
+        <v>-1.962667778616875</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4356926409758558</v>
+        <v>-16.57681419271849</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5957778175137529</v>
+        <v>-15.53959547683633</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2584569694102333</v>
+        <v>-6.285579563551631</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1427103656443612</v>
+        <v>5.71882506639882</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.4206199509201837</v>
+        <v>-6.840007984897214</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2964927364586498</v>
+        <v>-16.1117342862124</v>
       </c>
       <c r="S9" t="n">
-        <v>0.181586541031129</v>
+        <v>-14.41568052684176</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3111919679968544</v>
+        <v>-6.259107116467862</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.2118601054259425</v>
+        <v>-2.198378204736898</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.1619402037499131</v>
+        <v>1.390908221623329</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4730605385641632</v>
+        <v>-19.40768050443219</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5160383043188398</v>
+        <v>-7.477086134783288</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02288430526226568</v>
+        <v>-5.111802271105361</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.08355569282232118</v>
+        <v>-23.62005021868665</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0674114832237739</v>
+        <v>-24.21208847724114</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.1451467108486257</v>
+        <v>-35.60375265584546</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3064259988642781</v>
+        <v>-53.06588517095044</v>
       </c>
     </row>
     <row r="10">
@@ -7212,88 +7212,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2079801528602054</v>
+        <v>8.124118494657596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1412471464878827</v>
+        <v>-0.9485565331992754</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1480193189033936</v>
+        <v>-11.88084184393433</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3318680327540821</v>
+        <v>-1.415183898669288</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02016414282068915</v>
+        <v>-10.34367507942776</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8902344823894719</v>
+        <v>-5.666794929871098</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004767952830606742</v>
+        <v>-12.05075514262715</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02439917782727138</v>
+        <v>-10.7232135516048</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2114182075545165</v>
+        <v>-11.08250511469782</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.08724168562319497</v>
+        <v>-10.17666589206255</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.4539154085119282</v>
+        <v>-3.121770755886066</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04243447367210945</v>
+        <v>-16.62063217990331</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1561332744451538</v>
+        <v>-15.66205500533175</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.1874680022052876</v>
+        <v>-7.103161398092011</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.306994403463364</v>
+        <v>1.960864516689037</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.8726667521983711</v>
+        <v>-8.656015124508302</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1619671398658665</v>
+        <v>-16.06514618842756</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.1851988416971116</v>
+        <v>-15.77380442095003</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.05346232872414733</v>
+        <v>-5.144009281865596</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.5170609759641329</v>
+        <v>-1.817878619487168</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.5074841657147344</v>
+        <v>-2.323674440398007</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09563676209007121</v>
+        <v>-19.96049226040531</v>
       </c>
       <c r="X10" t="n">
-        <v>0.065360636696221</v>
+        <v>-7.205240833289187</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.3779093774419273</v>
+        <v>-6.019012994885971</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.3597543383099206</v>
+        <v>-25.95549656149975</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.3119233593416644</v>
+        <v>-23.1577370862748</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.5944950281233239</v>
+        <v>-37.63713296014127</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.6895020767383596</v>
+        <v>-54.06334844735113</v>
       </c>
     </row>
     <row r="11">
@@ -7301,88 +7301,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2607180498389092</v>
+        <v>5.930103678904415</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182566832815968</v>
+        <v>0.563525033767696</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09319083548035911</v>
+        <v>-11.27146809807378</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3083121965953842</v>
+        <v>-1.107853623346703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01106984789740929</v>
+        <v>-10.81296805005989</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.8766122394094847</v>
+        <v>-5.527954923251915</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0081153478242392</v>
+        <v>-11.55540667888266</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05674620599046161</v>
+        <v>-10.13671159960714</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3188802796944386</v>
+        <v>-11.40353015045572</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1012454935362515</v>
+        <v>-9.934250021616871</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.4479709928290013</v>
+        <v>-4.483085435934592</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02802743316508156</v>
+        <v>-16.45244193363805</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3438167412996846</v>
+        <v>-13.945372928126</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.06698946787843431</v>
+        <v>-6.627622698229329</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.2861378137182232</v>
+        <v>3.217459659673032</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.7836679349935756</v>
+        <v>-8.90373104362318</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.04475243395432074</v>
+        <v>-15.22124411349419</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.17330786209159</v>
+        <v>-14.50410701045995</v>
       </c>
       <c r="T11" t="n">
-        <v>0.006924925581609565</v>
+        <v>-2.694020959011497</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.5219909192975285</v>
+        <v>-2.380821764929363</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.4328942008339204</v>
+        <v>-1.908472290060114</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1776418981232693</v>
+        <v>-20.5964471770917</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1703992478239616</v>
+        <v>-7.940251415718479</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.3343686404457669</v>
+        <v>-9.549744182534367</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.2913943500542591</v>
+        <v>-26.14213333393564</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.2566791441228844</v>
+        <v>-24.44870957375236</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.5734198421642527</v>
+        <v>-37.018124944714</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.6392781642580218</v>
+        <v>-54.42064992944522</v>
       </c>
     </row>
   </sheetData>

--- a/Data/full_fixed_params.xlsx
+++ b/Data/full_fixed_params.xlsx
@@ -530,88 +530,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.499283696245891</v>
+        <v>-1.203574508329609</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.581518187519819</v>
+        <v>-0.7282370749443776</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.877130707824293</v>
+        <v>6.316927593063177</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.791989089026548</v>
+        <v>-4.986678840656482</v>
       </c>
       <c r="F2" t="n">
-        <v>5.407547551055273</v>
+        <v>-2.508168400232987</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.327020871257353</v>
+        <v>-2.50657474743843</v>
       </c>
       <c r="H2" t="n">
-        <v>3.996658315711777</v>
+        <v>-1.940643557841092</v>
       </c>
       <c r="I2" t="n">
-        <v>-14.49737049610626</v>
+        <v>-5.216718969909152</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.416812752421023</v>
+        <v>-1.395768883447792</v>
       </c>
       <c r="K2" t="n">
-        <v>-11.40784580922</v>
+        <v>-0.4391142684953719</v>
       </c>
       <c r="L2" t="n">
-        <v>8.278204282573549</v>
+        <v>-1.370057711073394</v>
       </c>
       <c r="M2" t="n">
-        <v>-14.53851449196083</v>
+        <v>-5.690607887815877</v>
       </c>
       <c r="N2" t="n">
-        <v>1.049934562403949</v>
+        <v>-2.774550317363573</v>
       </c>
       <c r="O2" t="n">
-        <v>-8.081933675020679</v>
+        <v>0.7364559527739978</v>
       </c>
       <c r="P2" t="n">
-        <v>-3.978177745431968</v>
+        <v>-0.05976288848233136</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.511808963487625</v>
+        <v>-2.770135210929859</v>
       </c>
       <c r="R2" t="n">
-        <v>-8.127830724838567</v>
+        <v>-3.345095921708475</v>
       </c>
       <c r="S2" t="n">
-        <v>1.131546771250516</v>
+        <v>-3.017187521121259</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.9712927104897027</v>
+        <v>-3.317603933221377</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04705363227422943</v>
+        <v>-4.137346822875235</v>
       </c>
       <c r="V2" t="n">
-        <v>-13.24896899575242</v>
+        <v>-0.6134048577158882</v>
       </c>
       <c r="W2" t="n">
-        <v>3.569842284690164</v>
+        <v>-4.936749758229967</v>
       </c>
       <c r="X2" t="n">
-        <v>6.441620580196163</v>
+        <v>-2.786985966880053</v>
       </c>
       <c r="Y2" t="n">
-        <v>-28.52718773706647</v>
+        <v>-7.808292164197156</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.955964163532448</v>
+        <v>-1.565241744657134</v>
       </c>
       <c r="AA2" t="n">
-        <v>-12.19948567342178</v>
+        <v>-3.971562447721911</v>
       </c>
       <c r="AB2" t="n">
-        <v>-12.75930707869428</v>
+        <v>-10.71730342615358</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.265327169348232</v>
+        <v>-11.02078198799143</v>
       </c>
     </row>
     <row r="3">
@@ -619,88 +619,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.573093250902121</v>
+        <v>-5.378119798592333</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.219281873012715</v>
+        <v>-7.331713809904926</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.414596487299942</v>
+        <v>-1.73290036512706</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.63020806036095</v>
+        <v>-10.55905294562779</v>
       </c>
       <c r="F3" t="n">
-        <v>5.151051701285849</v>
+        <v>-8.802411640268014</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.703181286833682</v>
+        <v>-7.772488540717561</v>
       </c>
       <c r="H3" t="n">
-        <v>3.188280851631191</v>
+        <v>-7.473774161585348</v>
       </c>
       <c r="I3" t="n">
-        <v>-15.50481027989283</v>
+        <v>-10.23481954708488</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.535145869603798</v>
+        <v>-5.763931721612959</v>
       </c>
       <c r="K3" t="n">
-        <v>-13.19398427757279</v>
+        <v>-6.213733968963379</v>
       </c>
       <c r="L3" t="n">
-        <v>6.64850465524002</v>
+        <v>-4.25387419070594</v>
       </c>
       <c r="M3" t="n">
-        <v>-13.447939627015</v>
+        <v>-10.00406556071098</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.102484528256221</v>
+        <v>-8.062160312716436</v>
       </c>
       <c r="O3" t="n">
-        <v>-12.30686112004851</v>
+        <v>-4.725879803160706</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.653021484569557</v>
+        <v>-2.045913443100573</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.842740823002843</v>
+        <v>-7.200998787978777</v>
       </c>
       <c r="R3" t="n">
-        <v>-5.067732652542933</v>
+        <v>-9.9298621618721</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.995499488179858</v>
+        <v>-9.921236979313475</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.7404800716979283</v>
+        <v>-7.238015312564539</v>
       </c>
       <c r="U3" t="n">
-        <v>-2.74970473969563</v>
+        <v>-10.26110125243494</v>
       </c>
       <c r="V3" t="n">
-        <v>-13.19447480368239</v>
+        <v>-6.456291711897048</v>
       </c>
       <c r="W3" t="n">
-        <v>5.799848413856376</v>
+        <v>-10.31222740072731</v>
       </c>
       <c r="X3" t="n">
-        <v>8.173124367376431</v>
+        <v>-10.57211034134047</v>
       </c>
       <c r="Y3" t="n">
-        <v>-30.41397197999811</v>
+        <v>-11.86743617831381</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.315156689665018</v>
+        <v>-6.477222290667205</v>
       </c>
       <c r="AA3" t="n">
-        <v>-14.33271778241913</v>
+        <v>-8.902595027088998</v>
       </c>
       <c r="AB3" t="n">
-        <v>-10.7352160186912</v>
+        <v>-15.451860633603</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.4251773166527695</v>
+        <v>-15.89073635842134</v>
       </c>
     </row>
     <row r="4">
@@ -708,88 +708,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.514416471359347</v>
+        <v>-1.707690759917384</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.58311562028728</v>
+        <v>-1.94883230893548</v>
       </c>
       <c r="D4" t="n">
-        <v>-10.85335323948121</v>
+        <v>3.508077749662772</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.829020614448927</v>
+        <v>-6.072403838215452</v>
       </c>
       <c r="F4" t="n">
-        <v>6.017067320943054</v>
+        <v>-5.500136479113992</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.324867668073631</v>
+        <v>-3.722141584557294</v>
       </c>
       <c r="H4" t="n">
-        <v>2.616728381667987</v>
+        <v>-3.142115838159708</v>
       </c>
       <c r="I4" t="n">
-        <v>-15.16745827247752</v>
+        <v>-3.33694468305475</v>
       </c>
       <c r="J4" t="n">
-        <v>-5.544665134339286</v>
+        <v>-1.349226394114288</v>
       </c>
       <c r="K4" t="n">
-        <v>-13.40615717130718</v>
+        <v>-1.381550651794676</v>
       </c>
       <c r="L4" t="n">
-        <v>7.534777442666272</v>
+        <v>0.1535138704153338</v>
       </c>
       <c r="M4" t="n">
-        <v>-13.11082422650206</v>
+        <v>-6.936809050803337</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.512669752275275</v>
+        <v>-3.392853851931648</v>
       </c>
       <c r="O4" t="n">
-        <v>-10.22353379945813</v>
+        <v>-0.8041125488842042</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.671320489137426</v>
+        <v>-0.2873824983037614</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.170451166743288</v>
+        <v>-2.854445508348602</v>
       </c>
       <c r="R4" t="n">
-        <v>-8.736265255205662</v>
+        <v>-5.304472328393093</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.492110326567988</v>
+        <v>-4.379558509853381</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.07096904772412849</v>
+        <v>-4.275075148729228</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07495143337542576</v>
+        <v>-4.460931040394131</v>
       </c>
       <c r="V4" t="n">
-        <v>-12.99069639275406</v>
+        <v>-2.947565815861333</v>
       </c>
       <c r="W4" t="n">
-        <v>5.560551841798675</v>
+        <v>-7.370448425900102</v>
       </c>
       <c r="X4" t="n">
-        <v>6.894600545084708</v>
+        <v>-6.329499456046724</v>
       </c>
       <c r="Y4" t="n">
-        <v>-28.92599976527073</v>
+        <v>-7.880400862098497</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.285337277849067</v>
+        <v>-4.43767102623797</v>
       </c>
       <c r="AA4" t="n">
-        <v>-13.86447602131155</v>
+        <v>-6.606810814821594</v>
       </c>
       <c r="AB4" t="n">
-        <v>-14.1062903462553</v>
+        <v>-12.5704713991471</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.8515726841297813</v>
+        <v>-14.35359253095266</v>
       </c>
     </row>
     <row r="5">
@@ -797,88 +797,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.491908800540324</v>
+        <v>-4.223874618763086</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.700849043252678</v>
+        <v>-2.655314610887465</v>
       </c>
       <c r="D5" t="n">
-        <v>-10.39515099261832</v>
+        <v>1.405385629309915</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.824319372249077</v>
+        <v>-8.066260768689602</v>
       </c>
       <c r="F5" t="n">
-        <v>5.509168531822607</v>
+        <v>-5.69427327272677</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.64374770742995</v>
+        <v>-3.91507921616936</v>
       </c>
       <c r="H5" t="n">
-        <v>3.48280865456012</v>
+        <v>-2.633502611023643</v>
       </c>
       <c r="I5" t="n">
-        <v>-13.45378266191168</v>
+        <v>-5.985712645880444</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.143824880946768</v>
+        <v>-3.148280850412351</v>
       </c>
       <c r="K5" t="n">
-        <v>-14.27468436011807</v>
+        <v>-3.612625240578364</v>
       </c>
       <c r="L5" t="n">
-        <v>7.736781239432641</v>
+        <v>-2.884773860886519</v>
       </c>
       <c r="M5" t="n">
-        <v>-15.07211679038085</v>
+        <v>-9.706105119126125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4097017778777476</v>
+        <v>-3.980019076526128</v>
       </c>
       <c r="O5" t="n">
-        <v>-9.035134093692527</v>
+        <v>-1.572815167392609</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.402560742692059</v>
+        <v>-0.2028998173502465</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.736102852774287</v>
+        <v>-5.187477696930796</v>
       </c>
       <c r="R5" t="n">
-        <v>-7.091569235526622</v>
+        <v>-4.718537358673691</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.24183143765085</v>
+        <v>-7.087489475527223</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.488018349293668</v>
+        <v>-5.751757478303164</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.209998197803809</v>
+        <v>-6.044973057769762</v>
       </c>
       <c r="V5" t="n">
-        <v>-12.80651197746106</v>
+        <v>-3.502513344891963</v>
       </c>
       <c r="W5" t="n">
-        <v>5.841014822982633</v>
+        <v>-6.909316988822887</v>
       </c>
       <c r="X5" t="n">
-        <v>8.111738848381973</v>
+        <v>-5.112046748915835</v>
       </c>
       <c r="Y5" t="n">
-        <v>-28.22540809061913</v>
+        <v>-11.63676068907122</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.696239203854335</v>
+        <v>-3.350133884893354</v>
       </c>
       <c r="AA5" t="n">
-        <v>-12.263071682538</v>
+        <v>-6.435144753387881</v>
       </c>
       <c r="AB5" t="n">
-        <v>-11.97622723477007</v>
+        <v>-14.57295081194099</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.836505395562289</v>
+        <v>-14.03989537523524</v>
       </c>
     </row>
     <row r="6">
@@ -886,88 +886,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.118851507706415</v>
+        <v>-2.411540933591731</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.455893016452518</v>
+        <v>0.9871225302276985</v>
       </c>
       <c r="D6" t="n">
-        <v>-12.05559755708966</v>
+        <v>7.456965064734643</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.944747683255228</v>
+        <v>-6.576325633064746</v>
       </c>
       <c r="F6" t="n">
-        <v>5.134056026815745</v>
+        <v>-3.683952742589454</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.438726944059228</v>
+        <v>-1.60109028116333</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2060036994496</v>
+        <v>-1.130990112851808</v>
       </c>
       <c r="I6" t="n">
-        <v>-14.47808952562418</v>
+        <v>-4.842958042789299</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.81792969274308</v>
+        <v>-1.874023458427632</v>
       </c>
       <c r="K6" t="n">
-        <v>-10.95962889758081</v>
+        <v>-1.654723649674205</v>
       </c>
       <c r="L6" t="n">
-        <v>7.064623419771839</v>
+        <v>0.0785505094173522</v>
       </c>
       <c r="M6" t="n">
-        <v>-14.70870593261188</v>
+        <v>-6.318592321908129</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.5488886214835853</v>
+        <v>-1.7461040618569</v>
       </c>
       <c r="O6" t="n">
-        <v>-9.814260062414915</v>
+        <v>-0.725615419139936</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.527354832487117</v>
+        <v>0.9963120704810309</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.474978473364565</v>
+        <v>-3.604710154811475</v>
       </c>
       <c r="R6" t="n">
-        <v>-6.35091604708898</v>
+        <v>-4.44834545833303</v>
       </c>
       <c r="S6" t="n">
-        <v>-1.57755435166229</v>
+        <v>-4.323939854428664</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.3732324695134599</v>
+        <v>-4.901021981701778</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.239905318019721</v>
+        <v>-4.845019709601101</v>
       </c>
       <c r="V6" t="n">
-        <v>-13.33891093004765</v>
+        <v>-0.8334798214290258</v>
       </c>
       <c r="W6" t="n">
-        <v>6.435282073445962</v>
+        <v>-5.676629079259209</v>
       </c>
       <c r="X6" t="n">
-        <v>6.161504317177001</v>
+        <v>-4.2452835305061</v>
       </c>
       <c r="Y6" t="n">
-        <v>-27.68296521243549</v>
+        <v>-7.127109511498397</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.212120978928945</v>
+        <v>-3.535115815096951</v>
       </c>
       <c r="AA6" t="n">
-        <v>-12.37503220718933</v>
+        <v>-6.665966441211656</v>
       </c>
       <c r="AB6" t="n">
-        <v>-11.96029673854068</v>
+        <v>-9.725227098848388</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.7219039484446181</v>
+        <v>-13.12587581417012</v>
       </c>
     </row>
     <row r="7">
@@ -975,88 +975,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5549365288617132</v>
+        <v>-2.399073555575757</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.266520833126489</v>
+        <v>-3.913612211457148</v>
       </c>
       <c r="D7" t="n">
-        <v>-12.54463950574364</v>
+        <v>1.773129811873511</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.876649517381786</v>
+        <v>-9.360924868205935</v>
       </c>
       <c r="F7" t="n">
-        <v>5.033350495862244</v>
+        <v>-7.838541181754964</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.22824508058372</v>
+        <v>-7.053750862808537</v>
       </c>
       <c r="H7" t="n">
-        <v>2.956650706381335</v>
+        <v>-5.992316880805368</v>
       </c>
       <c r="I7" t="n">
-        <v>-14.65323838832587</v>
+        <v>-7.224177399251134</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.0950438648572</v>
+        <v>-3.324864967015445</v>
       </c>
       <c r="K7" t="n">
-        <v>-12.91019837141433</v>
+        <v>-5.445151725475872</v>
       </c>
       <c r="L7" t="n">
-        <v>7.750815178120281</v>
+        <v>-2.471798781959363</v>
       </c>
       <c r="M7" t="n">
-        <v>-14.37592065927657</v>
+        <v>-7.969625460596193</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.425202945482402</v>
+        <v>-4.084625103473997</v>
       </c>
       <c r="O7" t="n">
-        <v>-10.34853265210177</v>
+        <v>-0.002199275325243555</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.683709323683996</v>
+        <v>1.023974581999145</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.723394924555395</v>
+        <v>-6.505545534286352</v>
       </c>
       <c r="R7" t="n">
-        <v>-8.060320283473869</v>
+        <v>-7.547435847130409</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.4139318768210511</v>
+        <v>-8.966093599655004</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.549064037459886</v>
+        <v>-7.708420043198743</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.6317728204090018</v>
+        <v>-6.927984411470445</v>
       </c>
       <c r="V7" t="n">
-        <v>-14.74559084667549</v>
+        <v>-4.322872773987725</v>
       </c>
       <c r="W7" t="n">
-        <v>6.101438165750872</v>
+        <v>-7.170316029197105</v>
       </c>
       <c r="X7" t="n">
-        <v>7.013393045305103</v>
+        <v>-7.352601712541929</v>
       </c>
       <c r="Y7" t="n">
-        <v>-29.03550388259495</v>
+        <v>-8.846468979797592</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.960188144613196</v>
+        <v>-4.99378923783546</v>
       </c>
       <c r="AA7" t="n">
-        <v>-12.65552039393787</v>
+        <v>-10.01461586154371</v>
       </c>
       <c r="AB7" t="n">
-        <v>-12.96064755816277</v>
+        <v>-14.76519154107139</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.5659462394726873</v>
+        <v>-12.95715474355447</v>
       </c>
     </row>
     <row r="8">
@@ -1064,88 +1064,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.485548086098219</v>
+        <v>-4.370319550566346</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.742977449546782</v>
+        <v>-2.923165082211272</v>
       </c>
       <c r="D8" t="n">
-        <v>-12.51884099612406</v>
+        <v>0.08702469674317737</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.356485896454501</v>
+        <v>-8.577186944092128</v>
       </c>
       <c r="F8" t="n">
-        <v>6.412850397218397</v>
+        <v>-8.71142743822997</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01954780416552726</v>
+        <v>-7.67518821497052</v>
       </c>
       <c r="H8" t="n">
-        <v>3.47802110262269</v>
+        <v>-7.014853364879413</v>
       </c>
       <c r="I8" t="n">
-        <v>-13.41538095888094</v>
+        <v>-8.225677095854365</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.495491768856009</v>
+        <v>-2.613243326865857</v>
       </c>
       <c r="K8" t="n">
-        <v>-12.75713451085006</v>
+        <v>-2.642221434246652</v>
       </c>
       <c r="L8" t="n">
-        <v>8.636077781740306</v>
+        <v>-2.100602791165267</v>
       </c>
       <c r="M8" t="n">
-        <v>-13.48079209445147</v>
+        <v>-9.045279221768578</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.30267352043762</v>
+        <v>-4.82962220386822</v>
       </c>
       <c r="O8" t="n">
-        <v>-10.95550099486504</v>
+        <v>-1.859312205773064</v>
       </c>
       <c r="P8" t="n">
-        <v>-3.440252056898025</v>
+        <v>-2.188684536802986</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.400907238793135</v>
+        <v>-5.936042513534177</v>
       </c>
       <c r="R8" t="n">
-        <v>-8.842465360197039</v>
+        <v>-6.811943116026499</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.6339943145450064</v>
+        <v>-7.08797833244029</v>
       </c>
       <c r="T8" t="n">
-        <v>-1.819049228696433</v>
+        <v>-6.386294927778051</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.4123918971214326</v>
+        <v>-7.706128948121526</v>
       </c>
       <c r="V8" t="n">
-        <v>-12.06845165305406</v>
+        <v>-5.497737247971557</v>
       </c>
       <c r="W8" t="n">
-        <v>4.656130355912819</v>
+        <v>-8.866849852982348</v>
       </c>
       <c r="X8" t="n">
-        <v>7.639509438122709</v>
+        <v>-8.694024188700766</v>
       </c>
       <c r="Y8" t="n">
-        <v>-29.24858587897937</v>
+        <v>-9.783684331969885</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.873549243603807</v>
+        <v>-4.94527271924613</v>
       </c>
       <c r="AA8" t="n">
-        <v>-12.71708966085951</v>
+        <v>-11.05850327411508</v>
       </c>
       <c r="AB8" t="n">
-        <v>-12.73265291404111</v>
+        <v>-14.60225173099222</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.4694646271844221</v>
+        <v>-14.3303044331947</v>
       </c>
     </row>
     <row r="9">
@@ -1153,88 +1153,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.755246080506436</v>
+        <v>0.9830617917465022</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.978551447896509</v>
+        <v>-1.636564365665122</v>
       </c>
       <c r="D9" t="n">
-        <v>-11.55190600461317</v>
+        <v>8.351596462263231</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.372954569056587</v>
+        <v>-4.538382234472194</v>
       </c>
       <c r="F9" t="n">
-        <v>5.77710067021845</v>
+        <v>-2.58570628264267</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.58968549942301</v>
+        <v>-2.37695732269136</v>
       </c>
       <c r="H9" t="n">
-        <v>4.378772857653122</v>
+        <v>1.035099247080502</v>
       </c>
       <c r="I9" t="n">
-        <v>-14.35876241165603</v>
+        <v>-2.283556306113362</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.402395636967086</v>
+        <v>-0.8238127766862582</v>
       </c>
       <c r="K9" t="n">
-        <v>-12.69806521446536</v>
+        <v>-0.6528646767135173</v>
       </c>
       <c r="L9" t="n">
-        <v>9.182784566184289</v>
+        <v>0.4078310371040859</v>
       </c>
       <c r="M9" t="n">
-        <v>-15.04492297520219</v>
+        <v>-3.013999723620413</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.77347316814997</v>
+        <v>0.8548656066487741</v>
       </c>
       <c r="O9" t="n">
-        <v>-10.5695864297625</v>
+        <v>0.8552594660362276</v>
       </c>
       <c r="P9" t="n">
-        <v>-3.93051725844512</v>
+        <v>3.86464344997878</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.527783605836009</v>
+        <v>-0.5464088346445291</v>
       </c>
       <c r="R9" t="n">
-        <v>-6.964860451702519</v>
+        <v>-2.96063226711272</v>
       </c>
       <c r="S9" t="n">
-        <v>0.130628275909169</v>
+        <v>-1.363159422546989</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.5824150477126731</v>
+        <v>-3.592381918989871</v>
       </c>
       <c r="U9" t="n">
-        <v>1.452694797075084</v>
+        <v>-3.333201989449655</v>
       </c>
       <c r="V9" t="n">
-        <v>-13.94942116728793</v>
+        <v>1.373465111319866</v>
       </c>
       <c r="W9" t="n">
-        <v>7.353357406546086</v>
+        <v>-4.824400236207666</v>
       </c>
       <c r="X9" t="n">
-        <v>6.851370680280436</v>
+        <v>-3.381329828293834</v>
       </c>
       <c r="Y9" t="n">
-        <v>-28.925538676397</v>
+        <v>-5.154026174132821</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.720608592355267</v>
+        <v>0.8194229812400788</v>
       </c>
       <c r="AA9" t="n">
-        <v>-11.8312751429688</v>
+        <v>-4.997608860658941</v>
       </c>
       <c r="AB9" t="n">
-        <v>-14.31732460173725</v>
+        <v>-8.997670421277348</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.647518748387219</v>
+        <v>-9.063314522599761</v>
       </c>
     </row>
     <row r="10">
@@ -1242,88 +1242,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8238183926427001</v>
+        <v>-2.703115837274281</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.753020337221599</v>
+        <v>-4.487656388624757</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.86090081661424</v>
+        <v>2.033363994846096</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.188396374194133</v>
+        <v>-8.914931805939617</v>
       </c>
       <c r="F10" t="n">
-        <v>5.835608976424853</v>
+        <v>-5.464434283698937</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.376693305679363</v>
+        <v>-5.448022157700818</v>
       </c>
       <c r="H10" t="n">
-        <v>2.638115889826936</v>
+        <v>-4.442555400341758</v>
       </c>
       <c r="I10" t="n">
-        <v>-14.35203577473119</v>
+        <v>-6.029693681717388</v>
       </c>
       <c r="J10" t="n">
-        <v>-6.964206350287409</v>
+        <v>-4.356289877064081</v>
       </c>
       <c r="K10" t="n">
-        <v>-15.03359750840927</v>
+        <v>-4.355091902146354</v>
       </c>
       <c r="L10" t="n">
-        <v>8.637434352030475</v>
+        <v>-3.382746171920937</v>
       </c>
       <c r="M10" t="n">
-        <v>-13.4224317400625</v>
+        <v>-7.642426676822061</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.7787359884450811</v>
+        <v>-3.911734618015893</v>
       </c>
       <c r="O10" t="n">
-        <v>-11.27378006151973</v>
+        <v>-1.927195893230367</v>
       </c>
       <c r="P10" t="n">
-        <v>-4.774619239638163</v>
+        <v>-3.363856507268016</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.02212796752292</v>
+        <v>-4.912062770445218</v>
       </c>
       <c r="R10" t="n">
-        <v>-7.563891302426686</v>
+        <v>-7.660745688784208</v>
       </c>
       <c r="S10" t="n">
-        <v>-1.267713199149974</v>
+        <v>-5.335471441201454</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.198339765351955</v>
+        <v>-6.108020879106491</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.6271240402559304</v>
+        <v>-8.431266913673845</v>
       </c>
       <c r="V10" t="n">
-        <v>-15.6427505579295</v>
+        <v>-5.00004717783763</v>
       </c>
       <c r="W10" t="n">
-        <v>6.527974772487789</v>
+        <v>-8.726752966533409</v>
       </c>
       <c r="X10" t="n">
-        <v>5.962137094829809</v>
+        <v>-5.842243371804387</v>
       </c>
       <c r="Y10" t="n">
-        <v>-29.57453085968796</v>
+        <v>-9.731437488963895</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.244603505598541</v>
+        <v>-0.9658393395500262</v>
       </c>
       <c r="AA10" t="n">
-        <v>-13.26291104498005</v>
+        <v>-8.11420698566466</v>
       </c>
       <c r="AB10" t="n">
-        <v>-14.20236610367412</v>
+        <v>-13.05532699646185</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.3411063752337391</v>
+        <v>-13.81288936697592</v>
       </c>
     </row>
     <row r="11">
@@ -1331,88 +1331,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.898711526574541</v>
+        <v>-4.390338420829168</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.065403712745606</v>
+        <v>-1.812929159233643</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.41834812055567</v>
+        <v>2.492069043888242</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.969933540297429</v>
+        <v>-7.413419071013799</v>
       </c>
       <c r="F11" t="n">
-        <v>5.856264841676203</v>
+        <v>-4.687382068787255</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.702019171510805</v>
+        <v>-2.840626876723212</v>
       </c>
       <c r="H11" t="n">
-        <v>3.167863408720137</v>
+        <v>-4.663833614989152</v>
       </c>
       <c r="I11" t="n">
-        <v>-13.86316796289639</v>
+        <v>-6.63337575556532</v>
       </c>
       <c r="J11" t="n">
-        <v>-4.834655726274329</v>
+        <v>-3.154579329639241</v>
       </c>
       <c r="K11" t="n">
-        <v>-12.65116879834247</v>
+        <v>-4.009536997646481</v>
       </c>
       <c r="L11" t="n">
-        <v>6.455274328349571</v>
+        <v>-3.492448271865516</v>
       </c>
       <c r="M11" t="n">
-        <v>-13.12059994016477</v>
+        <v>-8.239003297509214</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.7628537801536095</v>
+        <v>-2.114198185380737</v>
       </c>
       <c r="O11" t="n">
-        <v>-10.6454432174807</v>
+        <v>-0.1629745770131708</v>
       </c>
       <c r="P11" t="n">
-        <v>-5.659067903721421</v>
+        <v>0.5460385412992679</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.553076963441707</v>
+        <v>-3.731738593472507</v>
       </c>
       <c r="R11" t="n">
-        <v>-8.482697214710601</v>
+        <v>-6.250733126929701</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.399123990603568</v>
+        <v>-4.854665664236364</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.8165805294612074</v>
+        <v>-5.791908913449705</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.573781270719417</v>
+        <v>-5.76881995038062</v>
       </c>
       <c r="V11" t="n">
-        <v>-12.32186911514863</v>
+        <v>-4.05233647748957</v>
       </c>
       <c r="W11" t="n">
-        <v>5.656234635188881</v>
+        <v>-7.734630544256708</v>
       </c>
       <c r="X11" t="n">
-        <v>6.72197296037872</v>
+        <v>-5.865981829324408</v>
       </c>
       <c r="Y11" t="n">
-        <v>-28.4785467218319</v>
+        <v>-9.990719218503664</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.117648287357058</v>
+        <v>-3.644992514899565</v>
       </c>
       <c r="AA11" t="n">
-        <v>-11.77693232040291</v>
+        <v>-8.235533248578809</v>
       </c>
       <c r="AB11" t="n">
-        <v>-12.30056340642218</v>
+        <v>-12.38385317759684</v>
       </c>
       <c r="AC11" t="n">
-        <v>-1.904089405628618</v>
+        <v>-14.32489533496642</v>
       </c>
     </row>
   </sheetData>
@@ -1525,88 +1525,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-11.42956016084535</v>
+        <v>-1.048869791873138</v>
       </c>
       <c r="C2" t="n">
-        <v>7.698093248712912</v>
+        <v>-3.339077415884862</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.65417683372026</v>
+        <v>-1.793159168294833</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4538697293214842</v>
+        <v>-3.261911152118142</v>
       </c>
       <c r="F2" t="n">
-        <v>8.114533003888837</v>
+        <v>0.8350084867495604</v>
       </c>
       <c r="G2" t="n">
-        <v>3.074259823754762</v>
+        <v>-0.3590849304786461</v>
       </c>
       <c r="H2" t="n">
-        <v>-13.54943980735142</v>
+        <v>1.56472438265303</v>
       </c>
       <c r="I2" t="n">
-        <v>5.762681808717247</v>
+        <v>-4.358272500063022</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.23417935082096</v>
+        <v>8.825393724610405</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.729730602406366</v>
+        <v>4.854123920870508</v>
       </c>
       <c r="L2" t="n">
-        <v>6.461395364073001</v>
+        <v>4.592153618326591</v>
       </c>
       <c r="M2" t="n">
-        <v>5.990446358101039</v>
+        <v>6.254234638753749</v>
       </c>
       <c r="N2" t="n">
-        <v>-4.103535250655002</v>
+        <v>2.766625170867578</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.92964116616423</v>
+        <v>1.727358239925133</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.352766987233914</v>
+        <v>3.89400354497726</v>
       </c>
       <c r="Q2" t="n">
-        <v>-16.71223704767923</v>
+        <v>1.865264667922731</v>
       </c>
       <c r="R2" t="n">
-        <v>9.106710729187533</v>
+        <v>1.146075403946762</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.291794914312517</v>
+        <v>1.618288701374759</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.221821513990768</v>
+        <v>0.5776738063904505</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6701054333761771</v>
+        <v>1.383642033785368</v>
       </c>
       <c r="V2" t="n">
-        <v>3.08347598772228</v>
+        <v>-0.4488050744090515</v>
       </c>
       <c r="W2" t="n">
-        <v>-4.338481152653672</v>
+        <v>-2.09032800503686</v>
       </c>
       <c r="X2" t="n">
-        <v>12.00495007215918</v>
+        <v>3.238517665747035</v>
       </c>
       <c r="Y2" t="n">
-        <v>-10.26374533762149</v>
+        <v>1.475888879854771</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.6880507764781</v>
+        <v>-0.2043623794298739</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.00343388637329</v>
+        <v>3.770750160511932</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.007141735591123</v>
+        <v>3.628185954694419</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.29267532759709</v>
+        <v>1.462473602869387</v>
       </c>
     </row>
     <row r="3">
@@ -1614,88 +1614,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-12.32050435712423</v>
+        <v>-6.123137899705766</v>
       </c>
       <c r="C3" t="n">
-        <v>9.275019429060938</v>
+        <v>-6.45705544736981</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.20994239410904</v>
+        <v>-4.546135758058886</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.4560482641934</v>
+        <v>-7.290674895425006</v>
       </c>
       <c r="F3" t="n">
-        <v>7.066139740255717</v>
+        <v>-3.313031660473875</v>
       </c>
       <c r="G3" t="n">
-        <v>2.122320019082649</v>
+        <v>-4.789510678659985</v>
       </c>
       <c r="H3" t="n">
-        <v>-13.06735623990023</v>
+        <v>-4.562137558477131</v>
       </c>
       <c r="I3" t="n">
-        <v>4.133400232451113</v>
+        <v>-7.349305690591541</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.385467251688172</v>
+        <v>0.5424372787589413</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.767151009064431</v>
+        <v>-1.489802030389444</v>
       </c>
       <c r="L3" t="n">
-        <v>6.556918824354847</v>
+        <v>0.0183540316933577</v>
       </c>
       <c r="M3" t="n">
-        <v>5.851977344494898</v>
+        <v>1.869570639135389</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.367455869604753</v>
+        <v>-4.032347540811565</v>
       </c>
       <c r="O3" t="n">
-        <v>-5.130244959022939</v>
+        <v>-4.150177464865696</v>
       </c>
       <c r="P3" t="n">
-        <v>-6.310716082254847</v>
+        <v>-1.416370178916262</v>
       </c>
       <c r="Q3" t="n">
-        <v>-18.51877115538336</v>
+        <v>-2.770988706282816</v>
       </c>
       <c r="R3" t="n">
-        <v>7.809247438809564</v>
+        <v>-2.124495546182867</v>
       </c>
       <c r="S3" t="n">
-        <v>-4.947147138019415</v>
+        <v>-3.293757237631921</v>
       </c>
       <c r="T3" t="n">
-        <v>-2.475003869537118</v>
+        <v>-6.606709505567775</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3895880283176362</v>
+        <v>-5.034043234806123</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1823596187745252</v>
+        <v>-3.954206871606641</v>
       </c>
       <c r="W3" t="n">
-        <v>-4.101405343567056</v>
+        <v>-7.787993816456581</v>
       </c>
       <c r="X3" t="n">
-        <v>10.14348437111686</v>
+        <v>-2.947865602655017</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.562922162081005</v>
+        <v>-1.77932940395805</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.91164423415846</v>
+        <v>-6.053064579711315</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.737567864798686</v>
+        <v>-1.194549345447284</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.309138038919253</v>
+        <v>-2.886157154125073</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.230656604399009</v>
+        <v>-2.582478945426667</v>
       </c>
     </row>
     <row r="4">
@@ -1703,88 +1703,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-12.71469503440685</v>
+        <v>-2.499522376984921</v>
       </c>
       <c r="C4" t="n">
-        <v>9.92370642783157</v>
+        <v>-4.84296134259834</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.049234567135812</v>
+        <v>1.049200512619691</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8403554941381142</v>
+        <v>-3.039195813419459</v>
       </c>
       <c r="F4" t="n">
-        <v>8.354590711429399</v>
+        <v>0.8832420799557501</v>
       </c>
       <c r="G4" t="n">
-        <v>3.084122145934878</v>
+        <v>0.6728322707727536</v>
       </c>
       <c r="H4" t="n">
-        <v>-13.06710637774831</v>
+        <v>1.297011820751727</v>
       </c>
       <c r="I4" t="n">
-        <v>5.533054979361518</v>
+        <v>-5.193286104705987</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.184641265319676</v>
+        <v>6.996061609101464</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.257388822788661</v>
+        <v>3.06672049191198</v>
       </c>
       <c r="L4" t="n">
-        <v>5.058885619856983</v>
+        <v>2.144249505051118</v>
       </c>
       <c r="M4" t="n">
-        <v>2.797224225202287</v>
+        <v>4.280233258094994</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.207111397315186</v>
+        <v>-1.074649229133441</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.32505086492867</v>
+        <v>-1.569639869350568</v>
       </c>
       <c r="P4" t="n">
-        <v>-5.846186732990224</v>
+        <v>2.851759229901742</v>
       </c>
       <c r="Q4" t="n">
-        <v>-17.83262226071395</v>
+        <v>1.261148059442894</v>
       </c>
       <c r="R4" t="n">
-        <v>8.705708266512961</v>
+        <v>0.6850490374928885</v>
       </c>
       <c r="S4" t="n">
-        <v>-3.850601252896244</v>
+        <v>0.1047912172346713</v>
       </c>
       <c r="T4" t="n">
-        <v>-3.064824851923555</v>
+        <v>-2.570297674186961</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.5821885868242661</v>
+        <v>-0.8410191770441078</v>
       </c>
       <c r="V4" t="n">
-        <v>1.830684744936075</v>
+        <v>-1.05280006082335</v>
       </c>
       <c r="W4" t="n">
-        <v>-3.83241243308464</v>
+        <v>-2.701633213178422</v>
       </c>
       <c r="X4" t="n">
-        <v>10.90507568274363</v>
+        <v>2.675305098019519</v>
       </c>
       <c r="Y4" t="n">
-        <v>-10.6392362215693</v>
+        <v>4.221071839926563</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.46499777876281</v>
+        <v>-1.492822326067883</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.248046550785737</v>
+        <v>3.631263736824169</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.020517709137325</v>
+        <v>3.347078939634405</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.72182540362329</v>
+        <v>2.500295118967314</v>
       </c>
     </row>
     <row r="5">
@@ -1792,88 +1792,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-12.97067506954866</v>
+        <v>-2.753627353231375</v>
       </c>
       <c r="C5" t="n">
-        <v>6.750608631779283</v>
+        <v>-5.906861484429949</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.591212017814673</v>
+        <v>-0.9033311753996243</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3284709351148418</v>
+        <v>-4.285166908008643</v>
       </c>
       <c r="F5" t="n">
-        <v>6.465918395530771</v>
+        <v>-0.1985492857143645</v>
       </c>
       <c r="G5" t="n">
-        <v>1.301735964271365</v>
+        <v>-1.345814388558361</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.0680586210869</v>
+        <v>-1.823040397634274</v>
       </c>
       <c r="I5" t="n">
-        <v>3.358680026565033</v>
+        <v>-7.760195191465163</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.694860556439697</v>
+        <v>3.916680580375176</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.567124508718197</v>
+        <v>0.2110042077350651</v>
       </c>
       <c r="L5" t="n">
-        <v>4.62724399830152</v>
+        <v>1.956523448955111</v>
       </c>
       <c r="M5" t="n">
-        <v>5.894328182351131</v>
+        <v>2.970589713864205</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.42153699650803</v>
+        <v>-1.108133058541841</v>
       </c>
       <c r="O5" t="n">
-        <v>-5.568213791049243</v>
+        <v>-3.01333785491637</v>
       </c>
       <c r="P5" t="n">
-        <v>-5.976920604741391</v>
+        <v>1.725572506885092</v>
       </c>
       <c r="Q5" t="n">
-        <v>-16.57983945320175</v>
+        <v>-0.8612591745259097</v>
       </c>
       <c r="R5" t="n">
-        <v>8.391971230280349</v>
+        <v>-1.396058069009831</v>
       </c>
       <c r="S5" t="n">
-        <v>-3.445495078992455</v>
+        <v>-1.430058587037008</v>
       </c>
       <c r="T5" t="n">
-        <v>-2.515905405405362</v>
+        <v>-4.36541501547015</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9752248590333725</v>
+        <v>-1.290035788405749</v>
       </c>
       <c r="V5" t="n">
-        <v>2.529582151296605</v>
+        <v>-2.530400156007333</v>
       </c>
       <c r="W5" t="n">
-        <v>-4.497119888308635</v>
+        <v>-6.211249610593726</v>
       </c>
       <c r="X5" t="n">
-        <v>10.74231919044739</v>
+        <v>-0.3314931765610928</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.56882461400161</v>
+        <v>-0.285136065511372</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.63906481658015</v>
+        <v>-3.301790418733819</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.778634796508655</v>
+        <v>0.08964468834073192</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.803824544080928</v>
+        <v>1.096918919850143</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.355882086977219</v>
+        <v>-1.615243324038359</v>
       </c>
     </row>
     <row r="6">
@@ -1881,88 +1881,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-12.18829197686411</v>
+        <v>1.216487018077131</v>
       </c>
       <c r="C6" t="n">
-        <v>9.625298903789576</v>
+        <v>-3.005325955528639</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.842840026668407</v>
+        <v>-0.5537292621755925</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7439308176182877</v>
+        <v>-1.834398262205883</v>
       </c>
       <c r="F6" t="n">
-        <v>7.49893853240077</v>
+        <v>0.5540014639880235</v>
       </c>
       <c r="G6" t="n">
-        <v>2.100522971556705</v>
+        <v>0.3901642039995941</v>
       </c>
       <c r="H6" t="n">
-        <v>-10.69893353024976</v>
+        <v>-0.9544055207928182</v>
       </c>
       <c r="I6" t="n">
-        <v>6.130754530334077</v>
+        <v>-4.309055769599712</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.230994070315224</v>
+        <v>4.185696111297857</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.459639616244282</v>
+        <v>1.844733928273344</v>
       </c>
       <c r="L6" t="n">
-        <v>5.541096998676137</v>
+        <v>4.559083886642528</v>
       </c>
       <c r="M6" t="n">
-        <v>4.153241846261457</v>
+        <v>4.300510259361205</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.894384105875239</v>
+        <v>-0.1709603682146568</v>
       </c>
       <c r="O6" t="n">
-        <v>-4.555248648463332</v>
+        <v>-0.04787053758654514</v>
       </c>
       <c r="P6" t="n">
-        <v>-6.05431096465052</v>
+        <v>1.518017386912783</v>
       </c>
       <c r="Q6" t="n">
-        <v>-16.7225026214571</v>
+        <v>1.472679520166012</v>
       </c>
       <c r="R6" t="n">
-        <v>6.282498441932733</v>
+        <v>3.359131497140972</v>
       </c>
       <c r="S6" t="n">
-        <v>-4.595048063067655</v>
+        <v>1.777983715444562</v>
       </c>
       <c r="T6" t="n">
-        <v>-2.440326270264099</v>
+        <v>-1.484795863710083</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.07465465118905815</v>
+        <v>1.50486083094864</v>
       </c>
       <c r="V6" t="n">
-        <v>3.501086229484613</v>
+        <v>0.1164624433317889</v>
       </c>
       <c r="W6" t="n">
-        <v>-3.209206572491894</v>
+        <v>-1.365047537954831</v>
       </c>
       <c r="X6" t="n">
-        <v>11.12873441587005</v>
+        <v>3.678290591055525</v>
       </c>
       <c r="Y6" t="n">
-        <v>-8.212145630235787</v>
+        <v>2.008398658067878</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.68881492061599</v>
+        <v>-1.378870254867509</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.885401226126653</v>
+        <v>3.315174095403802</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.838468639313702</v>
+        <v>2.29609814439395</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.578391632722842</v>
+        <v>1.331834181751776</v>
       </c>
     </row>
     <row r="7">
@@ -1970,88 +1970,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-12.43131802394749</v>
+        <v>-2.461465125338754</v>
       </c>
       <c r="C7" t="n">
-        <v>7.687294602002542</v>
+        <v>-5.346908601229234</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.690019867822221</v>
+        <v>-2.557511592463194</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.898336297166856</v>
+        <v>-2.742391953312349</v>
       </c>
       <c r="F7" t="n">
-        <v>5.274112238148179</v>
+        <v>-0.5875991743059452</v>
       </c>
       <c r="G7" t="n">
-        <v>3.010842450528667</v>
+        <v>-2.693384280961356</v>
       </c>
       <c r="H7" t="n">
-        <v>-13.32807368096572</v>
+        <v>-0.6023060407194554</v>
       </c>
       <c r="I7" t="n">
-        <v>5.415748000431908</v>
+        <v>-5.328191883698633</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.532123812609931</v>
+        <v>1.668440312350278</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.072072315849392</v>
+        <v>-1.455624314225706</v>
       </c>
       <c r="L7" t="n">
-        <v>6.477998189677894</v>
+        <v>3.419366487543813</v>
       </c>
       <c r="M7" t="n">
-        <v>4.953953596690775</v>
+        <v>2.399215782828247</v>
       </c>
       <c r="N7" t="n">
-        <v>-3.431178413246552</v>
+        <v>-3.118843884804637</v>
       </c>
       <c r="O7" t="n">
-        <v>-5.283622106923874</v>
+        <v>-2.558215306400841</v>
       </c>
       <c r="P7" t="n">
-        <v>-5.345776091009658</v>
+        <v>0.8314824516178403</v>
       </c>
       <c r="Q7" t="n">
-        <v>-17.85104720619205</v>
+        <v>-0.9607975978233028</v>
       </c>
       <c r="R7" t="n">
-        <v>9.330720814459537</v>
+        <v>-2.473510666201614</v>
       </c>
       <c r="S7" t="n">
-        <v>-4.419331393536083</v>
+        <v>0.3045750700852514</v>
       </c>
       <c r="T7" t="n">
-        <v>-4.121078879776907</v>
+        <v>-3.802664438929264</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2009938369358709</v>
+        <v>-1.427570060709567</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9213461414698917</v>
+        <v>-2.584719172996181</v>
       </c>
       <c r="W7" t="n">
-        <v>-2.963024192479919</v>
+        <v>-4.429502002973031</v>
       </c>
       <c r="X7" t="n">
-        <v>11.16829200309957</v>
+        <v>0.3571723292826149</v>
       </c>
       <c r="Y7" t="n">
-        <v>-9.004739360986335</v>
+        <v>-0.0571329730029787</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.32552631357821</v>
+        <v>-2.939866325809902</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.589629023710684</v>
+        <v>-0.4220464113550935</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.872758133648722</v>
+        <v>-1.492653280284857</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.098120374884815</v>
+        <v>-0.5562604598224209</v>
       </c>
     </row>
     <row r="8">
@@ -2059,88 +2059,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-11.9030354515814</v>
+        <v>-2.8815947379666</v>
       </c>
       <c r="C8" t="n">
-        <v>7.751689828193447</v>
+        <v>-5.415495070938388</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.508700383261992</v>
+        <v>-4.814795028183962</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.017827920248639</v>
+        <v>-5.526934268003894</v>
       </c>
       <c r="F8" t="n">
-        <v>4.702837582655001</v>
+        <v>-3.247793888943796</v>
       </c>
       <c r="G8" t="n">
-        <v>3.407518483527562</v>
+        <v>-2.303182286993036</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.94337043495619</v>
+        <v>-3.261910401165892</v>
       </c>
       <c r="I8" t="n">
-        <v>4.733718550178631</v>
+        <v>-5.297683523795156</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.507844439098692</v>
+        <v>2.196155001319945</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.217577243816657</v>
+        <v>-0.8924634234238991</v>
       </c>
       <c r="L8" t="n">
-        <v>7.115216456559209</v>
+        <v>0.9471953396701969</v>
       </c>
       <c r="M8" t="n">
-        <v>5.985109198726362</v>
+        <v>1.963866373443526</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.861869650796581</v>
+        <v>-1.765387493547964</v>
       </c>
       <c r="O8" t="n">
-        <v>-5.191706923461672</v>
+        <v>-4.102583359711052</v>
       </c>
       <c r="P8" t="n">
-        <v>-6.298252747959077</v>
+        <v>-0.1910983528911057</v>
       </c>
       <c r="Q8" t="n">
-        <v>-18.14816488537085</v>
+        <v>1.070802218955225</v>
       </c>
       <c r="R8" t="n">
-        <v>8.77677739354951</v>
+        <v>-2.989924858005857</v>
       </c>
       <c r="S8" t="n">
-        <v>-4.159713358605647</v>
+        <v>-2.738249434110942</v>
       </c>
       <c r="T8" t="n">
-        <v>-3.734815506300321</v>
+        <v>-5.448812348983838</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.6423810987005512</v>
+        <v>-2.544762774744046</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.06909000467215615</v>
+        <v>-1.799393574164842</v>
       </c>
       <c r="W8" t="n">
-        <v>-4.943721310280203</v>
+        <v>-5.535981240503848</v>
       </c>
       <c r="X8" t="n">
-        <v>10.85807387509097</v>
+        <v>-1.004379254576855</v>
       </c>
       <c r="Y8" t="n">
-        <v>-9.725037252373594</v>
+        <v>-0.3238189296925218</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.77693444354375</v>
+        <v>-3.192282332960331</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.211959213036864</v>
+        <v>1.166796224406403</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.557828495722713</v>
+        <v>1.219162830453843</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.139273221797636</v>
+        <v>-0.6137397729845612</v>
       </c>
     </row>
     <row r="9">
@@ -2148,88 +2148,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-12.06539798245356</v>
+        <v>-0.9899367988850301</v>
       </c>
       <c r="C9" t="n">
-        <v>8.666205768668972</v>
+        <v>-0.3494509890213429</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.008106849928534</v>
+        <v>0.7907554572894974</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.129732512827625</v>
+        <v>-2.179843158659765</v>
       </c>
       <c r="F9" t="n">
-        <v>5.991788811460689</v>
+        <v>3.811064187619175</v>
       </c>
       <c r="G9" t="n">
-        <v>2.883353055909363</v>
+        <v>2.216092098904982</v>
       </c>
       <c r="H9" t="n">
-        <v>-11.23636218553994</v>
+        <v>2.065471536065233</v>
       </c>
       <c r="I9" t="n">
-        <v>6.230221524318649</v>
+        <v>-3.339867128131804</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.302052766594879</v>
+        <v>6.161513374358312</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.856181179055782</v>
+        <v>3.722609817724678</v>
       </c>
       <c r="L9" t="n">
-        <v>6.262912604890586</v>
+        <v>3.904951084611671</v>
       </c>
       <c r="M9" t="n">
-        <v>6.138110676594874</v>
+        <v>5.758456132008408</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.267872694510938</v>
+        <v>3.162214995887846</v>
       </c>
       <c r="O9" t="n">
-        <v>-5.918572680933775</v>
+        <v>-0.2030850333432319</v>
       </c>
       <c r="P9" t="n">
-        <v>-5.09104862316911</v>
+        <v>3.468827589163901</v>
       </c>
       <c r="Q9" t="n">
-        <v>-15.26454839846801</v>
+        <v>1.926255851762558</v>
       </c>
       <c r="R9" t="n">
-        <v>9.804143244270037</v>
+        <v>3.79441044552597</v>
       </c>
       <c r="S9" t="n">
-        <v>-3.819943087378079</v>
+        <v>0.3369824449927648</v>
       </c>
       <c r="T9" t="n">
-        <v>-1.254305562743258</v>
+        <v>-0.2083982642791162</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009988555303512336</v>
+        <v>3.785480201808146</v>
       </c>
       <c r="V9" t="n">
-        <v>1.330706990220528</v>
+        <v>3.996600161498584</v>
       </c>
       <c r="W9" t="n">
-        <v>-5.473066644845995</v>
+        <v>-1.18482147648088</v>
       </c>
       <c r="X9" t="n">
-        <v>11.25952395045728</v>
+        <v>1.459942969739424</v>
       </c>
       <c r="Y9" t="n">
-        <v>-8.659112052206465</v>
+        <v>3.829452415564932</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.45061589510995</v>
+        <v>1.694772399285881</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.807547980878132</v>
+        <v>4.645155030003217</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.919485499942828</v>
+        <v>3.972850462996985</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.255918191519118</v>
+        <v>4.545073374275913</v>
       </c>
     </row>
     <row r="10">
@@ -2237,88 +2237,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-11.73712710760955</v>
+        <v>-2.848017571501892</v>
       </c>
       <c r="C10" t="n">
-        <v>8.152847734676882</v>
+        <v>-5.600565319073334</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.764543673184511</v>
+        <v>-0.8168668449089109</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9672763483996318</v>
+        <v>-4.257565591869214</v>
       </c>
       <c r="F10" t="n">
-        <v>6.708331325409961</v>
+        <v>-1.546442397034099</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0773837577951</v>
+        <v>-2.475380600312518</v>
       </c>
       <c r="H10" t="n">
-        <v>-12.8013143828736</v>
+        <v>-0.3528605732506294</v>
       </c>
       <c r="I10" t="n">
-        <v>4.685108617389561</v>
+        <v>-6.941142624696743</v>
       </c>
       <c r="J10" t="n">
-        <v>-4.68953778415452</v>
+        <v>3.455346180162361</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.212121040344103</v>
+        <v>0.3950285619376763</v>
       </c>
       <c r="L10" t="n">
-        <v>4.543432953887678</v>
+        <v>1.850637562786891</v>
       </c>
       <c r="M10" t="n">
-        <v>5.255813862061575</v>
+        <v>3.062531621670773</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.557704318253225</v>
+        <v>-1.422173078763946</v>
       </c>
       <c r="O10" t="n">
-        <v>-5.279453049811914</v>
+        <v>-5.004142115615269</v>
       </c>
       <c r="P10" t="n">
-        <v>-5.176016576721496</v>
+        <v>0.03362580977741914</v>
       </c>
       <c r="Q10" t="n">
-        <v>-20.25192023305355</v>
+        <v>-0.2755429066065916</v>
       </c>
       <c r="R10" t="n">
-        <v>8.743752931712665</v>
+        <v>-1.014784922011743</v>
       </c>
       <c r="S10" t="n">
-        <v>-3.095883894266461</v>
+        <v>-0.6901419650367939</v>
       </c>
       <c r="T10" t="n">
-        <v>-3.461770732942637</v>
+        <v>-4.219288102350975</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.03529320344181362</v>
+        <v>-2.215026376492337</v>
       </c>
       <c r="V10" t="n">
-        <v>1.872488790450065</v>
+        <v>-3.457776427314163</v>
       </c>
       <c r="W10" t="n">
-        <v>-4.535039632384088</v>
+        <v>-3.549440788373194</v>
       </c>
       <c r="X10" t="n">
-        <v>10.39668095775088</v>
+        <v>-1.674547345718345</v>
       </c>
       <c r="Y10" t="n">
-        <v>-11.72619939409116</v>
+        <v>-0.4732824365910863</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.08804516193884</v>
+        <v>-4.529869405871757</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.006265237000958</v>
+        <v>0.03769671142358666</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.988603695957112</v>
+        <v>0.6046401346612504</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.29266410820598</v>
+        <v>-0.8442387161980122</v>
       </c>
     </row>
     <row r="11">
@@ -2326,88 +2326,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-11.54233749617842</v>
+        <v>-3.232351381455457</v>
       </c>
       <c r="C11" t="n">
-        <v>6.916851022275468</v>
+        <v>-3.733902165671753</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.835090487420276</v>
+        <v>-3.523101988144314</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5710308153242634</v>
+        <v>-4.018190947489039</v>
       </c>
       <c r="F11" t="n">
-        <v>7.243204528716243</v>
+        <v>-1.688200036097744</v>
       </c>
       <c r="G11" t="n">
-        <v>1.036618897244911</v>
+        <v>-1.443679177672635</v>
       </c>
       <c r="H11" t="n">
-        <v>-11.92358064105808</v>
+        <v>-3.096002413938298</v>
       </c>
       <c r="I11" t="n">
-        <v>6.010227261146705</v>
+        <v>-6.025022465572788</v>
       </c>
       <c r="J11" t="n">
-        <v>-4.292659562024105</v>
+        <v>3.746275834691279</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.09700064423319</v>
+        <v>0.09350191430808896</v>
       </c>
       <c r="L11" t="n">
-        <v>5.581778889174535</v>
+        <v>4.935687379675977</v>
       </c>
       <c r="M11" t="n">
-        <v>6.029584191749024</v>
+        <v>2.941044471639744</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.6162306868086136</v>
+        <v>0.1816317905915206</v>
       </c>
       <c r="O11" t="n">
-        <v>-4.709280142601698</v>
+        <v>-3.988041771396549</v>
       </c>
       <c r="P11" t="n">
-        <v>-5.878452386721054</v>
+        <v>0.3663787659898993</v>
       </c>
       <c r="Q11" t="n">
-        <v>-18.03264397509116</v>
+        <v>-2.474609042302413</v>
       </c>
       <c r="R11" t="n">
-        <v>7.751156001735063</v>
+        <v>-0.1847800100864205</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.733380912061932</v>
+        <v>0.4406319249293196</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.6650783435611103</v>
+        <v>-3.919726311333116</v>
       </c>
       <c r="U11" t="n">
-        <v>1.580996164138341</v>
+        <v>-0.8578901844135471</v>
       </c>
       <c r="V11" t="n">
-        <v>1.408577821155219</v>
+        <v>-0.8248308028668482</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.071046961265348</v>
+        <v>-6.13380181678476</v>
       </c>
       <c r="X11" t="n">
-        <v>9.82927439231351</v>
+        <v>0.4257188984800422</v>
       </c>
       <c r="Y11" t="n">
-        <v>-10.54204232234026</v>
+        <v>-0.7129158326661683</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.7639354999087</v>
+        <v>-3.799793105408908</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.147271263151578</v>
+        <v>0.0619934153292323</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.39879697358176</v>
+        <v>-0.2022111018718727</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.704867822709764</v>
+        <v>-0.3481612982807661</v>
       </c>
     </row>
   </sheetData>
@@ -2520,88 +2520,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.730989439473523</v>
+        <v>-0.03778521825547329</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.51546988901533</v>
+        <v>-0.7244237167078789</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.37646680728966</v>
+        <v>2.425789735064407</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.967207533569796</v>
+        <v>-0.3896720358478354</v>
       </c>
       <c r="F2" t="n">
-        <v>13.48131804776727</v>
+        <v>-2.100990038409758</v>
       </c>
       <c r="G2" t="n">
-        <v>5.116161577140125</v>
+        <v>0.9984970504521526</v>
       </c>
       <c r="H2" t="n">
-        <v>1.211771613821349</v>
+        <v>-2.727122768070725</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.948833855680343</v>
+        <v>-2.126161236322707</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.767822108533083</v>
+        <v>-0.4983456851312122</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.534494056347754</v>
+        <v>-4.272425323928378</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.74824391168511</v>
+        <v>2.96899957605118</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.864251272172702</v>
+        <v>-3.446948903465803</v>
       </c>
       <c r="N2" t="n">
-        <v>-4.55934561789055</v>
+        <v>-2.605004768847726</v>
       </c>
       <c r="O2" t="n">
-        <v>12.20126144228337</v>
+        <v>-2.938757469414562</v>
       </c>
       <c r="P2" t="n">
-        <v>-4.955023642139049</v>
+        <v>-3.173233888419495</v>
       </c>
       <c r="Q2" t="n">
-        <v>-3.062007671001718</v>
+        <v>-9.150057751284571</v>
       </c>
       <c r="R2" t="n">
-        <v>-20.31843143313597</v>
+        <v>-5.812304753001833</v>
       </c>
       <c r="S2" t="n">
-        <v>-19.92923835811315</v>
+        <v>-0.7557844417162425</v>
       </c>
       <c r="T2" t="n">
-        <v>-13.49521980489663</v>
+        <v>-7.678077343492644</v>
       </c>
       <c r="U2" t="n">
-        <v>-9.30622485092252</v>
+        <v>-12.17191774209558</v>
       </c>
       <c r="V2" t="n">
-        <v>-6.388248627045702</v>
+        <v>-7.834208777410423</v>
       </c>
       <c r="W2" t="n">
-        <v>-3.111890764690893</v>
+        <v>-9.368034593971075</v>
       </c>
       <c r="X2" t="n">
-        <v>-11.05321609448742</v>
+        <v>-15.38216883366843</v>
       </c>
       <c r="Y2" t="n">
-        <v>-19.57797072239424</v>
+        <v>-21.2186558639548</v>
       </c>
       <c r="Z2" t="n">
-        <v>-8.169014668012641</v>
+        <v>-20.55046455162669</v>
       </c>
       <c r="AA2" t="n">
-        <v>-20.71555888620952</v>
+        <v>-23.83330892640664</v>
       </c>
       <c r="AB2" t="n">
-        <v>-33.02407972178445</v>
+        <v>-36.72119374412424</v>
       </c>
       <c r="AC2" t="n">
-        <v>-57.53788630671303</v>
+        <v>-59.34331754183875</v>
       </c>
     </row>
     <row r="3">
@@ -2609,88 +2609,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.860538403262356</v>
+        <v>-5.741508445989291</v>
       </c>
       <c r="C3" t="n">
-        <v>-14.10938539790713</v>
+        <v>-6.168495973545781</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.700282295884104</v>
+        <v>-5.454259739468563</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.939618820820648</v>
+        <v>-5.980638037057554</v>
       </c>
       <c r="F3" t="n">
-        <v>12.89985249451435</v>
+        <v>-6.749814961823168</v>
       </c>
       <c r="G3" t="n">
-        <v>5.651258556365324</v>
+        <v>-5.415222816427947</v>
       </c>
       <c r="H3" t="n">
-        <v>1.229938739637224</v>
+        <v>-9.022018576905371</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.357222232349756</v>
+        <v>-4.826310052500556</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.050645162364409</v>
+        <v>-6.093903741760461</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.507705752469445</v>
+        <v>-11.32192265601621</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.835798058533652</v>
+        <v>-2.881639085209396</v>
       </c>
       <c r="M3" t="n">
-        <v>-7.388468445373558</v>
+        <v>-12.90862186711808</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.968179337604434</v>
+        <v>-9.770159204439061</v>
       </c>
       <c r="O3" t="n">
-        <v>10.86712473249189</v>
+        <v>-7.612124247432968</v>
       </c>
       <c r="P3" t="n">
-        <v>-5.185097483384149</v>
+        <v>-8.867957693811311</v>
       </c>
       <c r="Q3" t="n">
-        <v>-4.975547116220048</v>
+        <v>-13.20495207642278</v>
       </c>
       <c r="R3" t="n">
-        <v>-22.71326723587606</v>
+        <v>-11.3637364226379</v>
       </c>
       <c r="S3" t="n">
-        <v>-19.77908379489123</v>
+        <v>-6.962523730789233</v>
       </c>
       <c r="T3" t="n">
-        <v>-13.59604751142786</v>
+        <v>-12.23528423351783</v>
       </c>
       <c r="U3" t="n">
-        <v>-10.58658744408914</v>
+        <v>-15.12630553114341</v>
       </c>
       <c r="V3" t="n">
-        <v>-9.606918010736567</v>
+        <v>-12.61388225495501</v>
       </c>
       <c r="W3" t="n">
-        <v>-3.662226357908382</v>
+        <v>-14.27117905958801</v>
       </c>
       <c r="X3" t="n">
-        <v>-10.66525135527136</v>
+        <v>-17.6469466964297</v>
       </c>
       <c r="Y3" t="n">
-        <v>-21.5067836384738</v>
+        <v>-24.7472466984597</v>
       </c>
       <c r="Z3" t="n">
-        <v>-9.69672513392119</v>
+        <v>-24.56226634549349</v>
       </c>
       <c r="AA3" t="n">
-        <v>-22.64617623590721</v>
+        <v>-28.99040562716023</v>
       </c>
       <c r="AB3" t="n">
-        <v>-33.92343820244115</v>
+        <v>-41.87776918160375</v>
       </c>
       <c r="AC3" t="n">
-        <v>-55.69621200272378</v>
+        <v>-63.06286885336764</v>
       </c>
     </row>
     <row r="4">
@@ -2698,88 +2698,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.671755549845722</v>
+        <v>-0.3357400767253763</v>
       </c>
       <c r="C4" t="n">
-        <v>-15.04656054867057</v>
+        <v>-1.295228947793768</v>
       </c>
       <c r="D4" t="n">
-        <v>-10.91136862363913</v>
+        <v>-2.958957341258179</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.345809090650242</v>
+        <v>-1.039513831068593</v>
       </c>
       <c r="F4" t="n">
-        <v>13.19305561610817</v>
+        <v>-1.886719874363067</v>
       </c>
       <c r="G4" t="n">
-        <v>3.784896262266735</v>
+        <v>-2.198772947599045</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4507268763522263</v>
+        <v>-5.070719822652006</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.268284356400976</v>
+        <v>-0.8164084028169765</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.1960096442002</v>
+        <v>-1.966214995694747</v>
       </c>
       <c r="K4" t="n">
-        <v>-7.851243843942267</v>
+        <v>-4.059843657739064</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.436715878097586</v>
+        <v>1.516837651375112</v>
       </c>
       <c r="M4" t="n">
-        <v>-8.41920940323044</v>
+        <v>-6.909671197651372</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.050637019765805</v>
+        <v>-5.377808238087004</v>
       </c>
       <c r="O4" t="n">
-        <v>11.39057234435433</v>
+        <v>-4.729476515089704</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.803410021923264</v>
+        <v>-5.72610416213693</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.489251967949632</v>
+        <v>-8.473443607765846</v>
       </c>
       <c r="R4" t="n">
-        <v>-22.48902873238601</v>
+        <v>-7.917902105480195</v>
       </c>
       <c r="S4" t="n">
-        <v>-19.34508579449849</v>
+        <v>-2.355127333686085</v>
       </c>
       <c r="T4" t="n">
-        <v>-12.85546695420959</v>
+        <v>-8.614651420902156</v>
       </c>
       <c r="U4" t="n">
-        <v>-9.008971928719456</v>
+        <v>-11.86634456638934</v>
       </c>
       <c r="V4" t="n">
-        <v>-9.481235069701075</v>
+        <v>-8.750799617928752</v>
       </c>
       <c r="W4" t="n">
-        <v>-3.362331589449363</v>
+        <v>-9.046153998287277</v>
       </c>
       <c r="X4" t="n">
-        <v>-11.30238535725584</v>
+        <v>-16.9635011526624</v>
       </c>
       <c r="Y4" t="n">
-        <v>-18.50909195439996</v>
+        <v>-22.90906918501488</v>
       </c>
       <c r="Z4" t="n">
-        <v>-5.979753242342756</v>
+        <v>-21.5026931474148</v>
       </c>
       <c r="AA4" t="n">
-        <v>-19.64608470947901</v>
+        <v>-23.28285106409978</v>
       </c>
       <c r="AB4" t="n">
-        <v>-34.29346124206545</v>
+        <v>-38.1087426546892</v>
       </c>
       <c r="AC4" t="n">
-        <v>-57.94601631444791</v>
+        <v>-59.83899578957178</v>
       </c>
     </row>
     <row r="5">
@@ -2787,88 +2787,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.646695644998319</v>
+        <v>-4.491386266040167</v>
       </c>
       <c r="C5" t="n">
-        <v>-15.81919450658175</v>
+        <v>-3.761732092936384</v>
       </c>
       <c r="D5" t="n">
-        <v>-10.68235734355993</v>
+        <v>-2.486939091863731</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.886861717722548</v>
+        <v>-0.8335370637089476</v>
       </c>
       <c r="F5" t="n">
-        <v>14.36589295984076</v>
+        <v>-3.396189025625516</v>
       </c>
       <c r="G5" t="n">
-        <v>4.741252559874924</v>
+        <v>-1.360456749124369</v>
       </c>
       <c r="H5" t="n">
-        <v>1.454942674435695</v>
+        <v>-8.146170253269538</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.094567588855893</v>
+        <v>-4.167042275590244</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.8748034541512251</v>
+        <v>-3.418616533697841</v>
       </c>
       <c r="K5" t="n">
-        <v>-7.952943060500421</v>
+        <v>-8.677902785343928</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.807327756636242</v>
+        <v>0.9789915392050172</v>
       </c>
       <c r="M5" t="n">
-        <v>-8.144047306304437</v>
+        <v>-8.478870774207458</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.384900605858634</v>
+        <v>-7.290025112521835</v>
       </c>
       <c r="O5" t="n">
-        <v>10.82784205127814</v>
+        <v>-6.322464804444115</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.854740479522883</v>
+        <v>-7.087749747198858</v>
       </c>
       <c r="Q5" t="n">
-        <v>-3.05843258051346</v>
+        <v>-11.00866976833806</v>
       </c>
       <c r="R5" t="n">
-        <v>-22.42676366842374</v>
+        <v>-11.47577760549362</v>
       </c>
       <c r="S5" t="n">
-        <v>-20.55196721975671</v>
+        <v>-3.567901505661965</v>
       </c>
       <c r="T5" t="n">
-        <v>-14.1933528671861</v>
+        <v>-9.542960825033859</v>
       </c>
       <c r="U5" t="n">
-        <v>-9.547855634569176</v>
+        <v>-11.70113800961266</v>
       </c>
       <c r="V5" t="n">
-        <v>-8.764009599498088</v>
+        <v>-11.801839286391</v>
       </c>
       <c r="W5" t="n">
-        <v>-3.147499836854486</v>
+        <v>-10.90534279967227</v>
       </c>
       <c r="X5" t="n">
-        <v>-11.55339245347888</v>
+        <v>-17.11875297922432</v>
       </c>
       <c r="Y5" t="n">
-        <v>-21.27394772402394</v>
+        <v>-24.07345886837193</v>
       </c>
       <c r="Z5" t="n">
-        <v>-10.71097406829227</v>
+        <v>-23.24704930812977</v>
       </c>
       <c r="AA5" t="n">
-        <v>-21.64719858563421</v>
+        <v>-24.89482328479437</v>
       </c>
       <c r="AB5" t="n">
-        <v>-32.41200675246662</v>
+        <v>-37.54502027690519</v>
       </c>
       <c r="AC5" t="n">
-        <v>-56.31320756047714</v>
+        <v>-62.1702983303765</v>
       </c>
     </row>
     <row r="6">
@@ -2876,88 +2876,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.8568540918931651</v>
+        <v>-2.303533815877274</v>
       </c>
       <c r="C6" t="n">
-        <v>-15.48551414829179</v>
+        <v>-0.4751729544953027</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.504021246600569</v>
+        <v>0.3528293477030293</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.909452173013413</v>
+        <v>0.8676169955142794</v>
       </c>
       <c r="F6" t="n">
-        <v>12.87165792860501</v>
+        <v>-3.172599761321619</v>
       </c>
       <c r="G6" t="n">
-        <v>4.96195433380729</v>
+        <v>-0.2805239418264405</v>
       </c>
       <c r="H6" t="n">
-        <v>2.275079649229545</v>
+        <v>-3.991830277856384</v>
       </c>
       <c r="I6" t="n">
-        <v>-3.873933484185681</v>
+        <v>-1.353350218671573</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.8375341394134859</v>
+        <v>-0.5300363008103699</v>
       </c>
       <c r="K6" t="n">
-        <v>-9.620466957558108</v>
+        <v>-6.904519258720738</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.156659065656285</v>
+        <v>1.180533870207395</v>
       </c>
       <c r="M6" t="n">
-        <v>-6.540463835250405</v>
+        <v>-6.124696865124371</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.457687703656071</v>
+        <v>-4.811872477333242</v>
       </c>
       <c r="O6" t="n">
-        <v>12.2778126694996</v>
+        <v>-4.776766188064206</v>
       </c>
       <c r="P6" t="n">
-        <v>-4.956254457794087</v>
+        <v>-6.434752516077435</v>
       </c>
       <c r="Q6" t="n">
-        <v>-4.145717121669588</v>
+        <v>-8.475165753955222</v>
       </c>
       <c r="R6" t="n">
-        <v>-22.45258861503288</v>
+        <v>-6.751034585654597</v>
       </c>
       <c r="S6" t="n">
-        <v>-19.69758319062472</v>
+        <v>-1.737899102680659</v>
       </c>
       <c r="T6" t="n">
-        <v>-12.04558009622871</v>
+        <v>-7.51892899960822</v>
       </c>
       <c r="U6" t="n">
-        <v>-10.80706553255954</v>
+        <v>-11.09500978670564</v>
       </c>
       <c r="V6" t="n">
-        <v>-6.916892177804916</v>
+        <v>-7.463809870283961</v>
       </c>
       <c r="W6" t="n">
-        <v>-5.009210836726529</v>
+        <v>-10.60879532066387</v>
       </c>
       <c r="X6" t="n">
-        <v>-11.55032806475421</v>
+        <v>-14.6290014684285</v>
       </c>
       <c r="Y6" t="n">
-        <v>-21.04463387760484</v>
+        <v>-22.98097274174214</v>
       </c>
       <c r="Z6" t="n">
-        <v>-9.849486834437004</v>
+        <v>-20.84422410022203</v>
       </c>
       <c r="AA6" t="n">
-        <v>-21.68136367721675</v>
+        <v>-26.29088685383342</v>
       </c>
       <c r="AB6" t="n">
-        <v>-33.25139340264997</v>
+        <v>-36.97519498268526</v>
       </c>
       <c r="AC6" t="n">
-        <v>-56.80620816263595</v>
+        <v>-60.4802500004145</v>
       </c>
     </row>
     <row r="7">
@@ -2965,88 +2965,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9889662899632079</v>
+        <v>-3.814207189693399</v>
       </c>
       <c r="C7" t="n">
-        <v>-17.48696460113235</v>
+        <v>-5.195000042435924</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.03915405025886</v>
+        <v>-2.521022374346174</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.217881878946603</v>
+        <v>-4.361400528397055</v>
       </c>
       <c r="F7" t="n">
-        <v>11.52806799405489</v>
+        <v>-3.450578747734361</v>
       </c>
       <c r="G7" t="n">
-        <v>4.518322498427125</v>
+        <v>-2.403868983027252</v>
       </c>
       <c r="H7" t="n">
-        <v>2.672996321584169</v>
+        <v>-7.394058878433655</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.899980713758243</v>
+        <v>-4.57021012547591</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.677102003039843</v>
+        <v>-2.831481650477557</v>
       </c>
       <c r="K7" t="n">
-        <v>-6.691721279804422</v>
+        <v>-9.10472357768494</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.655376593786566</v>
+        <v>0.6475335417661849</v>
       </c>
       <c r="M7" t="n">
-        <v>-8.639845769358876</v>
+        <v>-9.953857038062692</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.408803180103952</v>
+        <v>-7.607937464919744</v>
       </c>
       <c r="O7" t="n">
-        <v>9.452715192767386</v>
+        <v>-6.945303262970557</v>
       </c>
       <c r="P7" t="n">
-        <v>-5.155191098861693</v>
+        <v>-8.101268805921588</v>
       </c>
       <c r="Q7" t="n">
-        <v>-2.702578231230047</v>
+        <v>-13.09761391588276</v>
       </c>
       <c r="R7" t="n">
-        <v>-21.30052925442069</v>
+        <v>-9.365023517092091</v>
       </c>
       <c r="S7" t="n">
-        <v>-18.63176252308286</v>
+        <v>-3.33620114660917</v>
       </c>
       <c r="T7" t="n">
-        <v>-12.89815312093992</v>
+        <v>-12.60384627061541</v>
       </c>
       <c r="U7" t="n">
-        <v>-10.81258693817444</v>
+        <v>-12.52170461883231</v>
       </c>
       <c r="V7" t="n">
-        <v>-9.619492786473131</v>
+        <v>-10.69139141116236</v>
       </c>
       <c r="W7" t="n">
-        <v>-4.646215364381527</v>
+        <v>-10.97612016550092</v>
       </c>
       <c r="X7" t="n">
-        <v>-12.89313932969739</v>
+        <v>-16.80169471458196</v>
       </c>
       <c r="Y7" t="n">
-        <v>-20.06144704553471</v>
+        <v>-23.93787806337436</v>
       </c>
       <c r="Z7" t="n">
-        <v>-8.701289414221499</v>
+        <v>-23.43386512233478</v>
       </c>
       <c r="AA7" t="n">
-        <v>-21.26426162943476</v>
+        <v>-26.06141118458151</v>
       </c>
       <c r="AB7" t="n">
-        <v>-34.66917298113198</v>
+        <v>-38.99588425121345</v>
       </c>
       <c r="AC7" t="n">
-        <v>-57.52695995279711</v>
+        <v>-62.05581183092341</v>
       </c>
     </row>
     <row r="8">
@@ -3054,88 +3054,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.958773245890935</v>
+        <v>-4.420704498188003</v>
       </c>
       <c r="C8" t="n">
-        <v>-17.48426869570791</v>
+        <v>-4.96338620435041</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.8388196722915</v>
+        <v>-1.908794334211733</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.264770470724482</v>
+        <v>-2.193472316872163</v>
       </c>
       <c r="F8" t="n">
-        <v>14.7087566968796</v>
+        <v>-3.074339694167475</v>
       </c>
       <c r="G8" t="n">
-        <v>4.512131161424268</v>
+        <v>-3.323414886679362</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8551893636690986</v>
+        <v>-8.231006748362635</v>
       </c>
       <c r="I8" t="n">
-        <v>-5.984675416024703</v>
+        <v>-5.540720167203355</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.980478675212452</v>
+        <v>-3.976671306207528</v>
       </c>
       <c r="K8" t="n">
-        <v>-8.004834550190591</v>
+        <v>-7.760034278058233</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.44836962784475</v>
+        <v>-2.264172250390683</v>
       </c>
       <c r="M8" t="n">
-        <v>-10.32211885606877</v>
+        <v>-10.46320724598282</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.175386644023906</v>
+        <v>-7.440590781762018</v>
       </c>
       <c r="O8" t="n">
-        <v>12.86623562767229</v>
+        <v>-9.134184477657403</v>
       </c>
       <c r="P8" t="n">
-        <v>-3.867040449362194</v>
+        <v>-8.254230520052198</v>
       </c>
       <c r="Q8" t="n">
-        <v>-2.425395682886466</v>
+        <v>-12.41992434570821</v>
       </c>
       <c r="R8" t="n">
-        <v>-23.12765255636327</v>
+        <v>-9.819666838974079</v>
       </c>
       <c r="S8" t="n">
-        <v>-19.82999085659484</v>
+        <v>-3.954712280468734</v>
       </c>
       <c r="T8" t="n">
-        <v>-13.28691495444418</v>
+        <v>-10.28665083412872</v>
       </c>
       <c r="U8" t="n">
-        <v>-11.69741698802966</v>
+        <v>-14.84422334497805</v>
       </c>
       <c r="V8" t="n">
-        <v>-8.087296734246824</v>
+        <v>-10.74531737582446</v>
       </c>
       <c r="W8" t="n">
-        <v>-1.932091489807689</v>
+        <v>-11.76663828065758</v>
       </c>
       <c r="X8" t="n">
-        <v>-8.715115344976805</v>
+        <v>-16.91881171776023</v>
       </c>
       <c r="Y8" t="n">
-        <v>-21.42390136153901</v>
+        <v>-25.59220091858637</v>
       </c>
       <c r="Z8" t="n">
-        <v>-8.512591982289825</v>
+        <v>-22.95385181710134</v>
       </c>
       <c r="AA8" t="n">
-        <v>-21.89734490757166</v>
+        <v>-28.18946926097555</v>
       </c>
       <c r="AB8" t="n">
-        <v>-32.68283234223671</v>
+        <v>-39.55453352044357</v>
       </c>
       <c r="AC8" t="n">
-        <v>-56.25607875061612</v>
+        <v>-65.16858766377425</v>
       </c>
     </row>
     <row r="9">
@@ -3143,88 +3143,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.039172149626915</v>
+        <v>0.8109252703578598</v>
       </c>
       <c r="C9" t="n">
-        <v>-14.33812460306587</v>
+        <v>-0.1031711632228972</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.950465968513567</v>
+        <v>1.506334392206911</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.769532228144874</v>
+        <v>1.122467005400832</v>
       </c>
       <c r="F9" t="n">
-        <v>13.47864391466559</v>
+        <v>-0.01326180921818376</v>
       </c>
       <c r="G9" t="n">
-        <v>4.307259502943323</v>
+        <v>0.6658355438613449</v>
       </c>
       <c r="H9" t="n">
-        <v>1.640030740646826</v>
+        <v>-3.989839858649844</v>
       </c>
       <c r="I9" t="n">
-        <v>-4.806716428646023</v>
+        <v>0.8071832227179153</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.938729329760291</v>
+        <v>3.681597879436179</v>
       </c>
       <c r="K9" t="n">
-        <v>-7.788695703427058</v>
+        <v>-4.43059656422091</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.993508116268919</v>
+        <v>2.849149323895471</v>
       </c>
       <c r="M9" t="n">
-        <v>-8.149629572810117</v>
+        <v>-5.981253420038612</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.393497379050544</v>
+        <v>-4.815621363812292</v>
       </c>
       <c r="O9" t="n">
-        <v>11.91814676468836</v>
+        <v>-2.381631345441826</v>
       </c>
       <c r="P9" t="n">
-        <v>-4.599782329345726</v>
+        <v>-4.458012714816764</v>
       </c>
       <c r="Q9" t="n">
-        <v>-2.430907794975022</v>
+        <v>-6.131592251058178</v>
       </c>
       <c r="R9" t="n">
-        <v>-21.8140432534308</v>
+        <v>-5.881501810965297</v>
       </c>
       <c r="S9" t="n">
-        <v>-22.09057492718794</v>
+        <v>-1.213351426700975</v>
       </c>
       <c r="T9" t="n">
-        <v>-12.99771398714275</v>
+        <v>-6.649461352058255</v>
       </c>
       <c r="U9" t="n">
-        <v>-9.953416399569594</v>
+        <v>-8.942738021568498</v>
       </c>
       <c r="V9" t="n">
-        <v>-6.774073964252344</v>
+        <v>-6.924623530874116</v>
       </c>
       <c r="W9" t="n">
-        <v>-2.495545979488897</v>
+        <v>-8.448500817766378</v>
       </c>
       <c r="X9" t="n">
-        <v>-10.61145334718388</v>
+        <v>-12.03008030023997</v>
       </c>
       <c r="Y9" t="n">
-        <v>-18.85826023007744</v>
+        <v>-19.46472397572413</v>
       </c>
       <c r="Z9" t="n">
-        <v>-7.130746853289425</v>
+        <v>-19.23789334182734</v>
       </c>
       <c r="AA9" t="n">
-        <v>-20.76264191442424</v>
+        <v>-21.42811173829664</v>
       </c>
       <c r="AB9" t="n">
-        <v>-33.7201077792804</v>
+        <v>-36.13890925958374</v>
       </c>
       <c r="AC9" t="n">
-        <v>-55.74097839167393</v>
+        <v>-57.9471223926862</v>
       </c>
     </row>
     <row r="10">
@@ -3232,88 +3232,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.533866890190239</v>
+        <v>-2.144679366932736</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.44583115784165</v>
+        <v>-5.091142023395301</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.976290549081721</v>
+        <v>-2.851752166530892</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.59346674155727</v>
+        <v>-0.6408093611467049</v>
       </c>
       <c r="F10" t="n">
-        <v>13.57973303434361</v>
+        <v>-4.08724031551508</v>
       </c>
       <c r="G10" t="n">
-        <v>4.722792049473592</v>
+        <v>-2.134042554456548</v>
       </c>
       <c r="H10" t="n">
-        <v>1.979871989412425</v>
+        <v>-6.92510117596332</v>
       </c>
       <c r="I10" t="n">
-        <v>-5.410167271212993</v>
+        <v>-4.15246213199099</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6097942100100422</v>
+        <v>-3.392393977608559</v>
       </c>
       <c r="K10" t="n">
-        <v>-7.193175411774227</v>
+        <v>-9.771036692600308</v>
       </c>
       <c r="L10" t="n">
-        <v>-3.048334110593273</v>
+        <v>-0.781046744475284</v>
       </c>
       <c r="M10" t="n">
-        <v>-8.098653125408067</v>
+        <v>-8.914580558039653</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.875650490179753</v>
+        <v>-7.229552129904791</v>
       </c>
       <c r="O10" t="n">
-        <v>11.14824059845821</v>
+        <v>-6.727503742328019</v>
       </c>
       <c r="P10" t="n">
-        <v>-3.741019491534341</v>
+        <v>-6.709586052703962</v>
       </c>
       <c r="Q10" t="n">
-        <v>-3.654042879357143</v>
+        <v>-11.40245902069391</v>
       </c>
       <c r="R10" t="n">
-        <v>-21.74371996399497</v>
+        <v>-10.98780191403254</v>
       </c>
       <c r="S10" t="n">
-        <v>-18.58269460959276</v>
+        <v>-3.811531489206449</v>
       </c>
       <c r="T10" t="n">
-        <v>-13.82178400745956</v>
+        <v>-9.477748765058376</v>
       </c>
       <c r="U10" t="n">
-        <v>-10.79843620860016</v>
+        <v>-13.99892315245992</v>
       </c>
       <c r="V10" t="n">
-        <v>-7.792810910876128</v>
+        <v>-10.83076365980907</v>
       </c>
       <c r="W10" t="n">
-        <v>-3.461584392120328</v>
+        <v>-12.71107389171969</v>
       </c>
       <c r="X10" t="n">
-        <v>-9.451925195952057</v>
+        <v>-18.22577904288619</v>
       </c>
       <c r="Y10" t="n">
-        <v>-18.41189798460768</v>
+        <v>-26.11721169315675</v>
       </c>
       <c r="Z10" t="n">
-        <v>-7.561474563311091</v>
+        <v>-23.97990155829018</v>
       </c>
       <c r="AA10" t="n">
-        <v>-19.80196120144744</v>
+        <v>-26.97689775115825</v>
       </c>
       <c r="AB10" t="n">
-        <v>-33.95517683515182</v>
+        <v>-38.44154167099353</v>
       </c>
       <c r="AC10" t="n">
-        <v>-57.22112642934228</v>
+        <v>-63.01979755297207</v>
       </c>
     </row>
     <row r="11">
@@ -3321,88 +3321,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.592431747575743</v>
+        <v>-1.497799514475415</v>
       </c>
       <c r="C11" t="n">
-        <v>-15.50111088590584</v>
+        <v>-3.019906601950582</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.104858577486027</v>
+        <v>0.171921337371955</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.154363279761332</v>
+        <v>-1.817458703501123</v>
       </c>
       <c r="F11" t="n">
-        <v>13.70474506758429</v>
+        <v>-3.686553155058002</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833229019569921</v>
+        <v>-1.723162457674132</v>
       </c>
       <c r="H11" t="n">
-        <v>1.135818268106591</v>
+        <v>-6.192330267729765</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.452291951839364</v>
+        <v>-2.236425162501043</v>
       </c>
       <c r="J11" t="n">
-        <v>-3.097316451767028</v>
+        <v>-2.066757048334126</v>
       </c>
       <c r="K11" t="n">
-        <v>-5.722292055695758</v>
+        <v>-7.993894756578452</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.713760189128303</v>
+        <v>0.1039435807725928</v>
       </c>
       <c r="M11" t="n">
-        <v>-6.74871135982647</v>
+        <v>-9.927765487131001</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.071221350202751</v>
+        <v>-6.488510592701425</v>
       </c>
       <c r="O11" t="n">
-        <v>12.48406267815906</v>
+        <v>-7.11698235230421</v>
       </c>
       <c r="P11" t="n">
-        <v>-5.296278982743747</v>
+        <v>-6.439174862630929</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1.556870023624318</v>
+        <v>-10.18422149944118</v>
       </c>
       <c r="R11" t="n">
-        <v>-22.17704813531829</v>
+        <v>-6.978102451668248</v>
       </c>
       <c r="S11" t="n">
-        <v>-21.14291108549022</v>
+        <v>-3.04549709746178</v>
       </c>
       <c r="T11" t="n">
-        <v>-12.6112084857301</v>
+        <v>-10.15285245403987</v>
       </c>
       <c r="U11" t="n">
-        <v>-10.40062182247384</v>
+        <v>-12.31831755823926</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.091301242756968</v>
+        <v>-11.49269067728716</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.083064185466108</v>
+        <v>-10.64402553567175</v>
       </c>
       <c r="X11" t="n">
-        <v>-10.16953067575067</v>
+        <v>-15.73201663640369</v>
       </c>
       <c r="Y11" t="n">
-        <v>-21.29531858384516</v>
+        <v>-25.31602626334855</v>
       </c>
       <c r="Z11" t="n">
-        <v>-8.978533738217843</v>
+        <v>-23.54202548347506</v>
       </c>
       <c r="AA11" t="n">
-        <v>-20.77003170073747</v>
+        <v>-27.03652182242431</v>
       </c>
       <c r="AB11" t="n">
-        <v>-34.43357784722393</v>
+        <v>-38.58590759977452</v>
       </c>
       <c r="AC11" t="n">
-        <v>-56.52360142136796</v>
+        <v>-62.68957251953172</v>
       </c>
     </row>
   </sheetData>
@@ -3515,88 +3515,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4358278026783138</v>
+        <v>-2.588252956657502</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.244330226862989</v>
+        <v>1.1989924899338</v>
       </c>
       <c r="D2" t="n">
-        <v>4.842217677365319</v>
+        <v>-0.5524387000658267</v>
       </c>
       <c r="E2" t="n">
-        <v>2.03670044374352</v>
+        <v>0.8944465513791071</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.01172538728998</v>
+        <v>1.843656748251405</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.62097459220439</v>
+        <v>-3.938828126174303</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.600032681755485</v>
+        <v>-2.073990148989881</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.499528877688977</v>
+        <v>1.062615546675505</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.941650592086139</v>
+        <v>-4.036894527611913</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4701885176786949</v>
+        <v>-4.878843315383887</v>
       </c>
       <c r="L2" t="n">
-        <v>-7.147085339515317</v>
+        <v>-2.589177908961573</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.82348088834677</v>
+        <v>-2.612770050996034</v>
       </c>
       <c r="N2" t="n">
-        <v>-11.49921804220697</v>
+        <v>-3.373976918306168</v>
       </c>
       <c r="O2" t="n">
-        <v>2.31020692872829</v>
+        <v>-1.421652957300231</v>
       </c>
       <c r="P2" t="n">
-        <v>14.75067109449429</v>
+        <v>-5.487899840615725</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.64824074960538</v>
+        <v>-0.266369823718716</v>
       </c>
       <c r="R2" t="n">
-        <v>-6.122907857474617</v>
+        <v>-2.834864168059298</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.676096243898272</v>
+        <v>-4.74510270549543</v>
       </c>
       <c r="T2" t="n">
-        <v>-14.40401986527587</v>
+        <v>-5.984378504115521</v>
       </c>
       <c r="U2" t="n">
-        <v>-16.12810022047367</v>
+        <v>-4.684371263567183</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.259933934961277</v>
+        <v>-7.216202376196569</v>
       </c>
       <c r="W2" t="n">
-        <v>-16.50782704542205</v>
+        <v>-3.294066288646854</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.204645999851525</v>
+        <v>-1.867531217906913</v>
       </c>
       <c r="Y2" t="n">
-        <v>-16.40360484187155</v>
+        <v>-11.73836925371509</v>
       </c>
       <c r="Z2" t="n">
-        <v>-5.299781564021091</v>
+        <v>-12.84672185683973</v>
       </c>
       <c r="AA2" t="n">
-        <v>-7.68470160222811</v>
+        <v>-8.665906262688166</v>
       </c>
       <c r="AB2" t="n">
-        <v>-16.33105783293353</v>
+        <v>-6.448325404441825</v>
       </c>
       <c r="AC2" t="n">
-        <v>-20.15089751653112</v>
+        <v>-11.45039501387861</v>
       </c>
     </row>
     <row r="3">
@@ -3604,88 +3604,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7944366184375715</v>
+        <v>-6.287091569466362</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.545156111763326</v>
+        <v>-4.703812637506156</v>
       </c>
       <c r="D3" t="n">
-        <v>4.959787545268033</v>
+        <v>-2.966219779226676</v>
       </c>
       <c r="E3" t="n">
-        <v>3.957789828691396</v>
+        <v>-2.627942820891979</v>
       </c>
       <c r="F3" t="n">
-        <v>-12.82253162947161</v>
+        <v>-2.003987333442029</v>
       </c>
       <c r="G3" t="n">
-        <v>-16.94342783213892</v>
+        <v>-8.807763413593637</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.603600974899923</v>
+        <v>-6.300756074286544</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.234832884393951</v>
+        <v>-3.625690482599739</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.366212353748238</v>
+        <v>-10.274414591277</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.259958488308652</v>
+        <v>-11.46100636910231</v>
       </c>
       <c r="L3" t="n">
-        <v>-7.284843879688448</v>
+        <v>-7.507697609648839</v>
       </c>
       <c r="M3" t="n">
-        <v>-17.96813298810224</v>
+        <v>-8.692924418714647</v>
       </c>
       <c r="N3" t="n">
-        <v>-12.91930462412173</v>
+        <v>-7.172204477325332</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2388400636402253</v>
+        <v>-9.289602409526925</v>
       </c>
       <c r="P3" t="n">
-        <v>14.64258629582432</v>
+        <v>-11.30510264439099</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3858353597528925</v>
+        <v>-6.31202330561575</v>
       </c>
       <c r="R3" t="n">
-        <v>-5.470002192986785</v>
+        <v>-10.83850366925014</v>
       </c>
       <c r="S3" t="n">
-        <v>-4.444499456035004</v>
+        <v>-7.69866420422162</v>
       </c>
       <c r="T3" t="n">
-        <v>-14.45080687844124</v>
+        <v>-11.06884967796204</v>
       </c>
       <c r="U3" t="n">
-        <v>-16.19134552738828</v>
+        <v>-10.64003658605691</v>
       </c>
       <c r="V3" t="n">
-        <v>-4.528582630174309</v>
+        <v>-10.54458938516459</v>
       </c>
       <c r="W3" t="n">
-        <v>-15.61129100593766</v>
+        <v>-8.468524925451881</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.683236009455488</v>
+        <v>-9.768877338317216</v>
       </c>
       <c r="Y3" t="n">
-        <v>-17.38763683970786</v>
+        <v>-16.3231052298541</v>
       </c>
       <c r="Z3" t="n">
-        <v>-4.7806909744718</v>
+        <v>-16.33269832009182</v>
       </c>
       <c r="AA3" t="n">
-        <v>-5.293982879993618</v>
+        <v>-12.21913531418337</v>
       </c>
       <c r="AB3" t="n">
-        <v>-13.66574487871919</v>
+        <v>-14.2567965509392</v>
       </c>
       <c r="AC3" t="n">
-        <v>-21.47028072491256</v>
+        <v>-17.91100671386543</v>
       </c>
     </row>
     <row r="4">
@@ -3693,88 +3693,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.566394440883078</v>
+        <v>-2.960723905748544</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.754219041031211</v>
+        <v>0.4175768042265779</v>
       </c>
       <c r="D4" t="n">
-        <v>5.515378299653682</v>
+        <v>-0.8180332218826556</v>
       </c>
       <c r="E4" t="n">
-        <v>3.982339831991678</v>
+        <v>1.261869755530392</v>
       </c>
       <c r="F4" t="n">
-        <v>-9.788240445533791</v>
+        <v>0.5316779636683211</v>
       </c>
       <c r="G4" t="n">
-        <v>-16.67875547086615</v>
+        <v>-5.733874275083929</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.474880218927728</v>
+        <v>-1.02704479948687</v>
       </c>
       <c r="I4" t="n">
-        <v>-12.2670748126704</v>
+        <v>1.456675670198579</v>
       </c>
       <c r="J4" t="n">
-        <v>-5.490974816699417</v>
+        <v>-4.220594628681177</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.275947060559792</v>
+        <v>-6.172540134377685</v>
       </c>
       <c r="L4" t="n">
-        <v>-8.052112277076738</v>
+        <v>-4.171152537046087</v>
       </c>
       <c r="M4" t="n">
-        <v>-18.03691598133391</v>
+        <v>-2.02839126743126</v>
       </c>
       <c r="N4" t="n">
-        <v>-12.60394498994158</v>
+        <v>-2.628254169266008</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3537732729739465</v>
+        <v>-4.248529226452163</v>
       </c>
       <c r="P4" t="n">
-        <v>15.79840165715795</v>
+        <v>-9.92051546012998</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5028904548558986</v>
+        <v>-3.924164220002714</v>
       </c>
       <c r="R4" t="n">
-        <v>-5.697962557734045</v>
+        <v>-5.70901716991682</v>
       </c>
       <c r="S4" t="n">
-        <v>-2.013869816594118</v>
+        <v>-5.577172974879003</v>
       </c>
       <c r="T4" t="n">
-        <v>-14.15427400360942</v>
+        <v>-5.028858943797939</v>
       </c>
       <c r="U4" t="n">
-        <v>-16.72154105279428</v>
+        <v>-5.671391392223873</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.311872089083068</v>
+        <v>-6.544806764080101</v>
       </c>
       <c r="W4" t="n">
-        <v>-17.08714365015912</v>
+        <v>-5.015225578150149</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.6282534984208352</v>
+        <v>-3.163881052111351</v>
       </c>
       <c r="Y4" t="n">
-        <v>-16.665871395651</v>
+        <v>-11.52320291787043</v>
       </c>
       <c r="Z4" t="n">
-        <v>-6.191012652788157</v>
+        <v>-12.29478380688146</v>
       </c>
       <c r="AA4" t="n">
-        <v>-6.906466832163483</v>
+        <v>-8.159467562093475</v>
       </c>
       <c r="AB4" t="n">
-        <v>-14.81237714842983</v>
+        <v>-9.380951408700186</v>
       </c>
       <c r="AC4" t="n">
-        <v>-22.00352239964898</v>
+        <v>-13.62040896922038</v>
       </c>
     </row>
     <row r="5">
@@ -3782,88 +3782,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.820753294129461</v>
+        <v>-5.963219404180029</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.900419119221617</v>
+        <v>-2.352014437386758</v>
       </c>
       <c r="D5" t="n">
-        <v>5.376326926229254</v>
+        <v>-2.969134678817072</v>
       </c>
       <c r="E5" t="n">
-        <v>3.890708106752932</v>
+        <v>-0.1403771468508905</v>
       </c>
       <c r="F5" t="n">
-        <v>-9.655297495440347</v>
+        <v>-1.396297392019036</v>
       </c>
       <c r="G5" t="n">
-        <v>-15.55228011886895</v>
+        <v>-6.372093125776285</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.531650748054488</v>
+        <v>-2.759624770047048</v>
       </c>
       <c r="I5" t="n">
-        <v>-10.03038711644743</v>
+        <v>-0.1086116966869173</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.137952995638207</v>
+        <v>-6.611119639467235</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.814770061676507</v>
+        <v>-8.439064341206326</v>
       </c>
       <c r="L5" t="n">
-        <v>-7.145912847944877</v>
+        <v>-5.468651212782766</v>
       </c>
       <c r="M5" t="n">
-        <v>-17.31545357311867</v>
+        <v>-5.345651135668844</v>
       </c>
       <c r="N5" t="n">
-        <v>-13.89273649746618</v>
+        <v>-4.760909516170161</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2967111697950973</v>
+        <v>-5.967948240817506</v>
       </c>
       <c r="P5" t="n">
-        <v>15.19663291063253</v>
+        <v>-11.37481811121724</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.934318223347253</v>
+        <v>-5.020220934964012</v>
       </c>
       <c r="R5" t="n">
-        <v>-4.591931101297923</v>
+        <v>-5.057468682181216</v>
       </c>
       <c r="S5" t="n">
-        <v>-3.051714849129567</v>
+        <v>-7.682589017815742</v>
       </c>
       <c r="T5" t="n">
-        <v>-15.08874404685373</v>
+        <v>-7.88167328017849</v>
       </c>
       <c r="U5" t="n">
-        <v>-13.87337484719142</v>
+        <v>-8.510506600900593</v>
       </c>
       <c r="V5" t="n">
-        <v>-4.038577012927822</v>
+        <v>-8.975431281917492</v>
       </c>
       <c r="W5" t="n">
-        <v>-17.55456190264532</v>
+        <v>-5.998193349437879</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2388957197332742</v>
+        <v>-5.608519652363863</v>
       </c>
       <c r="Y5" t="n">
-        <v>-17.0424802383836</v>
+        <v>-12.45378141747641</v>
       </c>
       <c r="Z5" t="n">
-        <v>-6.201563730559188</v>
+        <v>-16.71823283978253</v>
       </c>
       <c r="AA5" t="n">
-        <v>-7.482980998039719</v>
+        <v>-9.648253563440404</v>
       </c>
       <c r="AB5" t="n">
-        <v>-12.76825415912975</v>
+        <v>-10.29161996020827</v>
       </c>
       <c r="AC5" t="n">
-        <v>-23.06219635862279</v>
+        <v>-14.72000910510412</v>
       </c>
     </row>
     <row r="6">
@@ -3871,88 +3871,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3277213664432979</v>
+        <v>-2.616548081466862</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.317272559614839</v>
+        <v>1.379817507873912</v>
       </c>
       <c r="D6" t="n">
-        <v>5.776323099305466</v>
+        <v>-0.01406987768744239</v>
       </c>
       <c r="E6" t="n">
-        <v>5.46499460182268</v>
+        <v>3.631101800149338</v>
       </c>
       <c r="F6" t="n">
-        <v>-10.62791873820073</v>
+        <v>-0.08545584188730426</v>
       </c>
       <c r="G6" t="n">
-        <v>-16.92535111503443</v>
+        <v>-5.403763921219853</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.626260442492198</v>
+        <v>-0.9729842894425982</v>
       </c>
       <c r="I6" t="n">
-        <v>-10.56688367876725</v>
+        <v>0.2591447848062876</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.599028233446367</v>
+        <v>-3.303998010206445</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.267546834335942</v>
+        <v>-4.453287337414515</v>
       </c>
       <c r="L6" t="n">
-        <v>-8.330674875912401</v>
+        <v>-5.146617104960571</v>
       </c>
       <c r="M6" t="n">
-        <v>-17.83195568730978</v>
+        <v>-2.975103158616065</v>
       </c>
       <c r="N6" t="n">
-        <v>-12.35492688681065</v>
+        <v>-3.31300887816216</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.6780819359222434</v>
+        <v>-2.371246947335849</v>
       </c>
       <c r="P6" t="n">
-        <v>15.17925299702142</v>
+        <v>-7.765267547534103</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.732358599332285</v>
+        <v>-3.097258980894201</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.918937932353574</v>
+        <v>-3.642036248741572</v>
       </c>
       <c r="S6" t="n">
-        <v>-2.355890133332165</v>
+        <v>-5.252507291014552</v>
       </c>
       <c r="T6" t="n">
-        <v>-9.928828681720733</v>
+        <v>-6.33181799233196</v>
       </c>
       <c r="U6" t="n">
-        <v>-16.42751777494865</v>
+        <v>-6.801101712459316</v>
       </c>
       <c r="V6" t="n">
-        <v>-2.866401975390292</v>
+        <v>-6.194527154730597</v>
       </c>
       <c r="W6" t="n">
-        <v>-17.07161448817905</v>
+        <v>-4.633231745176879</v>
       </c>
       <c r="X6" t="n">
-        <v>-2.415595460429348</v>
+        <v>-2.796119400547035</v>
       </c>
       <c r="Y6" t="n">
-        <v>-18.8883725477091</v>
+        <v>-9.718339222726811</v>
       </c>
       <c r="Z6" t="n">
-        <v>-3.26338507719821</v>
+        <v>-13.90371377545747</v>
       </c>
       <c r="AA6" t="n">
-        <v>-6.633101444899888</v>
+        <v>-7.475335025765769</v>
       </c>
       <c r="AB6" t="n">
-        <v>-12.89418876112938</v>
+        <v>-7.921509536113697</v>
       </c>
       <c r="AC6" t="n">
-        <v>-22.54733398676915</v>
+        <v>-11.71052696914145</v>
       </c>
     </row>
     <row r="7">
@@ -3960,88 +3960,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05759395991870253</v>
+        <v>-5.84687958130033</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.77389454497723</v>
+        <v>-2.601607976274468</v>
       </c>
       <c r="D7" t="n">
-        <v>5.602009414978675</v>
+        <v>-2.237977772756744</v>
       </c>
       <c r="E7" t="n">
-        <v>3.25292535323808</v>
+        <v>-1.19290804987154</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.170389815386693</v>
+        <v>-1.616847865061727</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.66836349047363</v>
+        <v>-6.869005546766644</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.623912130047422</v>
+        <v>-3.321142729089286</v>
       </c>
       <c r="I7" t="n">
-        <v>-10.97673382682251</v>
+        <v>-2.055189530013444</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.804376429965384</v>
+        <v>-7.119832673008714</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.471452087613828</v>
+        <v>-9.097723177098374</v>
       </c>
       <c r="L7" t="n">
-        <v>-8.523613284398625</v>
+        <v>-5.874637133425079</v>
       </c>
       <c r="M7" t="n">
-        <v>-16.74844050291557</v>
+        <v>-4.681148312691634</v>
       </c>
       <c r="N7" t="n">
-        <v>-12.28023373068164</v>
+        <v>-5.628903968499333</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.107693892688407</v>
+        <v>-7.499708375140028</v>
       </c>
       <c r="P7" t="n">
-        <v>17.08280109021751</v>
+        <v>-10.4591819766744</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.352095565838483</v>
+        <v>-4.076078408442024</v>
       </c>
       <c r="R7" t="n">
-        <v>-5.625904392353632</v>
+        <v>-5.174551992531495</v>
       </c>
       <c r="S7" t="n">
-        <v>-3.465798432771226</v>
+        <v>-7.120873491702703</v>
       </c>
       <c r="T7" t="n">
-        <v>-14.02430504552298</v>
+        <v>-9.150569239377358</v>
       </c>
       <c r="U7" t="n">
-        <v>-17.04964931134894</v>
+        <v>-9.079786914774349</v>
       </c>
       <c r="V7" t="n">
-        <v>-3.010997582965862</v>
+        <v>-9.279371699253876</v>
       </c>
       <c r="W7" t="n">
-        <v>-13.73432845478983</v>
+        <v>-6.357742167218711</v>
       </c>
       <c r="X7" t="n">
-        <v>-1.257128799300969</v>
+        <v>-5.710928597797065</v>
       </c>
       <c r="Y7" t="n">
-        <v>-17.85257549894233</v>
+        <v>-15.98647572007517</v>
       </c>
       <c r="Z7" t="n">
-        <v>-5.647828545122337</v>
+        <v>-14.80200164218278</v>
       </c>
       <c r="AA7" t="n">
-        <v>-6.463251759449911</v>
+        <v>-11.91518785554953</v>
       </c>
       <c r="AB7" t="n">
-        <v>-12.49191071866565</v>
+        <v>-9.04437795368254</v>
       </c>
       <c r="AC7" t="n">
-        <v>-21.40910787213273</v>
+        <v>-15.69108445587778</v>
       </c>
     </row>
     <row r="8">
@@ -4049,88 +4049,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.528173703980401</v>
+        <v>-5.611868575925635</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.475825058431733</v>
+        <v>-2.129922893834172</v>
       </c>
       <c r="D8" t="n">
-        <v>5.685164651170228</v>
+        <v>-4.625025565924568</v>
       </c>
       <c r="E8" t="n">
-        <v>2.418060472111374</v>
+        <v>1.951823478459614</v>
       </c>
       <c r="F8" t="n">
-        <v>-10.17874351556575</v>
+        <v>-1.737733480242223</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.46460016504505</v>
+        <v>-7.633636465200061</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.99268467053151</v>
+        <v>-4.644294334470172</v>
       </c>
       <c r="I8" t="n">
-        <v>-11.20657700673798</v>
+        <v>-4.279470884149418</v>
       </c>
       <c r="J8" t="n">
-        <v>-5.422301392744725</v>
+        <v>-7.016368326453652</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.18938337036883</v>
+        <v>-7.887371706401954</v>
       </c>
       <c r="L8" t="n">
-        <v>-8.260413482451995</v>
+        <v>-8.04081395582744</v>
       </c>
       <c r="M8" t="n">
-        <v>-17.94340578455499</v>
+        <v>-5.993671369667854</v>
       </c>
       <c r="N8" t="n">
-        <v>-12.64653578236629</v>
+        <v>-7.210427738878598</v>
       </c>
       <c r="O8" t="n">
-        <v>0.146955732367287</v>
+        <v>-6.703372742123359</v>
       </c>
       <c r="P8" t="n">
-        <v>15.05847134931685</v>
+        <v>-11.6927903272133</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0653748773534959</v>
+        <v>-5.638359125499242</v>
       </c>
       <c r="R8" t="n">
-        <v>-7.319082954003643</v>
+        <v>-5.397632117685308</v>
       </c>
       <c r="S8" t="n">
-        <v>-3.005224635154832</v>
+        <v>-7.836026440180118</v>
       </c>
       <c r="T8" t="n">
-        <v>-13.74542062538775</v>
+        <v>-8.667377942623981</v>
       </c>
       <c r="U8" t="n">
-        <v>-14.89452192887352</v>
+        <v>-10.95415728040904</v>
       </c>
       <c r="V8" t="n">
-        <v>-3.571622841317949</v>
+        <v>-12.66004744529582</v>
       </c>
       <c r="W8" t="n">
-        <v>-14.58644620551497</v>
+        <v>-6.638235246482229</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.2071276356812186</v>
+        <v>-5.46752489068151</v>
       </c>
       <c r="Y8" t="n">
-        <v>-15.57887392409604</v>
+        <v>-15.00379037935142</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5.367969946584537</v>
+        <v>-15.66927295626384</v>
       </c>
       <c r="AA8" t="n">
-        <v>-6.157542719079306</v>
+        <v>-9.753703355966959</v>
       </c>
       <c r="AB8" t="n">
-        <v>-14.05640627349005</v>
+        <v>-13.049041566509</v>
       </c>
       <c r="AC8" t="n">
-        <v>-23.64824475012249</v>
+        <v>-17.51132788294977</v>
       </c>
     </row>
     <row r="9">
@@ -4138,88 +4138,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.100159898920924</v>
+        <v>-0.6758519717116998</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.085556753612097</v>
+        <v>2.536109177496468</v>
       </c>
       <c r="D9" t="n">
-        <v>4.892942718252736</v>
+        <v>0.6536926919132563</v>
       </c>
       <c r="E9" t="n">
-        <v>6.316440733277955</v>
+        <v>3.825208583575816</v>
       </c>
       <c r="F9" t="n">
-        <v>-9.915020547723563</v>
+        <v>1.542771940405104</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.60728532016699</v>
+        <v>-2.965935496341562</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6240750761863216</v>
+        <v>1.759532169680504</v>
       </c>
       <c r="I9" t="n">
-        <v>-10.30762545775979</v>
+        <v>1.117557946254054</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.807673366511532</v>
+        <v>-4.927410397399168</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.877129429153575</v>
+        <v>-4.924539276884113</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.644204413247759</v>
+        <v>-2.762007997340677</v>
       </c>
       <c r="M9" t="n">
-        <v>-17.00361847567218</v>
+        <v>-1.059932224376698</v>
       </c>
       <c r="N9" t="n">
-        <v>-14.29856642255101</v>
+        <v>-2.46717017346519</v>
       </c>
       <c r="O9" t="n">
-        <v>1.161713376274604</v>
+        <v>-3.189249515461966</v>
       </c>
       <c r="P9" t="n">
-        <v>15.11098427902776</v>
+        <v>-4.482457354876503</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.551631168289823</v>
+        <v>-1.340933105606626</v>
       </c>
       <c r="R9" t="n">
-        <v>-6.432289838135263</v>
+        <v>-2.610667788952295</v>
       </c>
       <c r="S9" t="n">
-        <v>-2.025474266567148</v>
+        <v>-3.936185673652437</v>
       </c>
       <c r="T9" t="n">
-        <v>-14.8392013714055</v>
+        <v>-5.857149332488687</v>
       </c>
       <c r="U9" t="n">
-        <v>-14.8317723686939</v>
+        <v>-4.309589431952374</v>
       </c>
       <c r="V9" t="n">
-        <v>-2.354812952102079</v>
+        <v>-6.112501892870299</v>
       </c>
       <c r="W9" t="n">
-        <v>-15.66909139885148</v>
+        <v>-0.7174494468245252</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.4435609891721155</v>
+        <v>-3.333766472023519</v>
       </c>
       <c r="Y9" t="n">
-        <v>-16.13899376553194</v>
+        <v>-12.1405178003926</v>
       </c>
       <c r="Z9" t="n">
-        <v>-6.161007252182563</v>
+        <v>-12.01082458002842</v>
       </c>
       <c r="AA9" t="n">
-        <v>-7.999523054851101</v>
+        <v>-6.096822119377284</v>
       </c>
       <c r="AB9" t="n">
-        <v>-12.64058827697009</v>
+        <v>-6.740079855492751</v>
       </c>
       <c r="AC9" t="n">
-        <v>-21.1821245633963</v>
+        <v>-11.11261864924228</v>
       </c>
     </row>
     <row r="10">
@@ -4227,88 +4227,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6680147080048249</v>
+        <v>-6.307773839282844</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.963227618960012</v>
+        <v>-2.397157620246744</v>
       </c>
       <c r="D10" t="n">
-        <v>5.707032701443151</v>
+        <v>-3.605118673021767</v>
       </c>
       <c r="E10" t="n">
-        <v>2.453569040706773</v>
+        <v>1.332864175262382</v>
       </c>
       <c r="F10" t="n">
-        <v>-11.42750685054263</v>
+        <v>0.21778176936518</v>
       </c>
       <c r="G10" t="n">
-        <v>-14.56034702413524</v>
+        <v>-7.883202062863811</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.091243677652189</v>
+        <v>-2.87061798157208</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.640681595395776</v>
+        <v>-2.142127636088</v>
       </c>
       <c r="J10" t="n">
-        <v>-4.125178510532739</v>
+        <v>-6.376249417890225</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7949214365728108</v>
+        <v>-9.348113172529569</v>
       </c>
       <c r="L10" t="n">
-        <v>-7.655027125625529</v>
+        <v>-5.487980991983874</v>
       </c>
       <c r="M10" t="n">
-        <v>-19.54782268193789</v>
+        <v>-5.648048636062637</v>
       </c>
       <c r="N10" t="n">
-        <v>-14.61568738718096</v>
+        <v>-6.261432221791305</v>
       </c>
       <c r="O10" t="n">
-        <v>1.568640452125064</v>
+        <v>-8.331543566555867</v>
       </c>
       <c r="P10" t="n">
-        <v>15.72981061630295</v>
+        <v>-12.09852212232474</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.19691432404149</v>
+        <v>-4.643775185838443</v>
       </c>
       <c r="R10" t="n">
-        <v>-6.567306650619277</v>
+        <v>-6.291958231967589</v>
       </c>
       <c r="S10" t="n">
-        <v>-3.661798721497371</v>
+        <v>-6.752133338881</v>
       </c>
       <c r="T10" t="n">
-        <v>-15.00975989691428</v>
+        <v>-8.952673153646828</v>
       </c>
       <c r="U10" t="n">
-        <v>-16.25930359606587</v>
+        <v>-8.927958927656778</v>
       </c>
       <c r="V10" t="n">
-        <v>-3.629263777066527</v>
+        <v>-8.641791322110606</v>
       </c>
       <c r="W10" t="n">
-        <v>-15.24065747344988</v>
+        <v>-6.094138915697735</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.665352761215439</v>
+        <v>-6.372155842702035</v>
       </c>
       <c r="Y10" t="n">
-        <v>-16.78595643963022</v>
+        <v>-14.03252432287948</v>
       </c>
       <c r="Z10" t="n">
-        <v>-6.962125380714179</v>
+        <v>-14.83440542737773</v>
       </c>
       <c r="AA10" t="n">
-        <v>-7.136375075098146</v>
+        <v>-10.4095547629042</v>
       </c>
       <c r="AB10" t="n">
-        <v>-16.00792511464934</v>
+        <v>-12.13109742459054</v>
       </c>
       <c r="AC10" t="n">
-        <v>-22.23180330951073</v>
+        <v>-15.41730914976399</v>
       </c>
     </row>
     <row r="11">
@@ -4316,88 +4316,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.447546825994479</v>
+        <v>-5.933818665672788</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.094089938917616</v>
+        <v>-1.330419131167571</v>
       </c>
       <c r="D11" t="n">
-        <v>3.961953976939838</v>
+        <v>-2.545765277336435</v>
       </c>
       <c r="E11" t="n">
-        <v>2.867142180793543</v>
+        <v>0.07808885032055146</v>
       </c>
       <c r="F11" t="n">
-        <v>-11.46371633279532</v>
+        <v>-1.852545044478939</v>
       </c>
       <c r="G11" t="n">
-        <v>-16.61320896084439</v>
+        <v>-8.525199648809306</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.07896840046625</v>
+        <v>-1.934923589328559</v>
       </c>
       <c r="I11" t="n">
-        <v>-10.71405389877384</v>
+        <v>-0.5588010706100257</v>
       </c>
       <c r="J11" t="n">
-        <v>-5.290581154537962</v>
+        <v>-6.114398707225056</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.274605910787417</v>
+        <v>-8.688010750064976</v>
       </c>
       <c r="L11" t="n">
-        <v>-10.15602960202144</v>
+        <v>-5.143374988647981</v>
       </c>
       <c r="M11" t="n">
-        <v>-19.02333176804108</v>
+        <v>-3.393548479446256</v>
       </c>
       <c r="N11" t="n">
-        <v>-12.17415106045846</v>
+        <v>-3.850417839537887</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7952540096877687</v>
+        <v>-5.776972519784375</v>
       </c>
       <c r="P11" t="n">
-        <v>14.10146245212054</v>
+        <v>-8.775337576472749</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.894739621944225</v>
+        <v>-1.708320755250621</v>
       </c>
       <c r="R11" t="n">
-        <v>-6.131260901625389</v>
+        <v>-4.487048235602801</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.024540518185882</v>
+        <v>-7.121339898567115</v>
       </c>
       <c r="T11" t="n">
-        <v>-14.71944830514129</v>
+        <v>-8.647005621408884</v>
       </c>
       <c r="U11" t="n">
-        <v>-14.24913724286376</v>
+        <v>-7.000504450727073</v>
       </c>
       <c r="V11" t="n">
-        <v>-2.06420917670938</v>
+        <v>-8.423183508711617</v>
       </c>
       <c r="W11" t="n">
-        <v>-16.83010913951408</v>
+        <v>-5.457739548642271</v>
       </c>
       <c r="X11" t="n">
-        <v>0.409467481696125</v>
+        <v>-4.441422738391541</v>
       </c>
       <c r="Y11" t="n">
-        <v>-16.69488784730231</v>
+        <v>-13.69723407966971</v>
       </c>
       <c r="Z11" t="n">
-        <v>-8.35414088124128</v>
+        <v>-14.64665919337516</v>
       </c>
       <c r="AA11" t="n">
-        <v>-5.825363143203049</v>
+        <v>-8.3708354461025</v>
       </c>
       <c r="AB11" t="n">
-        <v>-11.1305921261307</v>
+        <v>-11.70423017970564</v>
       </c>
       <c r="AC11" t="n">
-        <v>-21.85657019494157</v>
+        <v>-14.30476737298396</v>
       </c>
     </row>
   </sheetData>
@@ -4510,88 +4510,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.119322480083627</v>
+        <v>-4.493165219588629</v>
       </c>
       <c r="C2" t="n">
-        <v>1.912251780106446</v>
+        <v>-5.963876241419342</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.12317889910927</v>
+        <v>-3.855713155491403</v>
       </c>
       <c r="E2" t="n">
-        <v>7.393090832942335</v>
+        <v>0.4219476902125461</v>
       </c>
       <c r="F2" t="n">
-        <v>-13.14800862181191</v>
+        <v>-3.346528800588351</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.90570083512749</v>
+        <v>-4.446282791145376</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.43390001519124</v>
+        <v>-1.451213112281742</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.650867707854568</v>
+        <v>-3.261692532142238</v>
       </c>
       <c r="J2" t="n">
-        <v>6.652192533966749</v>
+        <v>-4.775370950063089</v>
       </c>
       <c r="K2" t="n">
-        <v>2.681481458544217</v>
+        <v>-3.260740923501823</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.27082847201846</v>
+        <v>-6.291119956742024</v>
       </c>
       <c r="M2" t="n">
-        <v>-12.89697759364528</v>
+        <v>-0.1902500912325187</v>
       </c>
       <c r="N2" t="n">
-        <v>7.274376508287691</v>
+        <v>-3.593718283455668</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08819051841245518</v>
+        <v>-3.411423253805645</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.264050432074391</v>
+        <v>-3.483081530907943</v>
       </c>
       <c r="Q2" t="n">
-        <v>-17.48598027772252</v>
+        <v>-5.500820269296207</v>
       </c>
       <c r="R2" t="n">
-        <v>-22.44732438940243</v>
+        <v>-6.849562525132528</v>
       </c>
       <c r="S2" t="n">
-        <v>11.60289772191553</v>
+        <v>-9.112132260503186</v>
       </c>
       <c r="T2" t="n">
-        <v>-13.4967104417539</v>
+        <v>-3.620579211147189</v>
       </c>
       <c r="U2" t="n">
-        <v>-19.65106493885188</v>
+        <v>-8.804775864724093</v>
       </c>
       <c r="V2" t="n">
-        <v>-13.13733511322079</v>
+        <v>-7.546085375730931</v>
       </c>
       <c r="W2" t="n">
-        <v>-12.89766652785286</v>
+        <v>-10.87023562389353</v>
       </c>
       <c r="X2" t="n">
-        <v>-15.49987821226802</v>
+        <v>-9.619182568714386</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.813828662337917</v>
+        <v>-12.84491823200963</v>
       </c>
       <c r="Z2" t="n">
-        <v>-15.15417150911384</v>
+        <v>-17.882839424249</v>
       </c>
       <c r="AA2" t="n">
-        <v>-41.84569902681284</v>
+        <v>-29.27553659418751</v>
       </c>
       <c r="AB2" t="n">
-        <v>-25.50307258543626</v>
+        <v>-31.01145626977078</v>
       </c>
       <c r="AC2" t="n">
-        <v>-53.81841194220351</v>
+        <v>-55.82483737495417</v>
       </c>
     </row>
     <row r="3">
@@ -4599,88 +4599,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5839175459054937</v>
+        <v>-10.36872112148292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2398260151063596</v>
+        <v>-10.46280869593299</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.9722061399759</v>
+        <v>-8.784288841388648</v>
       </c>
       <c r="E3" t="n">
-        <v>5.719585417797192</v>
+        <v>-6.029251352558441</v>
       </c>
       <c r="F3" t="n">
-        <v>-15.56779304807184</v>
+        <v>-8.461336201039797</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.763496965643704</v>
+        <v>-10.64259271429256</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.39074320600004</v>
+        <v>-5.264569011459693</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.271672513025994</v>
+        <v>-9.164528624293041</v>
       </c>
       <c r="J3" t="n">
-        <v>5.59712658539598</v>
+        <v>-9.783399008517852</v>
       </c>
       <c r="K3" t="n">
-        <v>2.194278892289371</v>
+        <v>-9.865375718945709</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.361152065983147</v>
+        <v>-10.92506937739757</v>
       </c>
       <c r="M3" t="n">
-        <v>-14.300729226403</v>
+        <v>-4.263332857782988</v>
       </c>
       <c r="N3" t="n">
-        <v>5.308700450012998</v>
+        <v>-12.36415404096594</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.07987813542197575</v>
+        <v>-8.611842608690484</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.992761300052564</v>
+        <v>-10.91078031666155</v>
       </c>
       <c r="Q3" t="n">
-        <v>-20.0379263262359</v>
+        <v>-9.593202364131397</v>
       </c>
       <c r="R3" t="n">
-        <v>-22.98258282923605</v>
+        <v>-13.44352183746888</v>
       </c>
       <c r="S3" t="n">
-        <v>13.96194731036361</v>
+        <v>-12.06929992948753</v>
       </c>
       <c r="T3" t="n">
-        <v>-12.94383972843458</v>
+        <v>-10.37665337891124</v>
       </c>
       <c r="U3" t="n">
-        <v>-21.87986800071126</v>
+        <v>-13.65224520207398</v>
       </c>
       <c r="V3" t="n">
-        <v>-13.90104638641823</v>
+        <v>-10.77833831044059</v>
       </c>
       <c r="W3" t="n">
-        <v>-13.18063820352102</v>
+        <v>-14.94443206760269</v>
       </c>
       <c r="X3" t="n">
-        <v>-16.24029360513688</v>
+        <v>-16.95937398651236</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.762942871866469</v>
+        <v>-19.0013562662603</v>
       </c>
       <c r="Z3" t="n">
-        <v>-18.78345944998318</v>
+        <v>-22.30623769902732</v>
       </c>
       <c r="AA3" t="n">
-        <v>-43.13836240133372</v>
+        <v>-33.69802678816621</v>
       </c>
       <c r="AB3" t="n">
-        <v>-29.81417655938957</v>
+        <v>-37.76616212768936</v>
       </c>
       <c r="AC3" t="n">
-        <v>-53.88567067530008</v>
+        <v>-59.58280411208049</v>
       </c>
     </row>
     <row r="4">
@@ -4688,88 +4688,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1833879367063478</v>
+        <v>-6.592035405022994</v>
       </c>
       <c r="C4" t="n">
-        <v>1.622394659888057</v>
+        <v>-6.683441459718762</v>
       </c>
       <c r="D4" t="n">
-        <v>-11.12629284678147</v>
+        <v>-3.907480121815836</v>
       </c>
       <c r="E4" t="n">
-        <v>4.338356496623273</v>
+        <v>-1.54025530880362</v>
       </c>
       <c r="F4" t="n">
-        <v>-14.94443032351863</v>
+        <v>-5.450830155632154</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.28580672379702</v>
+        <v>-5.829571940963113</v>
       </c>
       <c r="H4" t="n">
-        <v>-19.5016338307878</v>
+        <v>-2.065942576000944</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.859850042389045</v>
+        <v>-5.941936474046363</v>
       </c>
       <c r="J4" t="n">
-        <v>5.936615297379414</v>
+        <v>-5.949077513462827</v>
       </c>
       <c r="K4" t="n">
-        <v>2.528720452977516</v>
+        <v>-8.096340965202554</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.380226704519115</v>
+        <v>-7.573466922842023</v>
       </c>
       <c r="M4" t="n">
-        <v>-12.11238671416529</v>
+        <v>-0.1285038601021204</v>
       </c>
       <c r="N4" t="n">
-        <v>6.599292380833062</v>
+        <v>-3.654726653574761</v>
       </c>
       <c r="O4" t="n">
-        <v>1.482248909012385</v>
+        <v>-3.005023627511403</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.011018485670921</v>
+        <v>-5.142157139157788</v>
       </c>
       <c r="Q4" t="n">
-        <v>-18.53593035756365</v>
+        <v>-4.611644668782552</v>
       </c>
       <c r="R4" t="n">
-        <v>-19.85394502723369</v>
+        <v>-5.713072893500878</v>
       </c>
       <c r="S4" t="n">
-        <v>13.30365447404951</v>
+        <v>-9.839269475495826</v>
       </c>
       <c r="T4" t="n">
-        <v>-12.70174223708421</v>
+        <v>-6.131163532875298</v>
       </c>
       <c r="U4" t="n">
-        <v>-19.52506854733773</v>
+        <v>-8.126020231558913</v>
       </c>
       <c r="V4" t="n">
-        <v>-13.79383054086475</v>
+        <v>-6.566337156896083</v>
       </c>
       <c r="W4" t="n">
-        <v>-13.72059193650062</v>
+        <v>-10.32947363640397</v>
       </c>
       <c r="X4" t="n">
-        <v>-17.82755641010313</v>
+        <v>-12.65310836895619</v>
       </c>
       <c r="Y4" t="n">
-        <v>-11.71561062821316</v>
+        <v>-14.94982327436607</v>
       </c>
       <c r="Z4" t="n">
-        <v>-15.40747089334519</v>
+        <v>-19.92514721720237</v>
       </c>
       <c r="AA4" t="n">
-        <v>-42.56671282845637</v>
+        <v>-29.62045635959165</v>
       </c>
       <c r="AB4" t="n">
-        <v>-25.85701042376838</v>
+        <v>-35.02971117773937</v>
       </c>
       <c r="AC4" t="n">
-        <v>-52.02714203017925</v>
+        <v>-55.82009040678438</v>
       </c>
     </row>
     <row r="5">
@@ -4777,88 +4777,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.086207026272792</v>
+        <v>-10.05953382902293</v>
       </c>
       <c r="C5" t="n">
-        <v>1.32990677524961</v>
+        <v>-8.924550679760696</v>
       </c>
       <c r="D5" t="n">
-        <v>-13.33944559983384</v>
+        <v>-6.346839948683122</v>
       </c>
       <c r="E5" t="n">
-        <v>6.42638421734264</v>
+        <v>-3.808387262443855</v>
       </c>
       <c r="F5" t="n">
-        <v>-15.57829198291845</v>
+        <v>-6.505001365374111</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.72334886893462</v>
+        <v>-8.160006611614017</v>
       </c>
       <c r="H5" t="n">
-        <v>-20.00545700054981</v>
+        <v>-2.995709396106548</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.26883558533282</v>
+        <v>-7.203361634310625</v>
       </c>
       <c r="J5" t="n">
-        <v>4.971197477841205</v>
+        <v>-8.357365851597724</v>
       </c>
       <c r="K5" t="n">
-        <v>2.641075048786963</v>
+        <v>-8.562817773543074</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.767114875094768</v>
+        <v>-8.832100967767772</v>
       </c>
       <c r="M5" t="n">
-        <v>-14.59250145992014</v>
+        <v>-4.116698161213975</v>
       </c>
       <c r="N5" t="n">
-        <v>6.32209740892865</v>
+        <v>-6.937460202937772</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7137280927595624</v>
+        <v>-8.335294558990757</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.030154456234721</v>
+        <v>-10.25706667449398</v>
       </c>
       <c r="Q5" t="n">
-        <v>-18.33190119770126</v>
+        <v>-6.714571424318116</v>
       </c>
       <c r="R5" t="n">
-        <v>-23.27027534497599</v>
+        <v>-8.973769449816553</v>
       </c>
       <c r="S5" t="n">
-        <v>11.21610572062167</v>
+        <v>-11.23071394452433</v>
       </c>
       <c r="T5" t="n">
-        <v>-12.94228821624274</v>
+        <v>-7.083296684388722</v>
       </c>
       <c r="U5" t="n">
-        <v>-19.03202636525529</v>
+        <v>-12.21908759475501</v>
       </c>
       <c r="V5" t="n">
-        <v>-14.53292607444507</v>
+        <v>-10.20627637238515</v>
       </c>
       <c r="W5" t="n">
-        <v>-12.55510786021508</v>
+        <v>-12.79325059891729</v>
       </c>
       <c r="X5" t="n">
-        <v>-16.69276045552682</v>
+        <v>-13.08097391980169</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.724501720183646</v>
+        <v>-15.49056102941546</v>
       </c>
       <c r="Z5" t="n">
-        <v>-18.02800384736078</v>
+        <v>-23.51613729039767</v>
       </c>
       <c r="AA5" t="n">
-        <v>-41.45155711655524</v>
+        <v>-30.39672802995382</v>
       </c>
       <c r="AB5" t="n">
-        <v>-26.57189705462877</v>
+        <v>-35.18665003148848</v>
       </c>
       <c r="AC5" t="n">
-        <v>-53.72706297014959</v>
+        <v>-56.34628797077921</v>
       </c>
     </row>
     <row r="6">
@@ -4866,88 +4866,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.177697657561596</v>
+        <v>-5.72652198564418</v>
       </c>
       <c r="C6" t="n">
-        <v>2.38823631266912</v>
+        <v>-6.037902919042619</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.30252000135949</v>
+        <v>-2.238627667894834</v>
       </c>
       <c r="E6" t="n">
-        <v>6.204288278683215</v>
+        <v>-0.9820620219848646</v>
       </c>
       <c r="F6" t="n">
-        <v>-14.20791647922049</v>
+        <v>-4.538037990802861</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.959642717964151</v>
+        <v>-5.145095922960891</v>
       </c>
       <c r="H6" t="n">
-        <v>-20.20473202334441</v>
+        <v>-2.293835394755763</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.380588563577998</v>
+        <v>-5.441598490207206</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8854862346735</v>
+        <v>-5.112952706947768</v>
       </c>
       <c r="K6" t="n">
-        <v>1.908798391757936</v>
+        <v>-6.404935188394306</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.912055903847049</v>
+        <v>-6.191699734353065</v>
       </c>
       <c r="M6" t="n">
-        <v>-13.67124281822993</v>
+        <v>-0.6128601303129129</v>
       </c>
       <c r="N6" t="n">
-        <v>7.011600944800068</v>
+        <v>-2.845200455566314</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.002472595807328837</v>
+        <v>-2.171928147350192</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.947254812987862</v>
+        <v>-5.710429560343882</v>
       </c>
       <c r="Q6" t="n">
-        <v>-17.76678274785909</v>
+        <v>-4.214523596316402</v>
       </c>
       <c r="R6" t="n">
-        <v>-21.27696664802866</v>
+        <v>-6.417089911037163</v>
       </c>
       <c r="S6" t="n">
-        <v>14.23259910113146</v>
+        <v>-8.619157387860351</v>
       </c>
       <c r="T6" t="n">
-        <v>-11.53724151481735</v>
+        <v>-2.644900960908136</v>
       </c>
       <c r="U6" t="n">
-        <v>-19.86764011876117</v>
+        <v>-8.662133457319049</v>
       </c>
       <c r="V6" t="n">
-        <v>-13.07567484907544</v>
+        <v>-6.665933254662242</v>
       </c>
       <c r="W6" t="n">
-        <v>-14.03786261550591</v>
+        <v>-9.170462227369876</v>
       </c>
       <c r="X6" t="n">
-        <v>-14.39186791745096</v>
+        <v>-11.4612098988061</v>
       </c>
       <c r="Y6" t="n">
-        <v>-9.831128711260877</v>
+        <v>-14.41825467654966</v>
       </c>
       <c r="Z6" t="n">
-        <v>-16.14114235247421</v>
+        <v>-19.51263278029059</v>
       </c>
       <c r="AA6" t="n">
-        <v>-42.63474065406523</v>
+        <v>-29.98204348770594</v>
       </c>
       <c r="AB6" t="n">
-        <v>-25.47885777035675</v>
+        <v>-32.78009127318743</v>
       </c>
       <c r="AC6" t="n">
-        <v>-52.32902032855208</v>
+        <v>-54.73182333590427</v>
       </c>
     </row>
     <row r="7">
@@ -4955,88 +4955,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2254716250922746</v>
+        <v>-7.965165993093189</v>
       </c>
       <c r="C7" t="n">
-        <v>1.79439847521023</v>
+        <v>-7.65027662143836</v>
       </c>
       <c r="D7" t="n">
-        <v>-13.38036436155582</v>
+        <v>-7.728916003963807</v>
       </c>
       <c r="E7" t="n">
-        <v>5.575315945052601</v>
+        <v>-2.933445536709493</v>
       </c>
       <c r="F7" t="n">
-        <v>-16.50535948045177</v>
+        <v>-7.750815683475822</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.6618551654141</v>
+        <v>-6.709259992563759</v>
       </c>
       <c r="H7" t="n">
-        <v>-20.34349591135095</v>
+        <v>-4.081577364128009</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.056895466037574</v>
+        <v>-6.958915913604225</v>
       </c>
       <c r="J7" t="n">
-        <v>5.624274406108111</v>
+        <v>-9.61624487176891</v>
       </c>
       <c r="K7" t="n">
-        <v>4.140027260942773</v>
+        <v>-9.217132371338305</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.751013791600835</v>
+        <v>-6.935204060300774</v>
       </c>
       <c r="M7" t="n">
-        <v>-13.78835464869324</v>
+        <v>-4.195502613392961</v>
       </c>
       <c r="N7" t="n">
-        <v>4.745296712651037</v>
+        <v>-7.493515530580069</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1456451515105064</v>
+        <v>-7.116020403755323</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.679808785813179</v>
+        <v>-9.94866523219207</v>
       </c>
       <c r="Q7" t="n">
-        <v>-17.94996598329283</v>
+        <v>-6.757429947343078</v>
       </c>
       <c r="R7" t="n">
-        <v>-21.58925358396551</v>
+        <v>-7.597810786459917</v>
       </c>
       <c r="S7" t="n">
-        <v>12.0093027029453</v>
+        <v>-12.66071073337904</v>
       </c>
       <c r="T7" t="n">
-        <v>-13.25945305413839</v>
+        <v>-7.05876805033814</v>
       </c>
       <c r="U7" t="n">
-        <v>-21.2637247057002</v>
+        <v>-11.6889506235118</v>
       </c>
       <c r="V7" t="n">
-        <v>-15.86709751911997</v>
+        <v>-9.463965877515694</v>
       </c>
       <c r="W7" t="n">
-        <v>-13.93648797072573</v>
+        <v>-12.87057566243816</v>
       </c>
       <c r="X7" t="n">
-        <v>-16.33306398850613</v>
+        <v>-12.47709215115615</v>
       </c>
       <c r="Y7" t="n">
-        <v>-10.63986995767945</v>
+        <v>-15.98478898953972</v>
       </c>
       <c r="Z7" t="n">
-        <v>-17.94306693913901</v>
+        <v>-21.82352737342026</v>
       </c>
       <c r="AA7" t="n">
-        <v>-41.37928803797455</v>
+        <v>-30.30304605647699</v>
       </c>
       <c r="AB7" t="n">
-        <v>-28.24071647343213</v>
+        <v>-37.26954766992191</v>
       </c>
       <c r="AC7" t="n">
-        <v>-51.63075273888285</v>
+        <v>-58.49103910984196</v>
       </c>
     </row>
     <row r="8">
@@ -5044,88 +5044,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7240254549749703</v>
+        <v>-10.06300376814958</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3321975376839728</v>
+        <v>-10.71174695063787</v>
       </c>
       <c r="D8" t="n">
-        <v>-14.32501980864877</v>
+        <v>-7.799423801980571</v>
       </c>
       <c r="E8" t="n">
-        <v>4.736005982899492</v>
+        <v>-2.890418642121423</v>
       </c>
       <c r="F8" t="n">
-        <v>-16.23759214374218</v>
+        <v>-6.372639242665683</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.29793960781238</v>
+        <v>-7.887584148548475</v>
       </c>
       <c r="H8" t="n">
-        <v>-18.56318043289324</v>
+        <v>-5.544467580876965</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.541398768582424</v>
+        <v>-4.76694993811519</v>
       </c>
       <c r="J8" t="n">
-        <v>6.653221797002936</v>
+        <v>-9.390956846672767</v>
       </c>
       <c r="K8" t="n">
-        <v>3.005751378311144</v>
+        <v>-9.93546733082248</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.4003639644932599</v>
+        <v>-10.42208429432431</v>
       </c>
       <c r="M8" t="n">
-        <v>-12.24043108698032</v>
+        <v>-4.183600482186065</v>
       </c>
       <c r="N8" t="n">
-        <v>6.189167686838188</v>
+        <v>-9.127044635799194</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.145380978836767</v>
+        <v>-5.978667982358871</v>
       </c>
       <c r="P8" t="n">
-        <v>-3.235327569426119</v>
+        <v>-8.071259636764006</v>
       </c>
       <c r="Q8" t="n">
-        <v>-19.45120262543099</v>
+        <v>-6.846628513868628</v>
       </c>
       <c r="R8" t="n">
-        <v>-22.00477370460841</v>
+        <v>-9.933462725169441</v>
       </c>
       <c r="S8" t="n">
-        <v>12.36274464194809</v>
+        <v>-11.4272691294565</v>
       </c>
       <c r="T8" t="n">
-        <v>-13.02420092539248</v>
+        <v>-6.125847533947019</v>
       </c>
       <c r="U8" t="n">
-        <v>-19.83069363715655</v>
+        <v>-12.41386878828557</v>
       </c>
       <c r="V8" t="n">
-        <v>-14.05046804151997</v>
+        <v>-8.751032406091953</v>
       </c>
       <c r="W8" t="n">
-        <v>-14.87813170221848</v>
+        <v>-10.81564774897075</v>
       </c>
       <c r="X8" t="n">
-        <v>-16.4567317715503</v>
+        <v>-14.18759533660306</v>
       </c>
       <c r="Y8" t="n">
-        <v>-8.926439543496032</v>
+        <v>-16.25813559352617</v>
       </c>
       <c r="Z8" t="n">
-        <v>-16.02406785027576</v>
+        <v>-24.13511322887535</v>
       </c>
       <c r="AA8" t="n">
-        <v>-39.72586766169463</v>
+        <v>-32.73977059754877</v>
       </c>
       <c r="AB8" t="n">
-        <v>-27.09684737825977</v>
+        <v>-37.8699488168678</v>
       </c>
       <c r="AC8" t="n">
-        <v>-53.98484339121055</v>
+        <v>-58.25175775699463</v>
       </c>
     </row>
     <row r="9">
@@ -5133,88 +5133,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6387919169816805</v>
+        <v>-3.853182794135546</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9634670233497507</v>
+        <v>-4.681387878567389</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.62123009348705</v>
+        <v>-3.420779844431495</v>
       </c>
       <c r="E9" t="n">
-        <v>7.217155970784966</v>
+        <v>2.284592440968889</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.43087800324831</v>
+        <v>-2.53173602137955</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.92833810312127</v>
+        <v>-6.68681979366395</v>
       </c>
       <c r="H9" t="n">
-        <v>-19.72514046814889</v>
+        <v>-1.956952991358286</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.841876297328284</v>
+        <v>-1.853986386975364</v>
       </c>
       <c r="J9" t="n">
-        <v>5.055422167294786</v>
+        <v>-2.56161993848373</v>
       </c>
       <c r="K9" t="n">
-        <v>3.438938051227791</v>
+        <v>-4.488502062738922</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.330445862827808</v>
+        <v>-6.404279511313503</v>
       </c>
       <c r="M9" t="n">
-        <v>-13.30206046880592</v>
+        <v>1.283030377209012</v>
       </c>
       <c r="N9" t="n">
-        <v>5.512890568671772</v>
+        <v>-2.816158805113861</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.2077115417223823</v>
+        <v>-2.564200700414459</v>
       </c>
       <c r="P9" t="n">
-        <v>-3.464545608559598</v>
+        <v>-6.464022218129728</v>
       </c>
       <c r="Q9" t="n">
-        <v>-17.95073937905421</v>
+        <v>-3.357479893562538</v>
       </c>
       <c r="R9" t="n">
-        <v>-20.17348448610461</v>
+        <v>-3.460358633572397</v>
       </c>
       <c r="S9" t="n">
-        <v>11.94744050586189</v>
+        <v>-7.620297758823586</v>
       </c>
       <c r="T9" t="n">
-        <v>-13.19681253580551</v>
+        <v>-4.248813591415121</v>
       </c>
       <c r="U9" t="n">
-        <v>-19.58333688616587</v>
+        <v>-6.035649145001403</v>
       </c>
       <c r="V9" t="n">
-        <v>-14.50466028677203</v>
+        <v>-5.293980229213935</v>
       </c>
       <c r="W9" t="n">
-        <v>-14.51066162939856</v>
+        <v>-9.411532198433493</v>
       </c>
       <c r="X9" t="n">
-        <v>-15.81012519722426</v>
+        <v>-8.49745690148006</v>
       </c>
       <c r="Y9" t="n">
-        <v>-10.12551899481112</v>
+        <v>-11.60294642468472</v>
       </c>
       <c r="Z9" t="n">
-        <v>-18.30247944244455</v>
+        <v>-17.90152343426054</v>
       </c>
       <c r="AA9" t="n">
-        <v>-41.75714841833565</v>
+        <v>-27.09868229562859</v>
       </c>
       <c r="AB9" t="n">
-        <v>-25.62673868066959</v>
+        <v>-33.46296706313235</v>
       </c>
       <c r="AC9" t="n">
-        <v>-52.29895327446248</v>
+        <v>-51.46819855901251</v>
       </c>
     </row>
     <row r="10">
@@ -5222,88 +5222,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.161663900667877</v>
+        <v>-6.319918497197222</v>
       </c>
       <c r="C10" t="n">
-        <v>3.177812451861817</v>
+        <v>-8.887113103427684</v>
       </c>
       <c r="D10" t="n">
-        <v>-14.95426478971651</v>
+        <v>-6.080888540314657</v>
       </c>
       <c r="E10" t="n">
-        <v>5.670457867898445</v>
+        <v>-2.475755166107329</v>
       </c>
       <c r="F10" t="n">
-        <v>-15.23806728045628</v>
+        <v>-7.041904212361532</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.876959877185868</v>
+        <v>-9.06011411633051</v>
       </c>
       <c r="H10" t="n">
-        <v>-19.83889495334892</v>
+        <v>-5.134630612958112</v>
       </c>
       <c r="I10" t="n">
-        <v>-3.44029892510032</v>
+        <v>-7.023589581674724</v>
       </c>
       <c r="J10" t="n">
-        <v>6.46862710256688</v>
+        <v>-6.030479707198501</v>
       </c>
       <c r="K10" t="n">
-        <v>3.127664284145647</v>
+        <v>-9.707572474292768</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.832098762264715</v>
+        <v>-8.901169810403958</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6938130480515</v>
+        <v>-2.363932840868586</v>
       </c>
       <c r="N10" t="n">
-        <v>5.017125009503755</v>
+        <v>-6.502532633230166</v>
       </c>
       <c r="O10" t="n">
-        <v>1.215949833001584</v>
+        <v>-6.482008814574543</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.668474239142145</v>
+        <v>-7.76069016017128</v>
       </c>
       <c r="Q10" t="n">
-        <v>-18.6784037225469</v>
+        <v>-7.248187517028618</v>
       </c>
       <c r="R10" t="n">
-        <v>-23.35138193748395</v>
+        <v>-8.484664260290792</v>
       </c>
       <c r="S10" t="n">
-        <v>15.28170832633612</v>
+        <v>-10.07598497563923</v>
       </c>
       <c r="T10" t="n">
-        <v>-13.92322009288543</v>
+        <v>-7.815484836674393</v>
       </c>
       <c r="U10" t="n">
-        <v>-19.8487159343053</v>
+        <v>-8.789091338068683</v>
       </c>
       <c r="V10" t="n">
-        <v>-13.4824879707472</v>
+        <v>-10.27906481144574</v>
       </c>
       <c r="W10" t="n">
-        <v>-13.82438621949426</v>
+        <v>-13.3585401945525</v>
       </c>
       <c r="X10" t="n">
-        <v>-14.23333624361382</v>
+        <v>-12.74168332953094</v>
       </c>
       <c r="Y10" t="n">
-        <v>-11.06045352179505</v>
+        <v>-17.34504927092808</v>
       </c>
       <c r="Z10" t="n">
-        <v>-17.40233023375407</v>
+        <v>-22.99682609011572</v>
       </c>
       <c r="AA10" t="n">
-        <v>-41.94723246383102</v>
+        <v>-32.78652896357416</v>
       </c>
       <c r="AB10" t="n">
-        <v>-27.22298496035004</v>
+        <v>-39.11426395323278</v>
       </c>
       <c r="AC10" t="n">
-        <v>-52.06731234588537</v>
+        <v>-57.58031073530127</v>
       </c>
     </row>
     <row r="11">
@@ -5311,88 +5311,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6756372636381323</v>
+        <v>-4.898562003104249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9702831080110008</v>
+        <v>-9.149139741089261</v>
       </c>
       <c r="D11" t="n">
-        <v>-13.62591816347245</v>
+        <v>-7.442548712333091</v>
       </c>
       <c r="E11" t="n">
-        <v>6.121929305506808</v>
+        <v>-2.291549285249154</v>
       </c>
       <c r="F11" t="n">
-        <v>-14.64263623752272</v>
+        <v>-5.741402086768211</v>
       </c>
       <c r="G11" t="n">
-        <v>-12.3540740447454</v>
+        <v>-9.067910804632904</v>
       </c>
       <c r="H11" t="n">
-        <v>-19.02234749214045</v>
+        <v>-3.425853074019503</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.959549173297487</v>
+        <v>-6.388287549164067</v>
       </c>
       <c r="J11" t="n">
-        <v>8.10199683090597</v>
+        <v>-6.85150179067481</v>
       </c>
       <c r="K11" t="n">
-        <v>2.246670107064008</v>
+        <v>-7.365093984823597</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.236902109695004</v>
+        <v>-8.052716595039403</v>
       </c>
       <c r="M11" t="n">
-        <v>-12.80263375676705</v>
+        <v>-3.607678879436827</v>
       </c>
       <c r="N11" t="n">
-        <v>7.772468321476889</v>
+        <v>-5.261361067852894</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.4642727625816674</v>
+        <v>-6.004945893248115</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.178396970210695</v>
+        <v>-7.375322315809271</v>
       </c>
       <c r="Q11" t="n">
-        <v>-18.97703067257859</v>
+        <v>-7.109524592159387</v>
       </c>
       <c r="R11" t="n">
-        <v>-20.98839706892431</v>
+        <v>-9.595920378591533</v>
       </c>
       <c r="S11" t="n">
-        <v>13.65861094569949</v>
+        <v>-10.46011053850619</v>
       </c>
       <c r="T11" t="n">
-        <v>-12.08202274116302</v>
+        <v>-4.661038179999363</v>
       </c>
       <c r="U11" t="n">
-        <v>-18.79370927924917</v>
+        <v>-8.338457545411366</v>
       </c>
       <c r="V11" t="n">
-        <v>-13.04970950082399</v>
+        <v>-9.619377414974377</v>
       </c>
       <c r="W11" t="n">
-        <v>-14.05275806435573</v>
+        <v>-10.81607415064005</v>
       </c>
       <c r="X11" t="n">
-        <v>-16.25308338321175</v>
+        <v>-13.83508538701054</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.808091976976822</v>
+        <v>-16.42377242144492</v>
       </c>
       <c r="Z11" t="n">
-        <v>-17.70021269188829</v>
+        <v>-22.70453778353895</v>
       </c>
       <c r="AA11" t="n">
-        <v>-40.5454638971584</v>
+        <v>-31.81600376667874</v>
       </c>
       <c r="AB11" t="n">
-        <v>-26.85444272441991</v>
+        <v>-37.10798694978803</v>
       </c>
       <c r="AC11" t="n">
-        <v>-53.35962364987115</v>
+        <v>-57.12090878575285</v>
       </c>
     </row>
   </sheetData>
@@ -5505,88 +5505,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.20670045167112</v>
+        <v>1.735171094826151</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.18804575898386</v>
+        <v>-3.226005768903573</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.183143914090504</v>
+        <v>2.156663721704925</v>
       </c>
       <c r="E2" t="n">
-        <v>6.554844538772347</v>
+        <v>-4.855857095752792</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.401500110340766</v>
+        <v>-3.880699151591268</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.60149269210716</v>
+        <v>-5.921668910540717</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.85227970076275</v>
+        <v>2.4172567073068</v>
       </c>
       <c r="I2" t="n">
-        <v>-17.24786324368885</v>
+        <v>-4.783204977208014</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.834026941240352</v>
+        <v>-0.3858674442341217</v>
       </c>
       <c r="K2" t="n">
-        <v>2.87265772914547</v>
+        <v>-2.526925377438098</v>
       </c>
       <c r="L2" t="n">
-        <v>4.864609648372197</v>
+        <v>0.6242521449085854</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.284619630356245</v>
+        <v>-1.777826412870882</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.03323175366844233</v>
+        <v>3.753666615175684</v>
       </c>
       <c r="O2" t="n">
-        <v>13.62713311869618</v>
+        <v>0.8689239308959698</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.07576135418106</v>
+        <v>1.022604680134733</v>
       </c>
       <c r="Q2" t="n">
-        <v>-13.20149379570745</v>
+        <v>-0.6451808527897787</v>
       </c>
       <c r="R2" t="n">
-        <v>9.861411612583206</v>
+        <v>4.573790939446607</v>
       </c>
       <c r="S2" t="n">
-        <v>11.36755476323318</v>
+        <v>1.626165865813269</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.585506866037409</v>
+        <v>-2.836979386797647</v>
       </c>
       <c r="U2" t="n">
-        <v>3.146595757681947</v>
+        <v>-1.769418276220919</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.986051569649987</v>
+        <v>2.866102952597621</v>
       </c>
       <c r="W2" t="n">
-        <v>-6.066002953490509</v>
+        <v>6.519086882600857</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.665209090110308</v>
+        <v>2.884615724024823</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.256289616153795</v>
+        <v>2.339255047503912</v>
       </c>
       <c r="Z2" t="n">
-        <v>-9.491425602390144</v>
+        <v>-1.350404959634323</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.730748741337107</v>
+        <v>0.8498898030022757</v>
       </c>
       <c r="AB2" t="n">
-        <v>-3.943453125463938</v>
+        <v>-0.3986615453184046</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.392713691273712</v>
+        <v>-0.8029446330878769</v>
       </c>
     </row>
     <row r="3">
@@ -5594,88 +5594,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.973286537136217</v>
+        <v>-4.074109362280325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07569477888656451</v>
+        <v>-6.359406481887554</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.337299591030684</v>
+        <v>-2.765897113170336</v>
       </c>
       <c r="E3" t="n">
-        <v>4.759118150478235</v>
+        <v>-8.052223674355689</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.05284432424521</v>
+        <v>-8.819639574855533</v>
       </c>
       <c r="G3" t="n">
-        <v>-21.18750233228604</v>
+        <v>-11.50034545822903</v>
       </c>
       <c r="H3" t="n">
-        <v>-10.83944324303516</v>
+        <v>-3.36289689262752</v>
       </c>
       <c r="I3" t="n">
-        <v>-18.84743557040495</v>
+        <v>-10.12397391099818</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.322249847750758</v>
+        <v>-5.051692194594248</v>
       </c>
       <c r="K3" t="n">
-        <v>3.94207701364483</v>
+        <v>-7.898483237116535</v>
       </c>
       <c r="L3" t="n">
-        <v>5.232657727348947</v>
+        <v>-5.527254133712346</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.023437706321196</v>
+        <v>-5.960822857155504</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.7068183931041109</v>
+        <v>-3.053735494591888</v>
       </c>
       <c r="O3" t="n">
-        <v>12.69849204207862</v>
+        <v>-5.607952549989971</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.801078411801416</v>
+        <v>-2.789947809510183</v>
       </c>
       <c r="Q3" t="n">
-        <v>-16.87499312602567</v>
+        <v>-7.34225812185187</v>
       </c>
       <c r="R3" t="n">
-        <v>9.709703162462947</v>
+        <v>-2.013428636219702</v>
       </c>
       <c r="S3" t="n">
-        <v>11.91922041098671</v>
+        <v>-5.445796553580479</v>
       </c>
       <c r="T3" t="n">
-        <v>-5.705634597154774</v>
+        <v>-5.756661761476401</v>
       </c>
       <c r="U3" t="n">
-        <v>1.282355022001699</v>
+        <v>-8.166489343150541</v>
       </c>
       <c r="V3" t="n">
-        <v>-4.508633526857858</v>
+        <v>-2.081574297492971</v>
       </c>
       <c r="W3" t="n">
-        <v>-9.308728516446639</v>
+        <v>0.5480258747009934</v>
       </c>
       <c r="X3" t="n">
-        <v>-3.713025615632528</v>
+        <v>-0.9822141895577814</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3491917399372801</v>
+        <v>-4.329436936462077</v>
       </c>
       <c r="Z3" t="n">
-        <v>-8.982134680903433</v>
+        <v>-7.431858535314507</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.751945528788633</v>
+        <v>-2.542032858570688</v>
       </c>
       <c r="AB3" t="n">
-        <v>-4.671478705220499</v>
+        <v>-5.235174531786952</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.309375108032889</v>
+        <v>-4.491323542875228</v>
       </c>
     </row>
     <row r="4">
@@ -5683,88 +5683,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.591731786593158</v>
+        <v>-0.1555361988461867</v>
       </c>
       <c r="C4" t="n">
-        <v>1.171135008458762</v>
+        <v>-3.628783927877577</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.876789851065743</v>
+        <v>-0.2915380510969667</v>
       </c>
       <c r="E4" t="n">
-        <v>6.783024498254387</v>
+        <v>-4.484761694042849</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.493271303773418</v>
+        <v>-4.566039696442555</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.08858776364718</v>
+        <v>-6.642769618151855</v>
       </c>
       <c r="H4" t="n">
-        <v>-9.86303603222423</v>
+        <v>1.710489681805454</v>
       </c>
       <c r="I4" t="n">
-        <v>-17.3243669621387</v>
+        <v>-7.396240638469886</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.157748702689075</v>
+        <v>-2.028442489931962</v>
       </c>
       <c r="K4" t="n">
-        <v>4.722978239177294</v>
+        <v>-1.952210932829483</v>
       </c>
       <c r="L4" t="n">
-        <v>4.680066518377632</v>
+        <v>-0.7943371140354145</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.992650064911051</v>
+        <v>-2.820102574617824</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.086938573654798</v>
+        <v>3.123040592991283</v>
       </c>
       <c r="O4" t="n">
-        <v>14.79469837877098</v>
+        <v>-0.2588450856813386</v>
       </c>
       <c r="P4" t="n">
-        <v>-6.37741937671938</v>
+        <v>0.94963636627615</v>
       </c>
       <c r="Q4" t="n">
-        <v>-15.37401829020909</v>
+        <v>-2.374082670850829</v>
       </c>
       <c r="R4" t="n">
-        <v>9.290800451092061</v>
+        <v>2.77918490589569</v>
       </c>
       <c r="S4" t="n">
-        <v>14.01670717288663</v>
+        <v>-2.078648210509132</v>
       </c>
       <c r="T4" t="n">
-        <v>-4.471268158159658</v>
+        <v>-4.922459201633988</v>
       </c>
       <c r="U4" t="n">
-        <v>4.966214919041488</v>
+        <v>-4.101488202764751</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.908047715342506</v>
+        <v>3.445881894947443</v>
       </c>
       <c r="W4" t="n">
-        <v>-6.64213537034277</v>
+        <v>1.482759587876972</v>
       </c>
       <c r="X4" t="n">
-        <v>-6.630179085202519</v>
+        <v>3.013409358947311</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.137956491513708</v>
+        <v>1.246712386323563</v>
       </c>
       <c r="Z4" t="n">
-        <v>-8.851392570883441</v>
+        <v>-3.720320051123292</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.523760897555801</v>
+        <v>-0.03567029906977137</v>
       </c>
       <c r="AB4" t="n">
-        <v>-2.187714692622353</v>
+        <v>-0.917877888341727</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.629349177918977</v>
+        <v>-1.197708468393595</v>
       </c>
     </row>
     <row r="5">
@@ -5772,88 +5772,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.218951996456466</v>
+        <v>-3.918160178226232</v>
       </c>
       <c r="C5" t="n">
-        <v>1.146494984618583</v>
+        <v>-4.310081130564337</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.597027646204406</v>
+        <v>-2.065964991772624</v>
       </c>
       <c r="E5" t="n">
-        <v>5.632243173713805</v>
+        <v>-7.678320675154787</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.472689570053193</v>
+        <v>-6.714890673813565</v>
       </c>
       <c r="G5" t="n">
-        <v>-18.58720129979062</v>
+        <v>-7.316972343366688</v>
       </c>
       <c r="H5" t="n">
-        <v>-11.24279157857042</v>
+        <v>-0.8353273445867728</v>
       </c>
       <c r="I5" t="n">
-        <v>-17.55964319768701</v>
+        <v>-8.114480328013414</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.538498763497754</v>
+        <v>-1.815840192733582</v>
       </c>
       <c r="K5" t="n">
-        <v>2.333227912260036</v>
+        <v>-5.734645027443516</v>
       </c>
       <c r="L5" t="n">
-        <v>7.342610512434886</v>
+        <v>-0.3664479517909571</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.5780940755032188</v>
+        <v>-2.241940850800935</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.231965567214729</v>
+        <v>-1.356038672004172</v>
       </c>
       <c r="O5" t="n">
-        <v>12.9553683580428</v>
+        <v>-0.9356994119832294</v>
       </c>
       <c r="P5" t="n">
-        <v>-4.314745116862239</v>
+        <v>-3.235856313217615</v>
       </c>
       <c r="Q5" t="n">
-        <v>-15.2904691921433</v>
+        <v>-6.146301392015314</v>
       </c>
       <c r="R5" t="n">
-        <v>8.926006797771517</v>
+        <v>1.003627151964398</v>
       </c>
       <c r="S5" t="n">
-        <v>11.20442128337212</v>
+        <v>-2.24407152160456</v>
       </c>
       <c r="T5" t="n">
-        <v>-3.347171828449795</v>
+        <v>-5.440484305606143</v>
       </c>
       <c r="U5" t="n">
-        <v>3.15940800704823</v>
+        <v>-5.221388302995495</v>
       </c>
       <c r="V5" t="n">
-        <v>-2.314193965043005</v>
+        <v>-0.1607591797178916</v>
       </c>
       <c r="W5" t="n">
-        <v>-6.727065153998058</v>
+        <v>2.437815117280074</v>
       </c>
       <c r="X5" t="n">
-        <v>-5.689870288700947</v>
+        <v>0.7513289999613153</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.862974752555766</v>
+        <v>-0.5180461646418446</v>
       </c>
       <c r="Z5" t="n">
-        <v>-7.561007179322289</v>
+        <v>-4.685101261573516</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.159570383505299</v>
+        <v>-0.7539137829273443</v>
       </c>
       <c r="AB5" t="n">
-        <v>-3.534910099260686</v>
+        <v>-3.893688402912082</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.140145983355593</v>
+        <v>-0.6088852089850983</v>
       </c>
     </row>
     <row r="6">
@@ -5861,88 +5861,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.898294261116473</v>
+        <v>-0.6749989285719706</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.754444089676046</v>
+        <v>-2.701308597582146</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.676154168884061</v>
+        <v>-0.1520600263574321</v>
       </c>
       <c r="E6" t="n">
-        <v>5.715445826517365</v>
+        <v>-2.620600362997866</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.852241032934655</v>
+        <v>-5.333977727773118</v>
       </c>
       <c r="G6" t="n">
-        <v>-18.09377330078415</v>
+        <v>-6.02464149326199</v>
       </c>
       <c r="H6" t="n">
-        <v>-10.28132450597995</v>
+        <v>1.972982489875149</v>
       </c>
       <c r="I6" t="n">
-        <v>-20.79008895073115</v>
+        <v>-5.902520299448883</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.056202128315171</v>
+        <v>-0.4348447675460988</v>
       </c>
       <c r="K6" t="n">
-        <v>2.786833300075889</v>
+        <v>-2.791107324601741</v>
       </c>
       <c r="L6" t="n">
-        <v>4.915907270225592</v>
+        <v>1.684534977038973</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.955187012377352</v>
+        <v>-3.890065435852794</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.962973930308487</v>
+        <v>2.331036649136189</v>
       </c>
       <c r="O6" t="n">
-        <v>15.04250532575398</v>
+        <v>0.8803616989439937</v>
       </c>
       <c r="P6" t="n">
-        <v>-6.420639732285759</v>
+        <v>1.208266764096705</v>
       </c>
       <c r="Q6" t="n">
-        <v>-17.61262271866832</v>
+        <v>-1.460511026182942</v>
       </c>
       <c r="R6" t="n">
-        <v>9.596150169506027</v>
+        <v>1.314322813577358</v>
       </c>
       <c r="S6" t="n">
-        <v>12.56094910490427</v>
+        <v>1.485317909725013</v>
       </c>
       <c r="T6" t="n">
-        <v>-4.178179289359875</v>
+        <v>-1.84111895261737</v>
       </c>
       <c r="U6" t="n">
-        <v>2.996542257296627</v>
+        <v>-2.599469494163783</v>
       </c>
       <c r="V6" t="n">
-        <v>-2.696736337566433</v>
+        <v>3.112124934823267</v>
       </c>
       <c r="W6" t="n">
-        <v>-6.744069334214717</v>
+        <v>3.960417652429843</v>
       </c>
       <c r="X6" t="n">
-        <v>-5.388695419591602</v>
+        <v>2.448579556241361</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.543734958718341</v>
+        <v>-0.6644231091839772</v>
       </c>
       <c r="Z6" t="n">
-        <v>-8.309243979059193</v>
+        <v>-4.723546818793476</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.089648871971184</v>
+        <v>-0.7065518570117413</v>
       </c>
       <c r="AB6" t="n">
-        <v>-3.746347342467933</v>
+        <v>-0.292805232883724</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.204619035398116</v>
+        <v>0.005872414055032693</v>
       </c>
     </row>
     <row r="7">
@@ -5950,88 +5950,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.910583134124808</v>
+        <v>-2.291938181721368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5169959683448937</v>
+        <v>-5.534190148242777</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.874836285722507</v>
+        <v>-1.682017999503309</v>
       </c>
       <c r="E7" t="n">
-        <v>6.136449749248952</v>
+        <v>-7.096758907758628</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.33774411424744</v>
+        <v>-6.35273763124067</v>
       </c>
       <c r="G7" t="n">
-        <v>-18.49648257462905</v>
+        <v>-8.176751357248342</v>
       </c>
       <c r="H7" t="n">
-        <v>-11.45780316663823</v>
+        <v>-1.860528404223362</v>
       </c>
       <c r="I7" t="n">
-        <v>-17.11051600848567</v>
+        <v>-8.330042297766576</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.027557645354342</v>
+        <v>-3.523716138373391</v>
       </c>
       <c r="K7" t="n">
-        <v>3.824161025515265</v>
+        <v>-5.459471767616875</v>
       </c>
       <c r="L7" t="n">
-        <v>2.594943940717455</v>
+        <v>-1.651260869289336</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.798405801260318</v>
+        <v>-5.685360948444329</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.7826299112991946</v>
+        <v>-0.4296858824897565</v>
       </c>
       <c r="O7" t="n">
-        <v>15.74790195089368</v>
+        <v>-1.438484618236043</v>
       </c>
       <c r="P7" t="n">
-        <v>-5.891160298105813</v>
+        <v>-2.894336459161634</v>
       </c>
       <c r="Q7" t="n">
-        <v>-15.52954708343199</v>
+        <v>-4.232776037373987</v>
       </c>
       <c r="R7" t="n">
-        <v>9.041877679435334</v>
+        <v>0.7871639577306482</v>
       </c>
       <c r="S7" t="n">
-        <v>12.71944797411215</v>
+        <v>-2.585471050582044</v>
       </c>
       <c r="T7" t="n">
-        <v>-5.794447287659784</v>
+        <v>-3.382031552977383</v>
       </c>
       <c r="U7" t="n">
-        <v>5.589477480306766</v>
+        <v>-5.566563146514078</v>
       </c>
       <c r="V7" t="n">
-        <v>-2.521596585725724</v>
+        <v>1.500636727189545</v>
       </c>
       <c r="W7" t="n">
-        <v>-7.118425270286682</v>
+        <v>2.934945074096263</v>
       </c>
       <c r="X7" t="n">
-        <v>-3.729967066918529</v>
+        <v>1.676216394236902</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.085446106771319</v>
+        <v>-1.88049786518682</v>
       </c>
       <c r="Z7" t="n">
-        <v>-8.384857841817178</v>
+        <v>-3.914511830083592</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.49351365882856</v>
+        <v>-2.149916081845417</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.927792196995803</v>
+        <v>-3.610714580403232</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.18151035845054</v>
+        <v>-2.863505304353993</v>
       </c>
     </row>
     <row r="8">
@@ -6039,88 +6039,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.162809780637633</v>
+        <v>-1.045737933137854</v>
       </c>
       <c r="C8" t="n">
-        <v>1.327249279801908</v>
+        <v>-7.532561644717866</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.2668672645858</v>
+        <v>-3.175819610661272</v>
       </c>
       <c r="E8" t="n">
-        <v>5.053762391740988</v>
+        <v>-6.614860636855052</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.21037610601058</v>
+        <v>-7.945935968045573</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.41192809947928</v>
+        <v>-10.09079988308971</v>
       </c>
       <c r="H8" t="n">
-        <v>-10.41105595576574</v>
+        <v>-1.72829774154924</v>
       </c>
       <c r="I8" t="n">
-        <v>-17.79768221002156</v>
+        <v>-9.297146564464152</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.903297464861616</v>
+        <v>-4.066770131834793</v>
       </c>
       <c r="K8" t="n">
-        <v>3.275704801257744</v>
+        <v>-5.71259052633149</v>
       </c>
       <c r="L8" t="n">
-        <v>2.744854767915782</v>
+        <v>-1.931751308887985</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.684839751796907</v>
+        <v>-5.145392148296441</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.924925577661404</v>
+        <v>-2.582474219161142</v>
       </c>
       <c r="O8" t="n">
-        <v>13.99115392148929</v>
+        <v>-3.274190297203994</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.080213999714687</v>
+        <v>-0.1083472413554234</v>
       </c>
       <c r="Q8" t="n">
-        <v>-17.03426784526586</v>
+        <v>-5.639548159989157</v>
       </c>
       <c r="R8" t="n">
-        <v>8.713403122129696</v>
+        <v>0.06104249703016196</v>
       </c>
       <c r="S8" t="n">
-        <v>13.52142253225414</v>
+        <v>-3.317880011157193</v>
       </c>
       <c r="T8" t="n">
-        <v>-5.237795931612605</v>
+        <v>-4.279643186802181</v>
       </c>
       <c r="U8" t="n">
-        <v>3.35658955489238</v>
+        <v>-5.275851920051501</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.9804326970227671</v>
+        <v>0.545502080059606</v>
       </c>
       <c r="W8" t="n">
-        <v>-7.073950824162226</v>
+        <v>2.876246444594651</v>
       </c>
       <c r="X8" t="n">
-        <v>-5.278176203775806</v>
+        <v>0.4232002001689206</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.780809115404163</v>
+        <v>-2.776701104177637</v>
       </c>
       <c r="Z8" t="n">
-        <v>-9.283524236514543</v>
+        <v>-8.070265227029459</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.996967553975229</v>
+        <v>-1.814615959115015</v>
       </c>
       <c r="AB8" t="n">
-        <v>-4.343699934376135</v>
+        <v>-3.106595520645602</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.261335838607121</v>
+        <v>-4.690544503003344</v>
       </c>
     </row>
     <row r="9">
@@ -6128,88 +6128,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.54245093138158</v>
+        <v>2.657926784125901</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3242098181798423</v>
+        <v>-0.6771937033658724</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.250535032258456</v>
+        <v>3.482476272985568</v>
       </c>
       <c r="E9" t="n">
-        <v>5.41331031699281</v>
+        <v>-1.550148941119292</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.366822171546313</v>
+        <v>-3.709982652774239</v>
       </c>
       <c r="G9" t="n">
-        <v>-19.64128660389759</v>
+        <v>-4.001834690238979</v>
       </c>
       <c r="H9" t="n">
-        <v>-11.55898656875775</v>
+        <v>3.88506201792643</v>
       </c>
       <c r="I9" t="n">
-        <v>-18.1983844145658</v>
+        <v>-2.690673548844865</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.9732398159460242</v>
+        <v>1.064378718003181</v>
       </c>
       <c r="K9" t="n">
-        <v>2.392624867956001</v>
+        <v>-2.224641120621415</v>
       </c>
       <c r="L9" t="n">
-        <v>4.166684360277761</v>
+        <v>-0.04065425981129089</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.770683826891283</v>
+        <v>-2.172896212339592</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.476738132859415</v>
+        <v>4.007587732545639</v>
       </c>
       <c r="O9" t="n">
-        <v>14.79271674991753</v>
+        <v>2.345316002657288</v>
       </c>
       <c r="P9" t="n">
-        <v>-4.640554892845697</v>
+        <v>3.672347271251052</v>
       </c>
       <c r="Q9" t="n">
-        <v>-15.41166846683214</v>
+        <v>0.3330869420136551</v>
       </c>
       <c r="R9" t="n">
-        <v>8.304569914502371</v>
+        <v>4.073357232571259</v>
       </c>
       <c r="S9" t="n">
-        <v>13.19727160217763</v>
+        <v>-0.01912166288240114</v>
       </c>
       <c r="T9" t="n">
-        <v>-4.943156279332582</v>
+        <v>0.2340662383089138</v>
       </c>
       <c r="U9" t="n">
-        <v>5.034092110966342</v>
+        <v>-1.558090398059458</v>
       </c>
       <c r="V9" t="n">
-        <v>-1.653564383497376</v>
+        <v>5.032711866360485</v>
       </c>
       <c r="W9" t="n">
-        <v>-6.255358307968297</v>
+        <v>7.344646728861536</v>
       </c>
       <c r="X9" t="n">
-        <v>-3.604657928413255</v>
+        <v>5.760878637022234</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.417613249766976</v>
+        <v>1.226119556139323</v>
       </c>
       <c r="Z9" t="n">
-        <v>-8.858507871203413</v>
+        <v>-2.84808430054046</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.27638916651898</v>
+        <v>2.411688309629903</v>
       </c>
       <c r="AB9" t="n">
-        <v>-2.948478788567233</v>
+        <v>-1.474715650886563</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.272359112190569</v>
+        <v>0.4210637120546641</v>
       </c>
     </row>
     <row r="10">
@@ -6217,88 +6217,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.984288353677029</v>
+        <v>-3.065050732871013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6746744171490304</v>
+        <v>-4.587423491909115</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.915822903160914</v>
+        <v>-1.616126560258038</v>
       </c>
       <c r="E10" t="n">
-        <v>4.680443976197579</v>
+        <v>-6.602462110837511</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.32434081635485</v>
+        <v>-6.312233833717104</v>
       </c>
       <c r="G10" t="n">
-        <v>-19.80169709025773</v>
+        <v>-8.141746717430244</v>
       </c>
       <c r="H10" t="n">
-        <v>-10.95062813289227</v>
+        <v>-0.6569218651741666</v>
       </c>
       <c r="I10" t="n">
-        <v>-18.04112123258374</v>
+        <v>-9.20417475266904</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.873333658265901</v>
+        <v>-2.082254859702441</v>
       </c>
       <c r="K10" t="n">
-        <v>3.717996417009128</v>
+        <v>-5.658511316925953</v>
       </c>
       <c r="L10" t="n">
-        <v>3.635724929544899</v>
+        <v>-2.652903148065661</v>
       </c>
       <c r="M10" t="n">
-        <v>-3.671744376426905</v>
+        <v>-5.239394475825894</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.727465255481724</v>
+        <v>1.256358829704136</v>
       </c>
       <c r="O10" t="n">
-        <v>15.69641745156428</v>
+        <v>-2.642531129582474</v>
       </c>
       <c r="P10" t="n">
-        <v>-5.06010102728916</v>
+        <v>-0.2324912414107785</v>
       </c>
       <c r="Q10" t="n">
-        <v>-13.53920459991313</v>
+        <v>-3.881184344154519</v>
       </c>
       <c r="R10" t="n">
-        <v>9.677363398627806</v>
+        <v>0.5533375763706387</v>
       </c>
       <c r="S10" t="n">
-        <v>13.30782647175415</v>
+        <v>-4.038276893152989</v>
       </c>
       <c r="T10" t="n">
-        <v>-6.492523475639684</v>
+        <v>-4.531614442534638</v>
       </c>
       <c r="U10" t="n">
-        <v>3.819951784470014</v>
+        <v>-6.43450983917985</v>
       </c>
       <c r="V10" t="n">
-        <v>-3.845027670741215</v>
+        <v>-0.7113498717080442</v>
       </c>
       <c r="W10" t="n">
-        <v>-5.804393085365699</v>
+        <v>3.122926377471647</v>
       </c>
       <c r="X10" t="n">
-        <v>-4.021780136486127</v>
+        <v>-0.6359828875405709</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.3379063156119522</v>
+        <v>-2.405330771504736</v>
       </c>
       <c r="Z10" t="n">
-        <v>-8.425294325104641</v>
+        <v>-5.315015829620645</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.152353944537809</v>
+        <v>-1.732064909913761</v>
       </c>
       <c r="AB10" t="n">
-        <v>-4.157816535498578</v>
+        <v>-2.808811405665429</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.384137159998872</v>
+        <v>-0.9028343554224598</v>
       </c>
     </row>
     <row r="11">
@@ -6306,88 +6306,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.31148671760614</v>
+        <v>-0.4449509560248432</v>
       </c>
       <c r="C11" t="n">
-        <v>1.865115668047745</v>
+        <v>-5.364062446662686</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.070150264189021</v>
+        <v>-0.2739930071475261</v>
       </c>
       <c r="E11" t="n">
-        <v>5.27163633390651</v>
+        <v>-7.419780853208372</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.482146509078367</v>
+        <v>-7.692706434165288</v>
       </c>
       <c r="G11" t="n">
-        <v>-18.801077368374</v>
+        <v>-7.861000870537654</v>
       </c>
       <c r="H11" t="n">
-        <v>-10.4446208585825</v>
+        <v>-2.292176927752953</v>
       </c>
       <c r="I11" t="n">
-        <v>-17.94406344861446</v>
+        <v>-9.650170049856444</v>
       </c>
       <c r="J11" t="n">
-        <v>-3.311118670269883</v>
+        <v>-1.595674510560196</v>
       </c>
       <c r="K11" t="n">
-        <v>3.938728444665538</v>
+        <v>-3.402612820118462</v>
       </c>
       <c r="L11" t="n">
-        <v>6.189944208109207</v>
+        <v>-1.944408475291857</v>
       </c>
       <c r="M11" t="n">
-        <v>-3.333502163236645</v>
+        <v>-5.068082416372422</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.795915044762848</v>
+        <v>-0.1494438449225539</v>
       </c>
       <c r="O11" t="n">
-        <v>12.52634593923802</v>
+        <v>-0.7446625350721019</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.168847459609415</v>
+        <v>-0.9750885281362123</v>
       </c>
       <c r="Q11" t="n">
-        <v>-15.42164389566746</v>
+        <v>-2.911741390547435</v>
       </c>
       <c r="R11" t="n">
-        <v>9.628462521495981</v>
+        <v>1.051819371386705</v>
       </c>
       <c r="S11" t="n">
-        <v>13.63036960400906</v>
+        <v>-3.995356301225184</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.781739859108646</v>
+        <v>-6.623034031717141</v>
       </c>
       <c r="U11" t="n">
-        <v>2.244447418170973</v>
+        <v>-3.623804860761084</v>
       </c>
       <c r="V11" t="n">
-        <v>-3.012557796491952</v>
+        <v>-0.4090477239755981</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.651647355290734</v>
+        <v>0.9335525099116608</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.01240455254523</v>
+        <v>-0.1368595579391656</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.53177838676663</v>
+        <v>-2.121175233347647</v>
       </c>
       <c r="Z11" t="n">
-        <v>-8.704799151139461</v>
+        <v>-5.436699694325695</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.793535683018163</v>
+        <v>-2.220831426926841</v>
       </c>
       <c r="AB11" t="n">
-        <v>-2.322767219114831</v>
+        <v>-3.467109369980213</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.648907419401274</v>
+        <v>-0.8347638581892973</v>
       </c>
     </row>
   </sheetData>
@@ -6500,88 +6500,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.37565806782176</v>
+        <v>0.3658905994450461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7350713255337289</v>
+        <v>0.09811288097811777</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.43445865875436</v>
+        <v>-0.8259970045032929</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09650515693932871</v>
+        <v>-0.1768445131823535</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.818890619163957</v>
+        <v>-4.834757713194698</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.861355673416988</v>
+        <v>-5.285743341107044</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.34892920349341</v>
+        <v>-1.946279963757465</v>
       </c>
       <c r="I2" t="n">
-        <v>-10.81784707203374</v>
+        <v>-5.553373727204127</v>
       </c>
       <c r="J2" t="n">
-        <v>-12.95515933886028</v>
+        <v>-0.9025376858669349</v>
       </c>
       <c r="K2" t="n">
-        <v>-9.599089230327712</v>
+        <v>1.644893877579412</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.320904238428435</v>
+        <v>-7.324925686187354</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.71802856065857</v>
+        <v>-7.106824213872492</v>
       </c>
       <c r="N2" t="n">
-        <v>-16.34776576999051</v>
+        <v>-3.609663971614961</v>
       </c>
       <c r="O2" t="n">
-        <v>-5.902606567665295</v>
+        <v>-2.052858260976445</v>
       </c>
       <c r="P2" t="n">
-        <v>2.364548774600142</v>
+        <v>-6.813809382581039</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.511275987655679</v>
+        <v>-6.208362821563357</v>
       </c>
       <c r="R2" t="n">
-        <v>-14.51475789571031</v>
+        <v>-5.990914610281259</v>
       </c>
       <c r="S2" t="n">
-        <v>-12.2784903226838</v>
+        <v>-6.268403113390951</v>
       </c>
       <c r="T2" t="n">
-        <v>-6.879301608316617</v>
+        <v>-8.951398516532155</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.455840884326475</v>
+        <v>-8.507703752831492</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.128820571617211</v>
+        <v>-6.360402750385459</v>
       </c>
       <c r="W2" t="n">
-        <v>-19.66542184600518</v>
+        <v>-11.95342058432101</v>
       </c>
       <c r="X2" t="n">
-        <v>-8.084544673869384</v>
+        <v>-12.54564984748782</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.71063955916155</v>
+        <v>-12.46904280472084</v>
       </c>
       <c r="Z2" t="n">
-        <v>-24.68454414620791</v>
+        <v>-18.46051513547156</v>
       </c>
       <c r="AA2" t="n">
-        <v>-25.35280809656412</v>
+        <v>-23.53976890204203</v>
       </c>
       <c r="AB2" t="n">
-        <v>-37.30935838931678</v>
+        <v>-37.96262638377949</v>
       </c>
       <c r="AC2" t="n">
-        <v>-55.07430067617766</v>
+        <v>-48.09177171739285</v>
       </c>
     </row>
     <row r="3">
@@ -6589,88 +6589,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.946527733726769</v>
+        <v>-6.268533920341866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1712136030378568</v>
+        <v>-5.501771288930375</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.538541814468452</v>
+        <v>-5.116870436874549</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.721127043927749</v>
+        <v>-6.353687048626941</v>
       </c>
       <c r="F3" t="n">
-        <v>-9.102099073026446</v>
+        <v>-7.88676042286047</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.680417929993351</v>
+        <v>-11.35431562176069</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.903654442904866</v>
+        <v>-6.966699236691665</v>
       </c>
       <c r="I3" t="n">
-        <v>-10.58730877779867</v>
+        <v>-7.258201500639166</v>
       </c>
       <c r="J3" t="n">
-        <v>-12.55529467435087</v>
+        <v>-5.370940400757478</v>
       </c>
       <c r="K3" t="n">
-        <v>-9.987809310759593</v>
+        <v>-3.762893220223124</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.407637172341544</v>
+        <v>-10.86155559739742</v>
       </c>
       <c r="M3" t="n">
-        <v>-19.03803767039484</v>
+        <v>-10.34959644043457</v>
       </c>
       <c r="N3" t="n">
-        <v>-16.0734630342569</v>
+        <v>-8.64437027080044</v>
       </c>
       <c r="O3" t="n">
-        <v>-6.447300774142308</v>
+        <v>-8.573090792678332</v>
       </c>
       <c r="P3" t="n">
-        <v>3.655366923023933</v>
+        <v>-12.33523048400686</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7.772199143662664</v>
+        <v>-10.58744089447427</v>
       </c>
       <c r="R3" t="n">
-        <v>-15.94904303736837</v>
+        <v>-11.25984661352415</v>
       </c>
       <c r="S3" t="n">
-        <v>-13.40146579452874</v>
+        <v>-9.483660226778042</v>
       </c>
       <c r="T3" t="n">
-        <v>-5.769925778790926</v>
+        <v>-13.7557282715827</v>
       </c>
       <c r="U3" t="n">
-        <v>-3.952096016771533</v>
+        <v>-15.2728680180029</v>
       </c>
       <c r="V3" t="n">
-        <v>-2.619781642603657</v>
+        <v>-12.03149598425785</v>
       </c>
       <c r="W3" t="n">
-        <v>-20.53237222376499</v>
+        <v>-16.17148332671585</v>
       </c>
       <c r="X3" t="n">
-        <v>-8.917114896233072</v>
+        <v>-18.6876012070902</v>
       </c>
       <c r="Y3" t="n">
-        <v>-6.550518935166902</v>
+        <v>-15.41869121273153</v>
       </c>
       <c r="Z3" t="n">
-        <v>-24.78149739679709</v>
+        <v>-24.14801816275508</v>
       </c>
       <c r="AA3" t="n">
-        <v>-25.39144632374348</v>
+        <v>-28.97826996855315</v>
       </c>
       <c r="AB3" t="n">
-        <v>-37.61752295369298</v>
+        <v>-42.54072744812068</v>
       </c>
       <c r="AC3" t="n">
-        <v>-55.04139856610701</v>
+        <v>-53.07483454994584</v>
       </c>
     </row>
     <row r="4">
@@ -6678,88 +6678,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.514273830233464</v>
+        <v>-2.944663705751029</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3758771024158958</v>
+        <v>-1.861673195088525</v>
       </c>
       <c r="D4" t="n">
-        <v>-10.44985164044824</v>
+        <v>-0.7187621879435713</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7005605016286092</v>
+        <v>-1.121522793610294</v>
       </c>
       <c r="F4" t="n">
-        <v>-8.115845940693468</v>
+        <v>-5.194562738419146</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.307459811777906</v>
+        <v>-7.474272613303213</v>
       </c>
       <c r="H4" t="n">
-        <v>-10.36712663703932</v>
+        <v>-5.069638472794233</v>
       </c>
       <c r="I4" t="n">
-        <v>-10.75896585537563</v>
+        <v>-6.251056955492224</v>
       </c>
       <c r="J4" t="n">
-        <v>-10.35366695854726</v>
+        <v>-0.6777874541487252</v>
       </c>
       <c r="K4" t="n">
-        <v>-11.24740250895039</v>
+        <v>1.876612810104087</v>
       </c>
       <c r="L4" t="n">
-        <v>-5.026220678544047</v>
+        <v>-5.849326960963843</v>
       </c>
       <c r="M4" t="n">
-        <v>-16.97450627145467</v>
+        <v>-7.309913579685285</v>
       </c>
       <c r="N4" t="n">
-        <v>-14.85255873961117</v>
+        <v>-6.355518295468084</v>
       </c>
       <c r="O4" t="n">
-        <v>-7.357187692327159</v>
+        <v>-3.7729467246129</v>
       </c>
       <c r="P4" t="n">
-        <v>3.464034958426822</v>
+        <v>-6.657826598231205</v>
       </c>
       <c r="Q4" t="n">
-        <v>-7.451738080532938</v>
+        <v>-7.307650597371262</v>
       </c>
       <c r="R4" t="n">
-        <v>-15.38866791124603</v>
+        <v>-6.234045197865631</v>
       </c>
       <c r="S4" t="n">
-        <v>-14.52850300508373</v>
+        <v>-6.27224498474004</v>
       </c>
       <c r="T4" t="n">
-        <v>-4.525468726998317</v>
+        <v>-8.423177263783392</v>
       </c>
       <c r="U4" t="n">
-        <v>-4.356381963009176</v>
+        <v>-10.68902227328905</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.6539390496491109</v>
+        <v>-8.115594165167446</v>
       </c>
       <c r="W4" t="n">
-        <v>-20.7155385330568</v>
+        <v>-12.38559097973873</v>
       </c>
       <c r="X4" t="n">
-        <v>-8.521804781519998</v>
+        <v>-12.29561809924826</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.611871642121786</v>
+        <v>-12.11118144776592</v>
       </c>
       <c r="Z4" t="n">
-        <v>-23.64996352124182</v>
+        <v>-19.1953607966424</v>
       </c>
       <c r="AA4" t="n">
-        <v>-24.26736264137191</v>
+        <v>-25.31162482648974</v>
       </c>
       <c r="AB4" t="n">
-        <v>-34.67755960630738</v>
+        <v>-37.73992388253311</v>
       </c>
       <c r="AC4" t="n">
-        <v>-54.73889099793163</v>
+        <v>-50.10198854482383</v>
       </c>
     </row>
     <row r="5">
@@ -6767,88 +6767,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.661428620901066</v>
+        <v>-3.888076149149662</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.610352605004441</v>
+        <v>-5.423861014537552</v>
       </c>
       <c r="D5" t="n">
-        <v>-11.65327964911681</v>
+        <v>-2.646460446162016</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.295852330143588</v>
+        <v>-1.361498524756473</v>
       </c>
       <c r="F5" t="n">
-        <v>-11.12477904800634</v>
+        <v>-6.81893295520118</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.854066697037062</v>
+        <v>-9.860865944109257</v>
       </c>
       <c r="H5" t="n">
-        <v>-11.66927144036349</v>
+        <v>-6.938440785080664</v>
       </c>
       <c r="I5" t="n">
-        <v>-11.80237801560579</v>
+        <v>-4.090496740792278</v>
       </c>
       <c r="J5" t="n">
-        <v>-11.97341123071498</v>
+        <v>-3.39246183670938</v>
       </c>
       <c r="K5" t="n">
-        <v>-11.28331319849464</v>
+        <v>-1.605836674976011</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.723996386326694</v>
+        <v>-9.766753868526902</v>
       </c>
       <c r="M5" t="n">
-        <v>-15.2565568843032</v>
+        <v>-8.379543660571318</v>
       </c>
       <c r="N5" t="n">
-        <v>-16.26125279081209</v>
+        <v>-7.498669342340657</v>
       </c>
       <c r="O5" t="n">
-        <v>-4.454577221364468</v>
+        <v>-4.833131535075812</v>
       </c>
       <c r="P5" t="n">
-        <v>2.590278455716075</v>
+        <v>-8.726793213700129</v>
       </c>
       <c r="Q5" t="n">
-        <v>-6.582859939351592</v>
+        <v>-8.460165550937738</v>
       </c>
       <c r="R5" t="n">
-        <v>-15.65682187283564</v>
+        <v>-7.4553529240493</v>
       </c>
       <c r="S5" t="n">
-        <v>-13.94438025546355</v>
+        <v>-9.802089381034969</v>
       </c>
       <c r="T5" t="n">
-        <v>-5.144064099462504</v>
+        <v>-11.11886387159118</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.051926687618707</v>
+        <v>-12.47697503084513</v>
       </c>
       <c r="V5" t="n">
-        <v>-1.212202643925249</v>
+        <v>-11.24168483055369</v>
       </c>
       <c r="W5" t="n">
-        <v>-20.67504308806271</v>
+        <v>-12.13312454411877</v>
       </c>
       <c r="X5" t="n">
-        <v>-8.612181701033133</v>
+        <v>-13.41736539980289</v>
       </c>
       <c r="Y5" t="n">
-        <v>-6.462520780685976</v>
+        <v>-14.2870599706267</v>
       </c>
       <c r="Z5" t="n">
-        <v>-24.78751596584179</v>
+        <v>-21.76812526948824</v>
       </c>
       <c r="AA5" t="n">
-        <v>-25.37921156139338</v>
+        <v>-26.48072448182158</v>
       </c>
       <c r="AB5" t="n">
-        <v>-35.79911785871477</v>
+        <v>-40.81164402842104</v>
       </c>
       <c r="AC5" t="n">
-        <v>-54.888739315938</v>
+        <v>-49.69995129985875</v>
       </c>
     </row>
     <row r="6">
@@ -6856,88 +6856,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.170291770902436</v>
+        <v>-1.86923646703673</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.407289275893639</v>
+        <v>-0.4128712794697145</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.45340213846012</v>
+        <v>-1.105308188560254</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.209522756803686</v>
+        <v>-3.686341060138683</v>
       </c>
       <c r="F6" t="n">
-        <v>-8.546179903631515</v>
+        <v>-3.248731761674598</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.016879748591049</v>
+        <v>-6.428930151742378</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.77881320827353</v>
+        <v>-5.103299581975503</v>
       </c>
       <c r="I6" t="n">
-        <v>-11.16005856584683</v>
+        <v>-2.164360443090191</v>
       </c>
       <c r="J6" t="n">
-        <v>-12.42290496031288</v>
+        <v>-1.010785240967647</v>
       </c>
       <c r="K6" t="n">
-        <v>-10.82982462023575</v>
+        <v>0.4350539197553029</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.8854249938553</v>
+        <v>-5.395837209595681</v>
       </c>
       <c r="M6" t="n">
-        <v>-17.0634241678455</v>
+        <v>-5.660265627512555</v>
       </c>
       <c r="N6" t="n">
-        <v>-15.925993792793</v>
+        <v>-3.563719905226945</v>
       </c>
       <c r="O6" t="n">
-        <v>-6.807722435399713</v>
+        <v>-1.624101843890074</v>
       </c>
       <c r="P6" t="n">
-        <v>5.14557383597629</v>
+        <v>-7.551268734161668</v>
       </c>
       <c r="Q6" t="n">
-        <v>-9.458212320150221</v>
+        <v>-5.060987459439077</v>
       </c>
       <c r="R6" t="n">
-        <v>-15.79898448318757</v>
+        <v>-5.953715598971017</v>
       </c>
       <c r="S6" t="n">
-        <v>-14.33819811344064</v>
+        <v>-7.349256643333582</v>
       </c>
       <c r="T6" t="n">
-        <v>-7.334902871995229</v>
+        <v>-8.154845616010386</v>
       </c>
       <c r="U6" t="n">
-        <v>-2.551951996776017</v>
+        <v>-12.08455883678691</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.9937366263790821</v>
+        <v>-7.136248760762651</v>
       </c>
       <c r="W6" t="n">
-        <v>-19.59751232975768</v>
+        <v>-12.58505257300443</v>
       </c>
       <c r="X6" t="n">
-        <v>-7.650697048097102</v>
+        <v>-14.48986021750058</v>
       </c>
       <c r="Y6" t="n">
-        <v>-8.545758787039741</v>
+        <v>-13.33377088756929</v>
       </c>
       <c r="Z6" t="n">
-        <v>-25.98025464950705</v>
+        <v>-18.55592412154644</v>
       </c>
       <c r="AA6" t="n">
-        <v>-23.75128464809288</v>
+        <v>-25.78636729724621</v>
       </c>
       <c r="AB6" t="n">
-        <v>-35.79236652780829</v>
+        <v>-36.76059139365611</v>
       </c>
       <c r="AC6" t="n">
-        <v>-55.20403111995233</v>
+        <v>-48.60243018386992</v>
       </c>
     </row>
     <row r="7">
@@ -6945,88 +6945,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.268385319019206</v>
+        <v>-3.596964682377639</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.110020742077507</v>
+        <v>-3.784332657838928</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.24856750829235</v>
+        <v>-2.94764489371998</v>
       </c>
       <c r="E7" t="n">
-        <v>1.007568825207574</v>
+        <v>-5.649741485534197</v>
       </c>
       <c r="F7" t="n">
-        <v>-7.773774078897375</v>
+        <v>-4.796228656550228</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.178101607636358</v>
+        <v>-9.034692911233796</v>
       </c>
       <c r="H7" t="n">
-        <v>-11.86760465989233</v>
+        <v>-5.314030006272323</v>
       </c>
       <c r="I7" t="n">
-        <v>-12.24706486819166</v>
+        <v>-5.289360557748896</v>
       </c>
       <c r="J7" t="n">
-        <v>-11.72104870586387</v>
+        <v>-3.808739477651751</v>
       </c>
       <c r="K7" t="n">
-        <v>-8.412078939292915</v>
+        <v>-2.588569164576165</v>
       </c>
       <c r="L7" t="n">
-        <v>-5.6439007252207</v>
+        <v>-10.43587432697817</v>
       </c>
       <c r="M7" t="n">
-        <v>-16.88914262624547</v>
+        <v>-11.40698504809024</v>
       </c>
       <c r="N7" t="n">
-        <v>-16.65540617980534</v>
+        <v>-6.84896072887424</v>
       </c>
       <c r="O7" t="n">
-        <v>-7.141158084016625</v>
+        <v>-3.215663608246932</v>
       </c>
       <c r="P7" t="n">
-        <v>3.406221748678142</v>
+        <v>-9.419257734527505</v>
       </c>
       <c r="Q7" t="n">
-        <v>-10.7523631709587</v>
+        <v>-9.277871017942269</v>
       </c>
       <c r="R7" t="n">
-        <v>-14.32484865889428</v>
+        <v>-6.211720786213233</v>
       </c>
       <c r="S7" t="n">
-        <v>-15.64302379193705</v>
+        <v>-7.600400164248245</v>
       </c>
       <c r="T7" t="n">
-        <v>-6.703678932874506</v>
+        <v>-10.09838586365739</v>
       </c>
       <c r="U7" t="n">
-        <v>-5.730592325772363</v>
+        <v>-13.72110946578001</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.8883376991645981</v>
+        <v>-10.32224221105866</v>
       </c>
       <c r="W7" t="n">
-        <v>-20.77947815914596</v>
+        <v>-13.32129452467773</v>
       </c>
       <c r="X7" t="n">
-        <v>-8.253290507883353</v>
+        <v>-17.01370631920267</v>
       </c>
       <c r="Y7" t="n">
-        <v>-6.756116566837028</v>
+        <v>-16.82963351666148</v>
       </c>
       <c r="Z7" t="n">
-        <v>-25.23225541285971</v>
+        <v>-21.77980088004038</v>
       </c>
       <c r="AA7" t="n">
-        <v>-24.32358633349752</v>
+        <v>-29.39295574835234</v>
       </c>
       <c r="AB7" t="n">
-        <v>-36.49883373255174</v>
+        <v>-39.43116943127367</v>
       </c>
       <c r="AC7" t="n">
-        <v>-54.7449147123307</v>
+        <v>-50.05937053369436</v>
       </c>
     </row>
     <row r="8">
@@ -7034,88 +7034,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.34997250738412</v>
+        <v>-4.090297361755685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1183929630710425</v>
+        <v>-3.444770415572243</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.2207458187964</v>
+        <v>-4.123931527015121</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3436169312768902</v>
+        <v>-5.427661381258639</v>
       </c>
       <c r="F8" t="n">
-        <v>-10.33570525285944</v>
+        <v>-6.418898217632123</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.494339625035775</v>
+        <v>-9.351353860878774</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.56539679252175</v>
+        <v>-6.216879994694567</v>
       </c>
       <c r="I8" t="n">
-        <v>-8.745230579961001</v>
+        <v>-6.477554136754207</v>
       </c>
       <c r="J8" t="n">
-        <v>-13.53503225181688</v>
+        <v>-5.294406745727644</v>
       </c>
       <c r="K8" t="n">
-        <v>-9.793104220617067</v>
+        <v>-3.220493191358402</v>
       </c>
       <c r="L8" t="n">
-        <v>-5.090671240997401</v>
+        <v>-8.477649181484889</v>
       </c>
       <c r="M8" t="n">
-        <v>-18.72617638930802</v>
+        <v>-9.406592586710417</v>
       </c>
       <c r="N8" t="n">
-        <v>-13.93418458895026</v>
+        <v>-8.148497611707654</v>
       </c>
       <c r="O8" t="n">
-        <v>-3.974657708979389</v>
+        <v>-5.689232844347952</v>
       </c>
       <c r="P8" t="n">
-        <v>1.460077357848947</v>
+        <v>-10.69373646541993</v>
       </c>
       <c r="Q8" t="n">
-        <v>-10.0731120295939</v>
+        <v>-10.06185268781427</v>
       </c>
       <c r="R8" t="n">
-        <v>-15.87708594053273</v>
+        <v>-11.07702960497759</v>
       </c>
       <c r="S8" t="n">
-        <v>-14.0371623592044</v>
+        <v>-10.53475049870408</v>
       </c>
       <c r="T8" t="n">
-        <v>-6.055704695015065</v>
+        <v>-10.56004645054866</v>
       </c>
       <c r="U8" t="n">
-        <v>-4.058510913594247</v>
+        <v>-14.09025524550713</v>
       </c>
       <c r="V8" t="n">
-        <v>-2.485171180075598</v>
+        <v>-9.58780740018975</v>
       </c>
       <c r="W8" t="n">
-        <v>-20.02799677940899</v>
+        <v>-14.5838845843458</v>
       </c>
       <c r="X8" t="n">
-        <v>-8.234460508107377</v>
+        <v>-17.67990648983329</v>
       </c>
       <c r="Y8" t="n">
-        <v>-6.122102071416764</v>
+        <v>-14.34700311254704</v>
       </c>
       <c r="Z8" t="n">
-        <v>-25.40391042572452</v>
+        <v>-21.15049206573229</v>
       </c>
       <c r="AA8" t="n">
-        <v>-25.86948293935456</v>
+        <v>-28.70630618034474</v>
       </c>
       <c r="AB8" t="n">
-        <v>-38.58746683663448</v>
+        <v>-42.03536091679742</v>
       </c>
       <c r="AC8" t="n">
-        <v>-55.56841111743719</v>
+        <v>-51.80295871916366</v>
       </c>
     </row>
     <row r="9">
@@ -7123,88 +7123,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.436159893454525</v>
+        <v>-0.6067239874489245</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.372267735731302</v>
+        <v>1.626571426797339</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.28646581547588</v>
+        <v>-0.6508464580590729</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8706790071007724</v>
+        <v>-0.5376959851212324</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.923375834428944</v>
+        <v>-2.77740900195576</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.641714985099686</v>
+        <v>-6.580743560039068</v>
       </c>
       <c r="H9" t="n">
-        <v>-11.65010773707462</v>
+        <v>-2.50784843073559</v>
       </c>
       <c r="I9" t="n">
-        <v>-10.1566010572303</v>
+        <v>-3.878567980275913</v>
       </c>
       <c r="J9" t="n">
-        <v>-11.5624596670365</v>
+        <v>2.765860079082554</v>
       </c>
       <c r="K9" t="n">
-        <v>-9.324000602927764</v>
+        <v>2.620405100792157</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.962667778616875</v>
+        <v>-4.638346337859253</v>
       </c>
       <c r="M9" t="n">
-        <v>-16.57681419271849</v>
+        <v>-6.379740306245031</v>
       </c>
       <c r="N9" t="n">
-        <v>-15.53959547683633</v>
+        <v>-4.393961716529901</v>
       </c>
       <c r="O9" t="n">
-        <v>-6.285579563551631</v>
+        <v>-1.815931746274292</v>
       </c>
       <c r="P9" t="n">
-        <v>5.71882506639882</v>
+        <v>-6.284059142266839</v>
       </c>
       <c r="Q9" t="n">
-        <v>-6.840007984897214</v>
+        <v>-6.372972442266871</v>
       </c>
       <c r="R9" t="n">
-        <v>-16.1117342862124</v>
+        <v>-4.446515339480364</v>
       </c>
       <c r="S9" t="n">
-        <v>-14.41568052684176</v>
+        <v>-4.463355574907951</v>
       </c>
       <c r="T9" t="n">
-        <v>-6.259107116467862</v>
+        <v>-6.07286313162439</v>
       </c>
       <c r="U9" t="n">
-        <v>-2.198378204736898</v>
+        <v>-9.359458565268465</v>
       </c>
       <c r="V9" t="n">
-        <v>1.390908221623329</v>
+        <v>-4.136771527724965</v>
       </c>
       <c r="W9" t="n">
-        <v>-19.40768050443219</v>
+        <v>-10.42613083406671</v>
       </c>
       <c r="X9" t="n">
-        <v>-7.477086134783288</v>
+        <v>-8.974523219601979</v>
       </c>
       <c r="Y9" t="n">
-        <v>-5.111802271105361</v>
+        <v>-11.18987617855202</v>
       </c>
       <c r="Z9" t="n">
-        <v>-23.62005021868665</v>
+        <v>-18.35630428536279</v>
       </c>
       <c r="AA9" t="n">
-        <v>-24.21208847724114</v>
+        <v>-22.62058713685829</v>
       </c>
       <c r="AB9" t="n">
-        <v>-35.60375265584546</v>
+        <v>-36.50544588888242</v>
       </c>
       <c r="AC9" t="n">
-        <v>-53.06588517095044</v>
+        <v>-48.44744644618791</v>
       </c>
     </row>
     <row r="10">
@@ -7212,88 +7212,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.124118494657596</v>
+        <v>-3.517651786635031</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9485565331992754</v>
+        <v>-3.206992394407543</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.88084184393433</v>
+        <v>-4.709714909936123</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.415183898669288</v>
+        <v>-4.085211571817848</v>
       </c>
       <c r="F10" t="n">
-        <v>-10.34367507942776</v>
+        <v>-8.243895588247414</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.666794929871098</v>
+        <v>-8.280927332489997</v>
       </c>
       <c r="H10" t="n">
-        <v>-12.05075514262715</v>
+        <v>-5.510189364173744</v>
       </c>
       <c r="I10" t="n">
-        <v>-10.7232135516048</v>
+        <v>-7.55272272550252</v>
       </c>
       <c r="J10" t="n">
-        <v>-11.08250511469782</v>
+        <v>-5.11554252365809</v>
       </c>
       <c r="K10" t="n">
-        <v>-10.17666589206255</v>
+        <v>-2.969836459361285</v>
       </c>
       <c r="L10" t="n">
-        <v>-3.121770755886066</v>
+        <v>-7.66392038360333</v>
       </c>
       <c r="M10" t="n">
-        <v>-16.62063217990331</v>
+        <v>-9.219115058013903</v>
       </c>
       <c r="N10" t="n">
-        <v>-15.66205500533175</v>
+        <v>-9.750074257797397</v>
       </c>
       <c r="O10" t="n">
-        <v>-7.103161398092011</v>
+        <v>-4.464396215052035</v>
       </c>
       <c r="P10" t="n">
-        <v>1.960864516689037</v>
+        <v>-9.062597562391574</v>
       </c>
       <c r="Q10" t="n">
-        <v>-8.656015124508302</v>
+        <v>-10.25311540945879</v>
       </c>
       <c r="R10" t="n">
-        <v>-16.06514618842756</v>
+        <v>-9.268018684892525</v>
       </c>
       <c r="S10" t="n">
-        <v>-15.77380442095003</v>
+        <v>-9.654035839144587</v>
       </c>
       <c r="T10" t="n">
-        <v>-5.144009281865596</v>
+        <v>-11.987611950711</v>
       </c>
       <c r="U10" t="n">
-        <v>-1.817878619487168</v>
+        <v>-14.80917271199185</v>
       </c>
       <c r="V10" t="n">
-        <v>-2.323674440398007</v>
+        <v>-9.938179511296251</v>
       </c>
       <c r="W10" t="n">
-        <v>-19.96049226040531</v>
+        <v>-13.59423555182372</v>
       </c>
       <c r="X10" t="n">
-        <v>-7.205240833289187</v>
+        <v>-14.19318761598835</v>
       </c>
       <c r="Y10" t="n">
-        <v>-6.019012994885971</v>
+        <v>-15.54018946161237</v>
       </c>
       <c r="Z10" t="n">
-        <v>-25.95549656149975</v>
+        <v>-23.04729318457004</v>
       </c>
       <c r="AA10" t="n">
-        <v>-23.1577370862748</v>
+        <v>-28.94234996193386</v>
       </c>
       <c r="AB10" t="n">
-        <v>-37.63713296014127</v>
+        <v>-39.97213034827019</v>
       </c>
       <c r="AC10" t="n">
-        <v>-54.06334844735113</v>
+        <v>-51.60751225824779</v>
       </c>
     </row>
     <row r="11">
@@ -7301,88 +7301,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.930103678904415</v>
+        <v>-4.620002670484358</v>
       </c>
       <c r="C11" t="n">
-        <v>0.563525033767696</v>
+        <v>-0.778304270052697</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.27146809807378</v>
+        <v>-1.58673772926304</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.107853623346703</v>
+        <v>-2.234960521187926</v>
       </c>
       <c r="F11" t="n">
-        <v>-10.81296805005989</v>
+        <v>-5.933904757539521</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.527954923251915</v>
+        <v>-8.907100403730151</v>
       </c>
       <c r="H11" t="n">
-        <v>-11.55540667888266</v>
+        <v>-5.464268481048429</v>
       </c>
       <c r="I11" t="n">
-        <v>-10.13671159960714</v>
+        <v>-6.432176546353168</v>
       </c>
       <c r="J11" t="n">
-        <v>-11.40353015045572</v>
+        <v>-2.987605455954535</v>
       </c>
       <c r="K11" t="n">
-        <v>-9.934250021616871</v>
+        <v>-1.743965247592224</v>
       </c>
       <c r="L11" t="n">
-        <v>-4.483085435934592</v>
+        <v>-8.477449068008502</v>
       </c>
       <c r="M11" t="n">
-        <v>-16.45244193363805</v>
+        <v>-10.69690938821919</v>
       </c>
       <c r="N11" t="n">
-        <v>-13.945372928126</v>
+        <v>-5.598194023880606</v>
       </c>
       <c r="O11" t="n">
-        <v>-6.627622698229329</v>
+        <v>-6.129904185065037</v>
       </c>
       <c r="P11" t="n">
-        <v>3.217459659673032</v>
+        <v>-6.816302142096713</v>
       </c>
       <c r="Q11" t="n">
-        <v>-8.90373104362318</v>
+        <v>-8.389125993225027</v>
       </c>
       <c r="R11" t="n">
-        <v>-15.22124411349419</v>
+        <v>-5.969486987183698</v>
       </c>
       <c r="S11" t="n">
-        <v>-14.50410701045995</v>
+        <v>-7.075901303305972</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.694020959011497</v>
+        <v>-9.356983734211958</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.380821764929363</v>
+        <v>-13.62259256788387</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.908472290060114</v>
+        <v>-9.470461882718293</v>
       </c>
       <c r="W11" t="n">
-        <v>-20.5964471770917</v>
+        <v>-12.61724460364447</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.940251415718479</v>
+        <v>-15.74338779405164</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.549744182534367</v>
+        <v>-12.79790763600421</v>
       </c>
       <c r="Z11" t="n">
-        <v>-26.14213333393564</v>
+        <v>-22.1090759776189</v>
       </c>
       <c r="AA11" t="n">
-        <v>-24.44870957375236</v>
+        <v>-25.33042743383688</v>
       </c>
       <c r="AB11" t="n">
-        <v>-37.018124944714</v>
+        <v>-40.53429490145017</v>
       </c>
       <c r="AC11" t="n">
-        <v>-54.42064992944522</v>
+        <v>-51.18494341748504</v>
       </c>
     </row>
   </sheetData>

--- a/Data/full_fixed_params.xlsx
+++ b/Data/full_fixed_params.xlsx
@@ -530,88 +530,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.203574508329609</v>
+        <v>-15.10289666279184</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7282370749443776</v>
+        <v>-2.099206486653248</v>
       </c>
       <c r="D2" t="n">
-        <v>6.316927593063177</v>
+        <v>-7.946365559550145</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.986678840656482</v>
+        <v>-2.224310640155994</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.508168400232987</v>
+        <v>-3.182786692003214</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.50657474743843</v>
+        <v>-7.070300372513435</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.940643557841092</v>
+        <v>-4.289101956375841</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.216718969909152</v>
+        <v>-20.92272770673143</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.395768883447792</v>
+        <v>-14.19973892332063</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4391142684953719</v>
+        <v>-12.02919852407764</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.370057711073394</v>
+        <v>-16.53258867102512</v>
       </c>
       <c r="M2" t="n">
-        <v>-5.690607887815877</v>
+        <v>-9.498834044076048</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.774550317363573</v>
+        <v>8.018519746823447</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7364559527739978</v>
+        <v>-15.92297117661019</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05976288848233136</v>
+        <v>-7.537881356621684</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.770135210929859</v>
+        <v>0.4930843396478752</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.345095921708475</v>
+        <v>-18.15732052401195</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.017187521121259</v>
+        <v>-7.486385661333562</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.317603933221377</v>
+        <v>-11.55234287253077</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.137346822875235</v>
+        <v>-11.05509738129768</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.6134048577158882</v>
+        <v>-5.170283607577939</v>
       </c>
       <c r="W2" t="n">
-        <v>-4.936749758229967</v>
+        <v>-22.19597228034255</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.786985966880053</v>
+        <v>-3.402318967644855</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.808292164197156</v>
+        <v>-11.30227912861174</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.565241744657134</v>
+        <v>-14.98889056738003</v>
       </c>
       <c r="AA2" t="n">
-        <v>-3.971562447721911</v>
+        <v>7.14975997676212</v>
       </c>
       <c r="AB2" t="n">
-        <v>-10.71730342615358</v>
+        <v>-10.94174909178346</v>
       </c>
       <c r="AC2" t="n">
-        <v>-11.02078198799143</v>
+        <v>-6.306530462837931</v>
       </c>
     </row>
     <row r="3">
@@ -619,88 +619,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.378119798592333</v>
+        <v>-7.918780152770438</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.331713809904926</v>
+        <v>-18.68750217281779</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.73290036512706</v>
+        <v>4.850840988535269</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.55905294562779</v>
+        <v>-9.202654061518766</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.802411640268014</v>
+        <v>-18.59864772141261</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.772488540717561</v>
+        <v>-28.63709737044843</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.473774161585348</v>
+        <v>-19.75008432018964</v>
       </c>
       <c r="I3" t="n">
-        <v>-10.23481954708488</v>
+        <v>10.99463499235839</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.763931721612959</v>
+        <v>-8.352964638611809</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.213733968963379</v>
+        <v>-12.68127486086284</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.25387419070594</v>
+        <v>6.292332973106571</v>
       </c>
       <c r="M3" t="n">
-        <v>-10.00406556071098</v>
+        <v>-5.05032035851053</v>
       </c>
       <c r="N3" t="n">
-        <v>-8.062160312716436</v>
+        <v>-11.70714343478219</v>
       </c>
       <c r="O3" t="n">
-        <v>-4.725879803160706</v>
+        <v>4.495420104110288</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.045913443100573</v>
+        <v>-18.48086937951824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7.200998787978777</v>
+        <v>-18.43229474007362</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.9298621618721</v>
+        <v>-10.72909801623176</v>
       </c>
       <c r="S3" t="n">
-        <v>-9.921236979313475</v>
+        <v>-5.382764859338369</v>
       </c>
       <c r="T3" t="n">
-        <v>-7.238015312564539</v>
+        <v>-11.75460140692715</v>
       </c>
       <c r="U3" t="n">
-        <v>-10.26110125243494</v>
+        <v>4.597855444809788</v>
       </c>
       <c r="V3" t="n">
-        <v>-6.456291711897048</v>
+        <v>4.274827858460775</v>
       </c>
       <c r="W3" t="n">
-        <v>-10.31222740072731</v>
+        <v>-11.04332460383623</v>
       </c>
       <c r="X3" t="n">
-        <v>-10.57211034134047</v>
+        <v>-16.51480145580243</v>
       </c>
       <c r="Y3" t="n">
-        <v>-11.86743617831381</v>
+        <v>-9.765718586627822</v>
       </c>
       <c r="Z3" t="n">
-        <v>-6.477222290667205</v>
+        <v>-2.362286696530393</v>
       </c>
       <c r="AA3" t="n">
-        <v>-8.902595027088998</v>
+        <v>-1.05280193735706</v>
       </c>
       <c r="AB3" t="n">
-        <v>-15.451860633603</v>
+        <v>5.92149427692717</v>
       </c>
       <c r="AC3" t="n">
-        <v>-15.89073635842134</v>
+        <v>-11.60605993936978</v>
       </c>
     </row>
     <row r="4">
@@ -708,88 +708,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.707690759917384</v>
+        <v>-15.86062993741037</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.94883230893548</v>
+        <v>-37.49848646085166</v>
       </c>
       <c r="D4" t="n">
-        <v>3.508077749662772</v>
+        <v>6.143175118539514</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.072403838215452</v>
+        <v>-5.191566992961546</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.500136479113992</v>
+        <v>10.78013195772586</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.722141584557294</v>
+        <v>14.44432304495886</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.142115838159708</v>
+        <v>-3.547580583525547</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.33694468305475</v>
+        <v>-3.92123028535687</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.349226394114288</v>
+        <v>-3.091753053757339</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.381550651794676</v>
+        <v>-11.5861407278693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1535138704153338</v>
+        <v>-31.41024460360434</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.936809050803337</v>
+        <v>5.039900994761432</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.392853851931648</v>
+        <v>-13.30377119683042</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.8041125488842042</v>
+        <v>11.74898624970631</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2873824983037614</v>
+        <v>-3.02195444735348</v>
       </c>
       <c r="Q4" t="n">
-        <v>-2.854445508348602</v>
+        <v>5.043208970539757</v>
       </c>
       <c r="R4" t="n">
-        <v>-5.304472328393093</v>
+        <v>1.509834282886282</v>
       </c>
       <c r="S4" t="n">
-        <v>-4.379558509853381</v>
+        <v>6.878414534095931</v>
       </c>
       <c r="T4" t="n">
-        <v>-4.275075148729228</v>
+        <v>-8.009025707765609</v>
       </c>
       <c r="U4" t="n">
-        <v>-4.460931040394131</v>
+        <v>-2.149817579130762</v>
       </c>
       <c r="V4" t="n">
-        <v>-2.947565815861333</v>
+        <v>-5.902756059384062</v>
       </c>
       <c r="W4" t="n">
-        <v>-7.370448425900102</v>
+        <v>-0.9990855778005763</v>
       </c>
       <c r="X4" t="n">
-        <v>-6.329499456046724</v>
+        <v>-0.9360318249446271</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.880400862098497</v>
+        <v>-9.203846366626504</v>
       </c>
       <c r="Z4" t="n">
-        <v>-4.43767102623797</v>
+        <v>0.7272928079699463</v>
       </c>
       <c r="AA4" t="n">
-        <v>-6.606810814821594</v>
+        <v>-2.492928481694035</v>
       </c>
       <c r="AB4" t="n">
-        <v>-12.5704713991471</v>
+        <v>-4.43315312799047</v>
       </c>
       <c r="AC4" t="n">
-        <v>-14.35359253095266</v>
+        <v>-13.0561676474463</v>
       </c>
     </row>
     <row r="5">
@@ -797,88 +797,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.223874618763086</v>
+        <v>3.307049226482884</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.655314610887465</v>
+        <v>-18.31177702386075</v>
       </c>
       <c r="D5" t="n">
-        <v>1.405385629309915</v>
+        <v>14.58426889024993</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.066260768689602</v>
+        <v>-27.96039972310746</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.69427327272677</v>
+        <v>0.6400319194247972</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.91507921616936</v>
+        <v>-3.030601410388667</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.633502611023643</v>
+        <v>-0.002481811820146618</v>
       </c>
       <c r="I5" t="n">
-        <v>-5.985712645880444</v>
+        <v>1.74904783624232</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.148280850412351</v>
+        <v>-6.637595308531882</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.612625240578364</v>
+        <v>11.35458713725586</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.884773860886519</v>
+        <v>3.452109652196393</v>
       </c>
       <c r="M5" t="n">
-        <v>-9.706105119126125</v>
+        <v>-21.02094466377864</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.980019076526128</v>
+        <v>-7.88141378213998</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.572815167392609</v>
+        <v>-0.2552826210067369</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2028998173502465</v>
+        <v>-6.35524718257424</v>
       </c>
       <c r="Q5" t="n">
-        <v>-5.187477696930796</v>
+        <v>-13.7555745303224</v>
       </c>
       <c r="R5" t="n">
-        <v>-4.718537358673691</v>
+        <v>-11.18912527882337</v>
       </c>
       <c r="S5" t="n">
-        <v>-7.087489475527223</v>
+        <v>5.502938105665026</v>
       </c>
       <c r="T5" t="n">
-        <v>-5.751757478303164</v>
+        <v>0.2436600741754624</v>
       </c>
       <c r="U5" t="n">
-        <v>-6.044973057769762</v>
+        <v>-8.900823558789931</v>
       </c>
       <c r="V5" t="n">
-        <v>-3.502513344891963</v>
+        <v>-8.445346197899871</v>
       </c>
       <c r="W5" t="n">
-        <v>-6.909316988822887</v>
+        <v>-12.09801669846525</v>
       </c>
       <c r="X5" t="n">
-        <v>-5.112046748915835</v>
+        <v>-4.367653411307558</v>
       </c>
       <c r="Y5" t="n">
-        <v>-11.63676068907122</v>
+        <v>-21.6473665548484</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.350133884893354</v>
+        <v>-19.72199058286041</v>
       </c>
       <c r="AA5" t="n">
-        <v>-6.435144753387881</v>
+        <v>-6.389702305779709</v>
       </c>
       <c r="AB5" t="n">
-        <v>-14.57295081194099</v>
+        <v>-36.58294858303981</v>
       </c>
       <c r="AC5" t="n">
-        <v>-14.03989537523524</v>
+        <v>-6.098063176236179</v>
       </c>
     </row>
     <row r="6">
@@ -886,88 +886,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.411540933591731</v>
+        <v>-10.256131107663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9871225302276985</v>
+        <v>-0.4027341544394782</v>
       </c>
       <c r="D6" t="n">
-        <v>7.456965064734643</v>
+        <v>8.249969743641561</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.576325633064746</v>
+        <v>-10.7495811917833</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.683952742589454</v>
+        <v>-14.39900866713526</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.60109028116333</v>
+        <v>-22.1141402541064</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.130990112851808</v>
+        <v>-20.72249260030528</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.842958042789299</v>
+        <v>-4.939466587429093</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.874023458427632</v>
+        <v>4.129303377558472</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.654723649674205</v>
+        <v>-3.03985593420634</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0785505094173522</v>
+        <v>16.54095553711823</v>
       </c>
       <c r="M6" t="n">
-        <v>-6.318592321908129</v>
+        <v>-3.626940177245953</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.7461040618569</v>
+        <v>-0.906513894645159</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.725615419139936</v>
+        <v>-14.9603290017161</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9963120704810309</v>
+        <v>-13.3074599944548</v>
       </c>
       <c r="Q6" t="n">
-        <v>-3.604710154811475</v>
+        <v>-4.298374769831523</v>
       </c>
       <c r="R6" t="n">
-        <v>-4.44834545833303</v>
+        <v>-22.06929642369275</v>
       </c>
       <c r="S6" t="n">
-        <v>-4.323939854428664</v>
+        <v>-13.52182245745411</v>
       </c>
       <c r="T6" t="n">
-        <v>-4.901021981701778</v>
+        <v>5.494019961924792</v>
       </c>
       <c r="U6" t="n">
-        <v>-4.845019709601101</v>
+        <v>9.81959898845078</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.8334798214290258</v>
+        <v>-9.62099516162681</v>
       </c>
       <c r="W6" t="n">
-        <v>-5.676629079259209</v>
+        <v>-22.19701807746178</v>
       </c>
       <c r="X6" t="n">
-        <v>-4.2452835305061</v>
+        <v>-10.10450343111889</v>
       </c>
       <c r="Y6" t="n">
-        <v>-7.127109511498397</v>
+        <v>-17.81193361868653</v>
       </c>
       <c r="Z6" t="n">
-        <v>-3.535115815096951</v>
+        <v>-6.180425829727562</v>
       </c>
       <c r="AA6" t="n">
-        <v>-6.665966441211656</v>
+        <v>4.519467662287116</v>
       </c>
       <c r="AB6" t="n">
-        <v>-9.725227098848388</v>
+        <v>-10.58915753396352</v>
       </c>
       <c r="AC6" t="n">
-        <v>-13.12587581417012</v>
+        <v>-20.9632564190633</v>
       </c>
     </row>
     <row r="7">
@@ -975,88 +975,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.399073555575757</v>
+        <v>-4.37898163932199</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.913612211457148</v>
+        <v>3.645987090411629</v>
       </c>
       <c r="D7" t="n">
-        <v>1.773129811873511</v>
+        <v>6.82797778577075</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.360924868205935</v>
+        <v>-4.736763849252652</v>
       </c>
       <c r="F7" t="n">
-        <v>-7.838541181754964</v>
+        <v>-4.048843584506972</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.053750862808537</v>
+        <v>17.44444770622606</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.992316880805368</v>
+        <v>5.551940391164069</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.224177399251134</v>
+        <v>-8.043693856185897</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.324864967015445</v>
+        <v>-7.338425329571743</v>
       </c>
       <c r="K7" t="n">
-        <v>-5.445151725475872</v>
+        <v>-5.202279267506746</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.471798781959363</v>
+        <v>3.946881724347001</v>
       </c>
       <c r="M7" t="n">
-        <v>-7.969625460596193</v>
+        <v>-12.31253769703522</v>
       </c>
       <c r="N7" t="n">
-        <v>-4.084625103473997</v>
+        <v>-6.569652563862541</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.002199275325243555</v>
+        <v>11.48158952688784</v>
       </c>
       <c r="P7" t="n">
-        <v>1.023974581999145</v>
+        <v>-6.255991869747591</v>
       </c>
       <c r="Q7" t="n">
-        <v>-6.505545534286352</v>
+        <v>-22.51792485249323</v>
       </c>
       <c r="R7" t="n">
-        <v>-7.547435847130409</v>
+        <v>-13.63939234378708</v>
       </c>
       <c r="S7" t="n">
-        <v>-8.966093599655004</v>
+        <v>-15.91556899692294</v>
       </c>
       <c r="T7" t="n">
-        <v>-7.708420043198743</v>
+        <v>7.869106063875437</v>
       </c>
       <c r="U7" t="n">
-        <v>-6.927984411470445</v>
+        <v>12.05083873431043</v>
       </c>
       <c r="V7" t="n">
-        <v>-4.322872773987725</v>
+        <v>-9.821776774226066</v>
       </c>
       <c r="W7" t="n">
-        <v>-7.170316029197105</v>
+        <v>-11.53049363537351</v>
       </c>
       <c r="X7" t="n">
-        <v>-7.352601712541929</v>
+        <v>-16.24315002665368</v>
       </c>
       <c r="Y7" t="n">
-        <v>-8.846468979797592</v>
+        <v>-8.427720629818921</v>
       </c>
       <c r="Z7" t="n">
-        <v>-4.99378923783546</v>
+        <v>-0.1192464781416511</v>
       </c>
       <c r="AA7" t="n">
-        <v>-10.01461586154371</v>
+        <v>18.66879237646043</v>
       </c>
       <c r="AB7" t="n">
-        <v>-14.76519154107139</v>
+        <v>-20.42639336451125</v>
       </c>
       <c r="AC7" t="n">
-        <v>-12.95715474355447</v>
+        <v>-9.186148247223525</v>
       </c>
     </row>
     <row r="8">
@@ -1064,88 +1064,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.370319550566346</v>
+        <v>-3.205762963840527</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.923165082211272</v>
+        <v>17.32835092818692</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08702469674317737</v>
+        <v>-10.24822831834513</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.577186944092128</v>
+        <v>-17.01868503106315</v>
       </c>
       <c r="F8" t="n">
-        <v>-8.71142743822997</v>
+        <v>-2.85308156036431</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.67518821497052</v>
+        <v>-0.4666346185401897</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.014853364879413</v>
+        <v>-0.6607720986826413</v>
       </c>
       <c r="I8" t="n">
-        <v>-8.225677095854365</v>
+        <v>-0.8829927966387645</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.613243326865857</v>
+        <v>-10.97293062373275</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.642221434246652</v>
+        <v>-30.13513215258094</v>
       </c>
       <c r="L8" t="n">
-        <v>-2.100602791165267</v>
+        <v>-5.249535245494443</v>
       </c>
       <c r="M8" t="n">
-        <v>-9.045279221768578</v>
+        <v>5.884760229501939</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.82962220386822</v>
+        <v>-16.80981426570755</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.859312205773064</v>
+        <v>-0.5290242114474264</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.188684536802986</v>
+        <v>2.53596635795215</v>
       </c>
       <c r="Q8" t="n">
-        <v>-5.936042513534177</v>
+        <v>-15.78830216569483</v>
       </c>
       <c r="R8" t="n">
-        <v>-6.811943116026499</v>
+        <v>-1.592518199177384</v>
       </c>
       <c r="S8" t="n">
-        <v>-7.08797833244029</v>
+        <v>12.94718810294653</v>
       </c>
       <c r="T8" t="n">
-        <v>-6.386294927778051</v>
+        <v>-4.930124691619453</v>
       </c>
       <c r="U8" t="n">
-        <v>-7.706128948121526</v>
+        <v>-14.40822243299968</v>
       </c>
       <c r="V8" t="n">
-        <v>-5.497737247971557</v>
+        <v>-30.75702332806127</v>
       </c>
       <c r="W8" t="n">
-        <v>-8.866849852982348</v>
+        <v>6.536747587986819</v>
       </c>
       <c r="X8" t="n">
-        <v>-8.694024188700766</v>
+        <v>-19.0126104516947</v>
       </c>
       <c r="Y8" t="n">
-        <v>-9.783684331969885</v>
+        <v>-25.23847522071169</v>
       </c>
       <c r="Z8" t="n">
-        <v>-4.94527271924613</v>
+        <v>0.5911192140667794</v>
       </c>
       <c r="AA8" t="n">
-        <v>-11.05850327411508</v>
+        <v>-30.45565035399002</v>
       </c>
       <c r="AB8" t="n">
-        <v>-14.60225173099222</v>
+        <v>-10.81907640406603</v>
       </c>
       <c r="AC8" t="n">
-        <v>-14.3303044331947</v>
+        <v>-12.41064368010796</v>
       </c>
     </row>
     <row r="9">
@@ -1153,88 +1153,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9830617917465022</v>
+        <v>-0.9625801431806056</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.636564365665122</v>
+        <v>-20.39251431479061</v>
       </c>
       <c r="D9" t="n">
-        <v>8.351596462263231</v>
+        <v>8.315358411005148</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.538382234472194</v>
+        <v>-6.178752632651547</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.58570628264267</v>
+        <v>-3.928739651667096</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.37695732269136</v>
+        <v>12.28121194232201</v>
       </c>
       <c r="H9" t="n">
-        <v>1.035099247080502</v>
+        <v>3.096629059179401</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.283556306113362</v>
+        <v>15.78215504992358</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.8238127766862582</v>
+        <v>-17.98708516958648</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.6528646767135173</v>
+        <v>14.8637356873676</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4078310371040859</v>
+        <v>-10.19127047378892</v>
       </c>
       <c r="M9" t="n">
-        <v>-3.013999723620413</v>
+        <v>-5.859109494917295</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8548656066487741</v>
+        <v>1.116338693521747</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8552594660362276</v>
+        <v>8.013360530995522</v>
       </c>
       <c r="P9" t="n">
-        <v>3.86464344997878</v>
+        <v>3.606324856584109</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.5464088346445291</v>
+        <v>0.08187861386730644</v>
       </c>
       <c r="R9" t="n">
-        <v>-2.96063226711272</v>
+        <v>6.737706433558158</v>
       </c>
       <c r="S9" t="n">
-        <v>-1.363159422546989</v>
+        <v>8.968982691611277</v>
       </c>
       <c r="T9" t="n">
-        <v>-3.592381918989871</v>
+        <v>-7.290263977841972</v>
       </c>
       <c r="U9" t="n">
-        <v>-3.333201989449655</v>
+        <v>-0.8211725021185896</v>
       </c>
       <c r="V9" t="n">
-        <v>1.373465111319866</v>
+        <v>-17.82987854479579</v>
       </c>
       <c r="W9" t="n">
-        <v>-4.824400236207666</v>
+        <v>-18.62872371424498</v>
       </c>
       <c r="X9" t="n">
-        <v>-3.381329828293834</v>
+        <v>8.52744333888592</v>
       </c>
       <c r="Y9" t="n">
-        <v>-5.154026174132821</v>
+        <v>3.90797549397166</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.8194229812400788</v>
+        <v>5.768500967648063</v>
       </c>
       <c r="AA9" t="n">
-        <v>-4.997608860658941</v>
+        <v>6.501803174419637</v>
       </c>
       <c r="AB9" t="n">
-        <v>-8.997670421277348</v>
+        <v>-2.922220014511161</v>
       </c>
       <c r="AC9" t="n">
-        <v>-9.063314522599761</v>
+        <v>-12.54045662119488</v>
       </c>
     </row>
     <row r="10">
@@ -1242,88 +1242,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.703115837274281</v>
+        <v>-9.678014726893279</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.487656388624757</v>
+        <v>-8.33548670800597</v>
       </c>
       <c r="D10" t="n">
-        <v>2.033363994846096</v>
+        <v>-11.94010314905692</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.914931805939617</v>
+        <v>-14.44807992226231</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.464434283698937</v>
+        <v>-3.042520124366809</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.448022157700818</v>
+        <v>-7.584808260834606</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.442555400341758</v>
+        <v>-8.404377661416248</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.029693681717388</v>
+        <v>-0.3386334883406645</v>
       </c>
       <c r="J10" t="n">
-        <v>-4.356289877064081</v>
+        <v>-22.97642696065425</v>
       </c>
       <c r="K10" t="n">
-        <v>-4.355091902146354</v>
+        <v>-5.151091714849339</v>
       </c>
       <c r="L10" t="n">
-        <v>-3.382746171920937</v>
+        <v>2.53346043996091</v>
       </c>
       <c r="M10" t="n">
-        <v>-7.642426676822061</v>
+        <v>-2.102504646414195</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.911734618015893</v>
+        <v>-15.97668293818131</v>
       </c>
       <c r="O10" t="n">
-        <v>-1.927195893230367</v>
+        <v>8.953833666359525</v>
       </c>
       <c r="P10" t="n">
-        <v>-3.363856507268016</v>
+        <v>-0.9625686676224383</v>
       </c>
       <c r="Q10" t="n">
-        <v>-4.912062770445218</v>
+        <v>-0.694219508233016</v>
       </c>
       <c r="R10" t="n">
-        <v>-7.660745688784208</v>
+        <v>3.288640621183392</v>
       </c>
       <c r="S10" t="n">
-        <v>-5.335471441201454</v>
+        <v>-4.842862661273087</v>
       </c>
       <c r="T10" t="n">
-        <v>-6.108020879106491</v>
+        <v>-6.137722749934894</v>
       </c>
       <c r="U10" t="n">
-        <v>-8.431266913673845</v>
+        <v>-2.323285692107901</v>
       </c>
       <c r="V10" t="n">
-        <v>-5.00004717783763</v>
+        <v>-0.6864700597826712</v>
       </c>
       <c r="W10" t="n">
-        <v>-8.726752966533409</v>
+        <v>-14.40393928630401</v>
       </c>
       <c r="X10" t="n">
-        <v>-5.842243371804387</v>
+        <v>-15.35484627805357</v>
       </c>
       <c r="Y10" t="n">
-        <v>-9.731437488963895</v>
+        <v>-18.25515873874981</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.9658393395500262</v>
+        <v>6.400747765284734</v>
       </c>
       <c r="AA10" t="n">
-        <v>-8.11420698566466</v>
+        <v>-12.52898025214931</v>
       </c>
       <c r="AB10" t="n">
-        <v>-13.05532699646185</v>
+        <v>-14.55088889082886</v>
       </c>
       <c r="AC10" t="n">
-        <v>-13.81288936697592</v>
+        <v>4.523728144029375</v>
       </c>
     </row>
     <row r="11">
@@ -1331,88 +1331,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.390338420829168</v>
+        <v>-4.575436801153002</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.812929159233643</v>
+        <v>-18.36242737279046</v>
       </c>
       <c r="D11" t="n">
-        <v>2.492069043888242</v>
+        <v>-11.69277611756043</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.413419071013799</v>
+        <v>-5.682140873192076</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.687382068787255</v>
+        <v>-23.43482616720362</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.840626876723212</v>
+        <v>0.9013778899476366</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.663833614989152</v>
+        <v>-14.39157185317606</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.63337575556532</v>
+        <v>-16.37267255135276</v>
       </c>
       <c r="J11" t="n">
-        <v>-3.154579329639241</v>
+        <v>-2.420594939784423</v>
       </c>
       <c r="K11" t="n">
-        <v>-4.009536997646481</v>
+        <v>-13.99595090777254</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.492448271865516</v>
+        <v>-17.89284600365278</v>
       </c>
       <c r="M11" t="n">
-        <v>-8.239003297509214</v>
+        <v>1.051253953892918</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.114198185380737</v>
+        <v>3.056900084635026</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1629745770131708</v>
+        <v>3.713530926993677</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5460385412992679</v>
+        <v>-12.40371398663736</v>
       </c>
       <c r="Q11" t="n">
-        <v>-3.731738593472507</v>
+        <v>-7.566869129840448</v>
       </c>
       <c r="R11" t="n">
-        <v>-6.250733126929701</v>
+        <v>-13.14227640217081</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.854665664236364</v>
+        <v>8.263227301632718</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.791908913449705</v>
+        <v>-6.073107344083783</v>
       </c>
       <c r="U11" t="n">
-        <v>-5.76881995038062</v>
+        <v>0.8246290749410718</v>
       </c>
       <c r="V11" t="n">
-        <v>-4.05233647748957</v>
+        <v>-7.098045994294518</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.734630544256708</v>
+        <v>-13.28302047630126</v>
       </c>
       <c r="X11" t="n">
-        <v>-5.865981829324408</v>
+        <v>3.770949796156654</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.990719218503664</v>
+        <v>-27.61194696911686</v>
       </c>
       <c r="Z11" t="n">
-        <v>-3.644992514899565</v>
+        <v>-18.72219382760465</v>
       </c>
       <c r="AA11" t="n">
-        <v>-8.235533248578809</v>
+        <v>0.6520035853731798</v>
       </c>
       <c r="AB11" t="n">
-        <v>-12.38385317759684</v>
+        <v>-23.41695943882836</v>
       </c>
       <c r="AC11" t="n">
-        <v>-14.32489533496642</v>
+        <v>-27.11285640275469</v>
       </c>
     </row>
   </sheetData>
@@ -1525,88 +1525,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.048869791873138</v>
+        <v>10.2742974810086</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.339077415884862</v>
+        <v>4.22519219856507</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.793159168294833</v>
+        <v>-9.048154223657825</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.261911152118142</v>
+        <v>1.081910297589112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8350084867495604</v>
+        <v>16.32848938273977</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3590849304786461</v>
+        <v>-2.047124732362828</v>
       </c>
       <c r="H2" t="n">
-        <v>1.56472438265303</v>
+        <v>4.292726710137547</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.358272500063022</v>
+        <v>10.22815025831516</v>
       </c>
       <c r="J2" t="n">
-        <v>8.825393724610405</v>
+        <v>-17.86389770168569</v>
       </c>
       <c r="K2" t="n">
-        <v>4.854123920870508</v>
+        <v>3.349968001613224</v>
       </c>
       <c r="L2" t="n">
-        <v>4.592153618326591</v>
+        <v>12.19821087067874</v>
       </c>
       <c r="M2" t="n">
-        <v>6.254234638753749</v>
+        <v>-3.032439088251875</v>
       </c>
       <c r="N2" t="n">
-        <v>2.766625170867578</v>
+        <v>-9.795553845737233</v>
       </c>
       <c r="O2" t="n">
-        <v>1.727358239925133</v>
+        <v>18.28880695337793</v>
       </c>
       <c r="P2" t="n">
-        <v>3.89400354497726</v>
+        <v>6.128927850021299</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.865264667922731</v>
+        <v>17.58544219595935</v>
       </c>
       <c r="R2" t="n">
-        <v>1.146075403946762</v>
+        <v>3.496638719450421</v>
       </c>
       <c r="S2" t="n">
-        <v>1.618288701374759</v>
+        <v>-1.02168171286666</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5776738063904505</v>
+        <v>4.60842529208522</v>
       </c>
       <c r="U2" t="n">
-        <v>1.383642033785368</v>
+        <v>10.07239862895128</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.4488050744090515</v>
+        <v>1.305294113455815</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.09032800503686</v>
+        <v>-15.06441113323644</v>
       </c>
       <c r="X2" t="n">
-        <v>3.238517665747035</v>
+        <v>-4.290396372239924</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.475888879854771</v>
+        <v>8.971601967457616</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.2043623794298739</v>
+        <v>-17.20279267699325</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.770750160511932</v>
+        <v>-0.2831561158409084</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.628185954694419</v>
+        <v>1.647466955929857</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.462473602869387</v>
+        <v>-18.22747830344215</v>
       </c>
     </row>
     <row r="3">
@@ -1614,88 +1614,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.123137899705766</v>
+        <v>-14.76633556073991</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.45705544736981</v>
+        <v>-24.80007944412684</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.546135758058886</v>
+        <v>-4.092330409363785</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.290674895425006</v>
+        <v>-22.98571472722604</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.313031660473875</v>
+        <v>-1.83067957177677</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.789510678659985</v>
+        <v>11.35291770238356</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.562137558477131</v>
+        <v>-3.603933203635177</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.349305690591541</v>
+        <v>2.113986330271517</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5424372787589413</v>
+        <v>-5.087264700463304</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.489802030389444</v>
+        <v>-24.44532271715511</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0183540316933577</v>
+        <v>-2.018908916578909</v>
       </c>
       <c r="M3" t="n">
-        <v>1.869570639135389</v>
+        <v>1.759259538778885</v>
       </c>
       <c r="N3" t="n">
-        <v>-4.032347540811565</v>
+        <v>-15.48284929616216</v>
       </c>
       <c r="O3" t="n">
-        <v>-4.150177464865696</v>
+        <v>8.198322543370367</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.416370178916262</v>
+        <v>-8.606297388551319</v>
       </c>
       <c r="Q3" t="n">
-        <v>-2.770988706282816</v>
+        <v>-9.863848595505498</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.124495546182867</v>
+        <v>-23.31615857424706</v>
       </c>
       <c r="S3" t="n">
-        <v>-3.293757237631921</v>
+        <v>0.6728764781843566</v>
       </c>
       <c r="T3" t="n">
-        <v>-6.606709505567775</v>
+        <v>-6.899129179864131</v>
       </c>
       <c r="U3" t="n">
-        <v>-5.034043234806123</v>
+        <v>-0.8132819798714968</v>
       </c>
       <c r="V3" t="n">
-        <v>-3.954206871606641</v>
+        <v>15.44547827582673</v>
       </c>
       <c r="W3" t="n">
-        <v>-7.787993816456581</v>
+        <v>7.431246301770529</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.947865602655017</v>
+        <v>-7.674880236714749</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1.77932940395805</v>
+        <v>12.21412821530298</v>
       </c>
       <c r="Z3" t="n">
-        <v>-6.053064579711315</v>
+        <v>-4.165582200308132</v>
       </c>
       <c r="AA3" t="n">
-        <v>-1.194549345447284</v>
+        <v>-3.445249166831084</v>
       </c>
       <c r="AB3" t="n">
-        <v>-2.886157154125073</v>
+        <v>-6.59257790515827</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2.582478945426667</v>
+        <v>-24.10027823801568</v>
       </c>
     </row>
     <row r="4">
@@ -1703,88 +1703,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.499522376984921</v>
+        <v>8.643876451626117</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.84296134259834</v>
+        <v>-1.21833696509514</v>
       </c>
       <c r="D4" t="n">
-        <v>1.049200512619691</v>
+        <v>3.073869837871182</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.039195813419459</v>
+        <v>-12.55543885284949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8832420799557501</v>
+        <v>-7.424927608695437</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6728322707727536</v>
+        <v>-8.031453905337878</v>
       </c>
       <c r="H4" t="n">
-        <v>1.297011820751727</v>
+        <v>-0.6030637036096804</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.193286104705987</v>
+        <v>-3.89002015307363</v>
       </c>
       <c r="J4" t="n">
-        <v>6.996061609101464</v>
+        <v>0.870106264632188</v>
       </c>
       <c r="K4" t="n">
-        <v>3.06672049191198</v>
+        <v>7.83393819317822</v>
       </c>
       <c r="L4" t="n">
-        <v>2.144249505051118</v>
+        <v>11.20631121118813</v>
       </c>
       <c r="M4" t="n">
-        <v>4.280233258094994</v>
+        <v>6.27564751347266</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.074649229133441</v>
+        <v>-15.06281016550525</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.569639869350568</v>
+        <v>-4.098425777637219</v>
       </c>
       <c r="P4" t="n">
-        <v>2.851759229901742</v>
+        <v>-9.140668085317389</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.261148059442894</v>
+        <v>3.710183541699328</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6850490374928885</v>
+        <v>9.586043489765764</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1047912172346713</v>
+        <v>2.34816392467709</v>
       </c>
       <c r="T4" t="n">
-        <v>-2.570297674186961</v>
+        <v>12.40325831686414</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.8410191770441078</v>
+        <v>-16.89896971651492</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.05280006082335</v>
+        <v>8.722008119350866</v>
       </c>
       <c r="W4" t="n">
-        <v>-2.701633213178422</v>
+        <v>-9.177678355470917</v>
       </c>
       <c r="X4" t="n">
-        <v>2.675305098019519</v>
+        <v>2.312207104608221</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.221071839926563</v>
+        <v>4.364565321403119</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.492822326067883</v>
+        <v>-14.33847077509514</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.631263736824169</v>
+        <v>16.24501742083828</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.347078939634405</v>
+        <v>7.721179523109397</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.500295118967314</v>
+        <v>-5.071035370649936</v>
       </c>
     </row>
     <row r="5">
@@ -1792,88 +1792,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.753627353231375</v>
+        <v>-12.28238689368376</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.906861484429949</v>
+        <v>-1.856988194308423</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.9033311753996243</v>
+        <v>8.172697303009397</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.285166908008643</v>
+        <v>-0.9121064221477919</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1985492857143645</v>
+        <v>-12.92725490064934</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.345814388558361</v>
+        <v>-16.85118275937795</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.823040397634274</v>
+        <v>1.555418473396564</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.760195191465163</v>
+        <v>2.86446181077101</v>
       </c>
       <c r="J5" t="n">
-        <v>3.916680580375176</v>
+        <v>-0.2535590382666234</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2110042077350651</v>
+        <v>9.672789503567815</v>
       </c>
       <c r="L5" t="n">
-        <v>1.956523448955111</v>
+        <v>-4.847822722197068</v>
       </c>
       <c r="M5" t="n">
-        <v>2.970589713864205</v>
+        <v>1.954867743468737</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.108133058541841</v>
+        <v>6.503986227463859</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.01333785491637</v>
+        <v>8.502847162654062</v>
       </c>
       <c r="P5" t="n">
-        <v>1.725572506885092</v>
+        <v>9.05047890054399</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.8612591745259097</v>
+        <v>-9.031073969882836</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.396058069009831</v>
+        <v>7.61320511094607</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.430058587037008</v>
+        <v>-8.423225480159063</v>
       </c>
       <c r="T5" t="n">
-        <v>-4.36541501547015</v>
+        <v>6.70525890704041</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.290035788405749</v>
+        <v>-6.904147028215209</v>
       </c>
       <c r="V5" t="n">
-        <v>-2.530400156007333</v>
+        <v>-2.77975799593836</v>
       </c>
       <c r="W5" t="n">
-        <v>-6.211249610593726</v>
+        <v>-6.801853317323892</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.3314931765610928</v>
+        <v>-2.119399048298214</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.285136065511372</v>
+        <v>0.08169194142956598</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.301790418733819</v>
+        <v>-5.377694895340074</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.08964468834073192</v>
+        <v>0.7701598989244793</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.096918919850143</v>
+        <v>7.151206089493916</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.615243324038359</v>
+        <v>-5.49666287286496</v>
       </c>
     </row>
     <row r="6">
@@ -1881,88 +1881,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.216487018077131</v>
+        <v>15.19985613429452</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.005325955528639</v>
+        <v>8.711796579941975</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5537292621755925</v>
+        <v>0.8828588118667273</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.834398262205883</v>
+        <v>-16.79210839423654</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5540014639880235</v>
+        <v>-2.166453000433558</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3901642039995941</v>
+        <v>-4.252783893164375</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.9544055207928182</v>
+        <v>-20.91667507341062</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.309055769599712</v>
+        <v>13.56093742278086</v>
       </c>
       <c r="J6" t="n">
-        <v>4.185696111297857</v>
+        <v>2.748538495633626</v>
       </c>
       <c r="K6" t="n">
-        <v>1.844733928273344</v>
+        <v>-5.709358472811839</v>
       </c>
       <c r="L6" t="n">
-        <v>4.559083886642528</v>
+        <v>2.593380935132143</v>
       </c>
       <c r="M6" t="n">
-        <v>4.300510259361205</v>
+        <v>2.239772839249763</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1709603682146568</v>
+        <v>7.952949638521069</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.04787053758654514</v>
+        <v>-4.106337176298609</v>
       </c>
       <c r="P6" t="n">
-        <v>1.518017386912783</v>
+        <v>6.980384530542214</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.472679520166012</v>
+        <v>13.55719942214225</v>
       </c>
       <c r="R6" t="n">
-        <v>3.359131497140972</v>
+        <v>5.946362815330804</v>
       </c>
       <c r="S6" t="n">
-        <v>1.777983715444562</v>
+        <v>-1.914811724969208</v>
       </c>
       <c r="T6" t="n">
-        <v>-1.484795863710083</v>
+        <v>13.44910016623391</v>
       </c>
       <c r="U6" t="n">
-        <v>1.50486083094864</v>
+        <v>2.144796132867101</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1164624433317889</v>
+        <v>22.40665277938017</v>
       </c>
       <c r="W6" t="n">
-        <v>-1.365047537954831</v>
+        <v>-5.546001437437713</v>
       </c>
       <c r="X6" t="n">
-        <v>3.678290591055525</v>
+        <v>3.463182278020852</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.008398658067878</v>
+        <v>2.808339186298713</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1.378870254867509</v>
+        <v>-14.2555303023105</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.315174095403802</v>
+        <v>16.65813986273669</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.29609814439395</v>
+        <v>3.623203192729071</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.331834181751776</v>
+        <v>-14.3415091945396</v>
       </c>
     </row>
     <row r="7">
@@ -1970,88 +1970,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.461465125338754</v>
+        <v>9.031198363269027</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.346908601229234</v>
+        <v>6.475347492606397</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.557511592463194</v>
+        <v>-1.181784359595749</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.742391953312349</v>
+        <v>-5.300120808972544</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5875991743059452</v>
+        <v>19.88223920240852</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.693384280961356</v>
+        <v>4.264886796222656</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6023060407194554</v>
+        <v>13.14716567349398</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.328191883698633</v>
+        <v>3.499639635712746</v>
       </c>
       <c r="J7" t="n">
-        <v>1.668440312350278</v>
+        <v>6.526213835455323</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.455624314225706</v>
+        <v>6.242843834712991</v>
       </c>
       <c r="L7" t="n">
-        <v>3.419366487543813</v>
+        <v>6.052134478907719</v>
       </c>
       <c r="M7" t="n">
-        <v>2.399215782828247</v>
+        <v>-12.94849271766877</v>
       </c>
       <c r="N7" t="n">
-        <v>-3.118843884804637</v>
+        <v>1.100532224049357</v>
       </c>
       <c r="O7" t="n">
-        <v>-2.558215306400841</v>
+        <v>2.678937345856394</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8314824516178403</v>
+        <v>7.764083554222138</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.9607975978233028</v>
+        <v>4.853598703131843</v>
       </c>
       <c r="R7" t="n">
-        <v>-2.473510666201614</v>
+        <v>-9.286605302426418</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3045750700852514</v>
+        <v>7.661805670656854</v>
       </c>
       <c r="T7" t="n">
-        <v>-3.802664438929264</v>
+        <v>-2.993440159752979</v>
       </c>
       <c r="U7" t="n">
-        <v>-1.427570060709567</v>
+        <v>2.713941793461379</v>
       </c>
       <c r="V7" t="n">
-        <v>-2.584719172996181</v>
+        <v>5.342419646530177</v>
       </c>
       <c r="W7" t="n">
-        <v>-4.429502002973031</v>
+        <v>-13.51085609597419</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3571723292826149</v>
+        <v>23.75948876123799</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.0571329730029787</v>
+        <v>8.473758194739302</v>
       </c>
       <c r="Z7" t="n">
-        <v>-2.939866325809902</v>
+        <v>-27.30619347872095</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.4220464113550935</v>
+        <v>4.084028306691164</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.492653280284857</v>
+        <v>-3.343795879648347</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.5562604598224209</v>
+        <v>-4.002399003707964</v>
       </c>
     </row>
     <row r="8">
@@ -2059,88 +2059,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.8815947379666</v>
+        <v>5.279190637080313</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.415495070938388</v>
+        <v>-11.10575091485329</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.814795028183962</v>
+        <v>-0.5921223555846788</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.526934268003894</v>
+        <v>-7.435253326185322</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.247793888943796</v>
+        <v>-5.491680969921504</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.303182286993036</v>
+        <v>-11.94049048562669</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.261910401165892</v>
+        <v>3.638500512058449</v>
       </c>
       <c r="I8" t="n">
-        <v>-5.297683523795156</v>
+        <v>0.9560038202248196</v>
       </c>
       <c r="J8" t="n">
-        <v>2.196155001319945</v>
+        <v>-6.931408788862971</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.8924634234238991</v>
+        <v>4.711862419641115</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9471953396701969</v>
+        <v>1.04464510703525</v>
       </c>
       <c r="M8" t="n">
-        <v>1.963866373443526</v>
+        <v>-9.960446210511424</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.765387493547964</v>
+        <v>10.39007472847754</v>
       </c>
       <c r="O8" t="n">
-        <v>-4.102583359711052</v>
+        <v>-14.2979859813599</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1910983528911057</v>
+        <v>-9.74226363860428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.070802218955225</v>
+        <v>14.24729866434983</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.989924858005857</v>
+        <v>-5.82168118631624</v>
       </c>
       <c r="S8" t="n">
-        <v>-2.738249434110942</v>
+        <v>-5.990715401333481</v>
       </c>
       <c r="T8" t="n">
-        <v>-5.448812348983838</v>
+        <v>-7.37688262752215</v>
       </c>
       <c r="U8" t="n">
-        <v>-2.544762774744046</v>
+        <v>-3.485888900249823</v>
       </c>
       <c r="V8" t="n">
-        <v>-1.799393574164842</v>
+        <v>15.09957459620499</v>
       </c>
       <c r="W8" t="n">
-        <v>-5.535981240503848</v>
+        <v>4.036711269801816</v>
       </c>
       <c r="X8" t="n">
-        <v>-1.004379254576855</v>
+        <v>-1.393542652034677</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.3238189296925218</v>
+        <v>4.454410948508437</v>
       </c>
       <c r="Z8" t="n">
-        <v>-3.192282332960331</v>
+        <v>-2.234879237752275</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.166796224406403</v>
+        <v>9.18175115502682</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.219162830453843</v>
+        <v>-3.218001301423086</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.6137397729845612</v>
+        <v>-18.63572471061731</v>
       </c>
     </row>
     <row r="9">
@@ -2148,88 +2148,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9899367988850301</v>
+        <v>10.53293289748098</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3494509890213429</v>
+        <v>-4.256549335559515</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7907554572894974</v>
+        <v>2.243789941464979</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.179843158659765</v>
+        <v>12.00479827139257</v>
       </c>
       <c r="F9" t="n">
-        <v>3.811064187619175</v>
+        <v>8.338429705598077</v>
       </c>
       <c r="G9" t="n">
-        <v>2.216092098904982</v>
+        <v>-1.016964290689773</v>
       </c>
       <c r="H9" t="n">
-        <v>2.065471536065233</v>
+        <v>-18.0508668475472</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.339867128131804</v>
+        <v>0.9026547814410539</v>
       </c>
       <c r="J9" t="n">
-        <v>6.161513374358312</v>
+        <v>16.40346123251621</v>
       </c>
       <c r="K9" t="n">
-        <v>3.722609817724678</v>
+        <v>-2.371183125127968</v>
       </c>
       <c r="L9" t="n">
-        <v>3.904951084611671</v>
+        <v>-14.80516469148443</v>
       </c>
       <c r="M9" t="n">
-        <v>5.758456132008408</v>
+        <v>-11.96987053572422</v>
       </c>
       <c r="N9" t="n">
-        <v>3.162214995887846</v>
+        <v>-20.05516560307087</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.2030850333432319</v>
+        <v>-3.479161979384497</v>
       </c>
       <c r="P9" t="n">
-        <v>3.468827589163901</v>
+        <v>-9.239009513518662</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.926255851762558</v>
+        <v>-1.264927991618101</v>
       </c>
       <c r="R9" t="n">
-        <v>3.79441044552597</v>
+        <v>0.4867182768786593</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3369824449927648</v>
+        <v>22.01708647974909</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.2083982642791162</v>
+        <v>-2.758932611159645</v>
       </c>
       <c r="U9" t="n">
-        <v>3.785480201808146</v>
+        <v>1.651584744248207</v>
       </c>
       <c r="V9" t="n">
-        <v>3.996600161498584</v>
+        <v>3.996819094748861</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.18482147648088</v>
+        <v>14.650894294434</v>
       </c>
       <c r="X9" t="n">
-        <v>1.459942969739424</v>
+        <v>14.08604686578264</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.829452415564932</v>
+        <v>9.825404107350309</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.694772399285881</v>
+        <v>-3.453406155105851</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.645155030003217</v>
+        <v>-2.593637536362905</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.972850462996985</v>
+        <v>11.31416131170587</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.545073374275913</v>
+        <v>-9.830687429372626</v>
       </c>
     </row>
     <row r="10">
@@ -2237,88 +2237,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.848017571501892</v>
+        <v>6.959397954473769</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.600565319073334</v>
+        <v>-24.15959884415862</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8168668449089109</v>
+        <v>-11.09688969265548</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.257565591869214</v>
+        <v>-1.05709878263154</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.546442397034099</v>
+        <v>6.082927791564513</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.475380600312518</v>
+        <v>3.773710426680001</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3528605732506294</v>
+        <v>-6.681246432514596</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.941142624696743</v>
+        <v>-9.65970505949959</v>
       </c>
       <c r="J10" t="n">
-        <v>3.455346180162361</v>
+        <v>1.942925059375004</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3950285619376763</v>
+        <v>9.051330992452375</v>
       </c>
       <c r="L10" t="n">
-        <v>1.850637562786891</v>
+        <v>-3.71445335331619</v>
       </c>
       <c r="M10" t="n">
-        <v>3.062531621670773</v>
+        <v>-0.2665995546330513</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.422173078763946</v>
+        <v>9.77702305008887</v>
       </c>
       <c r="O10" t="n">
-        <v>-5.004142115615269</v>
+        <v>-6.028231001875385</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03362580977741914</v>
+        <v>0.4233395947115637</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.2755429066065916</v>
+        <v>5.42636111420904</v>
       </c>
       <c r="R10" t="n">
-        <v>-1.014784922011743</v>
+        <v>-7.31257997531976</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.6901419650367939</v>
+        <v>-18.93733295282682</v>
       </c>
       <c r="T10" t="n">
-        <v>-4.219288102350975</v>
+        <v>-9.472005155124712</v>
       </c>
       <c r="U10" t="n">
-        <v>-2.215026376492337</v>
+        <v>17.70676872008573</v>
       </c>
       <c r="V10" t="n">
-        <v>-3.457776427314163</v>
+        <v>8.426035626566875</v>
       </c>
       <c r="W10" t="n">
-        <v>-3.549440788373194</v>
+        <v>7.764365437725647</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.674547345718345</v>
+        <v>13.92512061361957</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.4732824365910863</v>
+        <v>18.90517758666823</v>
       </c>
       <c r="Z10" t="n">
-        <v>-4.529869405871757</v>
+        <v>4.131488865092971</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.03769671142358666</v>
+        <v>6.002246103852231</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6046401346612504</v>
+        <v>-2.884695674044696</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.8442387161980122</v>
+        <v>-12.98770653218227</v>
       </c>
     </row>
     <row r="11">
@@ -2326,88 +2326,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.232351381455457</v>
+        <v>-8.123211900645117</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.733902165671753</v>
+        <v>6.626371686773317</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.523101988144314</v>
+        <v>4.536464750194553</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.018190947489039</v>
+        <v>-2.552322980879524</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.688200036097744</v>
+        <v>-16.46126516970143</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.443679177672635</v>
+        <v>6.85240967332393</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.096002413938298</v>
+        <v>0.4351186507890121</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.025022465572788</v>
+        <v>-16.20888289180036</v>
       </c>
       <c r="J11" t="n">
-        <v>3.746275834691279</v>
+        <v>1.996534942309087</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09350191430808896</v>
+        <v>20.50307929659883</v>
       </c>
       <c r="L11" t="n">
-        <v>4.935687379675977</v>
+        <v>21.20853758875075</v>
       </c>
       <c r="M11" t="n">
-        <v>2.941044471639744</v>
+        <v>1.610528786005547</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1816317905915206</v>
+        <v>-8.732971528831511</v>
       </c>
       <c r="O11" t="n">
-        <v>-3.988041771396549</v>
+        <v>-1.713741539861923</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3663787659898993</v>
+        <v>1.708967941299643</v>
       </c>
       <c r="Q11" t="n">
-        <v>-2.474609042302413</v>
+        <v>12.18125641252811</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1847800100864205</v>
+        <v>2.661229699891337</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4406319249293196</v>
+        <v>15.15585146237859</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.919726311333116</v>
+        <v>-8.228063731214693</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.8578901844135471</v>
+        <v>-0.1017803714432184</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.8248308028668482</v>
+        <v>17.32740970200311</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.13380181678476</v>
+        <v>16.93579653190482</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4257188984800422</v>
+        <v>5.054846594610939</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.7129158326661683</v>
+        <v>17.52192433570222</v>
       </c>
       <c r="Z11" t="n">
-        <v>-3.799793105408908</v>
+        <v>-11.52507225611993</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0619934153292323</v>
+        <v>1.585378871614138</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.2022111018718727</v>
+        <v>-0.7221223649438229</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.3481612982807661</v>
+        <v>-4.676033415039701</v>
       </c>
     </row>
   </sheetData>
@@ -2520,88 +2520,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.03778521825547329</v>
+        <v>8.867831336889653</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7244237167078789</v>
+        <v>4.109163678234495</v>
       </c>
       <c r="D2" t="n">
-        <v>2.425789735064407</v>
+        <v>-2.764696356171694</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3896720358478354</v>
+        <v>-0.3909398092020617</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.100990038409758</v>
+        <v>5.782583646382069</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9984970504521526</v>
+        <v>15.79627741793363</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.727122768070725</v>
+        <v>4.628775167254442</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.126161236322707</v>
+        <v>13.52077447665494</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4983456851312122</v>
+        <v>-5.933385854093545</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.272425323928378</v>
+        <v>2.645834153755042</v>
       </c>
       <c r="L2" t="n">
-        <v>2.96899957605118</v>
+        <v>-1.074414322188794</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.446948903465803</v>
+        <v>4.542190300822646</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.605004768847726</v>
+        <v>-2.212550073122926</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.938757469414562</v>
+        <v>-27.10517620415566</v>
       </c>
       <c r="P2" t="n">
-        <v>-3.173233888419495</v>
+        <v>16.22532776160689</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.150057751284571</v>
+        <v>-12.06447669840784</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.812304753001833</v>
+        <v>-1.429656757566209</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.7557844417162425</v>
+        <v>-14.16219412238689</v>
       </c>
       <c r="T2" t="n">
-        <v>-7.678077343492644</v>
+        <v>-5.780401395510201</v>
       </c>
       <c r="U2" t="n">
-        <v>-12.17191774209558</v>
+        <v>-10.9695168841224</v>
       </c>
       <c r="V2" t="n">
-        <v>-7.834208777410423</v>
+        <v>-29.68719484788275</v>
       </c>
       <c r="W2" t="n">
-        <v>-9.368034593971075</v>
+        <v>-4.841502247765036</v>
       </c>
       <c r="X2" t="n">
-        <v>-15.38216883366843</v>
+        <v>-4.523417570652521</v>
       </c>
       <c r="Y2" t="n">
-        <v>-21.2186558639548</v>
+        <v>-27.43193777093128</v>
       </c>
       <c r="Z2" t="n">
-        <v>-20.55046455162669</v>
+        <v>-9.191581804802601</v>
       </c>
       <c r="AA2" t="n">
-        <v>-23.83330892640664</v>
+        <v>-38.64489323153001</v>
       </c>
       <c r="AB2" t="n">
-        <v>-36.72119374412424</v>
+        <v>-32.23930207498751</v>
       </c>
       <c r="AC2" t="n">
-        <v>-59.34331754183875</v>
+        <v>-58.1218669235803</v>
       </c>
     </row>
     <row r="3">
@@ -2609,88 +2609,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.741508445989291</v>
+        <v>-3.823650916156221</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.168495973545781</v>
+        <v>-0.3369698284907807</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.454259739468563</v>
+        <v>-3.109734090293305</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.980638037057554</v>
+        <v>-2.742473120844579</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.749814961823168</v>
+        <v>-1.02145956823606</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.415222816427947</v>
+        <v>4.270244960602297</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.022018576905371</v>
+        <v>-10.52269118639084</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.826310052500556</v>
+        <v>0.2510339666701995</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.093903741760461</v>
+        <v>3.553411912975274</v>
       </c>
       <c r="K3" t="n">
-        <v>-11.32192265601621</v>
+        <v>-19.36428725047101</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.881639085209396</v>
+        <v>12.74138341953811</v>
       </c>
       <c r="M3" t="n">
-        <v>-12.90862186711808</v>
+        <v>4.015270282722931</v>
       </c>
       <c r="N3" t="n">
-        <v>-9.770159204439061</v>
+        <v>-27.72243321194866</v>
       </c>
       <c r="O3" t="n">
-        <v>-7.612124247432968</v>
+        <v>0.1587049466044057</v>
       </c>
       <c r="P3" t="n">
-        <v>-8.867957693811311</v>
+        <v>-0.4693895241703565</v>
       </c>
       <c r="Q3" t="n">
-        <v>-13.20495207642278</v>
+        <v>10.33827614588117</v>
       </c>
       <c r="R3" t="n">
-        <v>-11.3637364226379</v>
+        <v>-7.22222808600615</v>
       </c>
       <c r="S3" t="n">
-        <v>-6.962523730789233</v>
+        <v>-9.505373258581665</v>
       </c>
       <c r="T3" t="n">
-        <v>-12.23528423351783</v>
+        <v>-0.7105822132666155</v>
       </c>
       <c r="U3" t="n">
-        <v>-15.12630553114341</v>
+        <v>1.865738849002035</v>
       </c>
       <c r="V3" t="n">
-        <v>-12.61388225495501</v>
+        <v>0.8443841968473684</v>
       </c>
       <c r="W3" t="n">
-        <v>-14.27117905958801</v>
+        <v>-7.394326164345857</v>
       </c>
       <c r="X3" t="n">
-        <v>-17.6469466964297</v>
+        <v>-17.45306656817947</v>
       </c>
       <c r="Y3" t="n">
-        <v>-24.7472466984597</v>
+        <v>-4.094748253980029</v>
       </c>
       <c r="Z3" t="n">
-        <v>-24.56226634549349</v>
+        <v>-38.8563221128433</v>
       </c>
       <c r="AA3" t="n">
-        <v>-28.99040562716023</v>
+        <v>-40.40019719011181</v>
       </c>
       <c r="AB3" t="n">
-        <v>-41.87776918160375</v>
+        <v>-35.95427549706335</v>
       </c>
       <c r="AC3" t="n">
-        <v>-63.06286885336764</v>
+        <v>-59.59968409099304</v>
       </c>
     </row>
     <row r="4">
@@ -2698,88 +2698,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3357400767253763</v>
+        <v>8.634667253994751</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.295228947793768</v>
+        <v>6.812265368115401</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.958957341258179</v>
+        <v>-6.086401476854219</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.039513831068593</v>
+        <v>-18.46036829991812</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.886719874363067</v>
+        <v>-2.915550408999463</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.198772947599045</v>
+        <v>10.22836440004973</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.070719822652006</v>
+        <v>-17.00619841589536</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8164084028169765</v>
+        <v>-4.153923087334126</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.966214995694747</v>
+        <v>3.048373267517627</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.059843657739064</v>
+        <v>-9.870689373863613</v>
       </c>
       <c r="L4" t="n">
-        <v>1.516837651375112</v>
+        <v>-11.85775079311915</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.909671197651372</v>
+        <v>-9.757012101123212</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.377808238087004</v>
+        <v>-16.52879088444613</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.729476515089704</v>
+        <v>3.676126198227171</v>
       </c>
       <c r="P4" t="n">
-        <v>-5.72610416213693</v>
+        <v>-15.00313928552505</v>
       </c>
       <c r="Q4" t="n">
-        <v>-8.473443607765846</v>
+        <v>-27.64852047617848</v>
       </c>
       <c r="R4" t="n">
-        <v>-7.917902105480195</v>
+        <v>0.7579903713402159</v>
       </c>
       <c r="S4" t="n">
-        <v>-2.355127333686085</v>
+        <v>-11.01963535869262</v>
       </c>
       <c r="T4" t="n">
-        <v>-8.614651420902156</v>
+        <v>-27.65962097880632</v>
       </c>
       <c r="U4" t="n">
-        <v>-11.86634456638934</v>
+        <v>0.3037435249966993</v>
       </c>
       <c r="V4" t="n">
-        <v>-8.750799617928752</v>
+        <v>-12.69911463670079</v>
       </c>
       <c r="W4" t="n">
-        <v>-9.046153998287277</v>
+        <v>2.284587900913303</v>
       </c>
       <c r="X4" t="n">
-        <v>-16.9635011526624</v>
+        <v>-34.68631042309962</v>
       </c>
       <c r="Y4" t="n">
-        <v>-22.90906918501488</v>
+        <v>-16.9949348338448</v>
       </c>
       <c r="Z4" t="n">
-        <v>-21.5026931474148</v>
+        <v>-30.41162687894202</v>
       </c>
       <c r="AA4" t="n">
-        <v>-23.28285106409978</v>
+        <v>-28.02704357196727</v>
       </c>
       <c r="AB4" t="n">
-        <v>-38.1087426546892</v>
+        <v>-35.05434990806113</v>
       </c>
       <c r="AC4" t="n">
-        <v>-59.83899578957178</v>
+        <v>-54.87786824459205</v>
       </c>
     </row>
     <row r="5">
@@ -2787,88 +2787,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.491386266040167</v>
+        <v>13.49447716149391</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.761732092936384</v>
+        <v>-2.394703353526246</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.486939091863731</v>
+        <v>-12.37100252500226</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8335370637089476</v>
+        <v>-3.37791803593202</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.396189025625516</v>
+        <v>0.4094109921592124</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.360456749124369</v>
+        <v>-9.688315232764225</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.146170253269538</v>
+        <v>-4.449345758276014</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.167042275590244</v>
+        <v>0.2000698849436202</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.418616533697841</v>
+        <v>-5.371360321619484</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.677902785343928</v>
+        <v>-9.54126746939934</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9789915392050172</v>
+        <v>5.140732614741212</v>
       </c>
       <c r="M5" t="n">
-        <v>-8.478870774207458</v>
+        <v>-20.60738014417059</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.290025112521835</v>
+        <v>10.3882957648289</v>
       </c>
       <c r="O5" t="n">
-        <v>-6.322464804444115</v>
+        <v>2.102846193282851</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.087749747198858</v>
+        <v>-8.742984208965211</v>
       </c>
       <c r="Q5" t="n">
-        <v>-11.00866976833806</v>
+        <v>-2.18908073235846</v>
       </c>
       <c r="R5" t="n">
-        <v>-11.47577760549362</v>
+        <v>-10.43691120965499</v>
       </c>
       <c r="S5" t="n">
-        <v>-3.567901505661965</v>
+        <v>-23.81427928377171</v>
       </c>
       <c r="T5" t="n">
-        <v>-9.542960825033859</v>
+        <v>-6.595990884249323</v>
       </c>
       <c r="U5" t="n">
-        <v>-11.70113800961266</v>
+        <v>-10.14627969650144</v>
       </c>
       <c r="V5" t="n">
-        <v>-11.801839286391</v>
+        <v>-18.29610301474439</v>
       </c>
       <c r="W5" t="n">
-        <v>-10.90534279967227</v>
+        <v>-20.5767692051016</v>
       </c>
       <c r="X5" t="n">
-        <v>-17.11875297922432</v>
+        <v>-18.50921719887332</v>
       </c>
       <c r="Y5" t="n">
-        <v>-24.07345886837193</v>
+        <v>-38.16112871291301</v>
       </c>
       <c r="Z5" t="n">
-        <v>-23.24704930812977</v>
+        <v>-29.7340133344779</v>
       </c>
       <c r="AA5" t="n">
-        <v>-24.89482328479437</v>
+        <v>-31.87855490338969</v>
       </c>
       <c r="AB5" t="n">
-        <v>-37.54502027690519</v>
+        <v>-27.94314317953405</v>
       </c>
       <c r="AC5" t="n">
-        <v>-62.1702983303765</v>
+        <v>-62.76317490092302</v>
       </c>
     </row>
     <row r="6">
@@ -2876,88 +2876,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.303533815877274</v>
+        <v>-26.5203427187115</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4751729544953027</v>
+        <v>-14.64457700956287</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3528293477030293</v>
+        <v>-12.08552470835796</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8676169955142794</v>
+        <v>-21.62457312385456</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.172599761321619</v>
+        <v>-18.86983118541471</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2805239418264405</v>
+        <v>-4.595733083410311</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.991830277856384</v>
+        <v>13.30844619958053</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.353350218671573</v>
+        <v>-6.292396793972747</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.5300363008103699</v>
+        <v>-20.66048077209225</v>
       </c>
       <c r="K6" t="n">
-        <v>-6.904519258720738</v>
+        <v>4.154274962939874</v>
       </c>
       <c r="L6" t="n">
-        <v>1.180533870207395</v>
+        <v>15.51017355881442</v>
       </c>
       <c r="M6" t="n">
-        <v>-6.124696865124371</v>
+        <v>-24.38177021819487</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.811872477333242</v>
+        <v>-9.054585621642621</v>
       </c>
       <c r="O6" t="n">
-        <v>-4.776766188064206</v>
+        <v>3.202754654992273</v>
       </c>
       <c r="P6" t="n">
-        <v>-6.434752516077435</v>
+        <v>-11.378233384068</v>
       </c>
       <c r="Q6" t="n">
-        <v>-8.475165753955222</v>
+        <v>5.91190052930737</v>
       </c>
       <c r="R6" t="n">
-        <v>-6.751034585654597</v>
+        <v>12.74242596561924</v>
       </c>
       <c r="S6" t="n">
-        <v>-1.737899102680659</v>
+        <v>-11.75777618859515</v>
       </c>
       <c r="T6" t="n">
-        <v>-7.51892899960822</v>
+        <v>-6.220773487087566</v>
       </c>
       <c r="U6" t="n">
-        <v>-11.09500978670564</v>
+        <v>2.955399136429874</v>
       </c>
       <c r="V6" t="n">
-        <v>-7.463809870283961</v>
+        <v>-15.34222751521931</v>
       </c>
       <c r="W6" t="n">
-        <v>-10.60879532066387</v>
+        <v>-4.442080002948743</v>
       </c>
       <c r="X6" t="n">
-        <v>-14.6290014684285</v>
+        <v>-19.47046919767373</v>
       </c>
       <c r="Y6" t="n">
-        <v>-22.98097274174214</v>
+        <v>-14.88312011910482</v>
       </c>
       <c r="Z6" t="n">
-        <v>-20.84422410022203</v>
+        <v>-13.66325097623131</v>
       </c>
       <c r="AA6" t="n">
-        <v>-26.29088685383342</v>
+        <v>-41.0666803933256</v>
       </c>
       <c r="AB6" t="n">
-        <v>-36.97519498268526</v>
+        <v>-20.38270632046623</v>
       </c>
       <c r="AC6" t="n">
-        <v>-60.4802500004145</v>
+        <v>-59.73643506500072</v>
       </c>
     </row>
     <row r="7">
@@ -2965,88 +2965,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.814207189693399</v>
+        <v>-17.63386700513803</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.195000042435924</v>
+        <v>6.130647121980289</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.521022374346174</v>
+        <v>2.845012903122834</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.361400528397055</v>
+        <v>1.482843825744126</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.450578747734361</v>
+        <v>1.068071053045443</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.403868983027252</v>
+        <v>12.27103870363241</v>
       </c>
       <c r="H7" t="n">
-        <v>-7.394058878433655</v>
+        <v>-4.868288730541001</v>
       </c>
       <c r="I7" t="n">
-        <v>-4.57021012547591</v>
+        <v>-5.697745138677824</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.831481650477557</v>
+        <v>1.653825474635523</v>
       </c>
       <c r="K7" t="n">
-        <v>-9.10472357768494</v>
+        <v>2.780593559708682</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6475335417661849</v>
+        <v>-9.679967163851526</v>
       </c>
       <c r="M7" t="n">
-        <v>-9.953857038062692</v>
+        <v>-7.589336283847619</v>
       </c>
       <c r="N7" t="n">
-        <v>-7.607937464919744</v>
+        <v>-23.07124590329543</v>
       </c>
       <c r="O7" t="n">
-        <v>-6.945303262970557</v>
+        <v>2.486980037208846</v>
       </c>
       <c r="P7" t="n">
-        <v>-8.101268805921588</v>
+        <v>-3.216591349925193</v>
       </c>
       <c r="Q7" t="n">
-        <v>-13.09761391588276</v>
+        <v>-20.55378516257343</v>
       </c>
       <c r="R7" t="n">
-        <v>-9.365023517092091</v>
+        <v>-27.12020694361654</v>
       </c>
       <c r="S7" t="n">
-        <v>-3.33620114660917</v>
+        <v>-13.06287620012911</v>
       </c>
       <c r="T7" t="n">
-        <v>-12.60384627061541</v>
+        <v>-6.589020953237817</v>
       </c>
       <c r="U7" t="n">
-        <v>-12.52170461883231</v>
+        <v>-21.88692398717082</v>
       </c>
       <c r="V7" t="n">
-        <v>-10.69139141116236</v>
+        <v>-22.59637437553068</v>
       </c>
       <c r="W7" t="n">
-        <v>-10.97612016550092</v>
+        <v>-21.65064478850618</v>
       </c>
       <c r="X7" t="n">
-        <v>-16.80169471458196</v>
+        <v>-31.90180181075243</v>
       </c>
       <c r="Y7" t="n">
-        <v>-23.93787806337436</v>
+        <v>-27.97057948640823</v>
       </c>
       <c r="Z7" t="n">
-        <v>-23.43386512233478</v>
+        <v>-18.38422623747147</v>
       </c>
       <c r="AA7" t="n">
-        <v>-26.06141118458151</v>
+        <v>-42.39148984958634</v>
       </c>
       <c r="AB7" t="n">
-        <v>-38.99588425121345</v>
+        <v>-45.69518066354298</v>
       </c>
       <c r="AC7" t="n">
-        <v>-62.05581183092341</v>
+        <v>-72.23444864758466</v>
       </c>
     </row>
     <row r="8">
@@ -3054,88 +3054,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.420704498188003</v>
+        <v>-1.646503055471079</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.96338620435041</v>
+        <v>-18.40260461321948</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.908794334211733</v>
+        <v>12.92877083992878</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.193472316872163</v>
+        <v>-1.771346097700416</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.074339694167475</v>
+        <v>13.30697199464793</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.323414886679362</v>
+        <v>19.40582770759934</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.231006748362635</v>
+        <v>-19.32113057325101</v>
       </c>
       <c r="I8" t="n">
-        <v>-5.540720167203355</v>
+        <v>8.160174156255922</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.976671306207528</v>
+        <v>0.0628490620239619</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.760034278058233</v>
+        <v>-13.86919958600846</v>
       </c>
       <c r="L8" t="n">
-        <v>-2.264172250390683</v>
+        <v>3.532469833754026</v>
       </c>
       <c r="M8" t="n">
-        <v>-10.46320724598282</v>
+        <v>-13.59955322175004</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.440590781762018</v>
+        <v>-12.76869695431326</v>
       </c>
       <c r="O8" t="n">
-        <v>-9.134184477657403</v>
+        <v>0.9591102364879722</v>
       </c>
       <c r="P8" t="n">
-        <v>-8.254230520052198</v>
+        <v>-19.55429487091436</v>
       </c>
       <c r="Q8" t="n">
-        <v>-12.41992434570821</v>
+        <v>-5.876276994908947</v>
       </c>
       <c r="R8" t="n">
-        <v>-9.819666838974079</v>
+        <v>-6.482154591940233</v>
       </c>
       <c r="S8" t="n">
-        <v>-3.954712280468734</v>
+        <v>-13.02671502526177</v>
       </c>
       <c r="T8" t="n">
-        <v>-10.28665083412872</v>
+        <v>-5.158535161697896</v>
       </c>
       <c r="U8" t="n">
-        <v>-14.84422334497805</v>
+        <v>10.95810197976563</v>
       </c>
       <c r="V8" t="n">
-        <v>-10.74531737582446</v>
+        <v>-26.93787741678643</v>
       </c>
       <c r="W8" t="n">
-        <v>-11.76663828065758</v>
+        <v>-22.76443081798292</v>
       </c>
       <c r="X8" t="n">
-        <v>-16.91881171776023</v>
+        <v>-35.83363522183703</v>
       </c>
       <c r="Y8" t="n">
-        <v>-25.59220091858637</v>
+        <v>-19.28381466455139</v>
       </c>
       <c r="Z8" t="n">
-        <v>-22.95385181710134</v>
+        <v>-20.0002623447511</v>
       </c>
       <c r="AA8" t="n">
-        <v>-28.18946926097555</v>
+        <v>-36.61533675454342</v>
       </c>
       <c r="AB8" t="n">
-        <v>-39.55453352044357</v>
+        <v>-18.9355412706653</v>
       </c>
       <c r="AC8" t="n">
-        <v>-65.16858766377425</v>
+        <v>-54.10497184947977</v>
       </c>
     </row>
     <row r="9">
@@ -3143,88 +3143,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8109252703578598</v>
+        <v>22.49694319152535</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1031711632228972</v>
+        <v>-3.973621541165871</v>
       </c>
       <c r="D9" t="n">
-        <v>1.506334392206911</v>
+        <v>17.9372516852608</v>
       </c>
       <c r="E9" t="n">
-        <v>1.122467005400832</v>
+        <v>-1.516990835817355</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01326180921818376</v>
+        <v>20.66076963401802</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6658355438613449</v>
+        <v>8.86287365105591</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.989839858649844</v>
+        <v>-4.765143291249046</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8071832227179153</v>
+        <v>16.89117620189563</v>
       </c>
       <c r="J9" t="n">
-        <v>3.681597879436179</v>
+        <v>-2.355516773579516</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.43059656422091</v>
+        <v>-8.357260063720631</v>
       </c>
       <c r="L9" t="n">
-        <v>2.849149323895471</v>
+        <v>-6.135958241601434</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.981253420038612</v>
+        <v>11.35059465890109</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.815621363812292</v>
+        <v>-6.933823310263457</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.381631345441826</v>
+        <v>-6.409103220720058</v>
       </c>
       <c r="P9" t="n">
-        <v>-4.458012714816764</v>
+        <v>5.145304952113627</v>
       </c>
       <c r="Q9" t="n">
-        <v>-6.131592251058178</v>
+        <v>1.121340844064144</v>
       </c>
       <c r="R9" t="n">
-        <v>-5.881501810965297</v>
+        <v>11.40378642258842</v>
       </c>
       <c r="S9" t="n">
-        <v>-1.213351426700975</v>
+        <v>5.169947141311719</v>
       </c>
       <c r="T9" t="n">
-        <v>-6.649461352058255</v>
+        <v>-13.89101722213545</v>
       </c>
       <c r="U9" t="n">
-        <v>-8.942738021568498</v>
+        <v>-18.2145787068407</v>
       </c>
       <c r="V9" t="n">
-        <v>-6.924623530874116</v>
+        <v>-12.38937017422797</v>
       </c>
       <c r="W9" t="n">
-        <v>-8.448500817766378</v>
+        <v>8.592927059913759</v>
       </c>
       <c r="X9" t="n">
-        <v>-12.03008030023997</v>
+        <v>-14.46614839048227</v>
       </c>
       <c r="Y9" t="n">
-        <v>-19.46472397572413</v>
+        <v>-21.58098590988567</v>
       </c>
       <c r="Z9" t="n">
-        <v>-19.23789334182734</v>
+        <v>-28.44883557960569</v>
       </c>
       <c r="AA9" t="n">
-        <v>-21.42811173829664</v>
+        <v>-33.51184071192553</v>
       </c>
       <c r="AB9" t="n">
-        <v>-36.13890925958374</v>
+        <v>-8.55616208015967</v>
       </c>
       <c r="AC9" t="n">
-        <v>-57.9471223926862</v>
+        <v>-57.07382441579487</v>
       </c>
     </row>
     <row r="10">
@@ -3232,88 +3232,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.144679366932736</v>
+        <v>11.26775640416892</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.091142023395301</v>
+        <v>9.476555027718177</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.851752166530892</v>
+        <v>-19.70086619704858</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6408093611467049</v>
+        <v>-4.836648638394767</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.08724031551508</v>
+        <v>-2.072954494574006</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.134042554456548</v>
+        <v>6.005554554766229</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.92510117596332</v>
+        <v>0.7889186262577201</v>
       </c>
       <c r="I10" t="n">
-        <v>-4.15246213199099</v>
+        <v>22.16324474940162</v>
       </c>
       <c r="J10" t="n">
-        <v>-3.392393977608559</v>
+        <v>-12.05899635867614</v>
       </c>
       <c r="K10" t="n">
-        <v>-9.771036692600308</v>
+        <v>-17.74877203084242</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.781046744475284</v>
+        <v>-5.399967100592535</v>
       </c>
       <c r="M10" t="n">
-        <v>-8.914580558039653</v>
+        <v>-11.58357832379535</v>
       </c>
       <c r="N10" t="n">
-        <v>-7.229552129904791</v>
+        <v>-13.63594643713444</v>
       </c>
       <c r="O10" t="n">
-        <v>-6.727503742328019</v>
+        <v>-8.527623681711701</v>
       </c>
       <c r="P10" t="n">
-        <v>-6.709586052703962</v>
+        <v>-2.335848505915156</v>
       </c>
       <c r="Q10" t="n">
-        <v>-11.40245902069391</v>
+        <v>-27.06630347496651</v>
       </c>
       <c r="R10" t="n">
-        <v>-10.98780191403254</v>
+        <v>9.495259190693602</v>
       </c>
       <c r="S10" t="n">
-        <v>-3.811531489206449</v>
+        <v>-22.49502150077532</v>
       </c>
       <c r="T10" t="n">
-        <v>-9.477748765058376</v>
+        <v>4.961366340488745</v>
       </c>
       <c r="U10" t="n">
-        <v>-13.99892315245992</v>
+        <v>1.155934270227492</v>
       </c>
       <c r="V10" t="n">
-        <v>-10.83076365980907</v>
+        <v>-29.62077634663865</v>
       </c>
       <c r="W10" t="n">
-        <v>-12.71107389171969</v>
+        <v>-1.931178374572612</v>
       </c>
       <c r="X10" t="n">
-        <v>-18.22577904288619</v>
+        <v>-27.19818073702439</v>
       </c>
       <c r="Y10" t="n">
-        <v>-26.11721169315675</v>
+        <v>-1.091608935439805</v>
       </c>
       <c r="Z10" t="n">
-        <v>-23.97990155829018</v>
+        <v>-19.51800216510527</v>
       </c>
       <c r="AA10" t="n">
-        <v>-26.97689775115825</v>
+        <v>-53.11826826097099</v>
       </c>
       <c r="AB10" t="n">
-        <v>-38.44154167099353</v>
+        <v>-41.62702713914381</v>
       </c>
       <c r="AC10" t="n">
-        <v>-63.01979755297207</v>
+        <v>-55.04513078510986</v>
       </c>
     </row>
     <row r="11">
@@ -3321,88 +3321,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.497799514475415</v>
+        <v>-21.90538751343524</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.019906601950582</v>
+        <v>3.691611951043015</v>
       </c>
       <c r="D11" t="n">
-        <v>0.171921337371955</v>
+        <v>0.3704181071771924</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.817458703501123</v>
+        <v>-7.8805368483926</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.686553155058002</v>
+        <v>-25.82494126746312</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.723162457674132</v>
+        <v>-3.722863768708662</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.192330267729765</v>
+        <v>-25.86344239367757</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.236425162501043</v>
+        <v>-0.9569471455809508</v>
       </c>
       <c r="J11" t="n">
-        <v>-2.066757048334126</v>
+        <v>4.487276328268421</v>
       </c>
       <c r="K11" t="n">
-        <v>-7.993894756578452</v>
+        <v>-9.235528610471627</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1039435807725928</v>
+        <v>-18.89402718083687</v>
       </c>
       <c r="M11" t="n">
-        <v>-9.927765487131001</v>
+        <v>-23.47491357665195</v>
       </c>
       <c r="N11" t="n">
-        <v>-6.488510592701425</v>
+        <v>-14.91601499411964</v>
       </c>
       <c r="O11" t="n">
-        <v>-7.11698235230421</v>
+        <v>13.86283455475672</v>
       </c>
       <c r="P11" t="n">
-        <v>-6.439174862630929</v>
+        <v>9.806799420854386</v>
       </c>
       <c r="Q11" t="n">
-        <v>-10.18422149944118</v>
+        <v>-6.642910314601988</v>
       </c>
       <c r="R11" t="n">
-        <v>-6.978102451668248</v>
+        <v>8.752898091734281</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.04549709746178</v>
+        <v>-25.02541601602452</v>
       </c>
       <c r="T11" t="n">
-        <v>-10.15285245403987</v>
+        <v>-10.89445766340452</v>
       </c>
       <c r="U11" t="n">
-        <v>-12.31831755823926</v>
+        <v>1.377072405761544</v>
       </c>
       <c r="V11" t="n">
-        <v>-11.49269067728716</v>
+        <v>-9.620295595466974</v>
       </c>
       <c r="W11" t="n">
-        <v>-10.64402553567175</v>
+        <v>12.11917553202905</v>
       </c>
       <c r="X11" t="n">
-        <v>-15.73201663640369</v>
+        <v>-4.993501927430939</v>
       </c>
       <c r="Y11" t="n">
-        <v>-25.31602626334855</v>
+        <v>-25.4300047046118</v>
       </c>
       <c r="Z11" t="n">
-        <v>-23.54202548347506</v>
+        <v>-13.62725783619151</v>
       </c>
       <c r="AA11" t="n">
-        <v>-27.03652182242431</v>
+        <v>-27.03272841333028</v>
       </c>
       <c r="AB11" t="n">
-        <v>-38.58590759977452</v>
+        <v>-42.99240255411764</v>
       </c>
       <c r="AC11" t="n">
-        <v>-62.68957251953172</v>
+        <v>-43.00334870520246</v>
       </c>
     </row>
   </sheetData>
@@ -3515,88 +3515,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.588252956657502</v>
+        <v>-26.75198035552735</v>
       </c>
       <c r="C2" t="n">
-        <v>1.1989924899338</v>
+        <v>-1.893221211589541</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5524387000658267</v>
+        <v>-13.65910144695067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8944465513791071</v>
+        <v>24.04795474417703</v>
       </c>
       <c r="F2" t="n">
-        <v>1.843656748251405</v>
+        <v>-9.844168171927462</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.938828126174303</v>
+        <v>-7.408773693403061</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.073990148989881</v>
+        <v>9.184805309926249</v>
       </c>
       <c r="I2" t="n">
-        <v>1.062615546675505</v>
+        <v>-17.60740564175653</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.036894527611913</v>
+        <v>19.29745505085962</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.878843315383887</v>
+        <v>6.409674493835089</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.589177908961573</v>
+        <v>6.937118010851874</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.612770050996034</v>
+        <v>5.627792139193682</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.373976918306168</v>
+        <v>7.929131707510594</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.421652957300231</v>
+        <v>-10.60740393756138</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.487899840615725</v>
+        <v>-3.777916331870867</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.266369823718716</v>
+        <v>-3.659158365766054</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.834864168059298</v>
+        <v>-2.242214833819118</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.74510270549543</v>
+        <v>1.220699082128625</v>
       </c>
       <c r="T2" t="n">
-        <v>-5.984378504115521</v>
+        <v>9.697162338900714</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.684371263567183</v>
+        <v>-4.168741860576037</v>
       </c>
       <c r="V2" t="n">
-        <v>-7.216202376196569</v>
+        <v>10.30546310038431</v>
       </c>
       <c r="W2" t="n">
-        <v>-3.294066288646854</v>
+        <v>-25.79388536831613</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.867531217906913</v>
+        <v>4.923012358174299</v>
       </c>
       <c r="Y2" t="n">
-        <v>-11.73836925371509</v>
+        <v>11.63284129405912</v>
       </c>
       <c r="Z2" t="n">
-        <v>-12.84672185683973</v>
+        <v>-7.689106560097274</v>
       </c>
       <c r="AA2" t="n">
-        <v>-8.665906262688166</v>
+        <v>-22.32304922614559</v>
       </c>
       <c r="AB2" t="n">
-        <v>-6.448325404441825</v>
+        <v>-1.625504268832315</v>
       </c>
       <c r="AC2" t="n">
-        <v>-11.45039501387861</v>
+        <v>-0.7690037708438364</v>
       </c>
     </row>
     <row r="3">
@@ -3604,88 +3604,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.287091569466362</v>
+        <v>-4.465303204347645</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.703812637506156</v>
+        <v>0.02899167808201675</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.966219779226676</v>
+        <v>-15.85932868030611</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.627942820891979</v>
+        <v>-7.629023978414279</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.003987333442029</v>
+        <v>-9.909871949220973</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.807763413593637</v>
+        <v>-0.4186324972678213</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.300756074286544</v>
+        <v>-23.35673756156208</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.625690482599739</v>
+        <v>-7.078292812510961</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.274414591277</v>
+        <v>-2.555873450778305</v>
       </c>
       <c r="K3" t="n">
-        <v>-11.46100636910231</v>
+        <v>-15.35616309958476</v>
       </c>
       <c r="L3" t="n">
-        <v>-7.507697609648839</v>
+        <v>18.88639579720377</v>
       </c>
       <c r="M3" t="n">
-        <v>-8.692924418714647</v>
+        <v>-4.480166280212099</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.172204477325332</v>
+        <v>-2.563795718070898</v>
       </c>
       <c r="O3" t="n">
-        <v>-9.289602409526925</v>
+        <v>-8.163914021710333</v>
       </c>
       <c r="P3" t="n">
-        <v>-11.30510264439099</v>
+        <v>3.2940895862726</v>
       </c>
       <c r="Q3" t="n">
-        <v>-6.31202330561575</v>
+        <v>-6.99421709832006</v>
       </c>
       <c r="R3" t="n">
-        <v>-10.83850366925014</v>
+        <v>-23.03803810500445</v>
       </c>
       <c r="S3" t="n">
-        <v>-7.69866420422162</v>
+        <v>-7.757968123638843</v>
       </c>
       <c r="T3" t="n">
-        <v>-11.06884967796204</v>
+        <v>-14.70525888749956</v>
       </c>
       <c r="U3" t="n">
-        <v>-10.64003658605691</v>
+        <v>3.334395122638805</v>
       </c>
       <c r="V3" t="n">
-        <v>-10.54458938516459</v>
+        <v>-15.17790136160473</v>
       </c>
       <c r="W3" t="n">
-        <v>-8.468524925451881</v>
+        <v>-23.11187047037781</v>
       </c>
       <c r="X3" t="n">
-        <v>-9.768877338317216</v>
+        <v>-3.486549810239032</v>
       </c>
       <c r="Y3" t="n">
-        <v>-16.3231052298541</v>
+        <v>0.159468797272579</v>
       </c>
       <c r="Z3" t="n">
-        <v>-16.33269832009182</v>
+        <v>-12.69432414966493</v>
       </c>
       <c r="AA3" t="n">
-        <v>-12.21913531418337</v>
+        <v>-16.59856537673697</v>
       </c>
       <c r="AB3" t="n">
-        <v>-14.2567965509392</v>
+        <v>-7.808836324234842</v>
       </c>
       <c r="AC3" t="n">
-        <v>-17.91100671386543</v>
+        <v>-17.02536374577585</v>
       </c>
     </row>
     <row r="4">
@@ -3693,88 +3693,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.960723905748544</v>
+        <v>-9.124858163028003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4175768042265779</v>
+        <v>0.9559779862431963</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8180332218826556</v>
+        <v>-0.04528810318830123</v>
       </c>
       <c r="E4" t="n">
-        <v>1.261869755530392</v>
+        <v>-8.191163057870025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5316779636683211</v>
+        <v>6.436691996396746</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.733874275083929</v>
+        <v>-8.787818100419832</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.02704479948687</v>
+        <v>-1.303039037561252</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456675670198579</v>
+        <v>-5.844090834185417</v>
       </c>
       <c r="J4" t="n">
-        <v>-4.220594628681177</v>
+        <v>-25.22306941388613</v>
       </c>
       <c r="K4" t="n">
-        <v>-6.172540134377685</v>
+        <v>-1.731925335938711</v>
       </c>
       <c r="L4" t="n">
-        <v>-4.171152537046087</v>
+        <v>20.52594216462991</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.02839126743126</v>
+        <v>-11.01730117235674</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.628254169266008</v>
+        <v>-2.851684709041693</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.248529226452163</v>
+        <v>1.57188685422251</v>
       </c>
       <c r="P4" t="n">
-        <v>-9.92051546012998</v>
+        <v>-5.086899002985578</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3.924164220002714</v>
+        <v>-3.500064107987185</v>
       </c>
       <c r="R4" t="n">
-        <v>-5.70901716991682</v>
+        <v>-6.591565444755759</v>
       </c>
       <c r="S4" t="n">
-        <v>-5.577172974879003</v>
+        <v>-5.832392590421515</v>
       </c>
       <c r="T4" t="n">
-        <v>-5.028858943797939</v>
+        <v>-7.465659004593183</v>
       </c>
       <c r="U4" t="n">
-        <v>-5.671391392223873</v>
+        <v>-15.22133785088843</v>
       </c>
       <c r="V4" t="n">
-        <v>-6.544806764080101</v>
+        <v>-8.344351952133952</v>
       </c>
       <c r="W4" t="n">
-        <v>-5.015225578150149</v>
+        <v>-4.903176819786633</v>
       </c>
       <c r="X4" t="n">
-        <v>-3.163881052111351</v>
+        <v>6.507221824255373</v>
       </c>
       <c r="Y4" t="n">
-        <v>-11.52320291787043</v>
+        <v>-1.653564279852842</v>
       </c>
       <c r="Z4" t="n">
-        <v>-12.29478380688146</v>
+        <v>-5.40997963635992</v>
       </c>
       <c r="AA4" t="n">
-        <v>-8.159467562093475</v>
+        <v>-5.726054535838117</v>
       </c>
       <c r="AB4" t="n">
-        <v>-9.380951408700186</v>
+        <v>-24.93473586895847</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.62040896922038</v>
+        <v>-12.59578002392967</v>
       </c>
     </row>
     <row r="5">
@@ -3782,88 +3782,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.963219404180029</v>
+        <v>2.569342366801912</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.352014437386758</v>
+        <v>13.73153707817784</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.969134678817072</v>
+        <v>2.61617177102774</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1403771468508905</v>
+        <v>8.298639499055632</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.396297392019036</v>
+        <v>1.711171475577738</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.372093125776285</v>
+        <v>-14.31600928154726</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.759624770047048</v>
+        <v>-6.07242212012883</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1086116966869173</v>
+        <v>-8.072433975053199</v>
       </c>
       <c r="J5" t="n">
-        <v>-6.611119639467235</v>
+        <v>-9.898317211438759</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.439064341206326</v>
+        <v>15.25212488068663</v>
       </c>
       <c r="L5" t="n">
-        <v>-5.468651212782766</v>
+        <v>5.478274819046426</v>
       </c>
       <c r="M5" t="n">
-        <v>-5.345651135668844</v>
+        <v>1.292750857576193</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.760909516170161</v>
+        <v>-4.626060239501316</v>
       </c>
       <c r="O5" t="n">
-        <v>-5.967948240817506</v>
+        <v>-13.04520325681365</v>
       </c>
       <c r="P5" t="n">
-        <v>-11.37481811121724</v>
+        <v>14.41702693612383</v>
       </c>
       <c r="Q5" t="n">
-        <v>-5.020220934964012</v>
+        <v>0.06284926472485619</v>
       </c>
       <c r="R5" t="n">
-        <v>-5.057468682181216</v>
+        <v>-31.75109583987959</v>
       </c>
       <c r="S5" t="n">
-        <v>-7.682589017815742</v>
+        <v>-0.9797015572333656</v>
       </c>
       <c r="T5" t="n">
-        <v>-7.88167328017849</v>
+        <v>-9.997460847945622</v>
       </c>
       <c r="U5" t="n">
-        <v>-8.510506600900593</v>
+        <v>-1.476096829731513</v>
       </c>
       <c r="V5" t="n">
-        <v>-8.975431281917492</v>
+        <v>0.4560391703602287</v>
       </c>
       <c r="W5" t="n">
-        <v>-5.998193349437879</v>
+        <v>-10.1454942090089</v>
       </c>
       <c r="X5" t="n">
-        <v>-5.608519652363863</v>
+        <v>0.8594652632632371</v>
       </c>
       <c r="Y5" t="n">
-        <v>-12.45378141747641</v>
+        <v>-19.1922859523706</v>
       </c>
       <c r="Z5" t="n">
-        <v>-16.71823283978253</v>
+        <v>-25.01843864609044</v>
       </c>
       <c r="AA5" t="n">
-        <v>-9.648253563440404</v>
+        <v>-18.20501845578551</v>
       </c>
       <c r="AB5" t="n">
-        <v>-10.29161996020827</v>
+        <v>-36.88736363180622</v>
       </c>
       <c r="AC5" t="n">
-        <v>-14.72000910510412</v>
+        <v>-4.406867350131662</v>
       </c>
     </row>
     <row r="6">
@@ -3871,88 +3871,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.616548081466862</v>
+        <v>-7.559135051449537</v>
       </c>
       <c r="C6" t="n">
-        <v>1.379817507873912</v>
+        <v>-25.58586887027928</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01406987768744239</v>
+        <v>0.7252627082434757</v>
       </c>
       <c r="E6" t="n">
-        <v>3.631101800149338</v>
+        <v>-15.70252566024213</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08545584188730426</v>
+        <v>-7.788584948769582</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.403763921219853</v>
+        <v>-9.658262661398254</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.9729842894425982</v>
+        <v>-11.19843308038206</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2591447848062876</v>
+        <v>-15.87707707680213</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.303998010206445</v>
+        <v>-2.445136114873835</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.453287337414515</v>
+        <v>-7.565111116001922</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.146617104960571</v>
+        <v>12.25452144678628</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.975103158616065</v>
+        <v>-6.489424100167659</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.31300887816216</v>
+        <v>-7.235002905219016</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.371246947335849</v>
+        <v>0.09284375877842521</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.765267547534103</v>
+        <v>-4.456500548763365</v>
       </c>
       <c r="Q6" t="n">
-        <v>-3.097258980894201</v>
+        <v>-26.89149694351718</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.642036248741572</v>
+        <v>1.308465927232247</v>
       </c>
       <c r="S6" t="n">
-        <v>-5.252507291014552</v>
+        <v>-12.85586537576116</v>
       </c>
       <c r="T6" t="n">
-        <v>-6.33181799233196</v>
+        <v>0.1226360254068553</v>
       </c>
       <c r="U6" t="n">
-        <v>-6.801101712459316</v>
+        <v>-6.551163050139795</v>
       </c>
       <c r="V6" t="n">
-        <v>-6.194527154730597</v>
+        <v>-17.76671525846753</v>
       </c>
       <c r="W6" t="n">
-        <v>-4.633231745176879</v>
+        <v>-7.047842606948961</v>
       </c>
       <c r="X6" t="n">
-        <v>-2.796119400547035</v>
+        <v>5.056194882573266</v>
       </c>
       <c r="Y6" t="n">
-        <v>-9.718339222726811</v>
+        <v>-5.940399753350909</v>
       </c>
       <c r="Z6" t="n">
-        <v>-13.90371377545747</v>
+        <v>1.48116348014948</v>
       </c>
       <c r="AA6" t="n">
-        <v>-7.475335025765769</v>
+        <v>3.763717846309159</v>
       </c>
       <c r="AB6" t="n">
-        <v>-7.921509536113697</v>
+        <v>-8.168351790546183</v>
       </c>
       <c r="AC6" t="n">
-        <v>-11.71052696914145</v>
+        <v>-19.29370254634458</v>
       </c>
     </row>
     <row r="7">
@@ -3960,88 +3960,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.84687958130033</v>
+        <v>-5.500777515740566</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.601607976274468</v>
+        <v>-6.791347706644725</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.237977772756744</v>
+        <v>-0.1698669555719312</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.19290804987154</v>
+        <v>-20.32089843278844</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.616847865061727</v>
+        <v>-5.614125004547434</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.869005546766644</v>
+        <v>-29.19357660996961</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.321142729089286</v>
+        <v>-11.49199670222681</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.055189530013444</v>
+        <v>-7.508613334442428</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.119832673008714</v>
+        <v>-15.26181561804841</v>
       </c>
       <c r="K7" t="n">
-        <v>-9.097723177098374</v>
+        <v>-6.693314698340088</v>
       </c>
       <c r="L7" t="n">
-        <v>-5.874637133425079</v>
+        <v>-4.454967232943691</v>
       </c>
       <c r="M7" t="n">
-        <v>-4.681148312691634</v>
+        <v>-0.7168602182121075</v>
       </c>
       <c r="N7" t="n">
-        <v>-5.628903968499333</v>
+        <v>-10.94886624448989</v>
       </c>
       <c r="O7" t="n">
-        <v>-7.499708375140028</v>
+        <v>-19.53608665902356</v>
       </c>
       <c r="P7" t="n">
-        <v>-10.4591819766744</v>
+        <v>-2.134344620919591</v>
       </c>
       <c r="Q7" t="n">
-        <v>-4.076078408442024</v>
+        <v>12.58562514530943</v>
       </c>
       <c r="R7" t="n">
-        <v>-5.174551992531495</v>
+        <v>-7.342801572321274</v>
       </c>
       <c r="S7" t="n">
-        <v>-7.120873491702703</v>
+        <v>-20.83991624478219</v>
       </c>
       <c r="T7" t="n">
-        <v>-9.150569239377358</v>
+        <v>0.8143890220647494</v>
       </c>
       <c r="U7" t="n">
-        <v>-9.079786914774349</v>
+        <v>-8.034414495894143</v>
       </c>
       <c r="V7" t="n">
-        <v>-9.279371699253876</v>
+        <v>10.80745804165251</v>
       </c>
       <c r="W7" t="n">
-        <v>-6.357742167218711</v>
+        <v>-8.299596556267604</v>
       </c>
       <c r="X7" t="n">
-        <v>-5.710928597797065</v>
+        <v>3.857898055433822</v>
       </c>
       <c r="Y7" t="n">
-        <v>-15.98647572007517</v>
+        <v>14.56325184516111</v>
       </c>
       <c r="Z7" t="n">
-        <v>-14.80200164218278</v>
+        <v>-12.35061544431247</v>
       </c>
       <c r="AA7" t="n">
-        <v>-11.91518785554953</v>
+        <v>11.71457507135809</v>
       </c>
       <c r="AB7" t="n">
-        <v>-9.04437795368254</v>
+        <v>-20.63475851317708</v>
       </c>
       <c r="AC7" t="n">
-        <v>-15.69108445587778</v>
+        <v>0.3737845867273375</v>
       </c>
     </row>
     <row r="8">
@@ -4049,88 +4049,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.611868575925635</v>
+        <v>-12.91538357510867</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.129922893834172</v>
+        <v>7.611051969004846</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.625025565924568</v>
+        <v>-23.61713718126881</v>
       </c>
       <c r="E8" t="n">
-        <v>1.951823478459614</v>
+        <v>13.40799799883437</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.737733480242223</v>
+        <v>-11.62881620994028</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.633636465200061</v>
+        <v>-18.23009720395075</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.644294334470172</v>
+        <v>-3.130638909389076</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.279470884149418</v>
+        <v>-8.821004802077795</v>
       </c>
       <c r="J8" t="n">
-        <v>-7.016368326453652</v>
+        <v>-16.41950884238345</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.887371706401954</v>
+        <v>-24.30909761758607</v>
       </c>
       <c r="L8" t="n">
-        <v>-8.04081395582744</v>
+        <v>-5.533908961254757</v>
       </c>
       <c r="M8" t="n">
-        <v>-5.993671369667854</v>
+        <v>1.267556483479147</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.210427738878598</v>
+        <v>-10.95030140142462</v>
       </c>
       <c r="O8" t="n">
-        <v>-6.703372742123359</v>
+        <v>9.858261763615431</v>
       </c>
       <c r="P8" t="n">
-        <v>-11.6927903272133</v>
+        <v>-20.28477854973937</v>
       </c>
       <c r="Q8" t="n">
-        <v>-5.638359125499242</v>
+        <v>-7.625812781757398</v>
       </c>
       <c r="R8" t="n">
-        <v>-5.397632117685308</v>
+        <v>-6.81541816461757</v>
       </c>
       <c r="S8" t="n">
-        <v>-7.836026440180118</v>
+        <v>-6.267079967822756</v>
       </c>
       <c r="T8" t="n">
-        <v>-8.667377942623981</v>
+        <v>0.7984841322679923</v>
       </c>
       <c r="U8" t="n">
-        <v>-10.95415728040904</v>
+        <v>-20.06675732821485</v>
       </c>
       <c r="V8" t="n">
-        <v>-12.66004744529582</v>
+        <v>-27.00361467550375</v>
       </c>
       <c r="W8" t="n">
-        <v>-6.638235246482229</v>
+        <v>4.306588097848239</v>
       </c>
       <c r="X8" t="n">
-        <v>-5.46752489068151</v>
+        <v>-7.465313753925223</v>
       </c>
       <c r="Y8" t="n">
-        <v>-15.00379037935142</v>
+        <v>-4.0592755060207</v>
       </c>
       <c r="Z8" t="n">
-        <v>-15.66927295626384</v>
+        <v>-19.38954018588525</v>
       </c>
       <c r="AA8" t="n">
-        <v>-9.753703355966959</v>
+        <v>0.2839846361703167</v>
       </c>
       <c r="AB8" t="n">
-        <v>-13.049041566509</v>
+        <v>-17.36391194743731</v>
       </c>
       <c r="AC8" t="n">
-        <v>-17.51132788294977</v>
+        <v>1.676915728189336</v>
       </c>
     </row>
     <row r="9">
@@ -4138,88 +4138,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6758519717116998</v>
+        <v>2.685638650287056</v>
       </c>
       <c r="C9" t="n">
-        <v>2.536109177496468</v>
+        <v>-5.713074125004217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6536926919132563</v>
+        <v>7.115307292319608</v>
       </c>
       <c r="E9" t="n">
-        <v>3.825208583575816</v>
+        <v>8.955167040688838</v>
       </c>
       <c r="F9" t="n">
-        <v>1.542771940405104</v>
+        <v>22.59266781842321</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.965935496341562</v>
+        <v>-8.159004428854889</v>
       </c>
       <c r="H9" t="n">
-        <v>1.759532169680504</v>
+        <v>-9.27459640183114</v>
       </c>
       <c r="I9" t="n">
-        <v>1.117557946254054</v>
+        <v>5.94887456122682</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.927410397399168</v>
+        <v>2.381644528022729</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.924539276884113</v>
+        <v>10.76982864074564</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.762007997340677</v>
+        <v>-11.94808903149255</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.059932224376698</v>
+        <v>-15.38469388329415</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.46717017346519</v>
+        <v>12.48812548840669</v>
       </c>
       <c r="O9" t="n">
-        <v>-3.189249515461966</v>
+        <v>-2.480338171114769</v>
       </c>
       <c r="P9" t="n">
-        <v>-4.482457354876503</v>
+        <v>9.86434139245819</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.340933105606626</v>
+        <v>-0.02223464631365957</v>
       </c>
       <c r="R9" t="n">
-        <v>-2.610667788952295</v>
+        <v>5.165077334380303</v>
       </c>
       <c r="S9" t="n">
-        <v>-3.936185673652437</v>
+        <v>16.04106529465342</v>
       </c>
       <c r="T9" t="n">
-        <v>-5.857149332488687</v>
+        <v>18.04643847585042</v>
       </c>
       <c r="U9" t="n">
-        <v>-4.309589431952374</v>
+        <v>7.601235673867264</v>
       </c>
       <c r="V9" t="n">
-        <v>-6.112501892870299</v>
+        <v>-21.85837787111336</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.7174494468245252</v>
+        <v>1.120937675495108</v>
       </c>
       <c r="X9" t="n">
-        <v>-3.333766472023519</v>
+        <v>3.408706942219327</v>
       </c>
       <c r="Y9" t="n">
-        <v>-12.1405178003926</v>
+        <v>-12.86604092337564</v>
       </c>
       <c r="Z9" t="n">
-        <v>-12.01082458002842</v>
+        <v>2.647670769160555</v>
       </c>
       <c r="AA9" t="n">
-        <v>-6.096822119377284</v>
+        <v>-1.01994220926098</v>
       </c>
       <c r="AB9" t="n">
-        <v>-6.740079855492751</v>
+        <v>-12.23502450392877</v>
       </c>
       <c r="AC9" t="n">
-        <v>-11.11261864924228</v>
+        <v>-2.076526476915689</v>
       </c>
     </row>
     <row r="10">
@@ -4227,88 +4227,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.307773839282844</v>
+        <v>-4.424636951026228</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.397157620246744</v>
+        <v>17.43969350880194</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.605118673021767</v>
+        <v>-25.34191484005783</v>
       </c>
       <c r="E10" t="n">
-        <v>1.332864175262382</v>
+        <v>-6.687654058435182</v>
       </c>
       <c r="F10" t="n">
-        <v>0.21778176936518</v>
+        <v>0.8647089060600073</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.883202062863811</v>
+        <v>-10.29188967562465</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.87061798157208</v>
+        <v>-9.221938353442034</v>
       </c>
       <c r="I10" t="n">
-        <v>-2.142127636088</v>
+        <v>-16.76331979253174</v>
       </c>
       <c r="J10" t="n">
-        <v>-6.376249417890225</v>
+        <v>0.3569106715073405</v>
       </c>
       <c r="K10" t="n">
-        <v>-9.348113172529569</v>
+        <v>-21.77516423528339</v>
       </c>
       <c r="L10" t="n">
-        <v>-5.487980991983874</v>
+        <v>7.723897223163727</v>
       </c>
       <c r="M10" t="n">
-        <v>-5.648048636062637</v>
+        <v>0.2688874478411591</v>
       </c>
       <c r="N10" t="n">
-        <v>-6.261432221791305</v>
+        <v>8.218156302606015</v>
       </c>
       <c r="O10" t="n">
-        <v>-8.331543566555867</v>
+        <v>-15.67135577965412</v>
       </c>
       <c r="P10" t="n">
-        <v>-12.09852212232474</v>
+        <v>-14.32908618407509</v>
       </c>
       <c r="Q10" t="n">
-        <v>-4.643775185838443</v>
+        <v>-7.455555918256295</v>
       </c>
       <c r="R10" t="n">
-        <v>-6.291958231967589</v>
+        <v>-33.98323853879196</v>
       </c>
       <c r="S10" t="n">
-        <v>-6.752133338881</v>
+        <v>-2.878894118046087</v>
       </c>
       <c r="T10" t="n">
-        <v>-8.952673153646828</v>
+        <v>-1.94494794373234</v>
       </c>
       <c r="U10" t="n">
-        <v>-8.927958927656778</v>
+        <v>-11.5428789274754</v>
       </c>
       <c r="V10" t="n">
-        <v>-8.641791322110606</v>
+        <v>-12.08856319424643</v>
       </c>
       <c r="W10" t="n">
-        <v>-6.094138915697735</v>
+        <v>-13.55098497987317</v>
       </c>
       <c r="X10" t="n">
-        <v>-6.372155842702035</v>
+        <v>4.602242037640231</v>
       </c>
       <c r="Y10" t="n">
-        <v>-14.03252432287948</v>
+        <v>5.390428183285678</v>
       </c>
       <c r="Z10" t="n">
-        <v>-14.83440542737773</v>
+        <v>-25.99669341077721</v>
       </c>
       <c r="AA10" t="n">
-        <v>-10.4095547629042</v>
+        <v>-20.3333933315785</v>
       </c>
       <c r="AB10" t="n">
-        <v>-12.13109742459054</v>
+        <v>-16.04238228091401</v>
       </c>
       <c r="AC10" t="n">
-        <v>-15.41730914976399</v>
+        <v>-14.41983831716682</v>
       </c>
     </row>
     <row r="11">
@@ -4316,88 +4316,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.933818665672788</v>
+        <v>11.92006843509341</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.330419131167571</v>
+        <v>-2.721880148746416</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.545765277336435</v>
+        <v>-1.892502400237722</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07808885032055146</v>
+        <v>0.1386618594101225</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.852545044478939</v>
+        <v>-35.91461341786113</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.525199648809306</v>
+        <v>-1.323000267847837</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.934923589328559</v>
+        <v>3.00534664489589</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5588010706100257</v>
+        <v>4.344961720569854</v>
       </c>
       <c r="J11" t="n">
-        <v>-6.114398707225056</v>
+        <v>-2.37399329161145</v>
       </c>
       <c r="K11" t="n">
-        <v>-8.688010750064976</v>
+        <v>15.24626423645804</v>
       </c>
       <c r="L11" t="n">
-        <v>-5.143374988647981</v>
+        <v>-5.627062560259294</v>
       </c>
       <c r="M11" t="n">
-        <v>-3.393548479446256</v>
+        <v>-14.24880500214043</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.850417839537887</v>
+        <v>-0.8355056708428323</v>
       </c>
       <c r="O11" t="n">
-        <v>-5.776972519784375</v>
+        <v>4.548255752829525</v>
       </c>
       <c r="P11" t="n">
-        <v>-8.775337576472749</v>
+        <v>-8.044651980728275</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1.708320755250621</v>
+        <v>-13.25992363436133</v>
       </c>
       <c r="R11" t="n">
-        <v>-4.487048235602801</v>
+        <v>-3.827832881544914</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.121339898567115</v>
+        <v>-7.019417313205413</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.647005621408884</v>
+        <v>-16.00139201856032</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.000504450727073</v>
+        <v>-19.92852179368139</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.423183508711617</v>
+        <v>-2.534073529850455</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.457739548642271</v>
+        <v>-11.09135807407327</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.441422738391541</v>
+        <v>11.06359862060144</v>
       </c>
       <c r="Y11" t="n">
-        <v>-13.69723407966971</v>
+        <v>-9.540853472580523</v>
       </c>
       <c r="Z11" t="n">
-        <v>-14.64665919337516</v>
+        <v>-22.17426233684066</v>
       </c>
       <c r="AA11" t="n">
-        <v>-8.3708354461025</v>
+        <v>1.212865167362224</v>
       </c>
       <c r="AB11" t="n">
-        <v>-11.70423017970564</v>
+        <v>-16.7565901549307</v>
       </c>
       <c r="AC11" t="n">
-        <v>-14.30476737298396</v>
+        <v>-25.08701881225065</v>
       </c>
     </row>
   </sheetData>
@@ -4510,88 +4510,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.493165219588629</v>
+        <v>-15.75484807638784</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.963876241419342</v>
+        <v>-1.758949257773597</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.855713155491403</v>
+        <v>-16.01736266389226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4219476902125461</v>
+        <v>4.42118251603324</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.346528800588351</v>
+        <v>-5.795646618756301</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.446282791145376</v>
+        <v>-23.08147954460596</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.451213112281742</v>
+        <v>-7.709852327439411</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.261692532142238</v>
+        <v>-1.916933458096888</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.775370950063089</v>
+        <v>21.27023934421386</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.260740923501823</v>
+        <v>3.840526019701937</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.291119956742024</v>
+        <v>-6.956077032122788</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1902500912325187</v>
+        <v>-3.81308149294258</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.593718283455668</v>
+        <v>-15.28568610854625</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.411423253805645</v>
+        <v>-9.754586921445735</v>
       </c>
       <c r="P2" t="n">
-        <v>-3.483081530907943</v>
+        <v>17.51094032357855</v>
       </c>
       <c r="Q2" t="n">
-        <v>-5.500820269296207</v>
+        <v>1.553984909405139</v>
       </c>
       <c r="R2" t="n">
-        <v>-6.849562525132528</v>
+        <v>8.694045285021835</v>
       </c>
       <c r="S2" t="n">
-        <v>-9.112132260503186</v>
+        <v>1.220809592950828</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.620579211147189</v>
+        <v>2.981953176343405</v>
       </c>
       <c r="U2" t="n">
-        <v>-8.804775864724093</v>
+        <v>0.2975690295777067</v>
       </c>
       <c r="V2" t="n">
-        <v>-7.546085375730931</v>
+        <v>-26.52973385021165</v>
       </c>
       <c r="W2" t="n">
-        <v>-10.87023562389353</v>
+        <v>-17.76540736161268</v>
       </c>
       <c r="X2" t="n">
-        <v>-9.619182568714386</v>
+        <v>5.327447637271691</v>
       </c>
       <c r="Y2" t="n">
-        <v>-12.84491823200963</v>
+        <v>-26.86162289470577</v>
       </c>
       <c r="Z2" t="n">
-        <v>-17.882839424249</v>
+        <v>-40.92403372881962</v>
       </c>
       <c r="AA2" t="n">
-        <v>-29.27553659418751</v>
+        <v>-31.58665308081011</v>
       </c>
       <c r="AB2" t="n">
-        <v>-31.01145626977078</v>
+        <v>-0.8466333398509391</v>
       </c>
       <c r="AC2" t="n">
-        <v>-55.82483737495417</v>
+        <v>-66.04795154173935</v>
       </c>
     </row>
     <row r="3">
@@ -4599,88 +4599,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-10.36872112148292</v>
+        <v>-3.500408803718801</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.46280869593299</v>
+        <v>0.4536665458054241</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.784288841388648</v>
+        <v>-18.54595395480895</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.029251352558441</v>
+        <v>-19.70688964941242</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.461336201039797</v>
+        <v>-21.77155286154387</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.64259271429256</v>
+        <v>2.348203286997293</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.264569011459693</v>
+        <v>-9.167594126027263</v>
       </c>
       <c r="I3" t="n">
-        <v>-9.164528624293041</v>
+        <v>-2.982839946919998</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.783399008517852</v>
+        <v>5.772365400045333</v>
       </c>
       <c r="K3" t="n">
-        <v>-9.865375718945709</v>
+        <v>9.711766048389382</v>
       </c>
       <c r="L3" t="n">
-        <v>-10.92506937739757</v>
+        <v>-14.42179370737291</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.263332857782988</v>
+        <v>-11.12662353920681</v>
       </c>
       <c r="N3" t="n">
-        <v>-12.36415404096594</v>
+        <v>0.911831957339496</v>
       </c>
       <c r="O3" t="n">
-        <v>-8.611842608690484</v>
+        <v>-5.493777778385709</v>
       </c>
       <c r="P3" t="n">
-        <v>-10.91078031666155</v>
+        <v>-17.77248295355012</v>
       </c>
       <c r="Q3" t="n">
-        <v>-9.593202364131397</v>
+        <v>-16.17899117148144</v>
       </c>
       <c r="R3" t="n">
-        <v>-13.44352183746888</v>
+        <v>-10.19583219519571</v>
       </c>
       <c r="S3" t="n">
-        <v>-12.06929992948753</v>
+        <v>14.28840089573175</v>
       </c>
       <c r="T3" t="n">
-        <v>-10.37665337891124</v>
+        <v>-6.423367266805701</v>
       </c>
       <c r="U3" t="n">
-        <v>-13.65224520207398</v>
+        <v>-5.309564873008662</v>
       </c>
       <c r="V3" t="n">
-        <v>-10.77833831044059</v>
+        <v>-21.29609940252344</v>
       </c>
       <c r="W3" t="n">
-        <v>-14.94443206760269</v>
+        <v>-17.5703953630216</v>
       </c>
       <c r="X3" t="n">
-        <v>-16.95937398651236</v>
+        <v>-17.21798795843362</v>
       </c>
       <c r="Y3" t="n">
-        <v>-19.0013562662603</v>
+        <v>-19.35941393083504</v>
       </c>
       <c r="Z3" t="n">
-        <v>-22.30623769902732</v>
+        <v>-21.07832705022969</v>
       </c>
       <c r="AA3" t="n">
-        <v>-33.69802678816621</v>
+        <v>-37.86437070297549</v>
       </c>
       <c r="AB3" t="n">
-        <v>-37.76616212768936</v>
+        <v>-29.4701598334724</v>
       </c>
       <c r="AC3" t="n">
-        <v>-59.58280411208049</v>
+        <v>-47.42134565842458</v>
       </c>
     </row>
     <row r="4">
@@ -4688,88 +4688,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.592035405022994</v>
+        <v>2.902364097947336</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.683441459718762</v>
+        <v>23.40433402510536</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.907480121815836</v>
+        <v>4.139294984927368</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.54025530880362</v>
+        <v>4.498780271530951</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.450830155632154</v>
+        <v>-5.680499695107499</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.829571940963113</v>
+        <v>-14.56151562186126</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.065942576000944</v>
+        <v>9.795313877821677</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.941936474046363</v>
+        <v>-5.792981487220892</v>
       </c>
       <c r="J4" t="n">
-        <v>-5.949077513462827</v>
+        <v>10.88971986661823</v>
       </c>
       <c r="K4" t="n">
-        <v>-8.096340965202554</v>
+        <v>-17.21220612524462</v>
       </c>
       <c r="L4" t="n">
-        <v>-7.573466922842023</v>
+        <v>-8.710280463278618</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1285038601021204</v>
+        <v>5.592219467030898</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.654726653574761</v>
+        <v>-5.193824875905495</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.005023627511403</v>
+        <v>-9.816464141174865</v>
       </c>
       <c r="P4" t="n">
-        <v>-5.142157139157788</v>
+        <v>9.034406587839007</v>
       </c>
       <c r="Q4" t="n">
-        <v>-4.611644668782552</v>
+        <v>-0.6970613249608988</v>
       </c>
       <c r="R4" t="n">
-        <v>-5.713072893500878</v>
+        <v>-14.65510147562</v>
       </c>
       <c r="S4" t="n">
-        <v>-9.839269475495826</v>
+        <v>10.31724271257557</v>
       </c>
       <c r="T4" t="n">
-        <v>-6.131163532875298</v>
+        <v>-5.174837438568816</v>
       </c>
       <c r="U4" t="n">
-        <v>-8.126020231558913</v>
+        <v>-14.2448920560342</v>
       </c>
       <c r="V4" t="n">
-        <v>-6.566337156896083</v>
+        <v>-19.7900255240665</v>
       </c>
       <c r="W4" t="n">
-        <v>-10.32947363640397</v>
+        <v>12.3517267599113</v>
       </c>
       <c r="X4" t="n">
-        <v>-12.65310836895619</v>
+        <v>-6.695270273745851</v>
       </c>
       <c r="Y4" t="n">
-        <v>-14.94982327436607</v>
+        <v>-11.0526377039532</v>
       </c>
       <c r="Z4" t="n">
-        <v>-19.92514721720237</v>
+        <v>-34.2449359120042</v>
       </c>
       <c r="AA4" t="n">
-        <v>-29.62045635959165</v>
+        <v>-38.7696366539051</v>
       </c>
       <c r="AB4" t="n">
-        <v>-35.02971117773937</v>
+        <v>-27.4255783237722</v>
       </c>
       <c r="AC4" t="n">
-        <v>-55.82009040678438</v>
+        <v>-56.943817564247</v>
       </c>
     </row>
     <row r="5">
@@ -4777,88 +4777,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-10.05953382902293</v>
+        <v>11.66589341151444</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.924550679760696</v>
+        <v>-4.357270558966973</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.346839948683122</v>
+        <v>-1.967204628538462</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.808387262443855</v>
+        <v>-14.6424587765703</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.505001365374111</v>
+        <v>-17.8815315453259</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.160006611614017</v>
+        <v>-17.76337823003647</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.995709396106548</v>
+        <v>-4.261112527439111</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.203361634310625</v>
+        <v>-9.810097913953991</v>
       </c>
       <c r="J5" t="n">
-        <v>-8.357365851597724</v>
+        <v>4.950655783963763</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.562817773543074</v>
+        <v>12.89211538639577</v>
       </c>
       <c r="L5" t="n">
-        <v>-8.832100967767772</v>
+        <v>-16.3584713280273</v>
       </c>
       <c r="M5" t="n">
-        <v>-4.116698161213975</v>
+        <v>-8.581629686304256</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.937460202937772</v>
+        <v>-21.95885110508091</v>
       </c>
       <c r="O5" t="n">
-        <v>-8.335294558990757</v>
+        <v>-3.856553013714184</v>
       </c>
       <c r="P5" t="n">
-        <v>-10.25706667449398</v>
+        <v>4.450071478350798</v>
       </c>
       <c r="Q5" t="n">
-        <v>-6.714571424318116</v>
+        <v>-3.649677945097802</v>
       </c>
       <c r="R5" t="n">
-        <v>-8.973769449816553</v>
+        <v>-11.84872678211483</v>
       </c>
       <c r="S5" t="n">
-        <v>-11.23071394452433</v>
+        <v>-4.929376415488415</v>
       </c>
       <c r="T5" t="n">
-        <v>-7.083296684388722</v>
+        <v>-4.589621456521891</v>
       </c>
       <c r="U5" t="n">
-        <v>-12.21908759475501</v>
+        <v>-4.042593019959372</v>
       </c>
       <c r="V5" t="n">
-        <v>-10.20627637238515</v>
+        <v>-34.68411014409516</v>
       </c>
       <c r="W5" t="n">
-        <v>-12.79325059891729</v>
+        <v>-19.32534308140772</v>
       </c>
       <c r="X5" t="n">
-        <v>-13.08097391980169</v>
+        <v>-14.23287311395428</v>
       </c>
       <c r="Y5" t="n">
-        <v>-15.49056102941546</v>
+        <v>-15.55917794913012</v>
       </c>
       <c r="Z5" t="n">
-        <v>-23.51613729039767</v>
+        <v>-33.11935392639693</v>
       </c>
       <c r="AA5" t="n">
-        <v>-30.39672802995382</v>
+        <v>-31.90532128466818</v>
       </c>
       <c r="AB5" t="n">
-        <v>-35.18665003148848</v>
+        <v>-29.48989652724696</v>
       </c>
       <c r="AC5" t="n">
-        <v>-56.34628797077921</v>
+        <v>-41.6153244491918</v>
       </c>
     </row>
     <row r="6">
@@ -4866,88 +4866,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.72652198564418</v>
+        <v>6.488255251685425</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.037902919042619</v>
+        <v>-11.58221601972389</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.238627667894834</v>
+        <v>-13.78226240892726</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9820620219848646</v>
+        <v>-8.051639385657287</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.538037990802861</v>
+        <v>12.86430839056339</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.145095922960891</v>
+        <v>-12.10716247417532</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.293835394755763</v>
+        <v>-2.355181034558812</v>
       </c>
       <c r="I6" t="n">
-        <v>-5.441598490207206</v>
+        <v>-19.3877974130805</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.112952706947768</v>
+        <v>4.595825675950865</v>
       </c>
       <c r="K6" t="n">
-        <v>-6.404935188394306</v>
+        <v>12.39928436350385</v>
       </c>
       <c r="L6" t="n">
-        <v>-6.191699734353065</v>
+        <v>2.815191556666713</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.6128601303129129</v>
+        <v>-10.9970716657348</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.845200455566314</v>
+        <v>-12.15445021617675</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.171928147350192</v>
+        <v>-5.76988827559658</v>
       </c>
       <c r="P6" t="n">
-        <v>-5.710429560343882</v>
+        <v>-4.925213698176798</v>
       </c>
       <c r="Q6" t="n">
-        <v>-4.214523596316402</v>
+        <v>2.809788918334023</v>
       </c>
       <c r="R6" t="n">
-        <v>-6.417089911037163</v>
+        <v>10.3011754972835</v>
       </c>
       <c r="S6" t="n">
-        <v>-8.619157387860351</v>
+        <v>-13.1190098399968</v>
       </c>
       <c r="T6" t="n">
-        <v>-2.644900960908136</v>
+        <v>6.975218767061872</v>
       </c>
       <c r="U6" t="n">
-        <v>-8.662133457319049</v>
+        <v>-23.91469723921477</v>
       </c>
       <c r="V6" t="n">
-        <v>-6.665933254662242</v>
+        <v>0.5153711061701767</v>
       </c>
       <c r="W6" t="n">
-        <v>-9.170462227369876</v>
+        <v>-5.57058755463544</v>
       </c>
       <c r="X6" t="n">
-        <v>-11.4612098988061</v>
+        <v>-0.03264253890829494</v>
       </c>
       <c r="Y6" t="n">
-        <v>-14.41825467654966</v>
+        <v>-35.78158203738924</v>
       </c>
       <c r="Z6" t="n">
-        <v>-19.51263278029059</v>
+        <v>-21.62804069869577</v>
       </c>
       <c r="AA6" t="n">
-        <v>-29.98204348770594</v>
+        <v>-26.911088090771</v>
       </c>
       <c r="AB6" t="n">
-        <v>-32.78009127318743</v>
+        <v>-15.41500804891297</v>
       </c>
       <c r="AC6" t="n">
-        <v>-54.73182333590427</v>
+        <v>-52.47031250512092</v>
       </c>
     </row>
     <row r="7">
@@ -4955,88 +4955,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.965165993093189</v>
+        <v>-17.14418593364827</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.65027662143836</v>
+        <v>5.743343227448586</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.728916003963807</v>
+        <v>-10.99965541620614</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.933445536709493</v>
+        <v>-12.78014986559482</v>
       </c>
       <c r="F7" t="n">
-        <v>-7.750815683475822</v>
+        <v>-6.355719920881223</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.709259992563759</v>
+        <v>-8.126457949749248</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.081577364128009</v>
+        <v>-15.0495100860743</v>
       </c>
       <c r="I7" t="n">
-        <v>-6.958915913604225</v>
+        <v>-12.54260171909831</v>
       </c>
       <c r="J7" t="n">
-        <v>-9.61624487176891</v>
+        <v>0.6667525859112144</v>
       </c>
       <c r="K7" t="n">
-        <v>-9.217132371338305</v>
+        <v>-7.112275953658584</v>
       </c>
       <c r="L7" t="n">
-        <v>-6.935204060300774</v>
+        <v>-5.636606286314135</v>
       </c>
       <c r="M7" t="n">
-        <v>-4.195502613392961</v>
+        <v>-3.011833850863531</v>
       </c>
       <c r="N7" t="n">
-        <v>-7.493515530580069</v>
+        <v>-21.96004459511646</v>
       </c>
       <c r="O7" t="n">
-        <v>-7.116020403755323</v>
+        <v>-10.27404215965507</v>
       </c>
       <c r="P7" t="n">
-        <v>-9.94866523219207</v>
+        <v>12.2791440955723</v>
       </c>
       <c r="Q7" t="n">
-        <v>-6.757429947343078</v>
+        <v>-1.547958504096576</v>
       </c>
       <c r="R7" t="n">
-        <v>-7.597810786459917</v>
+        <v>-17.74175412616147</v>
       </c>
       <c r="S7" t="n">
-        <v>-12.66071073337904</v>
+        <v>-18.27066841982776</v>
       </c>
       <c r="T7" t="n">
-        <v>-7.05876805033814</v>
+        <v>1.216032989350511</v>
       </c>
       <c r="U7" t="n">
-        <v>-11.6889506235118</v>
+        <v>-27.13566193700651</v>
       </c>
       <c r="V7" t="n">
-        <v>-9.463965877515694</v>
+        <v>-6.614071051832566</v>
       </c>
       <c r="W7" t="n">
-        <v>-12.87057566243816</v>
+        <v>-10.44949735965479</v>
       </c>
       <c r="X7" t="n">
-        <v>-12.47709215115615</v>
+        <v>2.466476576584492</v>
       </c>
       <c r="Y7" t="n">
-        <v>-15.98478898953972</v>
+        <v>-34.58852787729421</v>
       </c>
       <c r="Z7" t="n">
-        <v>-21.82352737342026</v>
+        <v>-17.56569761259764</v>
       </c>
       <c r="AA7" t="n">
-        <v>-30.30304605647699</v>
+        <v>-21.93472586943241</v>
       </c>
       <c r="AB7" t="n">
-        <v>-37.26954766992191</v>
+        <v>-38.15573875914816</v>
       </c>
       <c r="AC7" t="n">
-        <v>-58.49103910984196</v>
+        <v>-39.68558471233459</v>
       </c>
     </row>
     <row r="8">
@@ -5044,88 +5044,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-10.06300376814958</v>
+        <v>-12.78951087641715</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.71174695063787</v>
+        <v>-2.27817800585431</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.799423801980571</v>
+        <v>-6.533687495746535</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.890418642121423</v>
+        <v>-5.638145896971661</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.372639242665683</v>
+        <v>-4.651060897468096</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.887584148548475</v>
+        <v>-6.137584235534028</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.544467580876965</v>
+        <v>-0.2485384454439439</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.76694993811519</v>
+        <v>-9.964161160134866</v>
       </c>
       <c r="J8" t="n">
-        <v>-9.390956846672767</v>
+        <v>-1.608544897701765</v>
       </c>
       <c r="K8" t="n">
-        <v>-9.93546733082248</v>
+        <v>-21.39097261618309</v>
       </c>
       <c r="L8" t="n">
-        <v>-10.42208429432431</v>
+        <v>11.08316923525604</v>
       </c>
       <c r="M8" t="n">
-        <v>-4.183600482186065</v>
+        <v>-9.594222465377035</v>
       </c>
       <c r="N8" t="n">
-        <v>-9.127044635799194</v>
+        <v>-18.82790817124831</v>
       </c>
       <c r="O8" t="n">
-        <v>-5.978667982358871</v>
+        <v>-4.948093940533141</v>
       </c>
       <c r="P8" t="n">
-        <v>-8.071259636764006</v>
+        <v>14.92258893177833</v>
       </c>
       <c r="Q8" t="n">
-        <v>-6.846628513868628</v>
+        <v>-11.33592355218096</v>
       </c>
       <c r="R8" t="n">
-        <v>-9.933462725169441</v>
+        <v>-5.665602552485897</v>
       </c>
       <c r="S8" t="n">
-        <v>-11.4272691294565</v>
+        <v>3.113851086692348</v>
       </c>
       <c r="T8" t="n">
-        <v>-6.125847533947019</v>
+        <v>-6.712644492415602</v>
       </c>
       <c r="U8" t="n">
-        <v>-12.41386878828557</v>
+        <v>-9.598153624469616</v>
       </c>
       <c r="V8" t="n">
-        <v>-8.751032406091953</v>
+        <v>-18.20507748109532</v>
       </c>
       <c r="W8" t="n">
-        <v>-10.81564774897075</v>
+        <v>-6.625703212284155</v>
       </c>
       <c r="X8" t="n">
-        <v>-14.18759533660306</v>
+        <v>-4.56260903823812</v>
       </c>
       <c r="Y8" t="n">
-        <v>-16.25813559352617</v>
+        <v>-22.28196828595093</v>
       </c>
       <c r="Z8" t="n">
-        <v>-24.13511322887535</v>
+        <v>-39.44183631651891</v>
       </c>
       <c r="AA8" t="n">
-        <v>-32.73977059754877</v>
+        <v>-40.04897405816168</v>
       </c>
       <c r="AB8" t="n">
-        <v>-37.8699488168678</v>
+        <v>-38.89036429934342</v>
       </c>
       <c r="AC8" t="n">
-        <v>-58.25175775699463</v>
+        <v>-60.60378476726616</v>
       </c>
     </row>
     <row r="9">
@@ -5133,88 +5133,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.853182794135546</v>
+        <v>-4.185236188766929</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.681387878567389</v>
+        <v>1.580147364581303</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.420779844431495</v>
+        <v>-10.45203426362517</v>
       </c>
       <c r="E9" t="n">
-        <v>2.284592440968889</v>
+        <v>-0.9241175841641214</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.53173602137955</v>
+        <v>3.300739894571943</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.68681979366395</v>
+        <v>-12.15959126008587</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.956952991358286</v>
+        <v>2.26276631524831</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.853986386975364</v>
+        <v>0.2830889873007663</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.56161993848373</v>
+        <v>-10.14400781388855</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.488502062738922</v>
+        <v>-5.409844019756399</v>
       </c>
       <c r="L9" t="n">
-        <v>-6.404279511313503</v>
+        <v>9.317586174371748</v>
       </c>
       <c r="M9" t="n">
-        <v>1.283030377209012</v>
+        <v>-42.31297115613675</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.816158805113861</v>
+        <v>11.49380647709222</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.564200700414459</v>
+        <v>-14.24146118663206</v>
       </c>
       <c r="P9" t="n">
-        <v>-6.464022218129728</v>
+        <v>-2.363563752998491</v>
       </c>
       <c r="Q9" t="n">
-        <v>-3.357479893562538</v>
+        <v>10.09608391632775</v>
       </c>
       <c r="R9" t="n">
-        <v>-3.460358633572397</v>
+        <v>-11.77001524301492</v>
       </c>
       <c r="S9" t="n">
-        <v>-7.620297758823586</v>
+        <v>16.16999453122288</v>
       </c>
       <c r="T9" t="n">
-        <v>-4.248813591415121</v>
+        <v>-11.3900862990589</v>
       </c>
       <c r="U9" t="n">
-        <v>-6.035649145001403</v>
+        <v>-3.026634978192894</v>
       </c>
       <c r="V9" t="n">
-        <v>-5.293980229213935</v>
+        <v>0.6732690412508777</v>
       </c>
       <c r="W9" t="n">
-        <v>-9.411532198433493</v>
+        <v>-8.571925627554343</v>
       </c>
       <c r="X9" t="n">
-        <v>-8.49745690148006</v>
+        <v>-5.064244002398366</v>
       </c>
       <c r="Y9" t="n">
-        <v>-11.60294642468472</v>
+        <v>-16.78072007262913</v>
       </c>
       <c r="Z9" t="n">
-        <v>-17.90152343426054</v>
+        <v>-11.05168822899442</v>
       </c>
       <c r="AA9" t="n">
-        <v>-27.09868229562859</v>
+        <v>-44.77850332415827</v>
       </c>
       <c r="AB9" t="n">
-        <v>-33.46296706313235</v>
+        <v>-6.381683589163465</v>
       </c>
       <c r="AC9" t="n">
-        <v>-51.46819855901251</v>
+        <v>-43.09217886666156</v>
       </c>
     </row>
     <row r="10">
@@ -5222,88 +5222,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.319918497197222</v>
+        <v>-2.898949593502922</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.887113103427684</v>
+        <v>24.7769374049989</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.080888540314657</v>
+        <v>-5.48001849533428</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.475755166107329</v>
+        <v>10.12450089403155</v>
       </c>
       <c r="F10" t="n">
-        <v>-7.041904212361532</v>
+        <v>8.559002851284504</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.06011411633051</v>
+        <v>5.801587668194196</v>
       </c>
       <c r="H10" t="n">
-        <v>-5.134630612958112</v>
+        <v>0.0915441660912002</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.023589581674724</v>
+        <v>-7.175298992097781</v>
       </c>
       <c r="J10" t="n">
-        <v>-6.030479707198501</v>
+        <v>2.931356707542972</v>
       </c>
       <c r="K10" t="n">
-        <v>-9.707572474292768</v>
+        <v>-18.30465083750752</v>
       </c>
       <c r="L10" t="n">
-        <v>-8.901169810403958</v>
+        <v>-0.6583108893803207</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.363932840868586</v>
+        <v>-4.701540500466421</v>
       </c>
       <c r="N10" t="n">
-        <v>-6.502532633230166</v>
+        <v>-13.19034257011885</v>
       </c>
       <c r="O10" t="n">
-        <v>-6.482008814574543</v>
+        <v>-10.27717510080748</v>
       </c>
       <c r="P10" t="n">
-        <v>-7.76069016017128</v>
+        <v>11.91366080928934</v>
       </c>
       <c r="Q10" t="n">
-        <v>-7.248187517028618</v>
+        <v>-6.303450045150703</v>
       </c>
       <c r="R10" t="n">
-        <v>-8.484664260290792</v>
+        <v>-12.27682979352847</v>
       </c>
       <c r="S10" t="n">
-        <v>-10.07598497563923</v>
+        <v>-5.151519177528972</v>
       </c>
       <c r="T10" t="n">
-        <v>-7.815484836674393</v>
+        <v>-24.49505119732589</v>
       </c>
       <c r="U10" t="n">
-        <v>-8.789091338068683</v>
+        <v>-1.407248889932513</v>
       </c>
       <c r="V10" t="n">
-        <v>-10.27906481144574</v>
+        <v>-22.41848867945878</v>
       </c>
       <c r="W10" t="n">
-        <v>-13.3585401945525</v>
+        <v>-8.089449768622707</v>
       </c>
       <c r="X10" t="n">
-        <v>-12.74168332953094</v>
+        <v>8.183305203450656</v>
       </c>
       <c r="Y10" t="n">
-        <v>-17.34504927092808</v>
+        <v>-40.10037918916783</v>
       </c>
       <c r="Z10" t="n">
-        <v>-22.99682609011572</v>
+        <v>-39.20294229980552</v>
       </c>
       <c r="AA10" t="n">
-        <v>-32.78652896357416</v>
+        <v>-41.71934703191877</v>
       </c>
       <c r="AB10" t="n">
-        <v>-39.11426395323278</v>
+        <v>-30.56778285003609</v>
       </c>
       <c r="AC10" t="n">
-        <v>-57.58031073530127</v>
+        <v>-48.01803382706025</v>
       </c>
     </row>
     <row r="11">
@@ -5311,88 +5311,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.898562003104249</v>
+        <v>-9.158654414798633</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.149139741089261</v>
+        <v>-9.793165008856651</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.442548712333091</v>
+        <v>-1.123793340153838</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.291549285249154</v>
+        <v>-5.742543727409381</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.741402086768211</v>
+        <v>-7.857595672141949</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.067910804632904</v>
+        <v>-9.929610278870516</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.425853074019503</v>
+        <v>-1.986567280340636</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.388287549164067</v>
+        <v>10.76633137195506</v>
       </c>
       <c r="J11" t="n">
-        <v>-6.85150179067481</v>
+        <v>12.51603963257475</v>
       </c>
       <c r="K11" t="n">
-        <v>-7.365093984823597</v>
+        <v>6.960212910195516</v>
       </c>
       <c r="L11" t="n">
-        <v>-8.052716595039403</v>
+        <v>10.93575535851869</v>
       </c>
       <c r="M11" t="n">
-        <v>-3.607678879436827</v>
+        <v>-0.2453983845803993</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.261361067852894</v>
+        <v>0.8365493445520942</v>
       </c>
       <c r="O11" t="n">
-        <v>-6.004945893248115</v>
+        <v>-6.386626225898345</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.375322315809271</v>
+        <v>-18.35831737810669</v>
       </c>
       <c r="Q11" t="n">
-        <v>-7.109524592159387</v>
+        <v>-6.714360288389638</v>
       </c>
       <c r="R11" t="n">
-        <v>-9.595920378591533</v>
+        <v>-13.75316097638478</v>
       </c>
       <c r="S11" t="n">
-        <v>-10.46011053850619</v>
+        <v>-7.591332264495253</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.661038179999363</v>
+        <v>16.61566410745898</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.338457545411366</v>
+        <v>-24.03974481825748</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.619377414974377</v>
+        <v>-8.06458346469825</v>
       </c>
       <c r="W11" t="n">
-        <v>-10.81607415064005</v>
+        <v>-21.44544236908482</v>
       </c>
       <c r="X11" t="n">
-        <v>-13.83508538701054</v>
+        <v>-2.462024608870712</v>
       </c>
       <c r="Y11" t="n">
-        <v>-16.42377242144492</v>
+        <v>-4.434157754536873</v>
       </c>
       <c r="Z11" t="n">
-        <v>-22.70453778353895</v>
+        <v>-36.02712379283979</v>
       </c>
       <c r="AA11" t="n">
-        <v>-31.81600376667874</v>
+        <v>-33.72797879255221</v>
       </c>
       <c r="AB11" t="n">
-        <v>-37.10798694978803</v>
+        <v>-21.90020313507277</v>
       </c>
       <c r="AC11" t="n">
-        <v>-57.12090878575285</v>
+        <v>-51.57668316846845</v>
       </c>
     </row>
   </sheetData>
@@ -5505,88 +5505,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.735171094826151</v>
+        <v>-11.61553734775488</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.226005768903573</v>
+        <v>-10.41336322240045</v>
       </c>
       <c r="D2" t="n">
-        <v>2.156663721704925</v>
+        <v>-8.79773255459272</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.855857095752792</v>
+        <v>3.388623701453731</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.880699151591268</v>
+        <v>4.048912658253682</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.921668910540717</v>
+        <v>-5.024472962029137</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4172567073068</v>
+        <v>-15.98105021767922</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.783204977208014</v>
+        <v>-9.120761461512879</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3858674442341217</v>
+        <v>-18.94171985648051</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.526925377438098</v>
+        <v>26.05214579211826</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6242521449085854</v>
+        <v>-10.60268341693485</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.777826412870882</v>
+        <v>16.37772775379678</v>
       </c>
       <c r="N2" t="n">
-        <v>3.753666615175684</v>
+        <v>-3.328939201483494</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8689239308959698</v>
+        <v>2.181790003307916</v>
       </c>
       <c r="P2" t="n">
-        <v>1.022604680134733</v>
+        <v>15.01369045523277</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.6451808527897787</v>
+        <v>11.03094186297696</v>
       </c>
       <c r="R2" t="n">
-        <v>4.573790939446607</v>
+        <v>-0.2129750694696086</v>
       </c>
       <c r="S2" t="n">
-        <v>1.626165865813269</v>
+        <v>-0.9797182179060409</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.836979386797647</v>
+        <v>-8.793744188801766</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.769418276220919</v>
+        <v>-6.687706491779616</v>
       </c>
       <c r="V2" t="n">
-        <v>2.866102952597621</v>
+        <v>5.228697432454632</v>
       </c>
       <c r="W2" t="n">
-        <v>6.519086882600857</v>
+        <v>12.34574812540426</v>
       </c>
       <c r="X2" t="n">
-        <v>2.884615724024823</v>
+        <v>-6.384115478714449</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.339255047503912</v>
+        <v>1.96466303009617</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.350404959634323</v>
+        <v>-19.94118648163587</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8498898030022757</v>
+        <v>-4.593300318686915</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.3986615453184046</v>
+        <v>22.59143959420749</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8029446330878769</v>
+        <v>4.804627921360753</v>
       </c>
     </row>
     <row r="3">
@@ -5594,88 +5594,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.074109362280325</v>
+        <v>-11.32698778879181</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.359406481887554</v>
+        <v>10.75659357804504</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.765897113170336</v>
+        <v>4.533325027904465</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.052223674355689</v>
+        <v>-3.332416335367077</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.819639574855533</v>
+        <v>-3.150830113678448</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.50034545822903</v>
+        <v>-7.594536417670266</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.36289689262752</v>
+        <v>-19.96218652699801</v>
       </c>
       <c r="I3" t="n">
-        <v>-10.12397391099818</v>
+        <v>-1.208069526517833</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.051692194594248</v>
+        <v>-1.990007919358846</v>
       </c>
       <c r="K3" t="n">
-        <v>-7.898483237116535</v>
+        <v>-3.432263060903618</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.527254133712346</v>
+        <v>-5.1311171586397</v>
       </c>
       <c r="M3" t="n">
-        <v>-5.960822857155504</v>
+        <v>-8.209115723255811</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.053735494591888</v>
+        <v>-19.56021828149236</v>
       </c>
       <c r="O3" t="n">
-        <v>-5.607952549989971</v>
+        <v>14.7659036892584</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.789947809510183</v>
+        <v>-17.07429975392346</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7.34225812185187</v>
+        <v>-3.023886845543763</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.013428636219702</v>
+        <v>-3.551010496119909</v>
       </c>
       <c r="S3" t="n">
-        <v>-5.445796553580479</v>
+        <v>-0.3479124253517352</v>
       </c>
       <c r="T3" t="n">
-        <v>-5.756661761476401</v>
+        <v>-32.98373495333197</v>
       </c>
       <c r="U3" t="n">
-        <v>-8.166489343150541</v>
+        <v>-0.6474674791219268</v>
       </c>
       <c r="V3" t="n">
-        <v>-2.081574297492971</v>
+        <v>-6.082429949656783</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5480258747009934</v>
+        <v>-4.705756624597051</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.9822141895577814</v>
+        <v>-16.39671775829691</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.329436936462077</v>
+        <v>-7.883219177391602</v>
       </c>
       <c r="Z3" t="n">
-        <v>-7.431858535314507</v>
+        <v>0.07004683461537509</v>
       </c>
       <c r="AA3" t="n">
-        <v>-2.542032858570688</v>
+        <v>-12.03952848606179</v>
       </c>
       <c r="AB3" t="n">
-        <v>-5.235174531786952</v>
+        <v>-9.019679286112579</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.491323542875228</v>
+        <v>7.580795104455734</v>
       </c>
     </row>
     <row r="4">
@@ -5683,88 +5683,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1555361988461867</v>
+        <v>1.483318954141175</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.628783927877577</v>
+        <v>-2.781999217945456</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2915380510969667</v>
+        <v>-21.51373379754159</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.484761694042849</v>
+        <v>3.377126606018413</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.566039696442555</v>
+        <v>-13.23986145484093</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.642769618151855</v>
+        <v>13.51530764890742</v>
       </c>
       <c r="H4" t="n">
-        <v>1.710489681805454</v>
+        <v>-5.3015225508974</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.396240638469886</v>
+        <v>2.618526294307902</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.028442489931962</v>
+        <v>-3.024444048101742</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.952210932829483</v>
+        <v>0.8463895179679537</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.7943371140354145</v>
+        <v>10.01563137710822</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.820102574617824</v>
+        <v>-1.032432431144838</v>
       </c>
       <c r="N4" t="n">
-        <v>3.123040592991283</v>
+        <v>-6.782977098139202</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.2588450856813386</v>
+        <v>-0.6165795445256569</v>
       </c>
       <c r="P4" t="n">
-        <v>0.94963636627615</v>
+        <v>-7.543419517748156</v>
       </c>
       <c r="Q4" t="n">
-        <v>-2.374082670850829</v>
+        <v>6.060753888357229</v>
       </c>
       <c r="R4" t="n">
-        <v>2.77918490589569</v>
+        <v>1.909727208233346</v>
       </c>
       <c r="S4" t="n">
-        <v>-2.078648210509132</v>
+        <v>-9.268951436024985</v>
       </c>
       <c r="T4" t="n">
-        <v>-4.922459201633988</v>
+        <v>-20.65022791527829</v>
       </c>
       <c r="U4" t="n">
-        <v>-4.101488202764751</v>
+        <v>1.328752442193153</v>
       </c>
       <c r="V4" t="n">
-        <v>3.445881894947443</v>
+        <v>2.555271900195297</v>
       </c>
       <c r="W4" t="n">
-        <v>1.482759587876972</v>
+        <v>22.10414125584986</v>
       </c>
       <c r="X4" t="n">
-        <v>3.013409358947311</v>
+        <v>-1.614739299208303</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.246712386323563</v>
+        <v>-7.145987331741511</v>
       </c>
       <c r="Z4" t="n">
-        <v>-3.720320051123292</v>
+        <v>-5.397874532140003</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.03567029906977137</v>
+        <v>-3.797921707272643</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.917877888341727</v>
+        <v>-7.945159055086588</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.197708468393595</v>
+        <v>12.48181135345054</v>
       </c>
     </row>
     <row r="5">
@@ -5772,88 +5772,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.918160178226232</v>
+        <v>15.39793473271201</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.310081130564337</v>
+        <v>-4.226086442498957</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.065964991772624</v>
+        <v>3.53559698374737</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.678320675154787</v>
+        <v>5.690739908944876</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.714890673813565</v>
+        <v>-8.902723371052748</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.316972343366688</v>
+        <v>-27.72201589226424</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.8353273445867728</v>
+        <v>-2.679339939055683</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.114480328013414</v>
+        <v>-6.597384889470277</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.815840192733582</v>
+        <v>6.498148512797664</v>
       </c>
       <c r="K5" t="n">
-        <v>-5.734645027443516</v>
+        <v>6.628173890618046</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3664479517909571</v>
+        <v>15.9122727072617</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.241940850800935</v>
+        <v>10.57566427931429</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.356038672004172</v>
+        <v>-11.87742837503047</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.9356994119832294</v>
+        <v>-4.349234575393272</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.235856313217615</v>
+        <v>3.96504980975216</v>
       </c>
       <c r="Q5" t="n">
-        <v>-6.146301392015314</v>
+        <v>7.941086485183469</v>
       </c>
       <c r="R5" t="n">
-        <v>1.003627151964398</v>
+        <v>-0.3870708377873663</v>
       </c>
       <c r="S5" t="n">
-        <v>-2.24407152160456</v>
+        <v>-17.38743097499983</v>
       </c>
       <c r="T5" t="n">
-        <v>-5.440484305606143</v>
+        <v>-12.97276692950928</v>
       </c>
       <c r="U5" t="n">
-        <v>-5.221388302995495</v>
+        <v>-6.19435544720837</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1607591797178916</v>
+        <v>-12.89082581710593</v>
       </c>
       <c r="W5" t="n">
-        <v>2.437815117280074</v>
+        <v>-22.31030308579464</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7513289999613153</v>
+        <v>-15.08884617287264</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.5180461646418446</v>
+        <v>-9.810510816318811</v>
       </c>
       <c r="Z5" t="n">
-        <v>-4.685101261573516</v>
+        <v>-6.371892873065207</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.7539137829273443</v>
+        <v>1.351667801302008</v>
       </c>
       <c r="AB5" t="n">
-        <v>-3.893688402912082</v>
+        <v>-7.188677611051435</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6088852089850983</v>
+        <v>-2.09553846695824</v>
       </c>
     </row>
     <row r="6">
@@ -5861,88 +5861,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6749989285719706</v>
+        <v>-14.0279316587752</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.701308597582146</v>
+        <v>-22.83453871913161</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1520600263574321</v>
+        <v>4.630386880322447</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.620600362997866</v>
+        <v>16.79398603686136</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.333977727773118</v>
+        <v>-4.012025420913631</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.02464149326199</v>
+        <v>-25.94159317446624</v>
       </c>
       <c r="H6" t="n">
-        <v>1.972982489875149</v>
+        <v>-21.74946220721197</v>
       </c>
       <c r="I6" t="n">
-        <v>-5.902520299448883</v>
+        <v>3.407511982035626</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4348447675460988</v>
+        <v>-4.419049344747414</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.791107324601741</v>
+        <v>-1.757017592559746</v>
       </c>
       <c r="L6" t="n">
-        <v>1.684534977038973</v>
+        <v>-0.08671510243564007</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.890065435852794</v>
+        <v>22.73478128856688</v>
       </c>
       <c r="N6" t="n">
-        <v>2.331036649136189</v>
+        <v>7.640697931865011</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8803616989439937</v>
+        <v>23.22974792172479</v>
       </c>
       <c r="P6" t="n">
-        <v>1.208266764096705</v>
+        <v>-13.94474553607778</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.460511026182942</v>
+        <v>3.106090017199353</v>
       </c>
       <c r="R6" t="n">
-        <v>1.314322813577358</v>
+        <v>3.260970621224815</v>
       </c>
       <c r="S6" t="n">
-        <v>1.485317909725013</v>
+        <v>-15.14822953080416</v>
       </c>
       <c r="T6" t="n">
-        <v>-1.84111895261737</v>
+        <v>-27.53650514646186</v>
       </c>
       <c r="U6" t="n">
-        <v>-2.599469494163783</v>
+        <v>-1.370903981683171</v>
       </c>
       <c r="V6" t="n">
-        <v>3.112124934823267</v>
+        <v>-10.11117663030276</v>
       </c>
       <c r="W6" t="n">
-        <v>3.960417652429843</v>
+        <v>-10.99322533020796</v>
       </c>
       <c r="X6" t="n">
-        <v>2.448579556241361</v>
+        <v>-10.9894246319232</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.6644231091839772</v>
+        <v>6.118074835922164</v>
       </c>
       <c r="Z6" t="n">
-        <v>-4.723546818793476</v>
+        <v>-27.21142892874434</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.7065518570117413</v>
+        <v>-0.1524091576750559</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.292805232883724</v>
+        <v>-13.9566479138238</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.005872414055032693</v>
+        <v>6.841400981921821</v>
       </c>
     </row>
     <row r="7">
@@ -5950,88 +5950,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.291938181721368</v>
+        <v>-12.49262654461438</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.534190148242777</v>
+        <v>0.9362207106308138</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.682017999503309</v>
+        <v>7.246263691146823</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.096758907758628</v>
+        <v>-12.21473677186382</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.35273763124067</v>
+        <v>-18.93436329256896</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.176751357248342</v>
+        <v>-9.481899632648933</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.860528404223362</v>
+        <v>-13.04240976661209</v>
       </c>
       <c r="I7" t="n">
-        <v>-8.330042297766576</v>
+        <v>-7.392847394580611</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.523716138373391</v>
+        <v>-14.90862565173746</v>
       </c>
       <c r="K7" t="n">
-        <v>-5.459471767616875</v>
+        <v>-6.171542258149693</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.651260869289336</v>
+        <v>-0.2942407180228925</v>
       </c>
       <c r="M7" t="n">
-        <v>-5.685360948444329</v>
+        <v>14.15588387632888</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4296858824897565</v>
+        <v>10.51253039658169</v>
       </c>
       <c r="O7" t="n">
-        <v>-1.438484618236043</v>
+        <v>3.742288151673797</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.894336459161634</v>
+        <v>-7.372243144032931</v>
       </c>
       <c r="Q7" t="n">
-        <v>-4.232776037373987</v>
+        <v>0.4726907205126087</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7871639577306482</v>
+        <v>3.286243794413947</v>
       </c>
       <c r="S7" t="n">
-        <v>-2.585471050582044</v>
+        <v>-15.64242556636927</v>
       </c>
       <c r="T7" t="n">
-        <v>-3.382031552977383</v>
+        <v>-15.45672343611324</v>
       </c>
       <c r="U7" t="n">
-        <v>-5.566563146514078</v>
+        <v>0.9915930770810197</v>
       </c>
       <c r="V7" t="n">
-        <v>1.500636727189545</v>
+        <v>-16.13334635942789</v>
       </c>
       <c r="W7" t="n">
-        <v>2.934945074096263</v>
+        <v>-10.80390209964242</v>
       </c>
       <c r="X7" t="n">
-        <v>1.676216394236902</v>
+        <v>-29.36080056671448</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.88049786518682</v>
+        <v>16.64088961909658</v>
       </c>
       <c r="Z7" t="n">
-        <v>-3.914511830083592</v>
+        <v>-6.744907275441685</v>
       </c>
       <c r="AA7" t="n">
-        <v>-2.149916081845417</v>
+        <v>-21.82431058219722</v>
       </c>
       <c r="AB7" t="n">
-        <v>-3.610714580403232</v>
+        <v>-9.683823545177834</v>
       </c>
       <c r="AC7" t="n">
-        <v>-2.863505304353993</v>
+        <v>-2.58537919574038</v>
       </c>
     </row>
     <row r="8">
@@ -6039,88 +6039,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.045737933137854</v>
+        <v>-5.031206105415204</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.532561644717866</v>
+        <v>-6.47798582551996</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.175819610661272</v>
+        <v>-0.0708566287217276</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.614860636855052</v>
+        <v>10.35780136544495</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.945935968045573</v>
+        <v>-0.08689121739216255</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.09079988308971</v>
+        <v>-15.53979981016782</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.72829774154924</v>
+        <v>-13.08810069481009</v>
       </c>
       <c r="I8" t="n">
-        <v>-9.297146564464152</v>
+        <v>-27.16837516720862</v>
       </c>
       <c r="J8" t="n">
-        <v>-4.066770131834793</v>
+        <v>-3.487620867146617</v>
       </c>
       <c r="K8" t="n">
-        <v>-5.71259052633149</v>
+        <v>-9.382215290269112</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.931751308887985</v>
+        <v>13.96761774428569</v>
       </c>
       <c r="M8" t="n">
-        <v>-5.145392148296441</v>
+        <v>-0.2315745687981186</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.582474219161142</v>
+        <v>11.34876109134811</v>
       </c>
       <c r="O8" t="n">
-        <v>-3.274190297203994</v>
+        <v>6.62153292245021</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1083472413554234</v>
+        <v>-12.29505829289027</v>
       </c>
       <c r="Q8" t="n">
-        <v>-5.639548159989157</v>
+        <v>3.107148593586154</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06104249703016196</v>
+        <v>-1.955043961446025</v>
       </c>
       <c r="S8" t="n">
-        <v>-3.317880011157193</v>
+        <v>-5.694786351775573</v>
       </c>
       <c r="T8" t="n">
-        <v>-4.279643186802181</v>
+        <v>-10.98303638753074</v>
       </c>
       <c r="U8" t="n">
-        <v>-5.275851920051501</v>
+        <v>-18.04910349358416</v>
       </c>
       <c r="V8" t="n">
-        <v>0.545502080059606</v>
+        <v>-6.020636238476469</v>
       </c>
       <c r="W8" t="n">
-        <v>2.876246444594651</v>
+        <v>-13.7359889910458</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4232002001689206</v>
+        <v>-11.33656293232929</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.776701104177637</v>
+        <v>-20.30726875916874</v>
       </c>
       <c r="Z8" t="n">
-        <v>-8.070265227029459</v>
+        <v>2.09037707937174</v>
       </c>
       <c r="AA8" t="n">
-        <v>-1.814615959115015</v>
+        <v>-2.912338197284813</v>
       </c>
       <c r="AB8" t="n">
-        <v>-3.106595520645602</v>
+        <v>-20.54456890782155</v>
       </c>
       <c r="AC8" t="n">
-        <v>-4.690544503003344</v>
+        <v>3.006755435963881</v>
       </c>
     </row>
     <row r="9">
@@ -6128,88 +6128,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.657926784125901</v>
+        <v>5.116788097011585</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6771937033658724</v>
+        <v>-3.332567588182824</v>
       </c>
       <c r="D9" t="n">
-        <v>3.482476272985568</v>
+        <v>12.3663790434656</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.550148941119292</v>
+        <v>32.22998718030956</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.709982652774239</v>
+        <v>1.968753911302299</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.001834690238979</v>
+        <v>-6.209394671257795</v>
       </c>
       <c r="H9" t="n">
-        <v>3.88506201792643</v>
+        <v>10.75760010666059</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.690673548844865</v>
+        <v>-21.76792654429529</v>
       </c>
       <c r="J9" t="n">
-        <v>1.064378718003181</v>
+        <v>15.07477544677623</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.224641120621415</v>
+        <v>0.8681718360380062</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.04065425981129089</v>
+        <v>30.30050967797624</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.172896212339592</v>
+        <v>9.975346699636917</v>
       </c>
       <c r="N9" t="n">
-        <v>4.007587732545639</v>
+        <v>9.496409526969696</v>
       </c>
       <c r="O9" t="n">
-        <v>2.345316002657288</v>
+        <v>-2.706776111340543</v>
       </c>
       <c r="P9" t="n">
-        <v>3.672347271251052</v>
+        <v>3.368588854170927</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3330869420136551</v>
+        <v>-21.5526035808452</v>
       </c>
       <c r="R9" t="n">
-        <v>4.073357232571259</v>
+        <v>-3.763054292138237</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01912166288240114</v>
+        <v>2.778459823620498</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2340662383089138</v>
+        <v>-5.318775052200346</v>
       </c>
       <c r="U9" t="n">
-        <v>-1.558090398059458</v>
+        <v>-4.348017662876437</v>
       </c>
       <c r="V9" t="n">
-        <v>5.032711866360485</v>
+        <v>2.989521403071994</v>
       </c>
       <c r="W9" t="n">
-        <v>7.344646728861536</v>
+        <v>10.04815179412804</v>
       </c>
       <c r="X9" t="n">
-        <v>5.760878637022234</v>
+        <v>5.275172769949498</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.226119556139323</v>
+        <v>9.120662779590241</v>
       </c>
       <c r="Z9" t="n">
-        <v>-2.84808430054046</v>
+        <v>-7.962019096742855</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.411688309629903</v>
+        <v>-5.09569525262783</v>
       </c>
       <c r="AB9" t="n">
-        <v>-1.474715650886563</v>
+        <v>-5.45700607027899</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4210637120546641</v>
+        <v>-5.042369687895422</v>
       </c>
     </row>
     <row r="10">
@@ -6217,88 +6217,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.065050732871013</v>
+        <v>-5.808748998222454</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.587423491909115</v>
+        <v>-6.600378049014351</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.616126560258038</v>
+        <v>-10.91894474920576</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.602462110837511</v>
+        <v>0.3602066104689836</v>
       </c>
       <c r="F10" t="n">
-        <v>-6.312233833717104</v>
+        <v>-12.0658346463973</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.141746717430244</v>
+        <v>15.63819845244564</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6569218651741666</v>
+        <v>-9.96659462348083</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.20417475266904</v>
+        <v>-10.13175683984768</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.082254859702441</v>
+        <v>-6.032590894839332</v>
       </c>
       <c r="K10" t="n">
-        <v>-5.658511316925953</v>
+        <v>-2.457216571100961</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.652903148065661</v>
+        <v>8.212234417614678</v>
       </c>
       <c r="M10" t="n">
-        <v>-5.239394475825894</v>
+        <v>18.696582810395</v>
       </c>
       <c r="N10" t="n">
-        <v>1.256358829704136</v>
+        <v>-19.83447938495733</v>
       </c>
       <c r="O10" t="n">
-        <v>-2.642531129582474</v>
+        <v>-4.894335751442531</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.2324912414107785</v>
+        <v>-17.62861839424716</v>
       </c>
       <c r="Q10" t="n">
-        <v>-3.881184344154519</v>
+        <v>13.30795605632304</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5533375763706387</v>
+        <v>2.170935792417144</v>
       </c>
       <c r="S10" t="n">
-        <v>-4.038276893152989</v>
+        <v>-12.88057453021624</v>
       </c>
       <c r="T10" t="n">
-        <v>-4.531614442534638</v>
+        <v>-4.033447629071521</v>
       </c>
       <c r="U10" t="n">
-        <v>-6.43450983917985</v>
+        <v>17.55538643383336</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.7113498717080442</v>
+        <v>29.46292001651605</v>
       </c>
       <c r="W10" t="n">
-        <v>3.122926377471647</v>
+        <v>-28.23333566787177</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.6359828875405709</v>
+        <v>-5.062991270279735</v>
       </c>
       <c r="Y10" t="n">
-        <v>-2.405330771504736</v>
+        <v>-15.64679864838471</v>
       </c>
       <c r="Z10" t="n">
-        <v>-5.315015829620645</v>
+        <v>-10.16318947754572</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1.732064909913761</v>
+        <v>-25.18294919846082</v>
       </c>
       <c r="AB10" t="n">
-        <v>-2.808811405665429</v>
+        <v>4.298047305425907</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.9028343554224598</v>
+        <v>-5.24637848584395</v>
       </c>
     </row>
     <row r="11">
@@ -6306,88 +6306,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4449509560248432</v>
+        <v>8.057774103759634</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.364062446662686</v>
+        <v>9.848078782076415</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2739930071475261</v>
+        <v>-10.37453447691007</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.419780853208372</v>
+        <v>-10.27545069087114</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.692706434165288</v>
+        <v>3.192165854610807</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.861000870537654</v>
+        <v>-2.834759731573753</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.292176927752953</v>
+        <v>-12.20316738186541</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.650170049856444</v>
+        <v>-12.62550131712699</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.595674510560196</v>
+        <v>5.604621014155008</v>
       </c>
       <c r="K11" t="n">
-        <v>-3.402612820118462</v>
+        <v>-10.06917218992284</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.944408475291857</v>
+        <v>9.142704990219915</v>
       </c>
       <c r="M11" t="n">
-        <v>-5.068082416372422</v>
+        <v>5.671685784321731</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1494438449225539</v>
+        <v>3.41192824541416</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.7446625350721019</v>
+        <v>-9.566124710021075</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.9750885281362123</v>
+        <v>-6.641167445570709</v>
       </c>
       <c r="Q11" t="n">
-        <v>-2.911741390547435</v>
+        <v>3.605526155039037</v>
       </c>
       <c r="R11" t="n">
-        <v>1.051819371386705</v>
+        <v>-0.01013449659663368</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.995356301225184</v>
+        <v>10.85100121762177</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.623034031717141</v>
+        <v>9.731341993067494</v>
       </c>
       <c r="U11" t="n">
-        <v>-3.623804860761084</v>
+        <v>-23.33778085196568</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.4090477239755981</v>
+        <v>-16.77926122620811</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9335525099116608</v>
+        <v>9.287809605772351</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.1368595579391656</v>
+        <v>-19.19470391746492</v>
       </c>
       <c r="Y11" t="n">
-        <v>-2.121175233347647</v>
+        <v>-11.78475182260481</v>
       </c>
       <c r="Z11" t="n">
-        <v>-5.436699694325695</v>
+        <v>11.90386124508968</v>
       </c>
       <c r="AA11" t="n">
-        <v>-2.220831426926841</v>
+        <v>-6.177934103669124</v>
       </c>
       <c r="AB11" t="n">
-        <v>-3.467109369980213</v>
+        <v>1.708757539829043</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.8347638581892973</v>
+        <v>5.997241847750204</v>
       </c>
     </row>
   </sheetData>
@@ -6500,88 +6500,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3658905994450461</v>
+        <v>-4.641513512183622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09811288097811777</v>
+        <v>-10.57284888754154</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8259970045032929</v>
+        <v>8.459200979965232</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1768445131823535</v>
+        <v>-8.761565090052422</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.834757713194698</v>
+        <v>16.83850040589551</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.285743341107044</v>
+        <v>-14.38642762949724</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.946279963757465</v>
+        <v>6.257066123470374</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.553373727204127</v>
+        <v>-22.5927602235641</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.9025376858669349</v>
+        <v>-5.964172996838144</v>
       </c>
       <c r="K2" t="n">
-        <v>1.644893877579412</v>
+        <v>-5.83954155485154</v>
       </c>
       <c r="L2" t="n">
-        <v>-7.324925686187354</v>
+        <v>7.82877267000448</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.106824213872492</v>
+        <v>-11.72339245088757</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.609663971614961</v>
+        <v>-2.341190333038932</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.052858260976445</v>
+        <v>-12.860097331937</v>
       </c>
       <c r="P2" t="n">
-        <v>-6.813809382581039</v>
+        <v>-4.876084800233073</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.208362821563357</v>
+        <v>2.878516548701174</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.990914610281259</v>
+        <v>-5.827067141893107</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.268403113390951</v>
+        <v>-1.808313855291367</v>
       </c>
       <c r="T2" t="n">
-        <v>-8.951398516532155</v>
+        <v>-8.12731914354241</v>
       </c>
       <c r="U2" t="n">
-        <v>-8.507703752831492</v>
+        <v>11.80652192055081</v>
       </c>
       <c r="V2" t="n">
-        <v>-6.360402750385459</v>
+        <v>12.91570471602214</v>
       </c>
       <c r="W2" t="n">
-        <v>-11.95342058432101</v>
+        <v>-13.96356441133064</v>
       </c>
       <c r="X2" t="n">
-        <v>-12.54564984748782</v>
+        <v>20.32387704862259</v>
       </c>
       <c r="Y2" t="n">
-        <v>-12.46904280472084</v>
+        <v>-26.94524086224801</v>
       </c>
       <c r="Z2" t="n">
-        <v>-18.46051513547156</v>
+        <v>-21.74762313326014</v>
       </c>
       <c r="AA2" t="n">
-        <v>-23.53976890204203</v>
+        <v>-9.5630661705395</v>
       </c>
       <c r="AB2" t="n">
-        <v>-37.96262638377949</v>
+        <v>-33.67936157809048</v>
       </c>
       <c r="AC2" t="n">
-        <v>-48.09177171739285</v>
+        <v>-51.71092926131433</v>
       </c>
     </row>
     <row r="3">
@@ -6589,88 +6589,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.268533920341866</v>
+        <v>2.394101247476243</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.501771288930375</v>
+        <v>-4.037723642947785</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.116870436874549</v>
+        <v>11.8833492258559</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.353687048626941</v>
+        <v>-26.54308370763818</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.88676042286047</v>
+        <v>-11.04216469614039</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.35431562176069</v>
+        <v>-8.219164392724981</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.966699236691665</v>
+        <v>-16.4797652502598</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.258201500639166</v>
+        <v>-3.47614381974215</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.370940400757478</v>
+        <v>8.908680827129229</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.762893220223124</v>
+        <v>-8.519459271838137</v>
       </c>
       <c r="L3" t="n">
-        <v>-10.86155559739742</v>
+        <v>-7.997288668713796</v>
       </c>
       <c r="M3" t="n">
-        <v>-10.34959644043457</v>
+        <v>-0.4266231361386499</v>
       </c>
       <c r="N3" t="n">
-        <v>-8.64437027080044</v>
+        <v>-15.40215387596766</v>
       </c>
       <c r="O3" t="n">
-        <v>-8.573090792678332</v>
+        <v>-28.81728409003043</v>
       </c>
       <c r="P3" t="n">
-        <v>-12.33523048400686</v>
+        <v>-9.152364044541692</v>
       </c>
       <c r="Q3" t="n">
-        <v>-10.58744089447427</v>
+        <v>-20.42599592846904</v>
       </c>
       <c r="R3" t="n">
-        <v>-11.25984661352415</v>
+        <v>-7.083553802595839</v>
       </c>
       <c r="S3" t="n">
-        <v>-9.483660226778042</v>
+        <v>8.269906122956009</v>
       </c>
       <c r="T3" t="n">
-        <v>-13.7557282715827</v>
+        <v>-2.621403731222573</v>
       </c>
       <c r="U3" t="n">
-        <v>-15.2728680180029</v>
+        <v>-23.50539768890134</v>
       </c>
       <c r="V3" t="n">
-        <v>-12.03149598425785</v>
+        <v>-6.094064682959742</v>
       </c>
       <c r="W3" t="n">
-        <v>-16.17148332671585</v>
+        <v>-22.48248042397574</v>
       </c>
       <c r="X3" t="n">
-        <v>-18.6876012070902</v>
+        <v>-14.07425297733877</v>
       </c>
       <c r="Y3" t="n">
-        <v>-15.41869121273153</v>
+        <v>-22.56869139586337</v>
       </c>
       <c r="Z3" t="n">
-        <v>-24.14801816275508</v>
+        <v>-22.26458665578632</v>
       </c>
       <c r="AA3" t="n">
-        <v>-28.97826996855315</v>
+        <v>-39.12738237241761</v>
       </c>
       <c r="AB3" t="n">
-        <v>-42.54072744812068</v>
+        <v>-33.85343418883674</v>
       </c>
       <c r="AC3" t="n">
-        <v>-53.07483454994584</v>
+        <v>-49.72010033463116</v>
       </c>
     </row>
     <row r="4">
@@ -6678,88 +6678,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.944663705751029</v>
+        <v>-11.59032230538127</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.861673195088525</v>
+        <v>-0.2800456943796963</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7187621879435713</v>
+        <v>1.463368058931021</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.121522793610294</v>
+        <v>-13.07288933459863</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.194562738419146</v>
+        <v>0.5587856490190406</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.474272613303213</v>
+        <v>-15.89756719344058</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.069638472794233</v>
+        <v>3.929474296061652</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.251056955492224</v>
+        <v>-12.38215242923007</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6777874541487252</v>
+        <v>-9.962681400305726</v>
       </c>
       <c r="K4" t="n">
-        <v>1.876612810104087</v>
+        <v>2.758152974587735</v>
       </c>
       <c r="L4" t="n">
-        <v>-5.849326960963843</v>
+        <v>1.355559413535771</v>
       </c>
       <c r="M4" t="n">
-        <v>-7.309913579685285</v>
+        <v>-3.61390629707317</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.355518295468084</v>
+        <v>-7.067964016043684</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.7729467246129</v>
+        <v>-15.8628911380175</v>
       </c>
       <c r="P4" t="n">
-        <v>-6.657826598231205</v>
+        <v>17.01530512273238</v>
       </c>
       <c r="Q4" t="n">
-        <v>-7.307650597371262</v>
+        <v>-10.04337498943837</v>
       </c>
       <c r="R4" t="n">
-        <v>-6.234045197865631</v>
+        <v>-8.181978499092644</v>
       </c>
       <c r="S4" t="n">
-        <v>-6.27224498474004</v>
+        <v>-12.26712908988567</v>
       </c>
       <c r="T4" t="n">
-        <v>-8.423177263783392</v>
+        <v>6.914681653236237</v>
       </c>
       <c r="U4" t="n">
-        <v>-10.68902227328905</v>
+        <v>-16.61037900308144</v>
       </c>
       <c r="V4" t="n">
-        <v>-8.115594165167446</v>
+        <v>2.832890769849515</v>
       </c>
       <c r="W4" t="n">
-        <v>-12.38559097973873</v>
+        <v>-13.32178805188577</v>
       </c>
       <c r="X4" t="n">
-        <v>-12.29561809924826</v>
+        <v>1.692154072448714</v>
       </c>
       <c r="Y4" t="n">
-        <v>-12.11118144776592</v>
+        <v>-16.34810059097689</v>
       </c>
       <c r="Z4" t="n">
-        <v>-19.1953607966424</v>
+        <v>-19.07740121044364</v>
       </c>
       <c r="AA4" t="n">
-        <v>-25.31162482648974</v>
+        <v>-31.50099272657053</v>
       </c>
       <c r="AB4" t="n">
-        <v>-37.73992388253311</v>
+        <v>-35.19016740738564</v>
       </c>
       <c r="AC4" t="n">
-        <v>-50.10198854482383</v>
+        <v>-38.37350827830718</v>
       </c>
     </row>
     <row r="5">
@@ -6767,88 +6767,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.888076149149662</v>
+        <v>-5.108573234077119</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.423861014537552</v>
+        <v>-0.5611048914789944</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.646460446162016</v>
+        <v>5.44236080073086</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.361498524756473</v>
+        <v>21.47940042012291</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.81893295520118</v>
+        <v>-17.9213590042714</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.860865944109257</v>
+        <v>-7.265780723527061</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.938440785080664</v>
+        <v>-1.929102559333984</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.090496740792278</v>
+        <v>-7.356776838164359</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.39246183670938</v>
+        <v>-23.20487343818868</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.605836674976011</v>
+        <v>-2.205896839293811</v>
       </c>
       <c r="L5" t="n">
-        <v>-9.766753868526902</v>
+        <v>-5.15033687929833</v>
       </c>
       <c r="M5" t="n">
-        <v>-8.379543660571318</v>
+        <v>-5.863667641410715</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.498669342340657</v>
+        <v>-6.505959475086431</v>
       </c>
       <c r="O5" t="n">
-        <v>-4.833131535075812</v>
+        <v>-14.86400939518934</v>
       </c>
       <c r="P5" t="n">
-        <v>-8.726793213700129</v>
+        <v>-14.04241343306271</v>
       </c>
       <c r="Q5" t="n">
-        <v>-8.460165550937738</v>
+        <v>0.06695580933855538</v>
       </c>
       <c r="R5" t="n">
-        <v>-7.4553529240493</v>
+        <v>-33.16909821780358</v>
       </c>
       <c r="S5" t="n">
-        <v>-9.802089381034969</v>
+        <v>-13.47600533646563</v>
       </c>
       <c r="T5" t="n">
-        <v>-11.11886387159118</v>
+        <v>-6.085466077185361</v>
       </c>
       <c r="U5" t="n">
-        <v>-12.47697503084513</v>
+        <v>-4.305188239094975</v>
       </c>
       <c r="V5" t="n">
-        <v>-11.24168483055369</v>
+        <v>-4.137913273524595</v>
       </c>
       <c r="W5" t="n">
-        <v>-12.13312454411877</v>
+        <v>-12.81253687462555</v>
       </c>
       <c r="X5" t="n">
-        <v>-13.41736539980289</v>
+        <v>-20.78294494798011</v>
       </c>
       <c r="Y5" t="n">
-        <v>-14.2870599706267</v>
+        <v>-26.89934534373485</v>
       </c>
       <c r="Z5" t="n">
-        <v>-21.76812526948824</v>
+        <v>-20.22094291970755</v>
       </c>
       <c r="AA5" t="n">
-        <v>-26.48072448182158</v>
+        <v>-32.49251143442043</v>
       </c>
       <c r="AB5" t="n">
-        <v>-40.81164402842104</v>
+        <v>-57.70118119749532</v>
       </c>
       <c r="AC5" t="n">
-        <v>-49.69995129985875</v>
+        <v>-69.43844345974034</v>
       </c>
     </row>
     <row r="6">
@@ -6856,88 +6856,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.86923646703673</v>
+        <v>5.543840696923084</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4128712794697145</v>
+        <v>9.512092383586907</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.105308188560254</v>
+        <v>-3.410214029922251</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.686341060138683</v>
+        <v>-2.704668117405861</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.248731761674598</v>
+        <v>-11.81022426153205</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.428930151742378</v>
+        <v>12.32152761446114</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.103299581975503</v>
+        <v>1.204892123004812</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.164360443090191</v>
+        <v>-3.25736135950978</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.010785240967647</v>
+        <v>12.57467704504122</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4350539197553029</v>
+        <v>17.57074687420431</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.395837209595681</v>
+        <v>-13.30164928555287</v>
       </c>
       <c r="M6" t="n">
-        <v>-5.660265627512555</v>
+        <v>-13.25958713149861</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.563719905226945</v>
+        <v>-10.72207889812513</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.624101843890074</v>
+        <v>-4.925581317381412</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.551268734161668</v>
+        <v>-9.767153418468018</v>
       </c>
       <c r="Q6" t="n">
-        <v>-5.060987459439077</v>
+        <v>2.14354972940002</v>
       </c>
       <c r="R6" t="n">
-        <v>-5.953715598971017</v>
+        <v>-6.117774518985434</v>
       </c>
       <c r="S6" t="n">
-        <v>-7.349256643333582</v>
+        <v>-12.45702581342729</v>
       </c>
       <c r="T6" t="n">
-        <v>-8.154845616010386</v>
+        <v>7.63211331087791</v>
       </c>
       <c r="U6" t="n">
-        <v>-12.08455883678691</v>
+        <v>-0.150882225620153</v>
       </c>
       <c r="V6" t="n">
-        <v>-7.136248760762651</v>
+        <v>12.4993601289276</v>
       </c>
       <c r="W6" t="n">
-        <v>-12.58505257300443</v>
+        <v>-6.917880406197567</v>
       </c>
       <c r="X6" t="n">
-        <v>-14.48986021750058</v>
+        <v>-6.500157746172912</v>
       </c>
       <c r="Y6" t="n">
-        <v>-13.33377088756929</v>
+        <v>-16.73996739595864</v>
       </c>
       <c r="Z6" t="n">
-        <v>-18.55592412154644</v>
+        <v>-26.74791826416376</v>
       </c>
       <c r="AA6" t="n">
-        <v>-25.78636729724621</v>
+        <v>-27.22518880861143</v>
       </c>
       <c r="AB6" t="n">
-        <v>-36.76059139365611</v>
+        <v>-45.13890620640772</v>
       </c>
       <c r="AC6" t="n">
-        <v>-48.60243018386992</v>
+        <v>-53.71953579526889</v>
       </c>
     </row>
     <row r="7">
@@ -6945,88 +6945,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.596964682377639</v>
+        <v>-8.753709300090961</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.784332657838928</v>
+        <v>8.381602072226418</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.94764489371998</v>
+        <v>10.57296474025885</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.649741485534197</v>
+        <v>-3.80775836660948</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.796228656550228</v>
+        <v>-20.39949385362171</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.034692911233796</v>
+        <v>-3.39341987372367</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.314030006272323</v>
+        <v>-19.05105617758882</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.289360557748896</v>
+        <v>-3.996071462362285</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.808739477651751</v>
+        <v>0.7798910497118818</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.588569164576165</v>
+        <v>-16.01689937112959</v>
       </c>
       <c r="L7" t="n">
-        <v>-10.43587432697817</v>
+        <v>-11.58613301303276</v>
       </c>
       <c r="M7" t="n">
-        <v>-11.40698504809024</v>
+        <v>-20.46058982969385</v>
       </c>
       <c r="N7" t="n">
-        <v>-6.84896072887424</v>
+        <v>1.624005339955192</v>
       </c>
       <c r="O7" t="n">
-        <v>-3.215663608246932</v>
+        <v>-7.912149064025917</v>
       </c>
       <c r="P7" t="n">
-        <v>-9.419257734527505</v>
+        <v>31.50706402777456</v>
       </c>
       <c r="Q7" t="n">
-        <v>-9.277871017942269</v>
+        <v>0.3415250738582625</v>
       </c>
       <c r="R7" t="n">
-        <v>-6.211720786213233</v>
+        <v>1.177183696422443</v>
       </c>
       <c r="S7" t="n">
-        <v>-7.600400164248245</v>
+        <v>-0.9438547830944533</v>
       </c>
       <c r="T7" t="n">
-        <v>-10.09838586365739</v>
+        <v>-10.50327963709332</v>
       </c>
       <c r="U7" t="n">
-        <v>-13.72110946578001</v>
+        <v>-18.30354331519718</v>
       </c>
       <c r="V7" t="n">
-        <v>-10.32224221105866</v>
+        <v>-9.788866107433808</v>
       </c>
       <c r="W7" t="n">
-        <v>-13.32129452467773</v>
+        <v>-0.2781444431779487</v>
       </c>
       <c r="X7" t="n">
-        <v>-17.01370631920267</v>
+        <v>-29.40527904200127</v>
       </c>
       <c r="Y7" t="n">
-        <v>-16.82963351666148</v>
+        <v>-8.69928955383644</v>
       </c>
       <c r="Z7" t="n">
-        <v>-21.77980088004038</v>
+        <v>-28.99589384439067</v>
       </c>
       <c r="AA7" t="n">
-        <v>-29.39295574835234</v>
+        <v>-31.56335795891249</v>
       </c>
       <c r="AB7" t="n">
-        <v>-39.43116943127367</v>
+        <v>-32.48475895033828</v>
       </c>
       <c r="AC7" t="n">
-        <v>-50.05937053369436</v>
+        <v>-66.11512300221953</v>
       </c>
     </row>
     <row r="8">
@@ -7034,88 +7034,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.090297361755685</v>
+        <v>-19.72112066062511</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.444770415572243</v>
+        <v>-5.809004660858552</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.123931527015121</v>
+        <v>6.67394888485012</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.427661381258639</v>
+        <v>-9.508665073941597</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.418898217632123</v>
+        <v>-5.991193430049141</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.351353860878774</v>
+        <v>-21.09237917038809</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.216879994694567</v>
+        <v>-13.72085468640163</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.477554136754207</v>
+        <v>-3.293072273482296</v>
       </c>
       <c r="J8" t="n">
-        <v>-5.294406745727644</v>
+        <v>10.38089263040715</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.220493191358402</v>
+        <v>14.00257668914248</v>
       </c>
       <c r="L8" t="n">
-        <v>-8.477649181484889</v>
+        <v>-38.62653595639472</v>
       </c>
       <c r="M8" t="n">
-        <v>-9.406592586710417</v>
+        <v>-12.04151410356232</v>
       </c>
       <c r="N8" t="n">
-        <v>-8.148497611707654</v>
+        <v>-5.588595142981693</v>
       </c>
       <c r="O8" t="n">
-        <v>-5.689232844347952</v>
+        <v>-12.05269709896098</v>
       </c>
       <c r="P8" t="n">
-        <v>-10.69373646541993</v>
+        <v>-13.93461277249136</v>
       </c>
       <c r="Q8" t="n">
-        <v>-10.06185268781427</v>
+        <v>-3.968976764338679</v>
       </c>
       <c r="R8" t="n">
-        <v>-11.07702960497759</v>
+        <v>-3.842662981334106</v>
       </c>
       <c r="S8" t="n">
-        <v>-10.53475049870408</v>
+        <v>-16.74579342001708</v>
       </c>
       <c r="T8" t="n">
-        <v>-10.56004645054866</v>
+        <v>-23.66552928120858</v>
       </c>
       <c r="U8" t="n">
-        <v>-14.09025524550713</v>
+        <v>-24.32274556084441</v>
       </c>
       <c r="V8" t="n">
-        <v>-9.58780740018975</v>
+        <v>3.645808814738173</v>
       </c>
       <c r="W8" t="n">
-        <v>-14.5838845843458</v>
+        <v>-1.721120557380498</v>
       </c>
       <c r="X8" t="n">
-        <v>-17.67990648983329</v>
+        <v>-14.56740863525005</v>
       </c>
       <c r="Y8" t="n">
-        <v>-14.34700311254704</v>
+        <v>-20.09934909689521</v>
       </c>
       <c r="Z8" t="n">
-        <v>-21.15049206573229</v>
+        <v>-20.09950412635964</v>
       </c>
       <c r="AA8" t="n">
-        <v>-28.70630618034474</v>
+        <v>-23.76637957372212</v>
       </c>
       <c r="AB8" t="n">
-        <v>-42.03536091679742</v>
+        <v>-30.41054009561925</v>
       </c>
       <c r="AC8" t="n">
-        <v>-51.80295871916366</v>
+        <v>-76.68250082530778</v>
       </c>
     </row>
     <row r="9">
@@ -7123,88 +7123,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6067239874489245</v>
+        <v>-1.434608101576511</v>
       </c>
       <c r="C9" t="n">
-        <v>1.626571426797339</v>
+        <v>-8.56750905683861</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6508464580590729</v>
+        <v>7.095021240454908</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5376959851212324</v>
+        <v>-0.9751007096129283</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.77740900195576</v>
+        <v>15.05141263893463</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.580743560039068</v>
+        <v>-17.78361496631625</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.50784843073559</v>
+        <v>-6.109951454616848</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.878567980275913</v>
+        <v>-14.85895403598348</v>
       </c>
       <c r="J9" t="n">
-        <v>2.765860079082554</v>
+        <v>3.160097807066571</v>
       </c>
       <c r="K9" t="n">
-        <v>2.620405100792157</v>
+        <v>0.3766734562916403</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.638346337859253</v>
+        <v>10.93602198945702</v>
       </c>
       <c r="M9" t="n">
-        <v>-6.379740306245031</v>
+        <v>-1.143736810199959</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.393961716529901</v>
+        <v>-13.39247464157904</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.815931746274292</v>
+        <v>-3.599401755532396</v>
       </c>
       <c r="P9" t="n">
-        <v>-6.284059142266839</v>
+        <v>8.219872806735811</v>
       </c>
       <c r="Q9" t="n">
-        <v>-6.372972442266871</v>
+        <v>-3.237399105118739</v>
       </c>
       <c r="R9" t="n">
-        <v>-4.446515339480364</v>
+        <v>-3.57343253833176</v>
       </c>
       <c r="S9" t="n">
-        <v>-4.463355574907951</v>
+        <v>8.933698285368244</v>
       </c>
       <c r="T9" t="n">
-        <v>-6.07286313162439</v>
+        <v>-6.422524624821294</v>
       </c>
       <c r="U9" t="n">
-        <v>-9.359458565268465</v>
+        <v>-4.056866434871828</v>
       </c>
       <c r="V9" t="n">
-        <v>-4.136771527724965</v>
+        <v>-8.920698818086548</v>
       </c>
       <c r="W9" t="n">
-        <v>-10.42613083406671</v>
+        <v>-10.16134249138101</v>
       </c>
       <c r="X9" t="n">
-        <v>-8.974523219601979</v>
+        <v>-0.8789623072471642</v>
       </c>
       <c r="Y9" t="n">
-        <v>-11.18987617855202</v>
+        <v>-9.87378938873068</v>
       </c>
       <c r="Z9" t="n">
-        <v>-18.35630428536279</v>
+        <v>-17.29071175409366</v>
       </c>
       <c r="AA9" t="n">
-        <v>-22.62058713685829</v>
+        <v>-34.36069793460161</v>
       </c>
       <c r="AB9" t="n">
-        <v>-36.50544588888242</v>
+        <v>-33.56854174796168</v>
       </c>
       <c r="AC9" t="n">
-        <v>-48.44744644618791</v>
+        <v>-65.06386007697617</v>
       </c>
     </row>
     <row r="10">
@@ -7212,88 +7212,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.517651786635031</v>
+        <v>-6.533661017782391</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.206992394407543</v>
+        <v>2.231176634924465</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.709714909936123</v>
+        <v>-9.951805733715489</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.085211571817848</v>
+        <v>-13.83032679554964</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.243895588247414</v>
+        <v>-9.702054069809714</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.280927332489997</v>
+        <v>-16.00521068970363</v>
       </c>
       <c r="H10" t="n">
-        <v>-5.510189364173744</v>
+        <v>0.7616354562943641</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.55272272550252</v>
+        <v>2.543893719026523</v>
       </c>
       <c r="J10" t="n">
-        <v>-5.11554252365809</v>
+        <v>-4.077516425611453</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.969836459361285</v>
+        <v>2.744667368004545</v>
       </c>
       <c r="L10" t="n">
-        <v>-7.66392038360333</v>
+        <v>-5.80928662161767</v>
       </c>
       <c r="M10" t="n">
-        <v>-9.219115058013903</v>
+        <v>3.019451600329524</v>
       </c>
       <c r="N10" t="n">
-        <v>-9.750074257797397</v>
+        <v>-14.81993952590074</v>
       </c>
       <c r="O10" t="n">
-        <v>-4.464396215052035</v>
+        <v>-12.17908928085016</v>
       </c>
       <c r="P10" t="n">
-        <v>-9.062597562391574</v>
+        <v>-8.70370496621574</v>
       </c>
       <c r="Q10" t="n">
-        <v>-10.25311540945879</v>
+        <v>9.592667606952523</v>
       </c>
       <c r="R10" t="n">
-        <v>-9.268018684892525</v>
+        <v>3.191042502262194</v>
       </c>
       <c r="S10" t="n">
-        <v>-9.654035839144587</v>
+        <v>-15.30162523711845</v>
       </c>
       <c r="T10" t="n">
-        <v>-11.987611950711</v>
+        <v>-3.154034935437423</v>
       </c>
       <c r="U10" t="n">
-        <v>-14.80917271199185</v>
+        <v>-26.63661570521419</v>
       </c>
       <c r="V10" t="n">
-        <v>-9.938179511296251</v>
+        <v>-6.582880303637863</v>
       </c>
       <c r="W10" t="n">
-        <v>-13.59423555182372</v>
+        <v>-14.58129262562324</v>
       </c>
       <c r="X10" t="n">
-        <v>-14.19318761598835</v>
+        <v>-17.06066459407149</v>
       </c>
       <c r="Y10" t="n">
-        <v>-15.54018946161237</v>
+        <v>-18.50947816181699</v>
       </c>
       <c r="Z10" t="n">
-        <v>-23.04729318457004</v>
+        <v>-36.35155984156788</v>
       </c>
       <c r="AA10" t="n">
-        <v>-28.94234996193386</v>
+        <v>-44.11232161617639</v>
       </c>
       <c r="AB10" t="n">
-        <v>-39.97213034827019</v>
+        <v>-32.88548029971266</v>
       </c>
       <c r="AC10" t="n">
-        <v>-51.60751225824779</v>
+        <v>-42.07161050672274</v>
       </c>
     </row>
     <row r="11">
@@ -7301,88 +7301,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.620002670484358</v>
+        <v>-26.53164456989003</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.778304270052697</v>
+        <v>3.392696934048347</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.58673772926304</v>
+        <v>-10.80348523454955</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.234960521187926</v>
+        <v>-27.68986319753513</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.933904757539521</v>
+        <v>0.5178214611117014</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.907100403730151</v>
+        <v>-4.240880447379737</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.464268481048429</v>
+        <v>-6.000092457441776</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.432176546353168</v>
+        <v>-13.43252907929075</v>
       </c>
       <c r="J11" t="n">
-        <v>-2.987605455954535</v>
+        <v>-3.339150859330482</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.743965247592224</v>
+        <v>-8.57179110996041</v>
       </c>
       <c r="L11" t="n">
-        <v>-8.477449068008502</v>
+        <v>6.436423303886296</v>
       </c>
       <c r="M11" t="n">
-        <v>-10.69690938821919</v>
+        <v>-8.407173272570077</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.598194023880606</v>
+        <v>-4.857404364517905</v>
       </c>
       <c r="O11" t="n">
-        <v>-6.129904185065037</v>
+        <v>-5.144931354209596</v>
       </c>
       <c r="P11" t="n">
-        <v>-6.816302142096713</v>
+        <v>8.94822836320364</v>
       </c>
       <c r="Q11" t="n">
-        <v>-8.389125993225027</v>
+        <v>17.73150544918716</v>
       </c>
       <c r="R11" t="n">
-        <v>-5.969486987183698</v>
+        <v>-21.33175542756918</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.075901303305972</v>
+        <v>-6.255519879756932</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.356983734211958</v>
+        <v>-12.96565560387077</v>
       </c>
       <c r="U11" t="n">
-        <v>-13.62259256788387</v>
+        <v>-13.09809282878414</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.470461882718293</v>
+        <v>3.755222535434564</v>
       </c>
       <c r="W11" t="n">
-        <v>-12.61724460364447</v>
+        <v>-5.960014123174378</v>
       </c>
       <c r="X11" t="n">
-        <v>-15.74338779405164</v>
+        <v>1.000935633777805</v>
       </c>
       <c r="Y11" t="n">
-        <v>-12.79790763600421</v>
+        <v>-12.84183140272017</v>
       </c>
       <c r="Z11" t="n">
-        <v>-22.1090759776189</v>
+        <v>-9.118047274889957</v>
       </c>
       <c r="AA11" t="n">
-        <v>-25.33042743383688</v>
+        <v>-39.58586290283927</v>
       </c>
       <c r="AB11" t="n">
-        <v>-40.53429490145017</v>
+        <v>-47.88404699098175</v>
       </c>
       <c r="AC11" t="n">
-        <v>-51.18494341748504</v>
+        <v>-62.53171223918649</v>
       </c>
     </row>
   </sheetData>

--- a/Data/full_fixed_params.xlsx
+++ b/Data/full_fixed_params.xlsx
@@ -530,88 +530,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-15.10289666279184</v>
+        <v>11.47611126628699</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.099206486653248</v>
+        <v>7.047179997230479</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.946365559550145</v>
+        <v>-6.875839268025537</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.224310640155994</v>
+        <v>-1.315236171641798</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.182786692003214</v>
+        <v>20.70713718279721</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.070300372513435</v>
+        <v>-14.71877529522927</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.289101956375841</v>
+        <v>2.072238154667349</v>
       </c>
       <c r="I2" t="n">
-        <v>-20.92272770673143</v>
+        <v>4.851176427183302</v>
       </c>
       <c r="J2" t="n">
-        <v>-14.19973892332063</v>
+        <v>26.12705746562466</v>
       </c>
       <c r="K2" t="n">
-        <v>-12.02919852407764</v>
+        <v>-15.19647665691348</v>
       </c>
       <c r="L2" t="n">
-        <v>-16.53258867102512</v>
+        <v>-18.6049750880496</v>
       </c>
       <c r="M2" t="n">
-        <v>-9.498834044076048</v>
+        <v>6.954491219092256</v>
       </c>
       <c r="N2" t="n">
-        <v>8.018519746823447</v>
+        <v>1.709214554406389</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.92297117661019</v>
+        <v>-3.494242063408465</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.537881356621684</v>
+        <v>-1.652810528337833</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4930843396478752</v>
+        <v>-0.5279192017625509</v>
       </c>
       <c r="R2" t="n">
-        <v>-18.15732052401195</v>
+        <v>8.885849310316448</v>
       </c>
       <c r="S2" t="n">
-        <v>-7.486385661333562</v>
+        <v>3.727552624235932</v>
       </c>
       <c r="T2" t="n">
-        <v>-11.55234287253077</v>
+        <v>2.324584864810415</v>
       </c>
       <c r="U2" t="n">
-        <v>-11.05509738129768</v>
+        <v>-0.9494095873225055</v>
       </c>
       <c r="V2" t="n">
-        <v>-5.170283607577939</v>
+        <v>8.827178673589293</v>
       </c>
       <c r="W2" t="n">
-        <v>-22.19597228034255</v>
+        <v>-9.729160912040697</v>
       </c>
       <c r="X2" t="n">
-        <v>-3.402318967644855</v>
+        <v>0.4506448745629532</v>
       </c>
       <c r="Y2" t="n">
-        <v>-11.30227912861174</v>
+        <v>-1.920599125276823</v>
       </c>
       <c r="Z2" t="n">
-        <v>-14.98889056738003</v>
+        <v>12.26230696392855</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.14975997676212</v>
+        <v>-7.510489265163795</v>
       </c>
       <c r="AB2" t="n">
-        <v>-10.94174909178346</v>
+        <v>-10.16581550829903</v>
       </c>
       <c r="AC2" t="n">
-        <v>-6.306530462837931</v>
+        <v>-18.87430751821584</v>
       </c>
     </row>
     <row r="3">
@@ -619,88 +619,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.918780152770438</v>
+        <v>5.656937683667614</v>
       </c>
       <c r="C3" t="n">
-        <v>-18.68750217281779</v>
+        <v>-4.063574963920525</v>
       </c>
       <c r="D3" t="n">
-        <v>4.850840988535269</v>
+        <v>-0.6166201201648933</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.202654061518766</v>
+        <v>-5.864418705858908</v>
       </c>
       <c r="F3" t="n">
-        <v>-18.59864772141261</v>
+        <v>-27.99400574365384</v>
       </c>
       <c r="G3" t="n">
-        <v>-28.63709737044843</v>
+        <v>-5.571676866713594</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.75008432018964</v>
+        <v>5.118459706021222</v>
       </c>
       <c r="I3" t="n">
-        <v>10.99463499235839</v>
+        <v>-6.182313170521376</v>
       </c>
       <c r="J3" t="n">
-        <v>-8.352964638611809</v>
+        <v>-24.07257975265898</v>
       </c>
       <c r="K3" t="n">
-        <v>-12.68127486086284</v>
+        <v>-17.46795446785801</v>
       </c>
       <c r="L3" t="n">
-        <v>6.292332973106571</v>
+        <v>-15.49640013662032</v>
       </c>
       <c r="M3" t="n">
-        <v>-5.05032035851053</v>
+        <v>9.717069394472466</v>
       </c>
       <c r="N3" t="n">
-        <v>-11.70714343478219</v>
+        <v>-9.95008561756962</v>
       </c>
       <c r="O3" t="n">
-        <v>4.495420104110288</v>
+        <v>-8.275991471862914</v>
       </c>
       <c r="P3" t="n">
-        <v>-18.48086937951824</v>
+        <v>-18.67438742517248</v>
       </c>
       <c r="Q3" t="n">
-        <v>-18.43229474007362</v>
+        <v>-8.093304810927178</v>
       </c>
       <c r="R3" t="n">
-        <v>-10.72909801623176</v>
+        <v>-10.52044141201541</v>
       </c>
       <c r="S3" t="n">
-        <v>-5.382764859338369</v>
+        <v>8.855208723234053</v>
       </c>
       <c r="T3" t="n">
-        <v>-11.75460140692715</v>
+        <v>-2.795447620479943</v>
       </c>
       <c r="U3" t="n">
-        <v>4.597855444809788</v>
+        <v>-2.89745137799231</v>
       </c>
       <c r="V3" t="n">
-        <v>4.274827858460775</v>
+        <v>-13.63254545692619</v>
       </c>
       <c r="W3" t="n">
-        <v>-11.04332460383623</v>
+        <v>-17.49151492599696</v>
       </c>
       <c r="X3" t="n">
-        <v>-16.51480145580243</v>
+        <v>-13.33711205731217</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.765718586627822</v>
+        <v>-4.942601812164465</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2.362286696530393</v>
+        <v>2.430480309840963</v>
       </c>
       <c r="AA3" t="n">
-        <v>-1.05280193735706</v>
+        <v>-23.41169750564287</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.92149427692717</v>
+        <v>-13.19271744045958</v>
       </c>
       <c r="AC3" t="n">
-        <v>-11.60605993936978</v>
+        <v>-8.658728459766811</v>
       </c>
     </row>
     <row r="4">
@@ -708,88 +708,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-15.86062993741037</v>
+        <v>-0.5271940106462876</v>
       </c>
       <c r="C4" t="n">
-        <v>-37.49848646085166</v>
+        <v>-1.462731607335836</v>
       </c>
       <c r="D4" t="n">
-        <v>6.143175118539514</v>
+        <v>3.405645718683505</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.191566992961546</v>
+        <v>-24.89192503159874</v>
       </c>
       <c r="F4" t="n">
-        <v>10.78013195772586</v>
+        <v>-14.2167142960401</v>
       </c>
       <c r="G4" t="n">
-        <v>14.44432304495886</v>
+        <v>-16.92354374425551</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.547580583525547</v>
+        <v>-1.75662539859232</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.92123028535687</v>
+        <v>-17.16942411034874</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.091753053757339</v>
+        <v>2.618493801905152</v>
       </c>
       <c r="K4" t="n">
-        <v>-11.5861407278693</v>
+        <v>1.574133440060493</v>
       </c>
       <c r="L4" t="n">
-        <v>-31.41024460360434</v>
+        <v>-6.759267259560799</v>
       </c>
       <c r="M4" t="n">
-        <v>5.039900994761432</v>
+        <v>-3.244319527953687</v>
       </c>
       <c r="N4" t="n">
-        <v>-13.30377119683042</v>
+        <v>-5.784131055827768</v>
       </c>
       <c r="O4" t="n">
-        <v>11.74898624970631</v>
+        <v>-5.745803707553843</v>
       </c>
       <c r="P4" t="n">
-        <v>-3.02195444735348</v>
+        <v>-13.47024711596733</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.043208970539757</v>
+        <v>2.440807539644007</v>
       </c>
       <c r="R4" t="n">
-        <v>1.509834282886282</v>
+        <v>8.056404759214471</v>
       </c>
       <c r="S4" t="n">
-        <v>6.878414534095931</v>
+        <v>-6.237570457692571</v>
       </c>
       <c r="T4" t="n">
-        <v>-8.009025707765609</v>
+        <v>-10.37586493623636</v>
       </c>
       <c r="U4" t="n">
-        <v>-2.149817579130762</v>
+        <v>-12.78274680213518</v>
       </c>
       <c r="V4" t="n">
-        <v>-5.902756059384062</v>
+        <v>-5.66662076768079</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.9990855778005763</v>
+        <v>1.048640028747908</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.9360318249446271</v>
+        <v>-12.69445849199233</v>
       </c>
       <c r="Y4" t="n">
-        <v>-9.203846366626504</v>
+        <v>-6.602894386592271</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7272928079699463</v>
+        <v>-23.52190485953975</v>
       </c>
       <c r="AA4" t="n">
-        <v>-2.492928481694035</v>
+        <v>6.480456137564097</v>
       </c>
       <c r="AB4" t="n">
-        <v>-4.43315312799047</v>
+        <v>-20.15700363877021</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.0561676474463</v>
+        <v>-25.80852967150537</v>
       </c>
     </row>
     <row r="5">
@@ -797,88 +797,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.307049226482884</v>
+        <v>22.25678520571658</v>
       </c>
       <c r="C5" t="n">
-        <v>-18.31177702386075</v>
+        <v>-11.15934054913207</v>
       </c>
       <c r="D5" t="n">
-        <v>14.58426889024993</v>
+        <v>8.586428905184038</v>
       </c>
       <c r="E5" t="n">
-        <v>-27.96039972310746</v>
+        <v>6.116064140463069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6400319194247972</v>
+        <v>-20.58215144332896</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.030601410388667</v>
+        <v>-5.178822829794589</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.002481811820146618</v>
+        <v>-8.842982813848021</v>
       </c>
       <c r="I5" t="n">
-        <v>1.74904783624232</v>
+        <v>8.516151983419096</v>
       </c>
       <c r="J5" t="n">
-        <v>-6.637595308531882</v>
+        <v>4.732306512985364</v>
       </c>
       <c r="K5" t="n">
-        <v>11.35458713725586</v>
+        <v>-5.25095806761124</v>
       </c>
       <c r="L5" t="n">
-        <v>3.452109652196393</v>
+        <v>-24.84188809328216</v>
       </c>
       <c r="M5" t="n">
-        <v>-21.02094466377864</v>
+        <v>16.66183094226214</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.88141378213998</v>
+        <v>-3.280869795353327</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2552826210067369</v>
+        <v>-16.83688789416203</v>
       </c>
       <c r="P5" t="n">
-        <v>-6.35524718257424</v>
+        <v>-26.59410585583478</v>
       </c>
       <c r="Q5" t="n">
-        <v>-13.7555745303224</v>
+        <v>11.44699678791686</v>
       </c>
       <c r="R5" t="n">
-        <v>-11.18912527882337</v>
+        <v>-10.12110627578856</v>
       </c>
       <c r="S5" t="n">
-        <v>5.502938105665026</v>
+        <v>-8.257499147882484</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2436600741754624</v>
+        <v>-14.12398311564749</v>
       </c>
       <c r="U5" t="n">
-        <v>-8.900823558789931</v>
+        <v>-21.47379335527631</v>
       </c>
       <c r="V5" t="n">
-        <v>-8.445346197899871</v>
+        <v>-0.249473955283749</v>
       </c>
       <c r="W5" t="n">
-        <v>-12.09801669846525</v>
+        <v>-0.7141017733442574</v>
       </c>
       <c r="X5" t="n">
-        <v>-4.367653411307558</v>
+        <v>-13.47168732302736</v>
       </c>
       <c r="Y5" t="n">
-        <v>-21.6473665548484</v>
+        <v>-7.076176994592592</v>
       </c>
       <c r="Z5" t="n">
-        <v>-19.72199058286041</v>
+        <v>18.55789097520877</v>
       </c>
       <c r="AA5" t="n">
-        <v>-6.389702305779709</v>
+        <v>-16.35237020300488</v>
       </c>
       <c r="AB5" t="n">
-        <v>-36.58294858303981</v>
+        <v>-1.277900275176144</v>
       </c>
       <c r="AC5" t="n">
-        <v>-6.098063176236179</v>
+        <v>-6.675990206332092</v>
       </c>
     </row>
     <row r="6">
@@ -886,88 +886,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-10.256131107663</v>
+        <v>-7.452205044514562</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4027341544394782</v>
+        <v>-19.14802628902627</v>
       </c>
       <c r="D6" t="n">
-        <v>8.249969743641561</v>
+        <v>6.00947598720451</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.7495811917833</v>
+        <v>-5.018771903422325</v>
       </c>
       <c r="F6" t="n">
-        <v>-14.39900866713526</v>
+        <v>-10.80182449527226</v>
       </c>
       <c r="G6" t="n">
-        <v>-22.1141402541064</v>
+        <v>-11.20837465044373</v>
       </c>
       <c r="H6" t="n">
-        <v>-20.72249260030528</v>
+        <v>9.962998442446825</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.939466587429093</v>
+        <v>3.120431173275954</v>
       </c>
       <c r="J6" t="n">
-        <v>4.129303377558472</v>
+        <v>2.3731242153039</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.03985593420634</v>
+        <v>-9.382185605793424</v>
       </c>
       <c r="L6" t="n">
-        <v>16.54095553711823</v>
+        <v>-13.02100109355566</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.626940177245953</v>
+        <v>16.83830358315561</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.906513894645159</v>
+        <v>2.54916567851441</v>
       </c>
       <c r="O6" t="n">
-        <v>-14.9603290017161</v>
+        <v>-2.401622585105463</v>
       </c>
       <c r="P6" t="n">
-        <v>-13.3074599944548</v>
+        <v>-23.78959873233004</v>
       </c>
       <c r="Q6" t="n">
-        <v>-4.298374769831523</v>
+        <v>9.063966879214755</v>
       </c>
       <c r="R6" t="n">
-        <v>-22.06929642369275</v>
+        <v>7.154751489446904</v>
       </c>
       <c r="S6" t="n">
-        <v>-13.52182245745411</v>
+        <v>-4.04546484590859</v>
       </c>
       <c r="T6" t="n">
-        <v>5.494019961924792</v>
+        <v>-10.41960078928038</v>
       </c>
       <c r="U6" t="n">
-        <v>9.81959898845078</v>
+        <v>-11.26224869002627</v>
       </c>
       <c r="V6" t="n">
-        <v>-9.62099516162681</v>
+        <v>-6.538879081023199</v>
       </c>
       <c r="W6" t="n">
-        <v>-22.19701807746178</v>
+        <v>-1.9268185148144</v>
       </c>
       <c r="X6" t="n">
-        <v>-10.10450343111889</v>
+        <v>3.962071553906346</v>
       </c>
       <c r="Y6" t="n">
-        <v>-17.81193361868653</v>
+        <v>-12.50847420186336</v>
       </c>
       <c r="Z6" t="n">
-        <v>-6.180425829727562</v>
+        <v>-8.024236104858884</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.519467662287116</v>
+        <v>-0.5268544960272434</v>
       </c>
       <c r="AB6" t="n">
-        <v>-10.58915753396352</v>
+        <v>-1.881056046719936</v>
       </c>
       <c r="AC6" t="n">
-        <v>-20.9632564190633</v>
+        <v>-3.096098860313953</v>
       </c>
     </row>
     <row r="7">
@@ -975,88 +975,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.37898163932199</v>
+        <v>8.928177440629328</v>
       </c>
       <c r="C7" t="n">
-        <v>3.645987090411629</v>
+        <v>-9.599558284261217</v>
       </c>
       <c r="D7" t="n">
-        <v>6.82797778577075</v>
+        <v>-8.620041921234858</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.736763849252652</v>
+        <v>-6.84086181529917</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.048843584506972</v>
+        <v>-3.280804188481263</v>
       </c>
       <c r="G7" t="n">
-        <v>17.44444770622606</v>
+        <v>3.44942857477798</v>
       </c>
       <c r="H7" t="n">
-        <v>5.551940391164069</v>
+        <v>-0.8961960059490375</v>
       </c>
       <c r="I7" t="n">
-        <v>-8.043693856185897</v>
+        <v>-12.54056282035652</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.338425329571743</v>
+        <v>2.603382309094592</v>
       </c>
       <c r="K7" t="n">
-        <v>-5.202279267506746</v>
+        <v>10.87964084912283</v>
       </c>
       <c r="L7" t="n">
-        <v>3.946881724347001</v>
+        <v>-25.13211248546193</v>
       </c>
       <c r="M7" t="n">
-        <v>-12.31253769703522</v>
+        <v>-10.66478520466582</v>
       </c>
       <c r="N7" t="n">
-        <v>-6.569652563862541</v>
+        <v>-0.2948981627880363</v>
       </c>
       <c r="O7" t="n">
-        <v>11.48158952688784</v>
+        <v>-8.446751122638783</v>
       </c>
       <c r="P7" t="n">
-        <v>-6.255991869747591</v>
+        <v>-16.55084400234571</v>
       </c>
       <c r="Q7" t="n">
-        <v>-22.51792485249323</v>
+        <v>-10.50531793206922</v>
       </c>
       <c r="R7" t="n">
-        <v>-13.63939234378708</v>
+        <v>-3.710131078096558</v>
       </c>
       <c r="S7" t="n">
-        <v>-15.91556899692294</v>
+        <v>3.671606789960128</v>
       </c>
       <c r="T7" t="n">
-        <v>7.869106063875437</v>
+        <v>2.26614783875152</v>
       </c>
       <c r="U7" t="n">
-        <v>12.05083873431043</v>
+        <v>-11.17665049723808</v>
       </c>
       <c r="V7" t="n">
-        <v>-9.821776774226066</v>
+        <v>8.639581142654176</v>
       </c>
       <c r="W7" t="n">
-        <v>-11.53049363537351</v>
+        <v>-10.69773689444762</v>
       </c>
       <c r="X7" t="n">
-        <v>-16.24315002665368</v>
+        <v>3.929437091226633</v>
       </c>
       <c r="Y7" t="n">
-        <v>-8.427720629818921</v>
+        <v>2.367087862366235</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.1192464781416511</v>
+        <v>-5.485180679952758</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.66879237646043</v>
+        <v>-23.28341132700253</v>
       </c>
       <c r="AB7" t="n">
-        <v>-20.42639336451125</v>
+        <v>-9.169628897809311</v>
       </c>
       <c r="AC7" t="n">
-        <v>-9.186148247223525</v>
+        <v>-23.25487839205935</v>
       </c>
     </row>
     <row r="8">
@@ -1064,88 +1064,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.205762963840527</v>
+        <v>3.339917462266368</v>
       </c>
       <c r="C8" t="n">
-        <v>17.32835092818692</v>
+        <v>-16.76254490771586</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.24822831834513</v>
+        <v>5.620734452568753</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.01868503106315</v>
+        <v>-15.29533538441833</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.85308156036431</v>
+        <v>-4.745367767444516</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4666346185401897</v>
+        <v>-4.687772388673794</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6607720986826413</v>
+        <v>-9.104470590730312</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.8829927966387645</v>
+        <v>14.02194240918645</v>
       </c>
       <c r="J8" t="n">
-        <v>-10.97293062373275</v>
+        <v>-23.79862935965109</v>
       </c>
       <c r="K8" t="n">
-        <v>-30.13513215258094</v>
+        <v>-21.36146387612956</v>
       </c>
       <c r="L8" t="n">
-        <v>-5.249535245494443</v>
+        <v>-23.11933123931115</v>
       </c>
       <c r="M8" t="n">
-        <v>5.884760229501939</v>
+        <v>-8.052432938247037</v>
       </c>
       <c r="N8" t="n">
-        <v>-16.80981426570755</v>
+        <v>5.157467484847711</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.5290242114474264</v>
+        <v>-12.55306958894912</v>
       </c>
       <c r="P8" t="n">
-        <v>2.53596635795215</v>
+        <v>-2.819774064827833</v>
       </c>
       <c r="Q8" t="n">
-        <v>-15.78830216569483</v>
+        <v>-7.176947830747449</v>
       </c>
       <c r="R8" t="n">
-        <v>-1.592518199177384</v>
+        <v>13.30049805935203</v>
       </c>
       <c r="S8" t="n">
-        <v>12.94718810294653</v>
+        <v>-8.036261154045276</v>
       </c>
       <c r="T8" t="n">
-        <v>-4.930124691619453</v>
+        <v>-8.647228992907124</v>
       </c>
       <c r="U8" t="n">
-        <v>-14.40822243299968</v>
+        <v>-15.37757693101511</v>
       </c>
       <c r="V8" t="n">
-        <v>-30.75702332806127</v>
+        <v>-9.829719991938772</v>
       </c>
       <c r="W8" t="n">
-        <v>6.536747587986819</v>
+        <v>-4.328807991436615</v>
       </c>
       <c r="X8" t="n">
-        <v>-19.0126104516947</v>
+        <v>-5.967849818450517</v>
       </c>
       <c r="Y8" t="n">
-        <v>-25.23847522071169</v>
+        <v>-2.421216738188384</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5911192140667794</v>
+        <v>0.6987816647620022</v>
       </c>
       <c r="AA8" t="n">
-        <v>-30.45565035399002</v>
+        <v>-15.7713777401968</v>
       </c>
       <c r="AB8" t="n">
-        <v>-10.81907640406603</v>
+        <v>-16.13975338765785</v>
       </c>
       <c r="AC8" t="n">
-        <v>-12.41064368010796</v>
+        <v>-10.12153825492346</v>
       </c>
     </row>
     <row r="9">
@@ -1153,88 +1153,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9625801431806056</v>
+        <v>8.325205904416398</v>
       </c>
       <c r="C9" t="n">
-        <v>-20.39251431479061</v>
+        <v>9.172698881901923</v>
       </c>
       <c r="D9" t="n">
-        <v>8.315358411005148</v>
+        <v>-6.389960404956467</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.178752632651547</v>
+        <v>-5.717106578769861</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.928739651667096</v>
+        <v>-7.815783500394391</v>
       </c>
       <c r="G9" t="n">
-        <v>12.28121194232201</v>
+        <v>8.260418997583397</v>
       </c>
       <c r="H9" t="n">
-        <v>3.096629059179401</v>
+        <v>9.580408057342904</v>
       </c>
       <c r="I9" t="n">
-        <v>15.78215504992358</v>
+        <v>-8.239219029499875</v>
       </c>
       <c r="J9" t="n">
-        <v>-17.98708516958648</v>
+        <v>-2.632910235880177</v>
       </c>
       <c r="K9" t="n">
-        <v>14.8637356873676</v>
+        <v>-5.724644082844224</v>
       </c>
       <c r="L9" t="n">
-        <v>-10.19127047378892</v>
+        <v>5.280300349949309</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.859109494917295</v>
+        <v>9.981776610876825</v>
       </c>
       <c r="N9" t="n">
-        <v>1.116338693521747</v>
+        <v>-14.9320181414544</v>
       </c>
       <c r="O9" t="n">
-        <v>8.013360530995522</v>
+        <v>-6.642943495248262</v>
       </c>
       <c r="P9" t="n">
-        <v>3.606324856584109</v>
+        <v>-21.73283567019086</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08187861386730644</v>
+        <v>8.078462219982184</v>
       </c>
       <c r="R9" t="n">
-        <v>6.737706433558158</v>
+        <v>17.1187864637538</v>
       </c>
       <c r="S9" t="n">
-        <v>8.968982691611277</v>
+        <v>13.95852655337831</v>
       </c>
       <c r="T9" t="n">
-        <v>-7.290263977841972</v>
+        <v>-6.580618091878465</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.8211725021185896</v>
+        <v>-10.61479402171786</v>
       </c>
       <c r="V9" t="n">
-        <v>-17.82987854479579</v>
+        <v>-13.62112396885865</v>
       </c>
       <c r="W9" t="n">
-        <v>-18.62872371424498</v>
+        <v>7.765873853892001</v>
       </c>
       <c r="X9" t="n">
-        <v>8.52744333888592</v>
+        <v>-3.974900707971837</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.90797549397166</v>
+        <v>3.213828005761057</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.768500967648063</v>
+        <v>6.197008588685009</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.501803174419637</v>
+        <v>-5.187306397445113</v>
       </c>
       <c r="AB9" t="n">
-        <v>-2.922220014511161</v>
+        <v>-14.87632996088338</v>
       </c>
       <c r="AC9" t="n">
-        <v>-12.54045662119488</v>
+        <v>1.55538649555522</v>
       </c>
     </row>
     <row r="10">
@@ -1242,88 +1242,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-9.678014726893279</v>
+        <v>5.10064582209543</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.33548670800597</v>
+        <v>-12.25622796473923</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.94010314905692</v>
+        <v>-16.86117984604725</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.44807992226231</v>
+        <v>-11.70542274050301</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.042520124366809</v>
+        <v>-20.02773364227497</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.584808260834606</v>
+        <v>-7.06407625523457</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.404377661416248</v>
+        <v>-6.126171180737831</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3386334883406645</v>
+        <v>8.925778763092588</v>
       </c>
       <c r="J10" t="n">
-        <v>-22.97642696065425</v>
+        <v>-16.27392605631479</v>
       </c>
       <c r="K10" t="n">
-        <v>-5.151091714849339</v>
+        <v>-22.93719087154579</v>
       </c>
       <c r="L10" t="n">
-        <v>2.53346043996091</v>
+        <v>-14.84590635770395</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.102504646414195</v>
+        <v>-24.4865158760512</v>
       </c>
       <c r="N10" t="n">
-        <v>-15.97668293818131</v>
+        <v>13.02201475809065</v>
       </c>
       <c r="O10" t="n">
-        <v>8.953833666359525</v>
+        <v>2.17141439995315</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.9625686676224383</v>
+        <v>-13.87391195261006</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.694219508233016</v>
+        <v>-2.855395732015197</v>
       </c>
       <c r="R10" t="n">
-        <v>3.288640621183392</v>
+        <v>-22.93089153934057</v>
       </c>
       <c r="S10" t="n">
-        <v>-4.842862661273087</v>
+        <v>-6.568473151799424</v>
       </c>
       <c r="T10" t="n">
-        <v>-6.137722749934894</v>
+        <v>-13.95698472953047</v>
       </c>
       <c r="U10" t="n">
-        <v>-2.323285692107901</v>
+        <v>-11.49721026864135</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.6864700597826712</v>
+        <v>1.468880308928389</v>
       </c>
       <c r="W10" t="n">
-        <v>-14.40393928630401</v>
+        <v>-3.731500402474451</v>
       </c>
       <c r="X10" t="n">
-        <v>-15.35484627805357</v>
+        <v>-32.15958503681524</v>
       </c>
       <c r="Y10" t="n">
-        <v>-18.25515873874981</v>
+        <v>-1.087420407140312</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.400747765284734</v>
+        <v>14.91042575456465</v>
       </c>
       <c r="AA10" t="n">
-        <v>-12.52898025214931</v>
+        <v>13.45900402611131</v>
       </c>
       <c r="AB10" t="n">
-        <v>-14.55088889082886</v>
+        <v>-24.20547679699599</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.523728144029375</v>
+        <v>-33.26842382379929</v>
       </c>
     </row>
     <row r="11">
@@ -1331,88 +1331,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.575436801153002</v>
+        <v>16.43433877541331</v>
       </c>
       <c r="C11" t="n">
-        <v>-18.36242737279046</v>
+        <v>1.408213695198183</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.69277611756043</v>
+        <v>-14.69512318329176</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.682140873192076</v>
+        <v>16.83677350260109</v>
       </c>
       <c r="F11" t="n">
-        <v>-23.43482616720362</v>
+        <v>-5.076158256870481</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9013778899476366</v>
+        <v>-9.58708400215734</v>
       </c>
       <c r="H11" t="n">
-        <v>-14.39157185317606</v>
+        <v>-37.41141134984601</v>
       </c>
       <c r="I11" t="n">
-        <v>-16.37267255135276</v>
+        <v>-6.281940039027541</v>
       </c>
       <c r="J11" t="n">
-        <v>-2.420594939784423</v>
+        <v>-8.108429898318018</v>
       </c>
       <c r="K11" t="n">
-        <v>-13.99595090777254</v>
+        <v>-5.316384946896756</v>
       </c>
       <c r="L11" t="n">
-        <v>-17.89284600365278</v>
+        <v>-21.11382877941813</v>
       </c>
       <c r="M11" t="n">
-        <v>1.051253953892918</v>
+        <v>6.791557165654174</v>
       </c>
       <c r="N11" t="n">
-        <v>3.056900084635026</v>
+        <v>-11.70334131714523</v>
       </c>
       <c r="O11" t="n">
-        <v>3.713530926993677</v>
+        <v>-5.863403796330956</v>
       </c>
       <c r="P11" t="n">
-        <v>-12.40371398663736</v>
+        <v>-28.48423305380835</v>
       </c>
       <c r="Q11" t="n">
-        <v>-7.566869129840448</v>
+        <v>11.18453329482848</v>
       </c>
       <c r="R11" t="n">
-        <v>-13.14227640217081</v>
+        <v>-1.251685223251966</v>
       </c>
       <c r="S11" t="n">
-        <v>8.263227301632718</v>
+        <v>15.41714253429531</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.073107344083783</v>
+        <v>2.636372971429859</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8246290749410718</v>
+        <v>-20.95140769176458</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.098045994294518</v>
+        <v>0.7151618040020553</v>
       </c>
       <c r="W11" t="n">
-        <v>-13.28302047630126</v>
+        <v>9.21194668287707</v>
       </c>
       <c r="X11" t="n">
-        <v>3.770949796156654</v>
+        <v>-20.45415409622567</v>
       </c>
       <c r="Y11" t="n">
-        <v>-27.61194696911686</v>
+        <v>8.879534926522025</v>
       </c>
       <c r="Z11" t="n">
-        <v>-18.72219382760465</v>
+        <v>1.091480022984049</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6520035853731798</v>
+        <v>-21.77824533571619</v>
       </c>
       <c r="AB11" t="n">
-        <v>-23.41695943882836</v>
+        <v>-10.93544049341101</v>
       </c>
       <c r="AC11" t="n">
-        <v>-27.11285640275469</v>
+        <v>-20.73295459275386</v>
       </c>
     </row>
   </sheetData>
@@ -1525,88 +1525,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2742974810086</v>
+        <v>13.9352823521258</v>
       </c>
       <c r="C2" t="n">
-        <v>4.22519219856507</v>
+        <v>-7.723389184828366</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.048154223657825</v>
+        <v>-11.6535009145276</v>
       </c>
       <c r="E2" t="n">
-        <v>1.081910297589112</v>
+        <v>-12.60852516744391</v>
       </c>
       <c r="F2" t="n">
-        <v>16.32848938273977</v>
+        <v>4.756382099937936</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.047124732362828</v>
+        <v>12.83230860082709</v>
       </c>
       <c r="H2" t="n">
-        <v>4.292726710137547</v>
+        <v>18.67672694676105</v>
       </c>
       <c r="I2" t="n">
-        <v>10.22815025831516</v>
+        <v>1.60671412088328</v>
       </c>
       <c r="J2" t="n">
-        <v>-17.86389770168569</v>
+        <v>25.91707495290544</v>
       </c>
       <c r="K2" t="n">
-        <v>3.349968001613224</v>
+        <v>7.526577910522604</v>
       </c>
       <c r="L2" t="n">
-        <v>12.19821087067874</v>
+        <v>2.581175235109446</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.032439088251875</v>
+        <v>13.25614856303503</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.795553845737233</v>
+        <v>-1.140297827922301</v>
       </c>
       <c r="O2" t="n">
-        <v>18.28880695337793</v>
+        <v>4.636549661257728</v>
       </c>
       <c r="P2" t="n">
-        <v>6.128927850021299</v>
+        <v>15.56823074488772</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.58544219595935</v>
+        <v>7.004898759997093</v>
       </c>
       <c r="R2" t="n">
-        <v>3.496638719450421</v>
+        <v>6.676644755330629</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.02168171286666</v>
+        <v>9.21173544606634</v>
       </c>
       <c r="T2" t="n">
-        <v>4.60842529208522</v>
+        <v>-0.2361239846886636</v>
       </c>
       <c r="U2" t="n">
-        <v>10.07239862895128</v>
+        <v>-4.427249266389672</v>
       </c>
       <c r="V2" t="n">
-        <v>1.305294113455815</v>
+        <v>4.638724077438159</v>
       </c>
       <c r="W2" t="n">
-        <v>-15.06441113323644</v>
+        <v>-0.2412768884816021</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.290396372239924</v>
+        <v>20.04899963656253</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.971601967457616</v>
+        <v>-1.860446585526729</v>
       </c>
       <c r="Z2" t="n">
-        <v>-17.20279267699325</v>
+        <v>10.70110626460758</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.2831561158409084</v>
+        <v>7.84683384998161</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.647466955929857</v>
+        <v>8.958796509542255</v>
       </c>
       <c r="AC2" t="n">
-        <v>-18.22747830344215</v>
+        <v>0.941141643141411</v>
       </c>
     </row>
     <row r="3">
@@ -1614,88 +1614,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.76633556073991</v>
+        <v>-12.93853154292981</v>
       </c>
       <c r="C3" t="n">
-        <v>-24.80007944412684</v>
+        <v>-9.564870478294532</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.092330409363785</v>
+        <v>-4.03808540763408</v>
       </c>
       <c r="E3" t="n">
-        <v>-22.98571472722604</v>
+        <v>-11.300175125354</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.83067957177677</v>
+        <v>-9.774374541579075</v>
       </c>
       <c r="G3" t="n">
-        <v>11.35291770238356</v>
+        <v>-11.85700398297471</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.603933203635177</v>
+        <v>-19.47786793970268</v>
       </c>
       <c r="I3" t="n">
-        <v>2.113986330271517</v>
+        <v>-17.26466438563266</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.087264700463304</v>
+        <v>3.770192348606194</v>
       </c>
       <c r="K3" t="n">
-        <v>-24.44532271715511</v>
+        <v>-12.67854739439881</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.018908916578909</v>
+        <v>-8.22426849926487</v>
       </c>
       <c r="M3" t="n">
-        <v>1.759259538778885</v>
+        <v>3.513633535969451</v>
       </c>
       <c r="N3" t="n">
-        <v>-15.48284929616216</v>
+        <v>1.006109318860175</v>
       </c>
       <c r="O3" t="n">
-        <v>8.198322543370367</v>
+        <v>-6.869594378333755</v>
       </c>
       <c r="P3" t="n">
-        <v>-8.606297388551319</v>
+        <v>26.66550126534688</v>
       </c>
       <c r="Q3" t="n">
-        <v>-9.863848595505498</v>
+        <v>-7.648409688794644</v>
       </c>
       <c r="R3" t="n">
-        <v>-23.31615857424706</v>
+        <v>9.043849545373696</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6728764781843566</v>
+        <v>-7.908356225922494</v>
       </c>
       <c r="T3" t="n">
-        <v>-6.899129179864131</v>
+        <v>5.300336791242243</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.8132819798714968</v>
+        <v>6.946847592467796</v>
       </c>
       <c r="V3" t="n">
-        <v>15.44547827582673</v>
+        <v>6.945955807941179</v>
       </c>
       <c r="W3" t="n">
-        <v>7.431246301770529</v>
+        <v>-1.359366159063832</v>
       </c>
       <c r="X3" t="n">
-        <v>-7.674880236714749</v>
+        <v>15.73548993516236</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.21412821530298</v>
+        <v>-15.90153058358981</v>
       </c>
       <c r="Z3" t="n">
-        <v>-4.165582200308132</v>
+        <v>14.34047163058322</v>
       </c>
       <c r="AA3" t="n">
-        <v>-3.445249166831084</v>
+        <v>-13.98937855884653</v>
       </c>
       <c r="AB3" t="n">
-        <v>-6.59257790515827</v>
+        <v>-21.232643817188</v>
       </c>
       <c r="AC3" t="n">
-        <v>-24.10027823801568</v>
+        <v>6.507498694924303</v>
       </c>
     </row>
     <row r="4">
@@ -1703,88 +1703,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.643876451626117</v>
+        <v>-0.02350068281681339</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.21833696509514</v>
+        <v>1.158006593541742</v>
       </c>
       <c r="D4" t="n">
-        <v>3.073869837871182</v>
+        <v>1.355749876320194</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.55543885284949</v>
+        <v>-1.959017877200502</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.424927608695437</v>
+        <v>-5.826652780799565</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.031453905337878</v>
+        <v>-1.987380805555722</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6030637036096804</v>
+        <v>-15.72211778985848</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.89002015307363</v>
+        <v>-7.606932279230525</v>
       </c>
       <c r="J4" t="n">
-        <v>0.870106264632188</v>
+        <v>4.269624954878597</v>
       </c>
       <c r="K4" t="n">
-        <v>7.83393819317822</v>
+        <v>-0.5361532633078944</v>
       </c>
       <c r="L4" t="n">
-        <v>11.20631121118813</v>
+        <v>2.786282808880073</v>
       </c>
       <c r="M4" t="n">
-        <v>6.27564751347266</v>
+        <v>13.54273436870387</v>
       </c>
       <c r="N4" t="n">
-        <v>-15.06281016550525</v>
+        <v>-15.67622218450991</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.098425777637219</v>
+        <v>7.818182831808895</v>
       </c>
       <c r="P4" t="n">
-        <v>-9.140668085317389</v>
+        <v>18.7477568086284</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.710183541699328</v>
+        <v>3.748946919156344</v>
       </c>
       <c r="R4" t="n">
-        <v>9.586043489765764</v>
+        <v>-4.802695310208776</v>
       </c>
       <c r="S4" t="n">
-        <v>2.34816392467709</v>
+        <v>-2.619768596196836</v>
       </c>
       <c r="T4" t="n">
-        <v>12.40325831686414</v>
+        <v>-17.19342487330019</v>
       </c>
       <c r="U4" t="n">
-        <v>-16.89896971651492</v>
+        <v>9.158057612250269</v>
       </c>
       <c r="V4" t="n">
-        <v>8.722008119350866</v>
+        <v>-0.1871612801449045</v>
       </c>
       <c r="W4" t="n">
-        <v>-9.177678355470917</v>
+        <v>-1.653938412405137</v>
       </c>
       <c r="X4" t="n">
-        <v>2.312207104608221</v>
+        <v>17.09386461526199</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.364565321403119</v>
+        <v>-0.7685810218132094</v>
       </c>
       <c r="Z4" t="n">
-        <v>-14.33847077509514</v>
+        <v>18.6650314103255</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.24501742083828</v>
+        <v>0.81886851438289</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.721179523109397</v>
+        <v>-0.82896149794795</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.071035370649936</v>
+        <v>8.222719059920081</v>
       </c>
     </row>
     <row r="5">
@@ -1792,88 +1792,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-12.28238689368376</v>
+        <v>-4.942188658690542</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.856988194308423</v>
+        <v>-4.787105405312452</v>
       </c>
       <c r="D5" t="n">
-        <v>8.172697303009397</v>
+        <v>-16.27663799286681</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9121064221477919</v>
+        <v>-12.35631640148926</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.92725490064934</v>
+        <v>-6.834273245914538</v>
       </c>
       <c r="G5" t="n">
-        <v>-16.85118275937795</v>
+        <v>12.85259729741376</v>
       </c>
       <c r="H5" t="n">
-        <v>1.555418473396564</v>
+        <v>10.96298152665737</v>
       </c>
       <c r="I5" t="n">
-        <v>2.86446181077101</v>
+        <v>-9.612018525182698</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2535590382666234</v>
+        <v>9.80362626307485</v>
       </c>
       <c r="K5" t="n">
-        <v>9.672789503567815</v>
+        <v>-12.22274738264447</v>
       </c>
       <c r="L5" t="n">
-        <v>-4.847822722197068</v>
+        <v>8.500114457421802</v>
       </c>
       <c r="M5" t="n">
-        <v>1.954867743468737</v>
+        <v>7.540462349345236</v>
       </c>
       <c r="N5" t="n">
-        <v>6.503986227463859</v>
+        <v>-7.32665739711362</v>
       </c>
       <c r="O5" t="n">
-        <v>8.502847162654062</v>
+        <v>7.00273977569709</v>
       </c>
       <c r="P5" t="n">
-        <v>9.05047890054399</v>
+        <v>11.55743553727623</v>
       </c>
       <c r="Q5" t="n">
-        <v>-9.031073969882836</v>
+        <v>-21.02832197708528</v>
       </c>
       <c r="R5" t="n">
-        <v>7.61320511094607</v>
+        <v>-3.514811138131003</v>
       </c>
       <c r="S5" t="n">
-        <v>-8.423225480159063</v>
+        <v>4.319418593354923</v>
       </c>
       <c r="T5" t="n">
-        <v>6.70525890704041</v>
+        <v>14.53333078524723</v>
       </c>
       <c r="U5" t="n">
-        <v>-6.904147028215209</v>
+        <v>-16.20766309461752</v>
       </c>
       <c r="V5" t="n">
-        <v>-2.77975799593836</v>
+        <v>0.5150539424911711</v>
       </c>
       <c r="W5" t="n">
-        <v>-6.801853317323892</v>
+        <v>-15.02564787803575</v>
       </c>
       <c r="X5" t="n">
-        <v>-2.119399048298214</v>
+        <v>22.44878363979578</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.08169194142956598</v>
+        <v>-12.80623987042432</v>
       </c>
       <c r="Z5" t="n">
-        <v>-5.377694895340074</v>
+        <v>-2.448525613160524</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7701598989244793</v>
+        <v>23.8260829751779</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.151206089493916</v>
+        <v>-8.244051225495484</v>
       </c>
       <c r="AC5" t="n">
-        <v>-5.49666287286496</v>
+        <v>-1.379444899840553</v>
       </c>
     </row>
     <row r="6">
@@ -1881,88 +1881,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.19985613429452</v>
+        <v>5.652562517368181</v>
       </c>
       <c r="C6" t="n">
-        <v>8.711796579941975</v>
+        <v>5.673280529487664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8828588118667273</v>
+        <v>-6.614933063250625</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.79210839423654</v>
+        <v>-19.49897503347071</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.166453000433558</v>
+        <v>6.508507404725348</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.252783893164375</v>
+        <v>1.497996963058899</v>
       </c>
       <c r="H6" t="n">
-        <v>-20.91667507341062</v>
+        <v>-0.2813195781093309</v>
       </c>
       <c r="I6" t="n">
-        <v>13.56093742278086</v>
+        <v>-14.9213655032898</v>
       </c>
       <c r="J6" t="n">
-        <v>2.748538495633626</v>
+        <v>4.861165318182737</v>
       </c>
       <c r="K6" t="n">
-        <v>-5.709358472811839</v>
+        <v>-9.587905633040899</v>
       </c>
       <c r="L6" t="n">
-        <v>2.593380935132143</v>
+        <v>-18.78811919417797</v>
       </c>
       <c r="M6" t="n">
-        <v>2.239772839249763</v>
+        <v>-1.626993807247963</v>
       </c>
       <c r="N6" t="n">
-        <v>7.952949638521069</v>
+        <v>-0.3068072183617516</v>
       </c>
       <c r="O6" t="n">
-        <v>-4.106337176298609</v>
+        <v>1.090358725689388</v>
       </c>
       <c r="P6" t="n">
-        <v>6.980384530542214</v>
+        <v>14.90238231305845</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.55719942214225</v>
+        <v>-12.51711120317713</v>
       </c>
       <c r="R6" t="n">
-        <v>5.946362815330804</v>
+        <v>2.68055026829375</v>
       </c>
       <c r="S6" t="n">
-        <v>-1.914811724969208</v>
+        <v>-0.9202231721373704</v>
       </c>
       <c r="T6" t="n">
-        <v>13.44910016623391</v>
+        <v>-5.043205097068752</v>
       </c>
       <c r="U6" t="n">
-        <v>2.144796132867101</v>
+        <v>-0.5731694327960897</v>
       </c>
       <c r="V6" t="n">
-        <v>22.40665277938017</v>
+        <v>-1.262640691047033</v>
       </c>
       <c r="W6" t="n">
-        <v>-5.546001437437713</v>
+        <v>9.097265550912292</v>
       </c>
       <c r="X6" t="n">
-        <v>3.463182278020852</v>
+        <v>24.60515991933313</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.808339186298713</v>
+        <v>-5.058529164925149</v>
       </c>
       <c r="Z6" t="n">
-        <v>-14.2555303023105</v>
+        <v>16.38330298399891</v>
       </c>
       <c r="AA6" t="n">
-        <v>16.65813986273669</v>
+        <v>18.53144952884462</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.623203192729071</v>
+        <v>-15.2954106113184</v>
       </c>
       <c r="AC6" t="n">
-        <v>-14.3415091945396</v>
+        <v>-11.6679283931347</v>
       </c>
     </row>
     <row r="7">
@@ -1970,88 +1970,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.031198363269027</v>
+        <v>0.9431315342755164</v>
       </c>
       <c r="C7" t="n">
-        <v>6.475347492606397</v>
+        <v>-19.91416228065533</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.181784359595749</v>
+        <v>1.809240078318712</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.300120808972544</v>
+        <v>-0.4876287671106536</v>
       </c>
       <c r="F7" t="n">
-        <v>19.88223920240852</v>
+        <v>-9.931077227444227</v>
       </c>
       <c r="G7" t="n">
-        <v>4.264886796222656</v>
+        <v>-17.50998386481902</v>
       </c>
       <c r="H7" t="n">
-        <v>13.14716567349398</v>
+        <v>4.671960042694856</v>
       </c>
       <c r="I7" t="n">
-        <v>3.499639635712746</v>
+        <v>-7.069236155877908</v>
       </c>
       <c r="J7" t="n">
-        <v>6.526213835455323</v>
+        <v>12.86738928125682</v>
       </c>
       <c r="K7" t="n">
-        <v>6.242843834712991</v>
+        <v>-5.401965458021964</v>
       </c>
       <c r="L7" t="n">
-        <v>6.052134478907719</v>
+        <v>9.39446063247415</v>
       </c>
       <c r="M7" t="n">
-        <v>-12.94849271766877</v>
+        <v>-2.058084303845751</v>
       </c>
       <c r="N7" t="n">
-        <v>1.100532224049357</v>
+        <v>0.001179111108434272</v>
       </c>
       <c r="O7" t="n">
-        <v>2.678937345856394</v>
+        <v>-0.3573308164455005</v>
       </c>
       <c r="P7" t="n">
-        <v>7.764083554222138</v>
+        <v>1.149558539542634</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.853598703131843</v>
+        <v>1.288535842783798</v>
       </c>
       <c r="R7" t="n">
-        <v>-9.286605302426418</v>
+        <v>-7.779762460140162</v>
       </c>
       <c r="S7" t="n">
-        <v>7.661805670656854</v>
+        <v>1.927199878448509</v>
       </c>
       <c r="T7" t="n">
-        <v>-2.993440159752979</v>
+        <v>0.0955404360409513</v>
       </c>
       <c r="U7" t="n">
-        <v>2.713941793461379</v>
+        <v>-0.50024040758378</v>
       </c>
       <c r="V7" t="n">
-        <v>5.342419646530177</v>
+        <v>13.69436181788293</v>
       </c>
       <c r="W7" t="n">
-        <v>-13.51085609597419</v>
+        <v>-0.1800700659488886</v>
       </c>
       <c r="X7" t="n">
-        <v>23.75948876123799</v>
+        <v>24.73429343733068</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.473758194739302</v>
+        <v>-5.665075263928262</v>
       </c>
       <c r="Z7" t="n">
-        <v>-27.30619347872095</v>
+        <v>-0.2373691923568044</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.084028306691164</v>
+        <v>-1.314990995713612</v>
       </c>
       <c r="AB7" t="n">
-        <v>-3.343795879648347</v>
+        <v>-21.03459229144002</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.002399003707964</v>
+        <v>9.718828579080286</v>
       </c>
     </row>
     <row r="8">
@@ -2059,88 +2059,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.279190637080313</v>
+        <v>4.180179536728103</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.10575091485329</v>
+        <v>-27.12609329862154</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5921223555846788</v>
+        <v>-30.25233869868467</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.435253326185322</v>
+        <v>-10.74996760602466</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.491680969921504</v>
+        <v>8.643207389929128</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.94049048562669</v>
+        <v>3.658312046899237</v>
       </c>
       <c r="H8" t="n">
-        <v>3.638500512058449</v>
+        <v>11.57652064311379</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9560038202248196</v>
+        <v>-25.06543530896961</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.931408788862971</v>
+        <v>2.534327500102302</v>
       </c>
       <c r="K8" t="n">
-        <v>4.711862419641115</v>
+        <v>-2.510496536114979</v>
       </c>
       <c r="L8" t="n">
-        <v>1.04464510703525</v>
+        <v>-16.28646751889332</v>
       </c>
       <c r="M8" t="n">
-        <v>-9.960446210511424</v>
+        <v>11.07643895533089</v>
       </c>
       <c r="N8" t="n">
-        <v>10.39007472847754</v>
+        <v>-11.31020493490532</v>
       </c>
       <c r="O8" t="n">
-        <v>-14.2979859813599</v>
+        <v>1.807989094578438</v>
       </c>
       <c r="P8" t="n">
-        <v>-9.74226363860428</v>
+        <v>8.771719112737339</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.24729866434983</v>
+        <v>-9.922520491814922</v>
       </c>
       <c r="R8" t="n">
-        <v>-5.82168118631624</v>
+        <v>-7.405271671376851</v>
       </c>
       <c r="S8" t="n">
-        <v>-5.990715401333481</v>
+        <v>2.808570130916613</v>
       </c>
       <c r="T8" t="n">
-        <v>-7.37688262752215</v>
+        <v>-22.11735411720143</v>
       </c>
       <c r="U8" t="n">
-        <v>-3.485888900249823</v>
+        <v>-1.022051927153649</v>
       </c>
       <c r="V8" t="n">
-        <v>15.09957459620499</v>
+        <v>10.03562747559233</v>
       </c>
       <c r="W8" t="n">
-        <v>4.036711269801816</v>
+        <v>-11.01786889353434</v>
       </c>
       <c r="X8" t="n">
-        <v>-1.393542652034677</v>
+        <v>2.844116170692734</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.454410948508437</v>
+        <v>4.227027091572905</v>
       </c>
       <c r="Z8" t="n">
-        <v>-2.234879237752275</v>
+        <v>5.996458089021125</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.18175115502682</v>
+        <v>1.752467488200098</v>
       </c>
       <c r="AB8" t="n">
-        <v>-3.218001301423086</v>
+        <v>-9.520562974343601</v>
       </c>
       <c r="AC8" t="n">
-        <v>-18.63572471061731</v>
+        <v>-6.551588300785128</v>
       </c>
     </row>
     <row r="9">
@@ -2148,88 +2148,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.53293289748098</v>
+        <v>1.807091918965632</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.256549335559515</v>
+        <v>0.01751252249881885</v>
       </c>
       <c r="D9" t="n">
-        <v>2.243789941464979</v>
+        <v>0.9668788120933417</v>
       </c>
       <c r="E9" t="n">
-        <v>12.00479827139257</v>
+        <v>4.059202656654088</v>
       </c>
       <c r="F9" t="n">
-        <v>8.338429705598077</v>
+        <v>-0.0602699922185348</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.016964290689773</v>
+        <v>-1.417512953077812</v>
       </c>
       <c r="H9" t="n">
-        <v>-18.0508668475472</v>
+        <v>-11.799391422975</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9026547814410539</v>
+        <v>1.59945789428439</v>
       </c>
       <c r="J9" t="n">
-        <v>16.40346123251621</v>
+        <v>5.137996007016167</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.371183125127968</v>
+        <v>13.43108020463259</v>
       </c>
       <c r="L9" t="n">
-        <v>-14.80516469148443</v>
+        <v>-4.354618829003529</v>
       </c>
       <c r="M9" t="n">
-        <v>-11.96987053572422</v>
+        <v>7.356117771515897</v>
       </c>
       <c r="N9" t="n">
-        <v>-20.05516560307087</v>
+        <v>5.399651101228917</v>
       </c>
       <c r="O9" t="n">
-        <v>-3.479161979384497</v>
+        <v>6.357941582646628</v>
       </c>
       <c r="P9" t="n">
-        <v>-9.239009513518662</v>
+        <v>-0.5273659509067192</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.264927991618101</v>
+        <v>-6.397855349382465</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4867182768786593</v>
+        <v>17.27646432269344</v>
       </c>
       <c r="S9" t="n">
-        <v>22.01708647974909</v>
+        <v>-0.9561695343040815</v>
       </c>
       <c r="T9" t="n">
-        <v>-2.758932611159645</v>
+        <v>-11.12065972747501</v>
       </c>
       <c r="U9" t="n">
-        <v>1.651584744248207</v>
+        <v>-3.177100207995086</v>
       </c>
       <c r="V9" t="n">
-        <v>3.996819094748861</v>
+        <v>22.72558784019399</v>
       </c>
       <c r="W9" t="n">
-        <v>14.650894294434</v>
+        <v>4.112662609916614</v>
       </c>
       <c r="X9" t="n">
-        <v>14.08604686578264</v>
+        <v>16.62440219949679</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.825404107350309</v>
+        <v>-2.862288660115162</v>
       </c>
       <c r="Z9" t="n">
-        <v>-3.453406155105851</v>
+        <v>16.64391111750154</v>
       </c>
       <c r="AA9" t="n">
-        <v>-2.593637536362905</v>
+        <v>-0.8355100515036895</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.31416131170587</v>
+        <v>5.62003823293723</v>
       </c>
       <c r="AC9" t="n">
-        <v>-9.830687429372626</v>
+        <v>1.177851752631309</v>
       </c>
     </row>
     <row r="10">
@@ -2237,88 +2237,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.959397954473769</v>
+        <v>-1.695208265161907</v>
       </c>
       <c r="C10" t="n">
-        <v>-24.15959884415862</v>
+        <v>-14.30956299197324</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.09688969265548</v>
+        <v>-4.551633505811457</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.05709878263154</v>
+        <v>-8.084390846230932</v>
       </c>
       <c r="F10" t="n">
-        <v>6.082927791564513</v>
+        <v>8.069443664641959</v>
       </c>
       <c r="G10" t="n">
-        <v>3.773710426680001</v>
+        <v>-14.73439667114705</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.681246432514596</v>
+        <v>16.67292151655113</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.65970505949959</v>
+        <v>-4.914648230308895</v>
       </c>
       <c r="J10" t="n">
-        <v>1.942925059375004</v>
+        <v>34.76209312693595</v>
       </c>
       <c r="K10" t="n">
-        <v>9.051330992452375</v>
+        <v>-1.789086005801251</v>
       </c>
       <c r="L10" t="n">
-        <v>-3.71445335331619</v>
+        <v>13.65691030026015</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.2665995546330513</v>
+        <v>-3.448104168937106</v>
       </c>
       <c r="N10" t="n">
-        <v>9.77702305008887</v>
+        <v>2.976102498856603</v>
       </c>
       <c r="O10" t="n">
-        <v>-6.028231001875385</v>
+        <v>4.808013573418799</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4233395947115637</v>
+        <v>7.004793285696799</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.42636111420904</v>
+        <v>-2.098745091206017</v>
       </c>
       <c r="R10" t="n">
-        <v>-7.31257997531976</v>
+        <v>11.96118952346273</v>
       </c>
       <c r="S10" t="n">
-        <v>-18.93733295282682</v>
+        <v>-1.978195103884925</v>
       </c>
       <c r="T10" t="n">
-        <v>-9.472005155124712</v>
+        <v>2.177906099698185</v>
       </c>
       <c r="U10" t="n">
-        <v>17.70676872008573</v>
+        <v>8.537513522295901</v>
       </c>
       <c r="V10" t="n">
-        <v>8.426035626566875</v>
+        <v>-7.153476481631463</v>
       </c>
       <c r="W10" t="n">
-        <v>7.764365437725647</v>
+        <v>5.86269174255166</v>
       </c>
       <c r="X10" t="n">
-        <v>13.92512061361957</v>
+        <v>-4.116091804408349</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.90517758666823</v>
+        <v>2.826381858181068</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.131488865092971</v>
+        <v>24.15228790573747</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.002246103852231</v>
+        <v>4.697154947746225</v>
       </c>
       <c r="AB10" t="n">
-        <v>-2.884695674044696</v>
+        <v>-6.952978273567574</v>
       </c>
       <c r="AC10" t="n">
-        <v>-12.98770653218227</v>
+        <v>-3.653501364389435</v>
       </c>
     </row>
     <row r="11">
@@ -2326,88 +2326,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-8.123211900645117</v>
+        <v>8.843026718052297</v>
       </c>
       <c r="C11" t="n">
-        <v>6.626371686773317</v>
+        <v>3.314111623964521</v>
       </c>
       <c r="D11" t="n">
-        <v>4.536464750194553</v>
+        <v>-6.864973936370693</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.552322980879524</v>
+        <v>-13.45815283507916</v>
       </c>
       <c r="F11" t="n">
-        <v>-16.46126516970143</v>
+        <v>-5.762587405671467</v>
       </c>
       <c r="G11" t="n">
-        <v>6.85240967332393</v>
+        <v>-18.11448716781447</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4351186507890121</v>
+        <v>1.888436332731849</v>
       </c>
       <c r="I11" t="n">
-        <v>-16.20888289180036</v>
+        <v>-11.75862664696298</v>
       </c>
       <c r="J11" t="n">
-        <v>1.996534942309087</v>
+        <v>4.290924923436993</v>
       </c>
       <c r="K11" t="n">
-        <v>20.50307929659883</v>
+        <v>-12.06564385022101</v>
       </c>
       <c r="L11" t="n">
-        <v>21.20853758875075</v>
+        <v>10.01084249179579</v>
       </c>
       <c r="M11" t="n">
-        <v>1.610528786005547</v>
+        <v>7.403945755549818</v>
       </c>
       <c r="N11" t="n">
-        <v>-8.732971528831511</v>
+        <v>-2.894329037817478</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.713741539861923</v>
+        <v>4.478028614240583</v>
       </c>
       <c r="P11" t="n">
-        <v>1.708967941299643</v>
+        <v>-7.060027124506182</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.18125641252811</v>
+        <v>-24.43244061032616</v>
       </c>
       <c r="R11" t="n">
-        <v>2.661229699891337</v>
+        <v>7.234039441783707</v>
       </c>
       <c r="S11" t="n">
-        <v>15.15585146237859</v>
+        <v>0.5849326206696055</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.228063731214693</v>
+        <v>-25.19156914554526</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1017803714432184</v>
+        <v>-8.035929449265707</v>
       </c>
       <c r="V11" t="n">
-        <v>17.32740970200311</v>
+        <v>-4.004875859205225</v>
       </c>
       <c r="W11" t="n">
-        <v>16.93579653190482</v>
+        <v>-17.43067051130814</v>
       </c>
       <c r="X11" t="n">
-        <v>5.054846594610939</v>
+        <v>13.47585645617554</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.52192433570222</v>
+        <v>-10.24385376515454</v>
       </c>
       <c r="Z11" t="n">
-        <v>-11.52507225611993</v>
+        <v>-0.7057010805220567</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.585378871614138</v>
+        <v>-16.84267782060795</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.7221223649438229</v>
+        <v>-9.971683939826137</v>
       </c>
       <c r="AC11" t="n">
-        <v>-4.676033415039701</v>
+        <v>-10.3423650414028</v>
       </c>
     </row>
   </sheetData>
@@ -2520,88 +2520,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.867831336889653</v>
+        <v>25.10087526656086</v>
       </c>
       <c r="C2" t="n">
-        <v>4.109163678234495</v>
+        <v>8.647543348324859</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.764696356171694</v>
+        <v>-0.5330468975273589</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3909398092020617</v>
+        <v>-10.54022258507803</v>
       </c>
       <c r="F2" t="n">
-        <v>5.782583646382069</v>
+        <v>7.243226398910529</v>
       </c>
       <c r="G2" t="n">
-        <v>15.79627741793363</v>
+        <v>-0.4094348192527248</v>
       </c>
       <c r="H2" t="n">
-        <v>4.628775167254442</v>
+        <v>-13.22861482154199</v>
       </c>
       <c r="I2" t="n">
-        <v>13.52077447665494</v>
+        <v>7.211507982427872</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.933385854093545</v>
+        <v>-4.406210080023205</v>
       </c>
       <c r="K2" t="n">
-        <v>2.645834153755042</v>
+        <v>-8.32000559545156</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.074414322188794</v>
+        <v>-12.44097584665127</v>
       </c>
       <c r="M2" t="n">
-        <v>4.542190300822646</v>
+        <v>-19.17362276670366</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.212550073122926</v>
+        <v>-3.528610394714935</v>
       </c>
       <c r="O2" t="n">
-        <v>-27.10517620415566</v>
+        <v>9.804974120118469</v>
       </c>
       <c r="P2" t="n">
-        <v>16.22532776160689</v>
+        <v>-15.22911197228517</v>
       </c>
       <c r="Q2" t="n">
-        <v>-12.06447669840784</v>
+        <v>1.652844485045451</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.429656757566209</v>
+        <v>-1.501153317073292</v>
       </c>
       <c r="S2" t="n">
-        <v>-14.16219412238689</v>
+        <v>-1.196884066006265</v>
       </c>
       <c r="T2" t="n">
-        <v>-5.780401395510201</v>
+        <v>5.882988182169958</v>
       </c>
       <c r="U2" t="n">
-        <v>-10.9695168841224</v>
+        <v>-3.524223390138909</v>
       </c>
       <c r="V2" t="n">
-        <v>-29.68719484788275</v>
+        <v>1.371756307215239</v>
       </c>
       <c r="W2" t="n">
-        <v>-4.841502247765036</v>
+        <v>-20.72453325066368</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.523417570652521</v>
+        <v>-19.33811564767228</v>
       </c>
       <c r="Y2" t="n">
-        <v>-27.43193777093128</v>
+        <v>3.841148240686682</v>
       </c>
       <c r="Z2" t="n">
-        <v>-9.191581804802601</v>
+        <v>-18.14605010739014</v>
       </c>
       <c r="AA2" t="n">
-        <v>-38.64489323153001</v>
+        <v>-25.86352882584177</v>
       </c>
       <c r="AB2" t="n">
-        <v>-32.23930207498751</v>
+        <v>-34.04757303033135</v>
       </c>
       <c r="AC2" t="n">
-        <v>-58.1218669235803</v>
+        <v>-33.19672484900324</v>
       </c>
     </row>
     <row r="3">
@@ -2609,88 +2609,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.823650916156221</v>
+        <v>3.671443080979328</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3369698284907807</v>
+        <v>-10.9663003169785</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.109734090293305</v>
+        <v>-17.96381140177144</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.742473120844579</v>
+        <v>-29.74012297461138</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.02145956823606</v>
+        <v>-10.71501368243557</v>
       </c>
       <c r="G3" t="n">
-        <v>4.270244960602297</v>
+        <v>4.33319201611615</v>
       </c>
       <c r="H3" t="n">
-        <v>-10.52269118639084</v>
+        <v>-10.30900458384037</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2510339666701995</v>
+        <v>-11.11140529656655</v>
       </c>
       <c r="J3" t="n">
-        <v>3.553411912975274</v>
+        <v>4.675274108782181</v>
       </c>
       <c r="K3" t="n">
-        <v>-19.36428725047101</v>
+        <v>-8.921541990305274</v>
       </c>
       <c r="L3" t="n">
-        <v>12.74138341953811</v>
+        <v>-5.885871527392883</v>
       </c>
       <c r="M3" t="n">
-        <v>4.015270282722931</v>
+        <v>-14.28646960188167</v>
       </c>
       <c r="N3" t="n">
-        <v>-27.72243321194866</v>
+        <v>-15.42664869206445</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1587049466044057</v>
+        <v>-19.79261189302804</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.4693895241703565</v>
+        <v>-21.45373109330045</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.33827614588117</v>
+        <v>-9.87231565084371</v>
       </c>
       <c r="R3" t="n">
-        <v>-7.22222808600615</v>
+        <v>-20.59805764092355</v>
       </c>
       <c r="S3" t="n">
-        <v>-9.505373258581665</v>
+        <v>-22.52790472677211</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.7105822132666155</v>
+        <v>11.61536198461647</v>
       </c>
       <c r="U3" t="n">
-        <v>1.865738849002035</v>
+        <v>-16.20769475264294</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8443841968473684</v>
+        <v>-9.947482393506681</v>
       </c>
       <c r="W3" t="n">
-        <v>-7.394326164345857</v>
+        <v>-25.36828130469217</v>
       </c>
       <c r="X3" t="n">
-        <v>-17.45306656817947</v>
+        <v>-27.83297464439917</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.094748253980029</v>
+        <v>-40.92440280339638</v>
       </c>
       <c r="Z3" t="n">
-        <v>-38.8563221128433</v>
+        <v>-24.85664872256381</v>
       </c>
       <c r="AA3" t="n">
-        <v>-40.40019719011181</v>
+        <v>-24.71605080009314</v>
       </c>
       <c r="AB3" t="n">
-        <v>-35.95427549706335</v>
+        <v>-46.56937372849887</v>
       </c>
       <c r="AC3" t="n">
-        <v>-59.59968409099304</v>
+        <v>-64.55884004684822</v>
       </c>
     </row>
     <row r="4">
@@ -2698,88 +2698,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.634667253994751</v>
+        <v>19.41625229294962</v>
       </c>
       <c r="C4" t="n">
-        <v>6.812265368115401</v>
+        <v>-4.928325740593572</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.086401476854219</v>
+        <v>13.70779864778869</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.46036829991812</v>
+        <v>-1.318700159898021</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.915550408999463</v>
+        <v>7.96607121116585</v>
       </c>
       <c r="G4" t="n">
-        <v>10.22836440004973</v>
+        <v>-0.3568406976633973</v>
       </c>
       <c r="H4" t="n">
-        <v>-17.00619841589536</v>
+        <v>5.467892631974285</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.153923087334126</v>
+        <v>4.154628787347487</v>
       </c>
       <c r="J4" t="n">
-        <v>3.048373267517627</v>
+        <v>4.079674728274906</v>
       </c>
       <c r="K4" t="n">
-        <v>-9.870689373863613</v>
+        <v>6.24725980176203</v>
       </c>
       <c r="L4" t="n">
-        <v>-11.85775079311915</v>
+        <v>18.22085701099787</v>
       </c>
       <c r="M4" t="n">
-        <v>-9.757012101123212</v>
+        <v>-14.41638228563489</v>
       </c>
       <c r="N4" t="n">
-        <v>-16.52879088444613</v>
+        <v>-11.2423963235837</v>
       </c>
       <c r="O4" t="n">
-        <v>3.676126198227171</v>
+        <v>1.08929403245562</v>
       </c>
       <c r="P4" t="n">
-        <v>-15.00313928552505</v>
+        <v>-11.79445409177243</v>
       </c>
       <c r="Q4" t="n">
-        <v>-27.64852047617848</v>
+        <v>-14.58274636809353</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7579903713402159</v>
+        <v>-17.35678263954165</v>
       </c>
       <c r="S4" t="n">
-        <v>-11.01963535869262</v>
+        <v>-3.435348131222239</v>
       </c>
       <c r="T4" t="n">
-        <v>-27.65962097880632</v>
+        <v>4.459847894029057</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3037435249966993</v>
+        <v>1.574771077986865</v>
       </c>
       <c r="V4" t="n">
-        <v>-12.69911463670079</v>
+        <v>-23.09505319809719</v>
       </c>
       <c r="W4" t="n">
-        <v>2.284587900913303</v>
+        <v>-27.24765409763179</v>
       </c>
       <c r="X4" t="n">
-        <v>-34.68631042309962</v>
+        <v>-14.70865058054924</v>
       </c>
       <c r="Y4" t="n">
-        <v>-16.9949348338448</v>
+        <v>17.05526270220875</v>
       </c>
       <c r="Z4" t="n">
-        <v>-30.41162687894202</v>
+        <v>-11.00259380442337</v>
       </c>
       <c r="AA4" t="n">
-        <v>-28.02704357196727</v>
+        <v>-27.94094408844602</v>
       </c>
       <c r="AB4" t="n">
-        <v>-35.05434990806113</v>
+        <v>-42.11877724361035</v>
       </c>
       <c r="AC4" t="n">
-        <v>-54.87786824459205</v>
+        <v>-48.18319009094382</v>
       </c>
     </row>
     <row r="5">
@@ -2787,88 +2787,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.49447716149391</v>
+        <v>-3.372172550723437</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.394703353526246</v>
+        <v>22.7323021681369</v>
       </c>
       <c r="D5" t="n">
-        <v>-12.37100252500226</v>
+        <v>-2.684048713312516</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.37791803593202</v>
+        <v>-2.914496224305402</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4094109921592124</v>
+        <v>18.55904064486995</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.688315232764225</v>
+        <v>-23.72196514681631</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.449345758276014</v>
+        <v>8.764266147657999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2000698849436202</v>
+        <v>-11.99861364492788</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.371360321619484</v>
+        <v>-8.029476639626758</v>
       </c>
       <c r="K5" t="n">
-        <v>-9.54126746939934</v>
+        <v>7.7868246767911</v>
       </c>
       <c r="L5" t="n">
-        <v>5.140732614741212</v>
+        <v>-9.016285467464098</v>
       </c>
       <c r="M5" t="n">
-        <v>-20.60738014417059</v>
+        <v>-8.970877396575222</v>
       </c>
       <c r="N5" t="n">
-        <v>10.3882957648289</v>
+        <v>4.273104945888761</v>
       </c>
       <c r="O5" t="n">
-        <v>2.102846193282851</v>
+        <v>-20.00945265524316</v>
       </c>
       <c r="P5" t="n">
-        <v>-8.742984208965211</v>
+        <v>-1.319178695604179</v>
       </c>
       <c r="Q5" t="n">
-        <v>-2.18908073235846</v>
+        <v>-31.42519841880064</v>
       </c>
       <c r="R5" t="n">
-        <v>-10.43691120965499</v>
+        <v>-6.931030497499142</v>
       </c>
       <c r="S5" t="n">
-        <v>-23.81427928377171</v>
+        <v>-12.15968985389425</v>
       </c>
       <c r="T5" t="n">
-        <v>-6.595990884249323</v>
+        <v>-4.925942057600588</v>
       </c>
       <c r="U5" t="n">
-        <v>-10.14627969650144</v>
+        <v>-26.34206677790877</v>
       </c>
       <c r="V5" t="n">
-        <v>-18.29610301474439</v>
+        <v>-24.42548725890774</v>
       </c>
       <c r="W5" t="n">
-        <v>-20.5767692051016</v>
+        <v>-21.27798663723703</v>
       </c>
       <c r="X5" t="n">
-        <v>-18.50921719887332</v>
+        <v>-11.99742567744837</v>
       </c>
       <c r="Y5" t="n">
-        <v>-38.16112871291301</v>
+        <v>-21.10248590989823</v>
       </c>
       <c r="Z5" t="n">
-        <v>-29.7340133344779</v>
+        <v>-22.67497417501577</v>
       </c>
       <c r="AA5" t="n">
-        <v>-31.87855490338969</v>
+        <v>-11.75608531860539</v>
       </c>
       <c r="AB5" t="n">
-        <v>-27.94314317953405</v>
+        <v>-39.50163796503941</v>
       </c>
       <c r="AC5" t="n">
-        <v>-62.76317490092302</v>
+        <v>-41.19919884980985</v>
       </c>
     </row>
     <row r="6">
@@ -2876,88 +2876,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-26.5203427187115</v>
+        <v>5.230594598386048</v>
       </c>
       <c r="C6" t="n">
-        <v>-14.64457700956287</v>
+        <v>-16.13887426739765</v>
       </c>
       <c r="D6" t="n">
-        <v>-12.08552470835796</v>
+        <v>-4.219246031874387</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.62457312385456</v>
+        <v>-22.19459377020231</v>
       </c>
       <c r="F6" t="n">
-        <v>-18.86983118541471</v>
+        <v>15.66389590885465</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.595733083410311</v>
+        <v>-16.52234559752647</v>
       </c>
       <c r="H6" t="n">
-        <v>13.30844619958053</v>
+        <v>-2.975774138222588</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.292396793972747</v>
+        <v>5.990629176925269</v>
       </c>
       <c r="J6" t="n">
-        <v>-20.66048077209225</v>
+        <v>-11.18079633458076</v>
       </c>
       <c r="K6" t="n">
-        <v>4.154274962939874</v>
+        <v>0.3124060883950595</v>
       </c>
       <c r="L6" t="n">
-        <v>15.51017355881442</v>
+        <v>13.87151013794112</v>
       </c>
       <c r="M6" t="n">
-        <v>-24.38177021819487</v>
+        <v>1.465089771167531</v>
       </c>
       <c r="N6" t="n">
-        <v>-9.054585621642621</v>
+        <v>-15.44997848879675</v>
       </c>
       <c r="O6" t="n">
-        <v>3.202754654992273</v>
+        <v>-5.168540669321179</v>
       </c>
       <c r="P6" t="n">
-        <v>-11.378233384068</v>
+        <v>-18.40683741562586</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.91190052930737</v>
+        <v>14.46692587589763</v>
       </c>
       <c r="R6" t="n">
-        <v>12.74242596561924</v>
+        <v>-22.92769540264394</v>
       </c>
       <c r="S6" t="n">
-        <v>-11.75777618859515</v>
+        <v>-20.76831195262747</v>
       </c>
       <c r="T6" t="n">
-        <v>-6.220773487087566</v>
+        <v>-7.307882775511109</v>
       </c>
       <c r="U6" t="n">
-        <v>2.955399136429874</v>
+        <v>-1.987211444621125</v>
       </c>
       <c r="V6" t="n">
-        <v>-15.34222751521931</v>
+        <v>-23.88087534831896</v>
       </c>
       <c r="W6" t="n">
-        <v>-4.442080002948743</v>
+        <v>-6.060961748146776</v>
       </c>
       <c r="X6" t="n">
-        <v>-19.47046919767373</v>
+        <v>-17.32379226925728</v>
       </c>
       <c r="Y6" t="n">
-        <v>-14.88312011910482</v>
+        <v>-6.093229309654021</v>
       </c>
       <c r="Z6" t="n">
-        <v>-13.66325097623131</v>
+        <v>-11.73405374804966</v>
       </c>
       <c r="AA6" t="n">
-        <v>-41.0666803933256</v>
+        <v>-17.6661545304506</v>
       </c>
       <c r="AB6" t="n">
-        <v>-20.38270632046623</v>
+        <v>-8.944648114385959</v>
       </c>
       <c r="AC6" t="n">
-        <v>-59.73643506500072</v>
+        <v>-53.9390258272631</v>
       </c>
     </row>
     <row r="7">
@@ -2965,88 +2965,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-17.63386700513803</v>
+        <v>-1.271787087646203</v>
       </c>
       <c r="C7" t="n">
-        <v>6.130647121980289</v>
+        <v>-7.459638201324587</v>
       </c>
       <c r="D7" t="n">
-        <v>2.845012903122834</v>
+        <v>-9.21180024021033</v>
       </c>
       <c r="E7" t="n">
-        <v>1.482843825744126</v>
+        <v>-1.584939114353545</v>
       </c>
       <c r="F7" t="n">
-        <v>1.068071053045443</v>
+        <v>13.02796799895235</v>
       </c>
       <c r="G7" t="n">
-        <v>12.27103870363241</v>
+        <v>3.167673949354808</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.868288730541001</v>
+        <v>-0.3671807749559299</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.697745138677824</v>
+        <v>-10.52704480946936</v>
       </c>
       <c r="J7" t="n">
-        <v>1.653825474635523</v>
+        <v>-13.10383925149564</v>
       </c>
       <c r="K7" t="n">
-        <v>2.780593559708682</v>
+        <v>-29.33105864727269</v>
       </c>
       <c r="L7" t="n">
-        <v>-9.679967163851526</v>
+        <v>-12.47631376187016</v>
       </c>
       <c r="M7" t="n">
-        <v>-7.589336283847619</v>
+        <v>-9.315969681452408</v>
       </c>
       <c r="N7" t="n">
-        <v>-23.07124590329543</v>
+        <v>-0.7190104027932778</v>
       </c>
       <c r="O7" t="n">
-        <v>2.486980037208846</v>
+        <v>-9.463932872412578</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.216591349925193</v>
+        <v>-6.040586418692316</v>
       </c>
       <c r="Q7" t="n">
-        <v>-20.55378516257343</v>
+        <v>4.217123032833064</v>
       </c>
       <c r="R7" t="n">
-        <v>-27.12020694361654</v>
+        <v>-13.15808936383241</v>
       </c>
       <c r="S7" t="n">
-        <v>-13.06287620012911</v>
+        <v>-11.80685702191716</v>
       </c>
       <c r="T7" t="n">
-        <v>-6.589020953237817</v>
+        <v>-3.611935745679411</v>
       </c>
       <c r="U7" t="n">
-        <v>-21.88692398717082</v>
+        <v>3.099321049443134</v>
       </c>
       <c r="V7" t="n">
-        <v>-22.59637437553068</v>
+        <v>-3.941086047594899</v>
       </c>
       <c r="W7" t="n">
-        <v>-21.65064478850618</v>
+        <v>-12.33603092334726</v>
       </c>
       <c r="X7" t="n">
-        <v>-31.90180181075243</v>
+        <v>-19.217855256689</v>
       </c>
       <c r="Y7" t="n">
-        <v>-27.97057948640823</v>
+        <v>-18.65925037464188</v>
       </c>
       <c r="Z7" t="n">
-        <v>-18.38422623747147</v>
+        <v>-10.36860437610771</v>
       </c>
       <c r="AA7" t="n">
-        <v>-42.39148984958634</v>
+        <v>-40.28909111960207</v>
       </c>
       <c r="AB7" t="n">
-        <v>-45.69518066354298</v>
+        <v>-29.50003906256686</v>
       </c>
       <c r="AC7" t="n">
-        <v>-72.23444864758466</v>
+        <v>-56.6036108976941</v>
       </c>
     </row>
     <row r="8">
@@ -3054,88 +3054,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.646503055471079</v>
+        <v>12.07349350166186</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.40260461321948</v>
+        <v>-9.238037908411231</v>
       </c>
       <c r="D8" t="n">
-        <v>12.92877083992878</v>
+        <v>11.01668456480452</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.771346097700416</v>
+        <v>-11.68634826166199</v>
       </c>
       <c r="F8" t="n">
-        <v>13.30697199464793</v>
+        <v>3.831285693544254</v>
       </c>
       <c r="G8" t="n">
-        <v>19.40582770759934</v>
+        <v>5.036367614245971</v>
       </c>
       <c r="H8" t="n">
-        <v>-19.32113057325101</v>
+        <v>-14.17758772846939</v>
       </c>
       <c r="I8" t="n">
-        <v>8.160174156255922</v>
+        <v>-8.017724446559486</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0628490620239619</v>
+        <v>-21.34975056136344</v>
       </c>
       <c r="K8" t="n">
-        <v>-13.86919958600846</v>
+        <v>-8.811968716668844</v>
       </c>
       <c r="L8" t="n">
-        <v>3.532469833754026</v>
+        <v>8.253531685951792</v>
       </c>
       <c r="M8" t="n">
-        <v>-13.59955322175004</v>
+        <v>-9.998197055166434</v>
       </c>
       <c r="N8" t="n">
-        <v>-12.76869695431326</v>
+        <v>-10.57138681623049</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9591102364879722</v>
+        <v>-25.97363283390063</v>
       </c>
       <c r="P8" t="n">
-        <v>-19.55429487091436</v>
+        <v>-12.23013707603555</v>
       </c>
       <c r="Q8" t="n">
-        <v>-5.876276994908947</v>
+        <v>-22.51821131964921</v>
       </c>
       <c r="R8" t="n">
-        <v>-6.482154591940233</v>
+        <v>-33.93638355994649</v>
       </c>
       <c r="S8" t="n">
-        <v>-13.02671502526177</v>
+        <v>1.447986918997001</v>
       </c>
       <c r="T8" t="n">
-        <v>-5.158535161697896</v>
+        <v>-17.9043254780922</v>
       </c>
       <c r="U8" t="n">
-        <v>10.95810197976563</v>
+        <v>-25.63801847158972</v>
       </c>
       <c r="V8" t="n">
-        <v>-26.93787741678643</v>
+        <v>-19.7345304464932</v>
       </c>
       <c r="W8" t="n">
-        <v>-22.76443081798292</v>
+        <v>3.378111757520095</v>
       </c>
       <c r="X8" t="n">
-        <v>-35.83363522183703</v>
+        <v>-28.53181278507726</v>
       </c>
       <c r="Y8" t="n">
-        <v>-19.28381466455139</v>
+        <v>-19.34899770122817</v>
       </c>
       <c r="Z8" t="n">
-        <v>-20.0002623447511</v>
+        <v>-11.22731012348887</v>
       </c>
       <c r="AA8" t="n">
-        <v>-36.61533675454342</v>
+        <v>-26.32975642564391</v>
       </c>
       <c r="AB8" t="n">
-        <v>-18.9355412706653</v>
+        <v>-47.71052463292363</v>
       </c>
       <c r="AC8" t="n">
-        <v>-54.10497184947977</v>
+        <v>-61.42751104939739</v>
       </c>
     </row>
     <row r="9">
@@ -3143,88 +3143,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.49694319152535</v>
+        <v>13.76562528495972</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.973621541165871</v>
+        <v>-24.63648297481929</v>
       </c>
       <c r="D9" t="n">
-        <v>17.9372516852608</v>
+        <v>-5.59791882814211</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.516990835817355</v>
+        <v>-14.12217198679902</v>
       </c>
       <c r="F9" t="n">
-        <v>20.66076963401802</v>
+        <v>12.31171949444896</v>
       </c>
       <c r="G9" t="n">
-        <v>8.86287365105591</v>
+        <v>-25.4782636007964</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.765143291249046</v>
+        <v>-0.9166175083297896</v>
       </c>
       <c r="I9" t="n">
-        <v>16.89117620189563</v>
+        <v>-4.228561263711125</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.355516773579516</v>
+        <v>14.58567789542018</v>
       </c>
       <c r="K9" t="n">
-        <v>-8.357260063720631</v>
+        <v>10.40706850222533</v>
       </c>
       <c r="L9" t="n">
-        <v>-6.135958241601434</v>
+        <v>9.948598115180346</v>
       </c>
       <c r="M9" t="n">
-        <v>11.35059465890109</v>
+        <v>0.4434684934060185</v>
       </c>
       <c r="N9" t="n">
-        <v>-6.933823310263457</v>
+        <v>-4.671714650173144</v>
       </c>
       <c r="O9" t="n">
-        <v>-6.409103220720058</v>
+        <v>-9.848111602811485</v>
       </c>
       <c r="P9" t="n">
-        <v>5.145304952113627</v>
+        <v>-14.03855662153543</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.121340844064144</v>
+        <v>8.252102884489862</v>
       </c>
       <c r="R9" t="n">
-        <v>11.40378642258842</v>
+        <v>-14.20491064515518</v>
       </c>
       <c r="S9" t="n">
-        <v>5.169947141311719</v>
+        <v>-3.133331124802242</v>
       </c>
       <c r="T9" t="n">
-        <v>-13.89101722213545</v>
+        <v>2.518745520608418</v>
       </c>
       <c r="U9" t="n">
-        <v>-18.2145787068407</v>
+        <v>-5.987541232067649</v>
       </c>
       <c r="V9" t="n">
-        <v>-12.38937017422797</v>
+        <v>-4.896796700300146</v>
       </c>
       <c r="W9" t="n">
-        <v>8.592927059913759</v>
+        <v>-27.05972903256992</v>
       </c>
       <c r="X9" t="n">
-        <v>-14.46614839048227</v>
+        <v>-33.86553831528474</v>
       </c>
       <c r="Y9" t="n">
-        <v>-21.58098590988567</v>
+        <v>-1.180800129157648</v>
       </c>
       <c r="Z9" t="n">
-        <v>-28.44883557960569</v>
+        <v>-1.254825924041597</v>
       </c>
       <c r="AA9" t="n">
-        <v>-33.51184071192553</v>
+        <v>-17.18084909616439</v>
       </c>
       <c r="AB9" t="n">
-        <v>-8.55616208015967</v>
+        <v>-31.44192822759785</v>
       </c>
       <c r="AC9" t="n">
-        <v>-57.07382441579487</v>
+        <v>-56.75921349622176</v>
       </c>
     </row>
     <row r="10">
@@ -3232,88 +3232,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.26775640416892</v>
+        <v>-6.468574043518958</v>
       </c>
       <c r="C10" t="n">
-        <v>9.476555027718177</v>
+        <v>-12.46352446482815</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.70086619704858</v>
+        <v>-3.080579695577368</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.836648638394767</v>
+        <v>2.139845206676181</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.072954494574006</v>
+        <v>2.673363075612206</v>
       </c>
       <c r="G10" t="n">
-        <v>6.005554554766229</v>
+        <v>-5.982647150843207</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7889186262577201</v>
+        <v>-9.902831282494144</v>
       </c>
       <c r="I10" t="n">
-        <v>22.16324474940162</v>
+        <v>-21.47717478719752</v>
       </c>
       <c r="J10" t="n">
-        <v>-12.05899635867614</v>
+        <v>-12.53926422375326</v>
       </c>
       <c r="K10" t="n">
-        <v>-17.74877203084242</v>
+        <v>9.678538887904885</v>
       </c>
       <c r="L10" t="n">
-        <v>-5.399967100592535</v>
+        <v>-6.302492419720465</v>
       </c>
       <c r="M10" t="n">
-        <v>-11.58357832379535</v>
+        <v>9.170129952747182</v>
       </c>
       <c r="N10" t="n">
-        <v>-13.63594643713444</v>
+        <v>-23.42516289615293</v>
       </c>
       <c r="O10" t="n">
-        <v>-8.527623681711701</v>
+        <v>-6.08537540485686</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.335848505915156</v>
+        <v>-23.98443266915791</v>
       </c>
       <c r="Q10" t="n">
-        <v>-27.06630347496651</v>
+        <v>-7.187146360555729</v>
       </c>
       <c r="R10" t="n">
-        <v>9.495259190693602</v>
+        <v>-22.12546969211572</v>
       </c>
       <c r="S10" t="n">
-        <v>-22.49502150077532</v>
+        <v>-3.081151766913175</v>
       </c>
       <c r="T10" t="n">
-        <v>4.961366340488745</v>
+        <v>7.015011962416642</v>
       </c>
       <c r="U10" t="n">
-        <v>1.155934270227492</v>
+        <v>-2.725692838841992</v>
       </c>
       <c r="V10" t="n">
-        <v>-29.62077634663865</v>
+        <v>7.28518306013134</v>
       </c>
       <c r="W10" t="n">
-        <v>-1.931178374572612</v>
+        <v>-27.80248080131923</v>
       </c>
       <c r="X10" t="n">
-        <v>-27.19818073702439</v>
+        <v>-35.39486507225904</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.091608935439805</v>
+        <v>-19.57443357612789</v>
       </c>
       <c r="Z10" t="n">
-        <v>-19.51800216510527</v>
+        <v>-33.69908246452403</v>
       </c>
       <c r="AA10" t="n">
-        <v>-53.11826826097099</v>
+        <v>-43.8540224193513</v>
       </c>
       <c r="AB10" t="n">
-        <v>-41.62702713914381</v>
+        <v>-38.2641975693782</v>
       </c>
       <c r="AC10" t="n">
-        <v>-55.04513078510986</v>
+        <v>-46.27235851881969</v>
       </c>
     </row>
     <row r="11">
@@ -3321,88 +3321,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-21.90538751343524</v>
+        <v>-12.41896790703635</v>
       </c>
       <c r="C11" t="n">
-        <v>3.691611951043015</v>
+        <v>-2.74975277749963</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3704181071771924</v>
+        <v>3.764570698319861</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.8805368483926</v>
+        <v>4.118558038552308</v>
       </c>
       <c r="F11" t="n">
-        <v>-25.82494126746312</v>
+        <v>12.56861038696156</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.722863768708662</v>
+        <v>-11.95391792142739</v>
       </c>
       <c r="H11" t="n">
-        <v>-25.86344239367757</v>
+        <v>-13.94926693736624</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9569471455809508</v>
+        <v>-20.14993474388777</v>
       </c>
       <c r="J11" t="n">
-        <v>4.487276328268421</v>
+        <v>-10.62225164607832</v>
       </c>
       <c r="K11" t="n">
-        <v>-9.235528610471627</v>
+        <v>-2.218179506654907</v>
       </c>
       <c r="L11" t="n">
-        <v>-18.89402718083687</v>
+        <v>-1.028983866965005</v>
       </c>
       <c r="M11" t="n">
-        <v>-23.47491357665195</v>
+        <v>2.814307686464729</v>
       </c>
       <c r="N11" t="n">
-        <v>-14.91601499411964</v>
+        <v>-7.16722784617478</v>
       </c>
       <c r="O11" t="n">
-        <v>13.86283455475672</v>
+        <v>-6.906848990108564</v>
       </c>
       <c r="P11" t="n">
-        <v>9.806799420854386</v>
+        <v>-10.63498811332676</v>
       </c>
       <c r="Q11" t="n">
-        <v>-6.642910314601988</v>
+        <v>-20.33165639543941</v>
       </c>
       <c r="R11" t="n">
-        <v>8.752898091734281</v>
+        <v>-29.71475960342768</v>
       </c>
       <c r="S11" t="n">
-        <v>-25.02541601602452</v>
+        <v>-25.95985799496166</v>
       </c>
       <c r="T11" t="n">
-        <v>-10.89445766340452</v>
+        <v>0.7353504382189051</v>
       </c>
       <c r="U11" t="n">
-        <v>1.377072405761544</v>
+        <v>-23.86333613875378</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.620295595466974</v>
+        <v>4.456400172840562</v>
       </c>
       <c r="W11" t="n">
-        <v>12.11917553202905</v>
+        <v>-7.200166806866955</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.993501927430939</v>
+        <v>-29.67499188895065</v>
       </c>
       <c r="Y11" t="n">
-        <v>-25.4300047046118</v>
+        <v>-8.378688739539255</v>
       </c>
       <c r="Z11" t="n">
-        <v>-13.62725783619151</v>
+        <v>-9.572261010844661</v>
       </c>
       <c r="AA11" t="n">
-        <v>-27.03272841333028</v>
+        <v>-37.68890950886228</v>
       </c>
       <c r="AB11" t="n">
-        <v>-42.99240255411764</v>
+        <v>-38.2285416854951</v>
       </c>
       <c r="AC11" t="n">
-        <v>-43.00334870520246</v>
+        <v>-51.09011144112972</v>
       </c>
     </row>
   </sheetData>
@@ -3515,88 +3515,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-26.75198035552735</v>
+        <v>5.034327185376478</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.893221211589541</v>
+        <v>8.725793407929054</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.65910144695067</v>
+        <v>11.14068652348553</v>
       </c>
       <c r="E2" t="n">
-        <v>24.04795474417703</v>
+        <v>-14.92823866602968</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.844168171927462</v>
+        <v>-8.032155997988893</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.408773693403061</v>
+        <v>9.51839496064877</v>
       </c>
       <c r="H2" t="n">
-        <v>9.184805309926249</v>
+        <v>9.766884391744224</v>
       </c>
       <c r="I2" t="n">
-        <v>-17.60740564175653</v>
+        <v>4.714950677002454</v>
       </c>
       <c r="J2" t="n">
-        <v>19.29745505085962</v>
+        <v>-16.05909433592189</v>
       </c>
       <c r="K2" t="n">
-        <v>6.409674493835089</v>
+        <v>-3.114722517253238</v>
       </c>
       <c r="L2" t="n">
-        <v>6.937118010851874</v>
+        <v>-6.658103829396911</v>
       </c>
       <c r="M2" t="n">
-        <v>5.627792139193682</v>
+        <v>-11.35270709788994</v>
       </c>
       <c r="N2" t="n">
-        <v>7.929131707510594</v>
+        <v>5.25168616502688</v>
       </c>
       <c r="O2" t="n">
-        <v>-10.60740393756138</v>
+        <v>-2.683678099838923</v>
       </c>
       <c r="P2" t="n">
-        <v>-3.777916331870867</v>
+        <v>4.270937709596722</v>
       </c>
       <c r="Q2" t="n">
-        <v>-3.659158365766054</v>
+        <v>11.84844108251939</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.242214833819118</v>
+        <v>-5.518933930288444</v>
       </c>
       <c r="S2" t="n">
-        <v>1.220699082128625</v>
+        <v>7.086598902771249</v>
       </c>
       <c r="T2" t="n">
-        <v>9.697162338900714</v>
+        <v>15.30035021451014</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.168741860576037</v>
+        <v>-4.881401053940222</v>
       </c>
       <c r="V2" t="n">
-        <v>10.30546310038431</v>
+        <v>-15.14739733988759</v>
       </c>
       <c r="W2" t="n">
-        <v>-25.79388536831613</v>
+        <v>1.16074854120848</v>
       </c>
       <c r="X2" t="n">
-        <v>4.923012358174299</v>
+        <v>-8.038753166146712</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.63284129405912</v>
+        <v>-15.21745932827952</v>
       </c>
       <c r="Z2" t="n">
-        <v>-7.689106560097274</v>
+        <v>-28.41318699179632</v>
       </c>
       <c r="AA2" t="n">
-        <v>-22.32304922614559</v>
+        <v>-21.28459516196307</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.625504268832315</v>
+        <v>-6.229661443487784</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7690037708438364</v>
+        <v>-17.06380485717716</v>
       </c>
     </row>
     <row r="3">
@@ -3604,88 +3604,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.465303204347645</v>
+        <v>6.200720144037915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02899167808201675</v>
+        <v>-27.70093146060444</v>
       </c>
       <c r="D3" t="n">
-        <v>-15.85932868030611</v>
+        <v>17.70343518633461</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.629023978414279</v>
+        <v>-17.6681390221945</v>
       </c>
       <c r="F3" t="n">
-        <v>-9.909871949220973</v>
+        <v>-12.45808162792864</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4186324972678213</v>
+        <v>-12.81667643075931</v>
       </c>
       <c r="H3" t="n">
-        <v>-23.35673756156208</v>
+        <v>-3.474020942075571</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.078292812510961</v>
+        <v>-5.811731199834471</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.555873450778305</v>
+        <v>-2.276925470676192</v>
       </c>
       <c r="K3" t="n">
-        <v>-15.35616309958476</v>
+        <v>-8.15398423594816</v>
       </c>
       <c r="L3" t="n">
-        <v>18.88639579720377</v>
+        <v>-20.71806911541508</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.480166280212099</v>
+        <v>-9.510916137556928</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.563795718070898</v>
+        <v>-23.7488314377674</v>
       </c>
       <c r="O3" t="n">
-        <v>-8.163914021710333</v>
+        <v>4.342238184612843</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2940895862726</v>
+        <v>-12.95835986338349</v>
       </c>
       <c r="Q3" t="n">
-        <v>-6.99421709832006</v>
+        <v>-17.29585410372816</v>
       </c>
       <c r="R3" t="n">
-        <v>-23.03803810500445</v>
+        <v>12.93820475641429</v>
       </c>
       <c r="S3" t="n">
-        <v>-7.757968123638843</v>
+        <v>-13.53627968085604</v>
       </c>
       <c r="T3" t="n">
-        <v>-14.70525888749956</v>
+        <v>-7.330064376900848</v>
       </c>
       <c r="U3" t="n">
-        <v>3.334395122638805</v>
+        <v>-17.80151571769138</v>
       </c>
       <c r="V3" t="n">
-        <v>-15.17790136160473</v>
+        <v>-9.464776844170817</v>
       </c>
       <c r="W3" t="n">
-        <v>-23.11187047037781</v>
+        <v>-10.25579265617296</v>
       </c>
       <c r="X3" t="n">
-        <v>-3.486549810239032</v>
+        <v>4.688177983561049</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.159468797272579</v>
+        <v>-32.97047316684868</v>
       </c>
       <c r="Z3" t="n">
-        <v>-12.69432414966493</v>
+        <v>-9.841576628687278</v>
       </c>
       <c r="AA3" t="n">
-        <v>-16.59856537673697</v>
+        <v>-4.632093645634635</v>
       </c>
       <c r="AB3" t="n">
-        <v>-7.808836324234842</v>
+        <v>2.077865853104793</v>
       </c>
       <c r="AC3" t="n">
-        <v>-17.02536374577585</v>
+        <v>-30.57624966394076</v>
       </c>
     </row>
     <row r="4">
@@ -3693,88 +3693,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.124858163028003</v>
+        <v>4.447640237525874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9559779862431963</v>
+        <v>13.67225905309513</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04528810318830123</v>
+        <v>-1.768034277056241</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.191163057870025</v>
+        <v>10.35643348063827</v>
       </c>
       <c r="F4" t="n">
-        <v>6.436691996396746</v>
+        <v>-25.88342113515112</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.787818100419832</v>
+        <v>-16.79408060046467</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.303039037561252</v>
+        <v>-2.2027071874204</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.844090834185417</v>
+        <v>-6.552959195025236</v>
       </c>
       <c r="J4" t="n">
-        <v>-25.22306941388613</v>
+        <v>0.8537815591548021</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.731925335938711</v>
+        <v>-19.06112467068503</v>
       </c>
       <c r="L4" t="n">
-        <v>20.52594216462991</v>
+        <v>2.224210037860937</v>
       </c>
       <c r="M4" t="n">
-        <v>-11.01730117235674</v>
+        <v>-4.7069941594472</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.851684709041693</v>
+        <v>-4.439322253974566</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57188685422251</v>
+        <v>-8.662028887729919</v>
       </c>
       <c r="P4" t="n">
-        <v>-5.086899002985578</v>
+        <v>6.860264376542133</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3.500064107987185</v>
+        <v>-8.355493416011612</v>
       </c>
       <c r="R4" t="n">
-        <v>-6.591565444755759</v>
+        <v>7.153641252778661</v>
       </c>
       <c r="S4" t="n">
-        <v>-5.832392590421515</v>
+        <v>-14.11029046265585</v>
       </c>
       <c r="T4" t="n">
-        <v>-7.465659004593183</v>
+        <v>10.03225130640198</v>
       </c>
       <c r="U4" t="n">
-        <v>-15.22133785088843</v>
+        <v>-29.09306555251145</v>
       </c>
       <c r="V4" t="n">
-        <v>-8.344351952133952</v>
+        <v>-1.582429202995731</v>
       </c>
       <c r="W4" t="n">
-        <v>-4.903176819786633</v>
+        <v>-4.084889438989593</v>
       </c>
       <c r="X4" t="n">
-        <v>6.507221824255373</v>
+        <v>-14.26436131193848</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.653564279852842</v>
+        <v>-18.89035191464384</v>
       </c>
       <c r="Z4" t="n">
-        <v>-5.40997963635992</v>
+        <v>-12.83319793246307</v>
       </c>
       <c r="AA4" t="n">
-        <v>-5.726054535838117</v>
+        <v>1.714565422268304</v>
       </c>
       <c r="AB4" t="n">
-        <v>-24.93473586895847</v>
+        <v>18.43933269923134</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.59578002392967</v>
+        <v>-16.38937060323506</v>
       </c>
     </row>
     <row r="5">
@@ -3782,88 +3782,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.569342366801912</v>
+        <v>-13.36158257986517</v>
       </c>
       <c r="C5" t="n">
-        <v>13.73153707817784</v>
+        <v>-9.945824701278744</v>
       </c>
       <c r="D5" t="n">
-        <v>2.61617177102774</v>
+        <v>1.003282453880564</v>
       </c>
       <c r="E5" t="n">
-        <v>8.298639499055632</v>
+        <v>-3.187389540415625</v>
       </c>
       <c r="F5" t="n">
-        <v>1.711171475577738</v>
+        <v>-14.36358243188491</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.31600928154726</v>
+        <v>-4.117908393207091</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.07242212012883</v>
+        <v>-19.35436244329325</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.072433975053199</v>
+        <v>-3.038972133353173</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.898317211438759</v>
+        <v>15.26237745358068</v>
       </c>
       <c r="K5" t="n">
-        <v>15.25212488068663</v>
+        <v>2.191421349078017</v>
       </c>
       <c r="L5" t="n">
-        <v>5.478274819046426</v>
+        <v>-4.118318688998322</v>
       </c>
       <c r="M5" t="n">
-        <v>1.292750857576193</v>
+        <v>13.31781124162257</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.626060239501316</v>
+        <v>13.44604955366411</v>
       </c>
       <c r="O5" t="n">
-        <v>-13.04520325681365</v>
+        <v>-17.83799456251424</v>
       </c>
       <c r="P5" t="n">
-        <v>14.41702693612383</v>
+        <v>3.835541701086747</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06284926472485619</v>
+        <v>-11.95330977183024</v>
       </c>
       <c r="R5" t="n">
-        <v>-31.75109583987959</v>
+        <v>12.21321556886746</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.9797015572333656</v>
+        <v>-9.792123116354546</v>
       </c>
       <c r="T5" t="n">
-        <v>-9.997460847945622</v>
+        <v>-29.28164363252528</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.476096829731513</v>
+        <v>-1.630478897279526</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4560391703602287</v>
+        <v>-7.652575094806233</v>
       </c>
       <c r="W5" t="n">
-        <v>-10.1454942090089</v>
+        <v>-9.575420160407262</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8594652632632371</v>
+        <v>-26.00140497056449</v>
       </c>
       <c r="Y5" t="n">
-        <v>-19.1922859523706</v>
+        <v>6.712661770939308</v>
       </c>
       <c r="Z5" t="n">
-        <v>-25.01843864609044</v>
+        <v>-9.252734454096199</v>
       </c>
       <c r="AA5" t="n">
-        <v>-18.20501845578551</v>
+        <v>-17.67060942289854</v>
       </c>
       <c r="AB5" t="n">
-        <v>-36.88736363180622</v>
+        <v>-12.5616610893738</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.406867350131662</v>
+        <v>-11.8729453424507</v>
       </c>
     </row>
     <row r="6">
@@ -3871,88 +3871,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.559135051449537</v>
+        <v>-4.17123675152895</v>
       </c>
       <c r="C6" t="n">
-        <v>-25.58586887027928</v>
+        <v>-3.031183422935936</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7252627082434757</v>
+        <v>-18.88508363823975</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.70252566024213</v>
+        <v>-3.110763717251211</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.788584948769582</v>
+        <v>-10.31841331162889</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.658262661398254</v>
+        <v>-2.501350104836862</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.19843308038206</v>
+        <v>-5.193784239166118</v>
       </c>
       <c r="I6" t="n">
-        <v>-15.87707707680213</v>
+        <v>-8.175725374707678</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.445136114873835</v>
+        <v>-0.7486192120698991</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.565111116001922</v>
+        <v>-22.31611631496262</v>
       </c>
       <c r="L6" t="n">
-        <v>12.25452144678628</v>
+        <v>2.305085498647905</v>
       </c>
       <c r="M6" t="n">
-        <v>-6.489424100167659</v>
+        <v>-14.5891702753562</v>
       </c>
       <c r="N6" t="n">
-        <v>-7.235002905219016</v>
+        <v>4.101856675151111</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09284375877842521</v>
+        <v>-11.47844707389476</v>
       </c>
       <c r="P6" t="n">
-        <v>-4.456500548763365</v>
+        <v>6.508522845826647</v>
       </c>
       <c r="Q6" t="n">
-        <v>-26.89149694351718</v>
+        <v>-6.37582611071756</v>
       </c>
       <c r="R6" t="n">
-        <v>1.308465927232247</v>
+        <v>-12.88108312338488</v>
       </c>
       <c r="S6" t="n">
-        <v>-12.85586537576116</v>
+        <v>-5.914084928886751</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1226360254068553</v>
+        <v>-12.70835612140552</v>
       </c>
       <c r="U6" t="n">
-        <v>-6.551163050139795</v>
+        <v>-1.583224185030602</v>
       </c>
       <c r="V6" t="n">
-        <v>-17.76671525846753</v>
+        <v>-11.46366884482612</v>
       </c>
       <c r="W6" t="n">
-        <v>-7.047842606948961</v>
+        <v>-14.59216390947954</v>
       </c>
       <c r="X6" t="n">
-        <v>5.056194882573266</v>
+        <v>-17.54745413376384</v>
       </c>
       <c r="Y6" t="n">
-        <v>-5.940399753350909</v>
+        <v>17.63458510524824</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.48116348014948</v>
+        <v>-4.462169200557626</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.763717846309159</v>
+        <v>-4.604482759916787</v>
       </c>
       <c r="AB6" t="n">
-        <v>-8.168351790546183</v>
+        <v>-10.12324823529471</v>
       </c>
       <c r="AC6" t="n">
-        <v>-19.29370254634458</v>
+        <v>6.448927999884646</v>
       </c>
     </row>
     <row r="7">
@@ -3960,88 +3960,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.500777515740566</v>
+        <v>-0.5975305446096328</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.791347706644725</v>
+        <v>-17.04961311482049</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1698669555719312</v>
+        <v>6.65309113803384</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.32089843278844</v>
+        <v>-8.251871022110043</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.614125004547434</v>
+        <v>0.3368283459328629</v>
       </c>
       <c r="G7" t="n">
-        <v>-29.19357660996961</v>
+        <v>-14.21257242004639</v>
       </c>
       <c r="H7" t="n">
-        <v>-11.49199670222681</v>
+        <v>-8.046091592297483</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.508613334442428</v>
+        <v>3.264714097725219</v>
       </c>
       <c r="J7" t="n">
-        <v>-15.26181561804841</v>
+        <v>5.585112221586295</v>
       </c>
       <c r="K7" t="n">
-        <v>-6.693314698340088</v>
+        <v>0.626412286229173</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.454967232943691</v>
+        <v>-16.61849371956852</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.7168602182121075</v>
+        <v>-10.72563378339384</v>
       </c>
       <c r="N7" t="n">
-        <v>-10.94886624448989</v>
+        <v>-12.09057165144948</v>
       </c>
       <c r="O7" t="n">
-        <v>-19.53608665902356</v>
+        <v>-0.8943582789525424</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.134344620919591</v>
+        <v>10.60313767987459</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.58562514530943</v>
+        <v>-11.76897115151827</v>
       </c>
       <c r="R7" t="n">
-        <v>-7.342801572321274</v>
+        <v>-20.43424037794245</v>
       </c>
       <c r="S7" t="n">
-        <v>-20.83991624478219</v>
+        <v>0.09429478150706494</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8143890220647494</v>
+        <v>-23.66625821529944</v>
       </c>
       <c r="U7" t="n">
-        <v>-8.034414495894143</v>
+        <v>-23.94435866348493</v>
       </c>
       <c r="V7" t="n">
-        <v>10.80745804165251</v>
+        <v>-19.24835522338408</v>
       </c>
       <c r="W7" t="n">
-        <v>-8.299596556267604</v>
+        <v>-12.07113118691726</v>
       </c>
       <c r="X7" t="n">
-        <v>3.857898055433822</v>
+        <v>9.572548687818248</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.56325184516111</v>
+        <v>4.344872675658458</v>
       </c>
       <c r="Z7" t="n">
-        <v>-12.35061544431247</v>
+        <v>-17.71637052705919</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.71457507135809</v>
+        <v>-18.7992109043874</v>
       </c>
       <c r="AB7" t="n">
-        <v>-20.63475851317708</v>
+        <v>-4.383647617002229</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3737845867273375</v>
+        <v>-17.63310127962683</v>
       </c>
     </row>
     <row r="8">
@@ -4049,88 +4049,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-12.91538357510867</v>
+        <v>-2.208649199972492</v>
       </c>
       <c r="C8" t="n">
-        <v>7.611051969004846</v>
+        <v>10.3205695174359</v>
       </c>
       <c r="D8" t="n">
-        <v>-23.61713718126881</v>
+        <v>1.397823012329861</v>
       </c>
       <c r="E8" t="n">
-        <v>13.40799799883437</v>
+        <v>-4.751830648027161</v>
       </c>
       <c r="F8" t="n">
-        <v>-11.62881620994028</v>
+        <v>-8.687948630881463</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.23009720395075</v>
+        <v>-22.85519922249689</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.130638909389076</v>
+        <v>-6.598181764078358</v>
       </c>
       <c r="I8" t="n">
-        <v>-8.821004802077795</v>
+        <v>-0.6752168248648447</v>
       </c>
       <c r="J8" t="n">
-        <v>-16.41950884238345</v>
+        <v>-27.29969874873942</v>
       </c>
       <c r="K8" t="n">
-        <v>-24.30909761758607</v>
+        <v>10.75598201972701</v>
       </c>
       <c r="L8" t="n">
-        <v>-5.533908961254757</v>
+        <v>-3.608568132382845</v>
       </c>
       <c r="M8" t="n">
-        <v>1.267556483479147</v>
+        <v>-2.29555284426349</v>
       </c>
       <c r="N8" t="n">
-        <v>-10.95030140142462</v>
+        <v>-11.11658774153476</v>
       </c>
       <c r="O8" t="n">
-        <v>9.858261763615431</v>
+        <v>-11.83419040575595</v>
       </c>
       <c r="P8" t="n">
-        <v>-20.28477854973937</v>
+        <v>2.332244551320425</v>
       </c>
       <c r="Q8" t="n">
-        <v>-7.625812781757398</v>
+        <v>-10.59089621114903</v>
       </c>
       <c r="R8" t="n">
-        <v>-6.81541816461757</v>
+        <v>-12.53250941694531</v>
       </c>
       <c r="S8" t="n">
-        <v>-6.267079967822756</v>
+        <v>16.40634884361778</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7984841322679923</v>
+        <v>-2.504868893077498</v>
       </c>
       <c r="U8" t="n">
-        <v>-20.06675732821485</v>
+        <v>-25.42316288716819</v>
       </c>
       <c r="V8" t="n">
-        <v>-27.00361467550375</v>
+        <v>2.375711666379917</v>
       </c>
       <c r="W8" t="n">
-        <v>4.306588097848239</v>
+        <v>0.9169519029051472</v>
       </c>
       <c r="X8" t="n">
-        <v>-7.465313753925223</v>
+        <v>1.04841622617219</v>
       </c>
       <c r="Y8" t="n">
-        <v>-4.0592755060207</v>
+        <v>-24.09446682926956</v>
       </c>
       <c r="Z8" t="n">
-        <v>-19.38954018588525</v>
+        <v>-19.59896838404074</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2839846361703167</v>
+        <v>5.140247108408531</v>
       </c>
       <c r="AB8" t="n">
-        <v>-17.36391194743731</v>
+        <v>-5.179949719032027</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.676915728189336</v>
+        <v>-16.89095948647768</v>
       </c>
     </row>
     <row r="9">
@@ -4138,88 +4138,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.685638650287056</v>
+        <v>-5.575062919620309</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.713074125004217</v>
+        <v>-27.80626482727415</v>
       </c>
       <c r="D9" t="n">
-        <v>7.115307292319608</v>
+        <v>-7.849397409627688</v>
       </c>
       <c r="E9" t="n">
-        <v>8.955167040688838</v>
+        <v>-15.98252213667587</v>
       </c>
       <c r="F9" t="n">
-        <v>22.59266781842321</v>
+        <v>-19.01469895696853</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.159004428854889</v>
+        <v>11.87446173938303</v>
       </c>
       <c r="H9" t="n">
-        <v>-9.27459640183114</v>
+        <v>-1.967155712293285</v>
       </c>
       <c r="I9" t="n">
-        <v>5.94887456122682</v>
+        <v>13.67123404858071</v>
       </c>
       <c r="J9" t="n">
-        <v>2.381644528022729</v>
+        <v>-14.68878314036181</v>
       </c>
       <c r="K9" t="n">
-        <v>10.76982864074564</v>
+        <v>14.25469048434036</v>
       </c>
       <c r="L9" t="n">
-        <v>-11.94808903149255</v>
+        <v>17.51548532329296</v>
       </c>
       <c r="M9" t="n">
-        <v>-15.38469388329415</v>
+        <v>15.05329808014565</v>
       </c>
       <c r="N9" t="n">
-        <v>12.48812548840669</v>
+        <v>-18.95511225622726</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.480338171114769</v>
+        <v>6.589534427973859</v>
       </c>
       <c r="P9" t="n">
-        <v>9.86434139245819</v>
+        <v>-1.468572524378735</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.02223464631365957</v>
+        <v>-18.06919008031393</v>
       </c>
       <c r="R9" t="n">
-        <v>5.165077334380303</v>
+        <v>6.772593783869276</v>
       </c>
       <c r="S9" t="n">
-        <v>16.04106529465342</v>
+        <v>-1.798918204311477</v>
       </c>
       <c r="T9" t="n">
-        <v>18.04643847585042</v>
+        <v>-4.276462352905146</v>
       </c>
       <c r="U9" t="n">
-        <v>7.601235673867264</v>
+        <v>-12.00221241434224</v>
       </c>
       <c r="V9" t="n">
-        <v>-21.85837787111336</v>
+        <v>-8.873436363654456</v>
       </c>
       <c r="W9" t="n">
-        <v>1.120937675495108</v>
+        <v>-9.765254888319323</v>
       </c>
       <c r="X9" t="n">
-        <v>3.408706942219327</v>
+        <v>-4.327229930915495</v>
       </c>
       <c r="Y9" t="n">
-        <v>-12.86604092337564</v>
+        <v>-5.635547822937209</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.647670769160555</v>
+        <v>-21.674382687986</v>
       </c>
       <c r="AA9" t="n">
-        <v>-1.01994220926098</v>
+        <v>-11.37243821295334</v>
       </c>
       <c r="AB9" t="n">
-        <v>-12.23502450392877</v>
+        <v>2.237549143135503</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.076526476915689</v>
+        <v>-26.2612952838923</v>
       </c>
     </row>
     <row r="10">
@@ -4227,88 +4227,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.424636951026228</v>
+        <v>-16.37725434100011</v>
       </c>
       <c r="C10" t="n">
-        <v>17.43969350880194</v>
+        <v>-3.817823127864274</v>
       </c>
       <c r="D10" t="n">
-        <v>-25.34191484005783</v>
+        <v>-6.960370048911262</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.687654058435182</v>
+        <v>-2.933074272352427</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8647089060600073</v>
+        <v>-15.3005161315877</v>
       </c>
       <c r="G10" t="n">
-        <v>-10.29188967562465</v>
+        <v>15.61099461034429</v>
       </c>
       <c r="H10" t="n">
-        <v>-9.221938353442034</v>
+        <v>-11.0820939472256</v>
       </c>
       <c r="I10" t="n">
-        <v>-16.76331979253174</v>
+        <v>-6.755023403541228</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3569106715073405</v>
+        <v>-3.544353313265351</v>
       </c>
       <c r="K10" t="n">
-        <v>-21.77516423528339</v>
+        <v>8.837721369308969</v>
       </c>
       <c r="L10" t="n">
-        <v>7.723897223163727</v>
+        <v>-10.43490706525444</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2688874478411591</v>
+        <v>-1.480501208665678</v>
       </c>
       <c r="N10" t="n">
-        <v>8.218156302606015</v>
+        <v>0.07181298096397004</v>
       </c>
       <c r="O10" t="n">
-        <v>-15.67135577965412</v>
+        <v>-7.84814810875743</v>
       </c>
       <c r="P10" t="n">
-        <v>-14.32908618407509</v>
+        <v>-8.311506707895244</v>
       </c>
       <c r="Q10" t="n">
-        <v>-7.455555918256295</v>
+        <v>-8.970229213201325</v>
       </c>
       <c r="R10" t="n">
-        <v>-33.98323853879196</v>
+        <v>-12.1562878829769</v>
       </c>
       <c r="S10" t="n">
-        <v>-2.878894118046087</v>
+        <v>-13.93647559464826</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.94494794373234</v>
+        <v>-12.17538778877799</v>
       </c>
       <c r="U10" t="n">
-        <v>-11.5428789274754</v>
+        <v>-7.90665160038002</v>
       </c>
       <c r="V10" t="n">
-        <v>-12.08856319424643</v>
+        <v>-12.06879680820889</v>
       </c>
       <c r="W10" t="n">
-        <v>-13.55098497987317</v>
+        <v>-2.776434370344635</v>
       </c>
       <c r="X10" t="n">
-        <v>4.602242037640231</v>
+        <v>0.2160551894810325</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.390428183285678</v>
+        <v>4.252427990054432</v>
       </c>
       <c r="Z10" t="n">
-        <v>-25.99669341077721</v>
+        <v>-2.877968503870413</v>
       </c>
       <c r="AA10" t="n">
-        <v>-20.3333933315785</v>
+        <v>5.851013992853122</v>
       </c>
       <c r="AB10" t="n">
-        <v>-16.04238228091401</v>
+        <v>-12.21612576578796</v>
       </c>
       <c r="AC10" t="n">
-        <v>-14.41983831716682</v>
+        <v>-18.22804955253301</v>
       </c>
     </row>
     <row r="11">
@@ -4316,88 +4316,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.92006843509341</v>
+        <v>-10.63909050443981</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.721880148746416</v>
+        <v>-10.92565320829224</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.892502400237722</v>
+        <v>-11.19263326409389</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1386618594101225</v>
+        <v>8.812225430438611</v>
       </c>
       <c r="F11" t="n">
-        <v>-35.91461341786113</v>
+        <v>-11.24941495279536</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.323000267847837</v>
+        <v>-8.944745910115563</v>
       </c>
       <c r="H11" t="n">
-        <v>3.00534664489589</v>
+        <v>-8.982108729047109</v>
       </c>
       <c r="I11" t="n">
-        <v>4.344961720569854</v>
+        <v>-22.34301643065748</v>
       </c>
       <c r="J11" t="n">
-        <v>-2.37399329161145</v>
+        <v>-2.805767563190494</v>
       </c>
       <c r="K11" t="n">
-        <v>15.24626423645804</v>
+        <v>-11.31564273861471</v>
       </c>
       <c r="L11" t="n">
-        <v>-5.627062560259294</v>
+        <v>2.055469639217814</v>
       </c>
       <c r="M11" t="n">
-        <v>-14.24880500214043</v>
+        <v>-3.191486460181233</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.8355056708428323</v>
+        <v>11.0009866606855</v>
       </c>
       <c r="O11" t="n">
-        <v>4.548255752829525</v>
+        <v>-2.650989937939629</v>
       </c>
       <c r="P11" t="n">
-        <v>-8.044651980728275</v>
+        <v>8.277833944984273</v>
       </c>
       <c r="Q11" t="n">
-        <v>-13.25992363436133</v>
+        <v>-28.99022840535478</v>
       </c>
       <c r="R11" t="n">
-        <v>-3.827832881544914</v>
+        <v>-20.73933076962278</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.019417313205413</v>
+        <v>-1.972354734884088</v>
       </c>
       <c r="T11" t="n">
-        <v>-16.00139201856032</v>
+        <v>1.553684209530632</v>
       </c>
       <c r="U11" t="n">
-        <v>-19.92852179368139</v>
+        <v>-21.74628117900776</v>
       </c>
       <c r="V11" t="n">
-        <v>-2.534073529850455</v>
+        <v>-10.24253367709313</v>
       </c>
       <c r="W11" t="n">
-        <v>-11.09135807407327</v>
+        <v>-2.189901961250454</v>
       </c>
       <c r="X11" t="n">
-        <v>11.06359862060144</v>
+        <v>11.34801721306816</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.540853472580523</v>
+        <v>-36.56227990202801</v>
       </c>
       <c r="Z11" t="n">
-        <v>-22.17426233684066</v>
+        <v>-5.21843683566143</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.212865167362224</v>
+        <v>-5.471975649705093</v>
       </c>
       <c r="AB11" t="n">
-        <v>-16.7565901549307</v>
+        <v>-18.85342743978357</v>
       </c>
       <c r="AC11" t="n">
-        <v>-25.08701881225065</v>
+        <v>-9.417788155685241</v>
       </c>
     </row>
   </sheetData>
@@ -4510,88 +4510,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-15.75484807638784</v>
+        <v>-17.10261478545812</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.758949257773597</v>
+        <v>7.417303297203697</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.01736266389226</v>
+        <v>2.077714212678232</v>
       </c>
       <c r="E2" t="n">
-        <v>4.42118251603324</v>
+        <v>15.40545229482485</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.795646618756301</v>
+        <v>8.895190001995122</v>
       </c>
       <c r="G2" t="n">
-        <v>-23.08147954460596</v>
+        <v>0.05988525331492145</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.709852327439411</v>
+        <v>-18.3977533670556</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.916933458096888</v>
+        <v>6.464558164338127</v>
       </c>
       <c r="J2" t="n">
-        <v>21.27023934421386</v>
+        <v>-1.280088974160043</v>
       </c>
       <c r="K2" t="n">
-        <v>3.840526019701937</v>
+        <v>7.303206961819146</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.956077032122788</v>
+        <v>16.22691562299352</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.81308149294258</v>
+        <v>-3.44369634530155</v>
       </c>
       <c r="N2" t="n">
-        <v>-15.28568610854625</v>
+        <v>-8.254714997367856</v>
       </c>
       <c r="O2" t="n">
-        <v>-9.754586921445735</v>
+        <v>-10.92701270860966</v>
       </c>
       <c r="P2" t="n">
-        <v>17.51094032357855</v>
+        <v>11.02343196589629</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.553984909405139</v>
+        <v>-7.767992060350769</v>
       </c>
       <c r="R2" t="n">
-        <v>8.694045285021835</v>
+        <v>-4.274751922777679</v>
       </c>
       <c r="S2" t="n">
-        <v>1.220809592950828</v>
+        <v>-18.12921300672154</v>
       </c>
       <c r="T2" t="n">
-        <v>2.981953176343405</v>
+        <v>-12.07469057208523</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2975690295777067</v>
+        <v>-2.899813580359361</v>
       </c>
       <c r="V2" t="n">
-        <v>-26.52973385021165</v>
+        <v>2.828530978961096</v>
       </c>
       <c r="W2" t="n">
-        <v>-17.76540736161268</v>
+        <v>-25.32180155013369</v>
       </c>
       <c r="X2" t="n">
-        <v>5.327447637271691</v>
+        <v>-2.703941569232556</v>
       </c>
       <c r="Y2" t="n">
-        <v>-26.86162289470577</v>
+        <v>-9.066581035076052</v>
       </c>
       <c r="Z2" t="n">
-        <v>-40.92403372881962</v>
+        <v>-6.912415023098969</v>
       </c>
       <c r="AA2" t="n">
-        <v>-31.58665308081011</v>
+        <v>-26.17978276347602</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.8466333398509391</v>
+        <v>-18.99853254027172</v>
       </c>
       <c r="AC2" t="n">
-        <v>-66.04795154173935</v>
+        <v>-60.46428041803871</v>
       </c>
     </row>
     <row r="3">
@@ -4599,88 +4599,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.500408803718801</v>
+        <v>-10.30493655589147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4536665458054241</v>
+        <v>-13.75853982923911</v>
       </c>
       <c r="D3" t="n">
-        <v>-18.54595395480895</v>
+        <v>-12.94617111038591</v>
       </c>
       <c r="E3" t="n">
-        <v>-19.70688964941242</v>
+        <v>-4.478774145415064</v>
       </c>
       <c r="F3" t="n">
-        <v>-21.77155286154387</v>
+        <v>4.023836213536857</v>
       </c>
       <c r="G3" t="n">
-        <v>2.348203286997293</v>
+        <v>-12.25793700642545</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.167594126027263</v>
+        <v>-25.88474117273968</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.982839946919998</v>
+        <v>-5.192745796190402</v>
       </c>
       <c r="J3" t="n">
-        <v>5.772365400045333</v>
+        <v>-3.530194368389296</v>
       </c>
       <c r="K3" t="n">
-        <v>9.711766048389382</v>
+        <v>-27.98255031213935</v>
       </c>
       <c r="L3" t="n">
-        <v>-14.42179370737291</v>
+        <v>-1.659001588289121</v>
       </c>
       <c r="M3" t="n">
-        <v>-11.12662353920681</v>
+        <v>1.489273855458437</v>
       </c>
       <c r="N3" t="n">
-        <v>0.911831957339496</v>
+        <v>6.381670623830226</v>
       </c>
       <c r="O3" t="n">
-        <v>-5.493777778385709</v>
+        <v>-8.808491764061369</v>
       </c>
       <c r="P3" t="n">
-        <v>-17.77248295355012</v>
+        <v>-0.4297708335680266</v>
       </c>
       <c r="Q3" t="n">
-        <v>-16.17899117148144</v>
+        <v>-22.56988865446932</v>
       </c>
       <c r="R3" t="n">
-        <v>-10.19583219519571</v>
+        <v>-9.051029786474484</v>
       </c>
       <c r="S3" t="n">
-        <v>14.28840089573175</v>
+        <v>-19.8843552284843</v>
       </c>
       <c r="T3" t="n">
-        <v>-6.423367266805701</v>
+        <v>2.531190946489334</v>
       </c>
       <c r="U3" t="n">
-        <v>-5.309564873008662</v>
+        <v>-1.781094157786942</v>
       </c>
       <c r="V3" t="n">
-        <v>-21.29609940252344</v>
+        <v>-11.04427427450334</v>
       </c>
       <c r="W3" t="n">
-        <v>-17.5703953630216</v>
+        <v>-10.05984948406499</v>
       </c>
       <c r="X3" t="n">
-        <v>-17.21798795843362</v>
+        <v>6.961979754547608</v>
       </c>
       <c r="Y3" t="n">
-        <v>-19.35941393083504</v>
+        <v>-27.74782853639366</v>
       </c>
       <c r="Z3" t="n">
-        <v>-21.07832705022969</v>
+        <v>-25.25904355951246</v>
       </c>
       <c r="AA3" t="n">
-        <v>-37.86437070297549</v>
+        <v>-36.62920339457299</v>
       </c>
       <c r="AB3" t="n">
-        <v>-29.4701598334724</v>
+        <v>-28.00319422323957</v>
       </c>
       <c r="AC3" t="n">
-        <v>-47.42134565842458</v>
+        <v>-61.37762034600497</v>
       </c>
     </row>
     <row r="4">
@@ -4688,88 +4688,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.902364097947336</v>
+        <v>-6.058954560380649</v>
       </c>
       <c r="C4" t="n">
-        <v>23.40433402510536</v>
+        <v>-3.589295823534804</v>
       </c>
       <c r="D4" t="n">
-        <v>4.139294984927368</v>
+        <v>-0.8319024716948018</v>
       </c>
       <c r="E4" t="n">
-        <v>4.498780271530951</v>
+        <v>16.32329035253418</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.680499695107499</v>
+        <v>2.438202941441844</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.56151562186126</v>
+        <v>-2.406381222314199</v>
       </c>
       <c r="H4" t="n">
-        <v>9.795313877821677</v>
+        <v>-11.50630363473829</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.792981487220892</v>
+        <v>7.981998712926975</v>
       </c>
       <c r="J4" t="n">
-        <v>10.88971986661823</v>
+        <v>2.969937256064985</v>
       </c>
       <c r="K4" t="n">
-        <v>-17.21220612524462</v>
+        <v>-2.07704763150663</v>
       </c>
       <c r="L4" t="n">
-        <v>-8.710280463278618</v>
+        <v>5.022371169300937</v>
       </c>
       <c r="M4" t="n">
-        <v>5.592219467030898</v>
+        <v>-16.89490165040036</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.193824875905495</v>
+        <v>11.55138205843296</v>
       </c>
       <c r="O4" t="n">
-        <v>-9.816464141174865</v>
+        <v>5.449757628224774</v>
       </c>
       <c r="P4" t="n">
-        <v>9.034406587839007</v>
+        <v>-11.01422097416786</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.6970613249608988</v>
+        <v>-5.202521325336905</v>
       </c>
       <c r="R4" t="n">
-        <v>-14.65510147562</v>
+        <v>-8.340686414820691</v>
       </c>
       <c r="S4" t="n">
-        <v>10.31724271257557</v>
+        <v>13.96947224304117</v>
       </c>
       <c r="T4" t="n">
-        <v>-5.174837438568816</v>
+        <v>4.565245292982574</v>
       </c>
       <c r="U4" t="n">
-        <v>-14.2448920560342</v>
+        <v>-10.03548892626211</v>
       </c>
       <c r="V4" t="n">
-        <v>-19.7900255240665</v>
+        <v>-8.292560905589259</v>
       </c>
       <c r="W4" t="n">
-        <v>12.3517267599113</v>
+        <v>-25.99744466845525</v>
       </c>
       <c r="X4" t="n">
-        <v>-6.695270273745851</v>
+        <v>-23.24896271713199</v>
       </c>
       <c r="Y4" t="n">
-        <v>-11.0526377039532</v>
+        <v>-25.67401687288296</v>
       </c>
       <c r="Z4" t="n">
-        <v>-34.2449359120042</v>
+        <v>-15.12406574387845</v>
       </c>
       <c r="AA4" t="n">
-        <v>-38.7696366539051</v>
+        <v>-34.42212611406725</v>
       </c>
       <c r="AB4" t="n">
-        <v>-27.4255783237722</v>
+        <v>-26.7265059029561</v>
       </c>
       <c r="AC4" t="n">
-        <v>-56.943817564247</v>
+        <v>-62.61234198255114</v>
       </c>
     </row>
     <row r="5">
@@ -4777,88 +4777,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.66589341151444</v>
+        <v>2.787489157917639</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.357270558966973</v>
+        <v>-32.26862295722817</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.967204628538462</v>
+        <v>-4.744836758045622</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.6424587765703</v>
+        <v>-2.094295152209074</v>
       </c>
       <c r="F5" t="n">
-        <v>-17.8815315453259</v>
+        <v>-9.3514810003268</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.76337823003647</v>
+        <v>-21.65167288629029</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.261112527439111</v>
+        <v>-17.98942714813592</v>
       </c>
       <c r="I5" t="n">
-        <v>-9.810097913953991</v>
+        <v>16.64980842330914</v>
       </c>
       <c r="J5" t="n">
-        <v>4.950655783963763</v>
+        <v>1.015372654989871</v>
       </c>
       <c r="K5" t="n">
-        <v>12.89211538639577</v>
+        <v>-8.180434068797025</v>
       </c>
       <c r="L5" t="n">
-        <v>-16.3584713280273</v>
+        <v>-2.05398222385142</v>
       </c>
       <c r="M5" t="n">
-        <v>-8.581629686304256</v>
+        <v>-13.29793515767174</v>
       </c>
       <c r="N5" t="n">
-        <v>-21.95885110508091</v>
+        <v>4.479468015042197</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.856553013714184</v>
+        <v>11.24942320055104</v>
       </c>
       <c r="P5" t="n">
-        <v>4.450071478350798</v>
+        <v>-7.978333242508046</v>
       </c>
       <c r="Q5" t="n">
-        <v>-3.649677945097802</v>
+        <v>-7.458519848206244</v>
       </c>
       <c r="R5" t="n">
-        <v>-11.84872678211483</v>
+        <v>-18.46520050984478</v>
       </c>
       <c r="S5" t="n">
-        <v>-4.929376415488415</v>
+        <v>-16.06131324597643</v>
       </c>
       <c r="T5" t="n">
-        <v>-4.589621456521891</v>
+        <v>-1.228646048050878</v>
       </c>
       <c r="U5" t="n">
-        <v>-4.042593019959372</v>
+        <v>5.438876166457804</v>
       </c>
       <c r="V5" t="n">
-        <v>-34.68411014409516</v>
+        <v>-8.791361134716212</v>
       </c>
       <c r="W5" t="n">
-        <v>-19.32534308140772</v>
+        <v>-7.297624102329113</v>
       </c>
       <c r="X5" t="n">
-        <v>-14.23287311395428</v>
+        <v>-11.89491113830288</v>
       </c>
       <c r="Y5" t="n">
-        <v>-15.55917794913012</v>
+        <v>-29.52855130731086</v>
       </c>
       <c r="Z5" t="n">
-        <v>-33.11935392639693</v>
+        <v>-0.5386419985302275</v>
       </c>
       <c r="AA5" t="n">
-        <v>-31.90532128466818</v>
+        <v>-24.75426626235582</v>
       </c>
       <c r="AB5" t="n">
-        <v>-29.48989652724696</v>
+        <v>-26.3787269995089</v>
       </c>
       <c r="AC5" t="n">
-        <v>-41.6153244491918</v>
+        <v>-43.82898550593895</v>
       </c>
     </row>
     <row r="6">
@@ -4866,88 +4866,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.488255251685425</v>
+        <v>15.56560460590632</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.58221601972389</v>
+        <v>-7.219848597770492</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.78226240892726</v>
+        <v>12.41371093472515</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.051639385657287</v>
+        <v>-22.880255533389</v>
       </c>
       <c r="F6" t="n">
-        <v>12.86430839056339</v>
+        <v>-1.418312800761813</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.10716247417532</v>
+        <v>-13.07291729600375</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.355181034558812</v>
+        <v>-3.342081930759049</v>
       </c>
       <c r="I6" t="n">
-        <v>-19.3877974130805</v>
+        <v>5.032318401648871</v>
       </c>
       <c r="J6" t="n">
-        <v>4.595825675950865</v>
+        <v>-0.04516509376254163</v>
       </c>
       <c r="K6" t="n">
-        <v>12.39928436350385</v>
+        <v>0.1651578662951638</v>
       </c>
       <c r="L6" t="n">
-        <v>2.815191556666713</v>
+        <v>5.955466170830491</v>
       </c>
       <c r="M6" t="n">
-        <v>-10.9970716657348</v>
+        <v>-13.08814240476248</v>
       </c>
       <c r="N6" t="n">
-        <v>-12.15445021617675</v>
+        <v>-10.7696791480532</v>
       </c>
       <c r="O6" t="n">
-        <v>-5.76988827559658</v>
+        <v>13.65861862910518</v>
       </c>
       <c r="P6" t="n">
-        <v>-4.925213698176798</v>
+        <v>-6.098743737835566</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.809788918334023</v>
+        <v>-3.576253506511051</v>
       </c>
       <c r="R6" t="n">
-        <v>10.3011754972835</v>
+        <v>-1.91241993976557</v>
       </c>
       <c r="S6" t="n">
-        <v>-13.1190098399968</v>
+        <v>-12.85379704386026</v>
       </c>
       <c r="T6" t="n">
-        <v>6.975218767061872</v>
+        <v>-10.34457649484436</v>
       </c>
       <c r="U6" t="n">
-        <v>-23.91469723921477</v>
+        <v>-2.99543717540388</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5153711061701767</v>
+        <v>0.5154779758341324</v>
       </c>
       <c r="W6" t="n">
-        <v>-5.57058755463544</v>
+        <v>-3.594076157293224</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.03264253890829494</v>
+        <v>-35.42648597245377</v>
       </c>
       <c r="Y6" t="n">
-        <v>-35.78158203738924</v>
+        <v>-4.504051459963954</v>
       </c>
       <c r="Z6" t="n">
-        <v>-21.62804069869577</v>
+        <v>-9.846350510419869</v>
       </c>
       <c r="AA6" t="n">
-        <v>-26.911088090771</v>
+        <v>-40.70805201207116</v>
       </c>
       <c r="AB6" t="n">
-        <v>-15.41500804891297</v>
+        <v>-14.26763436921964</v>
       </c>
       <c r="AC6" t="n">
-        <v>-52.47031250512092</v>
+        <v>-57.01609557262124</v>
       </c>
     </row>
     <row r="7">
@@ -4955,88 +4955,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-17.14418593364827</v>
+        <v>4.759108888996613</v>
       </c>
       <c r="C7" t="n">
-        <v>5.743343227448586</v>
+        <v>-1.836560028239159</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.99965541620614</v>
+        <v>-7.710178885083996</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.78014986559482</v>
+        <v>-14.88421129211172</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.355719920881223</v>
+        <v>-9.010446535885153</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.126457949749248</v>
+        <v>-9.88764552696491</v>
       </c>
       <c r="H7" t="n">
-        <v>-15.0495100860743</v>
+        <v>-14.80793701590385</v>
       </c>
       <c r="I7" t="n">
-        <v>-12.54260171909831</v>
+        <v>-16.09033295822004</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6667525859112144</v>
+        <v>0.2060423075388682</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.112275953658584</v>
+        <v>-1.198814898837128</v>
       </c>
       <c r="L7" t="n">
-        <v>-5.636606286314135</v>
+        <v>0.426463559302606</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.011833850863531</v>
+        <v>-17.53686290455092</v>
       </c>
       <c r="N7" t="n">
-        <v>-21.96004459511646</v>
+        <v>5.264219586135149</v>
       </c>
       <c r="O7" t="n">
-        <v>-10.27404215965507</v>
+        <v>-27.59345850436008</v>
       </c>
       <c r="P7" t="n">
-        <v>12.2791440955723</v>
+        <v>-2.349087803473978</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.547958504096576</v>
+        <v>-20.2471110250663</v>
       </c>
       <c r="R7" t="n">
-        <v>-17.74175412616147</v>
+        <v>3.46325894057961</v>
       </c>
       <c r="S7" t="n">
-        <v>-18.27066841982776</v>
+        <v>4.871052235481034</v>
       </c>
       <c r="T7" t="n">
-        <v>1.216032989350511</v>
+        <v>0.4182436596116439</v>
       </c>
       <c r="U7" t="n">
-        <v>-27.13566193700651</v>
+        <v>-32.93484454480325</v>
       </c>
       <c r="V7" t="n">
-        <v>-6.614071051832566</v>
+        <v>-2.246976622500245</v>
       </c>
       <c r="W7" t="n">
-        <v>-10.44949735965479</v>
+        <v>2.471473159322622</v>
       </c>
       <c r="X7" t="n">
-        <v>2.466476576584492</v>
+        <v>3.476186449676126</v>
       </c>
       <c r="Y7" t="n">
-        <v>-34.58852787729421</v>
+        <v>-22.54001405078955</v>
       </c>
       <c r="Z7" t="n">
-        <v>-17.56569761259764</v>
+        <v>-16.01102812702977</v>
       </c>
       <c r="AA7" t="n">
-        <v>-21.93472586943241</v>
+        <v>-37.24694290775082</v>
       </c>
       <c r="AB7" t="n">
-        <v>-38.15573875914816</v>
+        <v>-46.6591747806561</v>
       </c>
       <c r="AC7" t="n">
-        <v>-39.68558471233459</v>
+        <v>-57.88551032386373</v>
       </c>
     </row>
     <row r="8">
@@ -5044,88 +5044,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-12.78951087641715</v>
+        <v>1.685850563938158</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.27817800585431</v>
+        <v>-30.01459826026915</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.533687495746535</v>
+        <v>0.3795287912466598</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.638145896971661</v>
+        <v>-2.473937114485643</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.651060897468096</v>
+        <v>5.223977866381474</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.137584235534028</v>
+        <v>2.338419362701425</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2485384454439439</v>
+        <v>-8.306856594310974</v>
       </c>
       <c r="I8" t="n">
-        <v>-9.964161160134866</v>
+        <v>-11.02536208100459</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.608544897701765</v>
+        <v>-0.7214867435829051</v>
       </c>
       <c r="K8" t="n">
-        <v>-21.39097261618309</v>
+        <v>-28.57824370303324</v>
       </c>
       <c r="L8" t="n">
-        <v>11.08316923525604</v>
+        <v>-18.6351771874643</v>
       </c>
       <c r="M8" t="n">
-        <v>-9.594222465377035</v>
+        <v>-30.46812651102451</v>
       </c>
       <c r="N8" t="n">
-        <v>-18.82790817124831</v>
+        <v>-18.96735001014385</v>
       </c>
       <c r="O8" t="n">
-        <v>-4.948093940533141</v>
+        <v>3.85157606667815</v>
       </c>
       <c r="P8" t="n">
-        <v>14.92258893177833</v>
+        <v>-3.421617769934493</v>
       </c>
       <c r="Q8" t="n">
-        <v>-11.33592355218096</v>
+        <v>-21.14501840404032</v>
       </c>
       <c r="R8" t="n">
-        <v>-5.665602552485897</v>
+        <v>-5.636312881207143</v>
       </c>
       <c r="S8" t="n">
-        <v>3.113851086692348</v>
+        <v>-7.942975950448245</v>
       </c>
       <c r="T8" t="n">
-        <v>-6.712644492415602</v>
+        <v>-5.039893328768242</v>
       </c>
       <c r="U8" t="n">
-        <v>-9.598153624469616</v>
+        <v>-6.063800933015552</v>
       </c>
       <c r="V8" t="n">
-        <v>-18.20507748109532</v>
+        <v>-12.27481713883991</v>
       </c>
       <c r="W8" t="n">
-        <v>-6.625703212284155</v>
+        <v>-7.231919291973875</v>
       </c>
       <c r="X8" t="n">
-        <v>-4.56260903823812</v>
+        <v>-24.47977343613265</v>
       </c>
       <c r="Y8" t="n">
-        <v>-22.28196828595093</v>
+        <v>-16.89723219959441</v>
       </c>
       <c r="Z8" t="n">
-        <v>-39.44183631651891</v>
+        <v>-12.63498039578832</v>
       </c>
       <c r="AA8" t="n">
-        <v>-40.04897405816168</v>
+        <v>-21.41046964981165</v>
       </c>
       <c r="AB8" t="n">
-        <v>-38.89036429934342</v>
+        <v>-18.86263547103165</v>
       </c>
       <c r="AC8" t="n">
-        <v>-60.60378476726616</v>
+        <v>-57.25568753898138</v>
       </c>
     </row>
     <row r="9">
@@ -5133,88 +5133,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.185236188766929</v>
+        <v>-7.532593436504749</v>
       </c>
       <c r="C9" t="n">
-        <v>1.580147364581303</v>
+        <v>-7.359263921048346</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.45203426362517</v>
+        <v>-3.496358335421778</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9241175841641214</v>
+        <v>10.39670428426358</v>
       </c>
       <c r="F9" t="n">
-        <v>3.300739894571943</v>
+        <v>-10.05259016168347</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.15959126008587</v>
+        <v>-8.064272420964016</v>
       </c>
       <c r="H9" t="n">
-        <v>2.26276631524831</v>
+        <v>-6.565548300773228</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2830889873007663</v>
+        <v>-2.788419191724324</v>
       </c>
       <c r="J9" t="n">
-        <v>-10.14400781388855</v>
+        <v>8.739667456828112</v>
       </c>
       <c r="K9" t="n">
-        <v>-5.409844019756399</v>
+        <v>5.277167321784881</v>
       </c>
       <c r="L9" t="n">
-        <v>9.317586174371748</v>
+        <v>-10.98677609202611</v>
       </c>
       <c r="M9" t="n">
-        <v>-42.31297115613675</v>
+        <v>-3.476205511103088</v>
       </c>
       <c r="N9" t="n">
-        <v>11.49380647709222</v>
+        <v>-0.5820697722949357</v>
       </c>
       <c r="O9" t="n">
-        <v>-14.24146118663206</v>
+        <v>-34.13079677748266</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.363563752998491</v>
+        <v>-19.52466521149162</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.09608391632775</v>
+        <v>-17.68600102876128</v>
       </c>
       <c r="R9" t="n">
-        <v>-11.77001524301492</v>
+        <v>-15.09559003590128</v>
       </c>
       <c r="S9" t="n">
-        <v>16.16999453122288</v>
+        <v>-20.09212927102887</v>
       </c>
       <c r="T9" t="n">
-        <v>-11.3900862990589</v>
+        <v>2.393151482713533</v>
       </c>
       <c r="U9" t="n">
-        <v>-3.026634978192894</v>
+        <v>-16.2123687541764</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6732690412508777</v>
+        <v>-1.569861286865084</v>
       </c>
       <c r="W9" t="n">
-        <v>-8.571925627554343</v>
+        <v>-10.07883879121011</v>
       </c>
       <c r="X9" t="n">
-        <v>-5.064244002398366</v>
+        <v>-8.73314381344963</v>
       </c>
       <c r="Y9" t="n">
-        <v>-16.78072007262913</v>
+        <v>-23.73427121753529</v>
       </c>
       <c r="Z9" t="n">
-        <v>-11.05168822899442</v>
+        <v>-9.21498838180942</v>
       </c>
       <c r="AA9" t="n">
-        <v>-44.77850332415827</v>
+        <v>-21.51034502517496</v>
       </c>
       <c r="AB9" t="n">
-        <v>-6.381683589163465</v>
+        <v>-10.30589175788932</v>
       </c>
       <c r="AC9" t="n">
-        <v>-43.09217886666156</v>
+        <v>-61.223791791095</v>
       </c>
     </row>
     <row r="10">
@@ -5222,88 +5222,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.898949593502922</v>
+        <v>-9.899173214007925</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7769374049989</v>
+        <v>-1.738531503886913</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.48001849533428</v>
+        <v>4.720536918385454</v>
       </c>
       <c r="E10" t="n">
-        <v>10.12450089403155</v>
+        <v>-6.145286417688641</v>
       </c>
       <c r="F10" t="n">
-        <v>8.559002851284504</v>
+        <v>1.853021334372902</v>
       </c>
       <c r="G10" t="n">
-        <v>5.801587668194196</v>
+        <v>-4.135381825068412</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0915441660912002</v>
+        <v>-3.603836308381643</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.175298992097781</v>
+        <v>-17.95160546948556</v>
       </c>
       <c r="J10" t="n">
-        <v>2.931356707542972</v>
+        <v>-4.188819938074717</v>
       </c>
       <c r="K10" t="n">
-        <v>-18.30465083750752</v>
+        <v>-14.34903629405708</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.6583108893803207</v>
+        <v>21.70681157281331</v>
       </c>
       <c r="M10" t="n">
-        <v>-4.701540500466421</v>
+        <v>-5.017071581391679</v>
       </c>
       <c r="N10" t="n">
-        <v>-13.19034257011885</v>
+        <v>-7.607484990813558</v>
       </c>
       <c r="O10" t="n">
-        <v>-10.27717510080748</v>
+        <v>-2.983047992593314</v>
       </c>
       <c r="P10" t="n">
-        <v>11.91366080928934</v>
+        <v>-15.49379979084128</v>
       </c>
       <c r="Q10" t="n">
-        <v>-6.303450045150703</v>
+        <v>-2.852799404836706</v>
       </c>
       <c r="R10" t="n">
-        <v>-12.27682979352847</v>
+        <v>-9.345999940708454</v>
       </c>
       <c r="S10" t="n">
-        <v>-5.151519177528972</v>
+        <v>-0.2440490544569762</v>
       </c>
       <c r="T10" t="n">
-        <v>-24.49505119732589</v>
+        <v>9.648691926561783</v>
       </c>
       <c r="U10" t="n">
-        <v>-1.407248889932513</v>
+        <v>-8.901504162075383</v>
       </c>
       <c r="V10" t="n">
-        <v>-22.41848867945878</v>
+        <v>-17.61021673155419</v>
       </c>
       <c r="W10" t="n">
-        <v>-8.089449768622707</v>
+        <v>-9.719084223852908</v>
       </c>
       <c r="X10" t="n">
-        <v>8.183305203450656</v>
+        <v>-27.2126006042622</v>
       </c>
       <c r="Y10" t="n">
-        <v>-40.10037918916783</v>
+        <v>-21.38636986968193</v>
       </c>
       <c r="Z10" t="n">
-        <v>-39.20294229980552</v>
+        <v>-22.3835423614921</v>
       </c>
       <c r="AA10" t="n">
-        <v>-41.71934703191877</v>
+        <v>-24.86659815239536</v>
       </c>
       <c r="AB10" t="n">
-        <v>-30.56778285003609</v>
+        <v>-30.36997740893574</v>
       </c>
       <c r="AC10" t="n">
-        <v>-48.01803382706025</v>
+        <v>-46.92023819525539</v>
       </c>
     </row>
     <row r="11">
@@ -5311,88 +5311,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-9.158654414798633</v>
+        <v>-3.853975718032734</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.793165008856651</v>
+        <v>-6.623729144383887</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.123793340153838</v>
+        <v>7.860571068706733</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.742543727409381</v>
+        <v>-8.354303091216094</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.857595672141949</v>
+        <v>-8.906875964168789</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.929610278870516</v>
+        <v>-9.456163041111321</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.986567280340636</v>
+        <v>-16.78557433429779</v>
       </c>
       <c r="I11" t="n">
-        <v>10.76633137195506</v>
+        <v>-1.673478690274464</v>
       </c>
       <c r="J11" t="n">
-        <v>12.51603963257475</v>
+        <v>-5.566116416568469</v>
       </c>
       <c r="K11" t="n">
-        <v>6.960212910195516</v>
+        <v>-3.206366334347944</v>
       </c>
       <c r="L11" t="n">
-        <v>10.93575535851869</v>
+        <v>-9.94387779624509</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.2453983845803993</v>
+        <v>-7.855375886702456</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8365493445520942</v>
+        <v>-15.62990079251374</v>
       </c>
       <c r="O11" t="n">
-        <v>-6.386626225898345</v>
+        <v>-7.281163286293321</v>
       </c>
       <c r="P11" t="n">
-        <v>-18.35831737810669</v>
+        <v>-8.057151789853641</v>
       </c>
       <c r="Q11" t="n">
-        <v>-6.714360288389638</v>
+        <v>-11.62206603379504</v>
       </c>
       <c r="R11" t="n">
-        <v>-13.75316097638478</v>
+        <v>-10.85418447634644</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.591332264495253</v>
+        <v>-13.45270865097785</v>
       </c>
       <c r="T11" t="n">
-        <v>16.61566410745898</v>
+        <v>0.8061605796548452</v>
       </c>
       <c r="U11" t="n">
-        <v>-24.03974481825748</v>
+        <v>-21.81993437965367</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.06458346469825</v>
+        <v>-9.794247215553291</v>
       </c>
       <c r="W11" t="n">
-        <v>-21.44544236908482</v>
+        <v>-6.419962636699437</v>
       </c>
       <c r="X11" t="n">
-        <v>-2.462024608870712</v>
+        <v>15.28416387389057</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.434157754536873</v>
+        <v>-28.42740950463198</v>
       </c>
       <c r="Z11" t="n">
-        <v>-36.02712379283979</v>
+        <v>-28.80131768851141</v>
       </c>
       <c r="AA11" t="n">
-        <v>-33.72797879255221</v>
+        <v>-35.91304377027077</v>
       </c>
       <c r="AB11" t="n">
-        <v>-21.90020313507277</v>
+        <v>-13.7159670862629</v>
       </c>
       <c r="AC11" t="n">
-        <v>-51.57668316846845</v>
+        <v>-51.05766957826232</v>
       </c>
     </row>
   </sheetData>
@@ -5505,88 +5505,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-11.61553734775488</v>
+        <v>-1.492604972151037</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.41336322240045</v>
+        <v>5.606095840440998</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.79773255459272</v>
+        <v>-1.481712780159065</v>
       </c>
       <c r="E2" t="n">
-        <v>3.388623701453731</v>
+        <v>-9.475476061553966</v>
       </c>
       <c r="F2" t="n">
-        <v>4.048912658253682</v>
+        <v>-6.516561141879516</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.024472962029137</v>
+        <v>6.016928819130315</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.98105021767922</v>
+        <v>-19.37866289265875</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.120761461512879</v>
+        <v>12.94028320614628</v>
       </c>
       <c r="J2" t="n">
-        <v>-18.94171985648051</v>
+        <v>9.046183135387647</v>
       </c>
       <c r="K2" t="n">
-        <v>26.05214579211826</v>
+        <v>8.593855292847191</v>
       </c>
       <c r="L2" t="n">
-        <v>-10.60268341693485</v>
+        <v>-1.848279231689116</v>
       </c>
       <c r="M2" t="n">
-        <v>16.37772775379678</v>
+        <v>8.09334626583542</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.328939201483494</v>
+        <v>10.09774405541211</v>
       </c>
       <c r="O2" t="n">
-        <v>2.181790003307916</v>
+        <v>5.829870908092334</v>
       </c>
       <c r="P2" t="n">
-        <v>15.01369045523277</v>
+        <v>0.1980296451967916</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.03094186297696</v>
+        <v>-7.190837374599669</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2129750694696086</v>
+        <v>-5.91372326486154</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.9797182179060409</v>
+        <v>-6.013120748186592</v>
       </c>
       <c r="T2" t="n">
-        <v>-8.793744188801766</v>
+        <v>3.414301018073231</v>
       </c>
       <c r="U2" t="n">
-        <v>-6.687706491779616</v>
+        <v>-16.44314407479565</v>
       </c>
       <c r="V2" t="n">
-        <v>5.228697432454632</v>
+        <v>8.165033649329233</v>
       </c>
       <c r="W2" t="n">
-        <v>12.34574812540426</v>
+        <v>-8.29292897834932</v>
       </c>
       <c r="X2" t="n">
-        <v>-6.384115478714449</v>
+        <v>13.55486234393752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.96466303009617</v>
+        <v>12.08052977139539</v>
       </c>
       <c r="Z2" t="n">
-        <v>-19.94118648163587</v>
+        <v>20.80658339901424</v>
       </c>
       <c r="AA2" t="n">
-        <v>-4.593300318686915</v>
+        <v>-4.309288791772511</v>
       </c>
       <c r="AB2" t="n">
-        <v>22.59143959420749</v>
+        <v>0.3303557545714196</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.804627921360753</v>
+        <v>23.44352738068181</v>
       </c>
     </row>
     <row r="3">
@@ -5594,88 +5594,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-11.32698778879181</v>
+        <v>-1.96764079418733</v>
       </c>
       <c r="C3" t="n">
-        <v>10.75659357804504</v>
+        <v>0.6096214294917637</v>
       </c>
       <c r="D3" t="n">
-        <v>4.533325027904465</v>
+        <v>-4.25376942670783</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.332416335367077</v>
+        <v>-14.07410051851333</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.150830113678448</v>
+        <v>-0.7683470602263052</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.594536417670266</v>
+        <v>-8.15125568119341</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.96218652699801</v>
+        <v>-1.92108418979678</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.208069526517833</v>
+        <v>-17.09168711272613</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.990007919358846</v>
+        <v>-16.83818265125688</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.432263060903618</v>
+        <v>3.192504077017887</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.1311171586397</v>
+        <v>-6.541257455564676</v>
       </c>
       <c r="M3" t="n">
-        <v>-8.209115723255811</v>
+        <v>-1.296646006383473</v>
       </c>
       <c r="N3" t="n">
-        <v>-19.56021828149236</v>
+        <v>-7.13975939250988</v>
       </c>
       <c r="O3" t="n">
-        <v>14.7659036892584</v>
+        <v>-5.275713165340793</v>
       </c>
       <c r="P3" t="n">
-        <v>-17.07429975392346</v>
+        <v>22.94899176323732</v>
       </c>
       <c r="Q3" t="n">
-        <v>-3.023886845543763</v>
+        <v>-14.44327861061211</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.551010496119909</v>
+        <v>-19.96214885929579</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3479124253517352</v>
+        <v>3.858446135699429</v>
       </c>
       <c r="T3" t="n">
-        <v>-32.98373495333197</v>
+        <v>17.54335939259352</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.6474674791219268</v>
+        <v>-10.94708574978116</v>
       </c>
       <c r="V3" t="n">
-        <v>-6.082429949656783</v>
+        <v>-1.624673964527801</v>
       </c>
       <c r="W3" t="n">
-        <v>-4.705756624597051</v>
+        <v>0.1464794091093946</v>
       </c>
       <c r="X3" t="n">
-        <v>-16.39671775829691</v>
+        <v>1.176235606662393</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.883219177391602</v>
+        <v>-5.971087595181615</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.07004683461537509</v>
+        <v>5.895461149510032</v>
       </c>
       <c r="AA3" t="n">
-        <v>-12.03952848606179</v>
+        <v>-14.87103578079046</v>
       </c>
       <c r="AB3" t="n">
-        <v>-9.019679286112579</v>
+        <v>-1.835349556932794</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.580795104455734</v>
+        <v>-1.348819196627024</v>
       </c>
     </row>
     <row r="4">
@@ -5683,88 +5683,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.483318954141175</v>
+        <v>-15.74704153072782</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.781999217945456</v>
+        <v>-4.892946274275051</v>
       </c>
       <c r="D4" t="n">
-        <v>-21.51373379754159</v>
+        <v>9.579257287561791</v>
       </c>
       <c r="E4" t="n">
-        <v>3.377126606018413</v>
+        <v>-11.64542830807022</v>
       </c>
       <c r="F4" t="n">
-        <v>-13.23986145484093</v>
+        <v>9.346937976337948</v>
       </c>
       <c r="G4" t="n">
-        <v>13.51530764890742</v>
+        <v>-7.398382123495987</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.3015225508974</v>
+        <v>-5.796870514572482</v>
       </c>
       <c r="I4" t="n">
-        <v>2.618526294307902</v>
+        <v>7.910478408722483</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.024444048101742</v>
+        <v>-4.136861758805145</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8463895179679537</v>
+        <v>-5.583002168677195</v>
       </c>
       <c r="L4" t="n">
-        <v>10.01563137710822</v>
+        <v>9.890215982864772</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.032432431144838</v>
+        <v>-0.6933328257304882</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.782977098139202</v>
+        <v>-9.886173380603152</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.6165795445256569</v>
+        <v>17.57913580608692</v>
       </c>
       <c r="P4" t="n">
-        <v>-7.543419517748156</v>
+        <v>-3.834914563828318</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.060753888357229</v>
+        <v>-7.291960945972971</v>
       </c>
       <c r="R4" t="n">
-        <v>1.909727208233346</v>
+        <v>15.25747918228301</v>
       </c>
       <c r="S4" t="n">
-        <v>-9.268951436024985</v>
+        <v>2.567491699973218</v>
       </c>
       <c r="T4" t="n">
-        <v>-20.65022791527829</v>
+        <v>7.068890092141465</v>
       </c>
       <c r="U4" t="n">
-        <v>1.328752442193153</v>
+        <v>-8.782721357911489</v>
       </c>
       <c r="V4" t="n">
-        <v>2.555271900195297</v>
+        <v>-18.34731609850754</v>
       </c>
       <c r="W4" t="n">
-        <v>22.10414125584986</v>
+        <v>8.225072054495627</v>
       </c>
       <c r="X4" t="n">
-        <v>-1.614739299208303</v>
+        <v>13.84822970398114</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.145987331741511</v>
+        <v>-4.433373266902494</v>
       </c>
       <c r="Z4" t="n">
-        <v>-5.397874532140003</v>
+        <v>4.457605012192266</v>
       </c>
       <c r="AA4" t="n">
-        <v>-3.797921707272643</v>
+        <v>2.842025484678366</v>
       </c>
       <c r="AB4" t="n">
-        <v>-7.945159055086588</v>
+        <v>14.01234047196104</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.48181135345054</v>
+        <v>4.837974314877557</v>
       </c>
     </row>
     <row r="5">
@@ -5772,88 +5772,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.39793473271201</v>
+        <v>0.536446523060202</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.226086442498957</v>
+        <v>-17.6999743228694</v>
       </c>
       <c r="D5" t="n">
-        <v>3.53559698374737</v>
+        <v>-17.9925418069345</v>
       </c>
       <c r="E5" t="n">
-        <v>5.690739908944876</v>
+        <v>-14.45996537463745</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.902723371052748</v>
+        <v>-17.18691393062901</v>
       </c>
       <c r="G5" t="n">
-        <v>-27.72201589226424</v>
+        <v>-3.994612105302946</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.679339939055683</v>
+        <v>-9.452703122155651</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.597384889470277</v>
+        <v>-13.58063834622773</v>
       </c>
       <c r="J5" t="n">
-        <v>6.498148512797664</v>
+        <v>4.8620328285827</v>
       </c>
       <c r="K5" t="n">
-        <v>6.628173890618046</v>
+        <v>-20.39300700806581</v>
       </c>
       <c r="L5" t="n">
-        <v>15.9122727072617</v>
+        <v>9.733617438146259</v>
       </c>
       <c r="M5" t="n">
-        <v>10.57566427931429</v>
+        <v>2.398228689513477</v>
       </c>
       <c r="N5" t="n">
-        <v>-11.87742837503047</v>
+        <v>-3.4711351469226</v>
       </c>
       <c r="O5" t="n">
-        <v>-4.349234575393272</v>
+        <v>3.84926922288203</v>
       </c>
       <c r="P5" t="n">
-        <v>3.96504980975216</v>
+        <v>-1.352779497682804</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.941086485183469</v>
+        <v>-0.2634906304859501</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.3870708377873663</v>
+        <v>-12.82439036384739</v>
       </c>
       <c r="S5" t="n">
-        <v>-17.38743097499983</v>
+        <v>15.28885315537954</v>
       </c>
       <c r="T5" t="n">
-        <v>-12.97276692950928</v>
+        <v>7.485397203694871</v>
       </c>
       <c r="U5" t="n">
-        <v>-6.19435544720837</v>
+        <v>-15.83223460446519</v>
       </c>
       <c r="V5" t="n">
-        <v>-12.89082581710593</v>
+        <v>0.7572933199104037</v>
       </c>
       <c r="W5" t="n">
-        <v>-22.31030308579464</v>
+        <v>-23.38039555963234</v>
       </c>
       <c r="X5" t="n">
-        <v>-15.08884617287264</v>
+        <v>-18.35470206125633</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.810510816318811</v>
+        <v>-0.3750299607552516</v>
       </c>
       <c r="Z5" t="n">
-        <v>-6.371892873065207</v>
+        <v>-3.916584170242285</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.351667801302008</v>
+        <v>36.43904705330166</v>
       </c>
       <c r="AB5" t="n">
-        <v>-7.188677611051435</v>
+        <v>13.43207003204025</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.09553846695824</v>
+        <v>-1.445557230596729</v>
       </c>
     </row>
     <row r="6">
@@ -5861,88 +5861,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-14.0279316587752</v>
+        <v>11.12074409501924</v>
       </c>
       <c r="C6" t="n">
-        <v>-22.83453871913161</v>
+        <v>6.122518490439282</v>
       </c>
       <c r="D6" t="n">
-        <v>4.630386880322447</v>
+        <v>8.312989553151315</v>
       </c>
       <c r="E6" t="n">
-        <v>16.79398603686136</v>
+        <v>-10.8070105974627</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.012025420913631</v>
+        <v>-8.934062812326861</v>
       </c>
       <c r="G6" t="n">
-        <v>-25.94159317446624</v>
+        <v>-16.92784453656655</v>
       </c>
       <c r="H6" t="n">
-        <v>-21.74946220721197</v>
+        <v>9.536231537075309</v>
       </c>
       <c r="I6" t="n">
-        <v>3.407511982035626</v>
+        <v>14.24609867003573</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.419049344747414</v>
+        <v>12.90091543310257</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.757017592559746</v>
+        <v>14.58948764569721</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.08671510243564007</v>
+        <v>1.706020197976939</v>
       </c>
       <c r="M6" t="n">
-        <v>22.73478128856688</v>
+        <v>14.10593329933973</v>
       </c>
       <c r="N6" t="n">
-        <v>7.640697931865011</v>
+        <v>-5.888661622439333</v>
       </c>
       <c r="O6" t="n">
-        <v>23.22974792172479</v>
+        <v>2.553527403150411</v>
       </c>
       <c r="P6" t="n">
-        <v>-13.94474553607778</v>
+        <v>9.507106422071971</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.106090017199353</v>
+        <v>-5.733683950399866</v>
       </c>
       <c r="R6" t="n">
-        <v>3.260970621224815</v>
+        <v>-20.88656477586364</v>
       </c>
       <c r="S6" t="n">
-        <v>-15.14822953080416</v>
+        <v>-4.503457851671097</v>
       </c>
       <c r="T6" t="n">
-        <v>-27.53650514646186</v>
+        <v>-1.15288417725576</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.370903981683171</v>
+        <v>25.48646894957398</v>
       </c>
       <c r="V6" t="n">
-        <v>-10.11117663030276</v>
+        <v>-9.917250255010451</v>
       </c>
       <c r="W6" t="n">
-        <v>-10.99322533020796</v>
+        <v>-26.46492855222022</v>
       </c>
       <c r="X6" t="n">
-        <v>-10.9894246319232</v>
+        <v>-5.63061071167796</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.118074835922164</v>
+        <v>2.443940064366222</v>
       </c>
       <c r="Z6" t="n">
-        <v>-27.21142892874434</v>
+        <v>7.624509427072481</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.1524091576750559</v>
+        <v>10.28060357877205</v>
       </c>
       <c r="AB6" t="n">
-        <v>-13.9566479138238</v>
+        <v>7.361834016292493</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.841400981921821</v>
+        <v>8.729173490191432</v>
       </c>
     </row>
     <row r="7">
@@ -5950,88 +5950,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-12.49262654461438</v>
+        <v>1.370281267463199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9362207106308138</v>
+        <v>8.021066132866039</v>
       </c>
       <c r="D7" t="n">
-        <v>7.246263691146823</v>
+        <v>11.39264030636209</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.21473677186382</v>
+        <v>-12.18335503570175</v>
       </c>
       <c r="F7" t="n">
-        <v>-18.93436329256896</v>
+        <v>-3.845739290527934</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.481899632648933</v>
+        <v>11.67573497582432</v>
       </c>
       <c r="H7" t="n">
-        <v>-13.04240976661209</v>
+        <v>0.896704912200593</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.392847394580611</v>
+        <v>-7.941741423348136</v>
       </c>
       <c r="J7" t="n">
-        <v>-14.90862565173746</v>
+        <v>-7.807288884998643</v>
       </c>
       <c r="K7" t="n">
-        <v>-6.171542258149693</v>
+        <v>-12.92830093232507</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2942407180228925</v>
+        <v>-3.560543423365982</v>
       </c>
       <c r="M7" t="n">
-        <v>14.15588387632888</v>
+        <v>-0.2534735734128017</v>
       </c>
       <c r="N7" t="n">
-        <v>10.51253039658169</v>
+        <v>-5.44456006102935</v>
       </c>
       <c r="O7" t="n">
-        <v>3.742288151673797</v>
+        <v>22.82387445606085</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.372243144032931</v>
+        <v>1.766118532938942</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4726907205126087</v>
+        <v>-10.18906861878607</v>
       </c>
       <c r="R7" t="n">
-        <v>3.286243794413947</v>
+        <v>0.1636829513506473</v>
       </c>
       <c r="S7" t="n">
-        <v>-15.64242556636927</v>
+        <v>-15.61784530097302</v>
       </c>
       <c r="T7" t="n">
-        <v>-15.45672343611324</v>
+        <v>7.842687000708763</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9915930770810197</v>
+        <v>7.435332433295613</v>
       </c>
       <c r="V7" t="n">
-        <v>-16.13334635942789</v>
+        <v>9.024497308316928</v>
       </c>
       <c r="W7" t="n">
-        <v>-10.80390209964242</v>
+        <v>0.6142176204019847</v>
       </c>
       <c r="X7" t="n">
-        <v>-29.36080056671448</v>
+        <v>11.57541706917887</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.64088961909658</v>
+        <v>-3.367684842098796</v>
       </c>
       <c r="Z7" t="n">
-        <v>-6.744907275441685</v>
+        <v>18.44190762070479</v>
       </c>
       <c r="AA7" t="n">
-        <v>-21.82431058219722</v>
+        <v>-2.055896651567348</v>
       </c>
       <c r="AB7" t="n">
-        <v>-9.683823545177834</v>
+        <v>20.46587414173053</v>
       </c>
       <c r="AC7" t="n">
-        <v>-2.58537919574038</v>
+        <v>-21.22594624952524</v>
       </c>
     </row>
     <row r="8">
@@ -6039,88 +6039,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.031206105415204</v>
+        <v>5.096973166944413</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.47798582551996</v>
+        <v>2.029392384337215</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0708566287217276</v>
+        <v>-10.72608398688561</v>
       </c>
       <c r="E8" t="n">
-        <v>10.35780136544495</v>
+        <v>-16.87109826251703</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08689121739216255</v>
+        <v>8.726916462670715</v>
       </c>
       <c r="G8" t="n">
-        <v>-15.53979981016782</v>
+        <v>-15.93404906057656</v>
       </c>
       <c r="H8" t="n">
-        <v>-13.08810069481009</v>
+        <v>5.482657383628339</v>
       </c>
       <c r="I8" t="n">
-        <v>-27.16837516720862</v>
+        <v>-15.28327223368356</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.487620867146617</v>
+        <v>-4.388834122402023</v>
       </c>
       <c r="K8" t="n">
-        <v>-9.382215290269112</v>
+        <v>-20.91257922557404</v>
       </c>
       <c r="L8" t="n">
-        <v>13.96761774428569</v>
+        <v>-22.41642385543515</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.2315745687981186</v>
+        <v>-6.163520771086004</v>
       </c>
       <c r="N8" t="n">
-        <v>11.34876109134811</v>
+        <v>9.018059426746699</v>
       </c>
       <c r="O8" t="n">
-        <v>6.62153292245021</v>
+        <v>-8.364042932042508</v>
       </c>
       <c r="P8" t="n">
-        <v>-12.29505829289027</v>
+        <v>-10.89468185848385</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.107148593586154</v>
+        <v>-9.583411954514268</v>
       </c>
       <c r="R8" t="n">
-        <v>-1.955043961446025</v>
+        <v>13.69026668938762</v>
       </c>
       <c r="S8" t="n">
-        <v>-5.694786351775573</v>
+        <v>7.287853568980544</v>
       </c>
       <c r="T8" t="n">
-        <v>-10.98303638753074</v>
+        <v>19.64474149564207</v>
       </c>
       <c r="U8" t="n">
-        <v>-18.04910349358416</v>
+        <v>-3.7314022122238</v>
       </c>
       <c r="V8" t="n">
-        <v>-6.020636238476469</v>
+        <v>-1.570032176603333</v>
       </c>
       <c r="W8" t="n">
-        <v>-13.7359889910458</v>
+        <v>11.80070491767218</v>
       </c>
       <c r="X8" t="n">
-        <v>-11.33656293232929</v>
+        <v>-13.73867745921463</v>
       </c>
       <c r="Y8" t="n">
-        <v>-20.30726875916874</v>
+        <v>-8.224174814233262</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.09037707937174</v>
+        <v>17.24052187756025</v>
       </c>
       <c r="AA8" t="n">
-        <v>-2.912338197284813</v>
+        <v>-5.435978858734109</v>
       </c>
       <c r="AB8" t="n">
-        <v>-20.54456890782155</v>
+        <v>7.896285672955207</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.006755435963881</v>
+        <v>21.42902228876305</v>
       </c>
     </row>
     <row r="9">
@@ -6128,88 +6128,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.116788097011585</v>
+        <v>-12.64074340013467</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.332567588182824</v>
+        <v>18.81810739391272</v>
       </c>
       <c r="D9" t="n">
-        <v>12.3663790434656</v>
+        <v>-6.810269278009263</v>
       </c>
       <c r="E9" t="n">
-        <v>32.22998718030956</v>
+        <v>-2.975375846549272</v>
       </c>
       <c r="F9" t="n">
-        <v>1.968753911302299</v>
+        <v>11.60437800727006</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.209394671257795</v>
+        <v>-7.107329303904241</v>
       </c>
       <c r="H9" t="n">
-        <v>10.75760010666059</v>
+        <v>-26.88459904065781</v>
       </c>
       <c r="I9" t="n">
-        <v>-21.76792654429529</v>
+        <v>10.17015429600355</v>
       </c>
       <c r="J9" t="n">
-        <v>15.07477544677623</v>
+        <v>14.62591477089534</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8681718360380062</v>
+        <v>5.891649843093786</v>
       </c>
       <c r="L9" t="n">
-        <v>30.30050967797624</v>
+        <v>-7.761570337763126</v>
       </c>
       <c r="M9" t="n">
-        <v>9.975346699636917</v>
+        <v>1.632814540692342</v>
       </c>
       <c r="N9" t="n">
-        <v>9.496409526969696</v>
+        <v>5.492539807747789</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.706776111340543</v>
+        <v>-12.16730801179538</v>
       </c>
       <c r="P9" t="n">
-        <v>3.368588854170927</v>
+        <v>18.25373637293526</v>
       </c>
       <c r="Q9" t="n">
-        <v>-21.5526035808452</v>
+        <v>5.8333476468939</v>
       </c>
       <c r="R9" t="n">
-        <v>-3.763054292138237</v>
+        <v>-5.880849913448477</v>
       </c>
       <c r="S9" t="n">
-        <v>2.778459823620498</v>
+        <v>9.357615916983406</v>
       </c>
       <c r="T9" t="n">
-        <v>-5.318775052200346</v>
+        <v>14.50796086000635</v>
       </c>
       <c r="U9" t="n">
-        <v>-4.348017662876437</v>
+        <v>-7.823279148043794</v>
       </c>
       <c r="V9" t="n">
-        <v>2.989521403071994</v>
+        <v>8.56469988080087</v>
       </c>
       <c r="W9" t="n">
-        <v>10.04815179412804</v>
+        <v>-4.519879091203013</v>
       </c>
       <c r="X9" t="n">
-        <v>5.275172769949498</v>
+        <v>-12.94902888008931</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.120662779590241</v>
+        <v>14.17552985961339</v>
       </c>
       <c r="Z9" t="n">
-        <v>-7.962019096742855</v>
+        <v>13.01497549370758</v>
       </c>
       <c r="AA9" t="n">
-        <v>-5.09569525262783</v>
+        <v>10.39131556134967</v>
       </c>
       <c r="AB9" t="n">
-        <v>-5.45700607027899</v>
+        <v>-1.91253912655144</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.042369687895422</v>
+        <v>6.307865311182863</v>
       </c>
     </row>
     <row r="10">
@@ -6217,88 +6217,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.808748998222454</v>
+        <v>-17.52474266009034</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.600378049014351</v>
+        <v>-8.606995550655839</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.91894474920576</v>
+        <v>-16.65039332624558</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3602066104689836</v>
+        <v>7.756671968888168</v>
       </c>
       <c r="F10" t="n">
-        <v>-12.0658346463973</v>
+        <v>-17.65173993180595</v>
       </c>
       <c r="G10" t="n">
-        <v>15.63819845244564</v>
+        <v>-14.92731625739983</v>
       </c>
       <c r="H10" t="n">
-        <v>-9.96659462348083</v>
+        <v>-8.542226878384598</v>
       </c>
       <c r="I10" t="n">
-        <v>-10.13175683984768</v>
+        <v>4.013231270154835</v>
       </c>
       <c r="J10" t="n">
-        <v>-6.032590894839332</v>
+        <v>9.273485359004079</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.457216571100961</v>
+        <v>11.46077393797957</v>
       </c>
       <c r="L10" t="n">
-        <v>8.212234417614678</v>
+        <v>-3.852425669537222</v>
       </c>
       <c r="M10" t="n">
-        <v>18.696582810395</v>
+        <v>-11.52420651002288</v>
       </c>
       <c r="N10" t="n">
-        <v>-19.83447938495733</v>
+        <v>-9.629471471236219</v>
       </c>
       <c r="O10" t="n">
-        <v>-4.894335751442531</v>
+        <v>-1.358014993056033</v>
       </c>
       <c r="P10" t="n">
-        <v>-17.62861839424716</v>
+        <v>0.782185422599134</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.30795605632304</v>
+        <v>1.679503548796514</v>
       </c>
       <c r="R10" t="n">
-        <v>2.170935792417144</v>
+        <v>12.04005161356346</v>
       </c>
       <c r="S10" t="n">
-        <v>-12.88057453021624</v>
+        <v>-6.337057184449953</v>
       </c>
       <c r="T10" t="n">
-        <v>-4.033447629071521</v>
+        <v>15.77864035429728</v>
       </c>
       <c r="U10" t="n">
-        <v>17.55538643383336</v>
+        <v>7.267942257231441</v>
       </c>
       <c r="V10" t="n">
-        <v>29.46292001651605</v>
+        <v>-8.998542169330793</v>
       </c>
       <c r="W10" t="n">
-        <v>-28.23333566787177</v>
+        <v>5.056506514614907</v>
       </c>
       <c r="X10" t="n">
-        <v>-5.062991270279735</v>
+        <v>-5.287357152394976</v>
       </c>
       <c r="Y10" t="n">
-        <v>-15.64679864838471</v>
+        <v>15.27916072950601</v>
       </c>
       <c r="Z10" t="n">
-        <v>-10.16318947754572</v>
+        <v>-2.085799364251932</v>
       </c>
       <c r="AA10" t="n">
-        <v>-25.18294919846082</v>
+        <v>-7.56067763745401</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.298047305425907</v>
+        <v>7.984021156684342</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.24637848584395</v>
+        <v>10.51009201823286</v>
       </c>
     </row>
     <row r="11">
@@ -6306,88 +6306,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.057774103759634</v>
+        <v>-7.854133205346544</v>
       </c>
       <c r="C11" t="n">
-        <v>9.848078782076415</v>
+        <v>-13.24190492362522</v>
       </c>
       <c r="D11" t="n">
-        <v>-10.37453447691007</v>
+        <v>-3.729790841415419</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.27545069087114</v>
+        <v>-0.1759144128075816</v>
       </c>
       <c r="F11" t="n">
-        <v>3.192165854610807</v>
+        <v>-13.24988240967444</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.834759731573753</v>
+        <v>9.196862550527836</v>
       </c>
       <c r="H11" t="n">
-        <v>-12.20316738186541</v>
+        <v>17.39559881192929</v>
       </c>
       <c r="I11" t="n">
-        <v>-12.62550131712699</v>
+        <v>12.28379875080805</v>
       </c>
       <c r="J11" t="n">
-        <v>5.604621014155008</v>
+        <v>-11.80643583008819</v>
       </c>
       <c r="K11" t="n">
-        <v>-10.06917218992284</v>
+        <v>-6.788725212084895</v>
       </c>
       <c r="L11" t="n">
-        <v>9.142704990219915</v>
+        <v>0.3951493872433247</v>
       </c>
       <c r="M11" t="n">
-        <v>5.671685784321731</v>
+        <v>-5.935636351206993</v>
       </c>
       <c r="N11" t="n">
-        <v>3.41192824541416</v>
+        <v>-0.799921589497482</v>
       </c>
       <c r="O11" t="n">
-        <v>-9.566124710021075</v>
+        <v>15.90459599304378</v>
       </c>
       <c r="P11" t="n">
-        <v>-6.641167445570709</v>
+        <v>-3.309546475821307</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.605526155039037</v>
+        <v>-5.194755917593362</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.01013449659663368</v>
+        <v>5.497978123582582</v>
       </c>
       <c r="S11" t="n">
-        <v>10.85100121762177</v>
+        <v>13.73295218153996</v>
       </c>
       <c r="T11" t="n">
-        <v>9.731341993067494</v>
+        <v>8.99695611622737</v>
       </c>
       <c r="U11" t="n">
-        <v>-23.33778085196568</v>
+        <v>20.59708277707832</v>
       </c>
       <c r="V11" t="n">
-        <v>-16.77926122620811</v>
+        <v>-1.460820590632144</v>
       </c>
       <c r="W11" t="n">
-        <v>9.287809605772351</v>
+        <v>1.416160983523769</v>
       </c>
       <c r="X11" t="n">
-        <v>-19.19470391746492</v>
+        <v>-9.344332316335</v>
       </c>
       <c r="Y11" t="n">
-        <v>-11.78475182260481</v>
+        <v>-9.449674211327945</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.90386124508968</v>
+        <v>12.08266720195444</v>
       </c>
       <c r="AA11" t="n">
-        <v>-6.177934103669124</v>
+        <v>-21.29023590854797</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.708757539829043</v>
+        <v>4.797079390050627</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.997241847750204</v>
+        <v>-5.824797389933821</v>
       </c>
     </row>
   </sheetData>
@@ -6500,88 +6500,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.641513512183622</v>
+        <v>7.241458966270367</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.57284888754154</v>
+        <v>-4.728902383175476</v>
       </c>
       <c r="D2" t="n">
-        <v>8.459200979965232</v>
+        <v>10.44061197310738</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.761565090052422</v>
+        <v>-18.84437206377096</v>
       </c>
       <c r="F2" t="n">
-        <v>16.83850040589551</v>
+        <v>9.661499051250964</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.38642762949724</v>
+        <v>-19.36965327318297</v>
       </c>
       <c r="H2" t="n">
-        <v>6.257066123470374</v>
+        <v>-18.30122488194717</v>
       </c>
       <c r="I2" t="n">
-        <v>-22.5927602235641</v>
+        <v>4.200066585220351</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.964172996838144</v>
+        <v>-5.962809643100641</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.83954155485154</v>
+        <v>11.24074771379282</v>
       </c>
       <c r="L2" t="n">
-        <v>7.82877267000448</v>
+        <v>-12.06228360720764</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.72339245088757</v>
+        <v>8.880603610033862</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.341190333038932</v>
+        <v>3.576702559741834</v>
       </c>
       <c r="O2" t="n">
-        <v>-12.860097331937</v>
+        <v>-4.605644924993789</v>
       </c>
       <c r="P2" t="n">
-        <v>-4.876084800233073</v>
+        <v>-24.06618125227344</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.878516548701174</v>
+        <v>-22.20233834011673</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.827067141893107</v>
+        <v>5.408927812180997</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.808313855291367</v>
+        <v>4.166412785419039</v>
       </c>
       <c r="T2" t="n">
-        <v>-8.12731914354241</v>
+        <v>-13.16559121144876</v>
       </c>
       <c r="U2" t="n">
-        <v>11.80652192055081</v>
+        <v>-4.310408631170683</v>
       </c>
       <c r="V2" t="n">
-        <v>12.91570471602214</v>
+        <v>-9.060339966056386</v>
       </c>
       <c r="W2" t="n">
-        <v>-13.96356441133064</v>
+        <v>10.20622660969885</v>
       </c>
       <c r="X2" t="n">
-        <v>20.32387704862259</v>
+        <v>-33.4982998370309</v>
       </c>
       <c r="Y2" t="n">
-        <v>-26.94524086224801</v>
+        <v>-17.27252633288443</v>
       </c>
       <c r="Z2" t="n">
-        <v>-21.74762313326014</v>
+        <v>-24.76887691638323</v>
       </c>
       <c r="AA2" t="n">
-        <v>-9.5630661705395</v>
+        <v>-20.75496217514678</v>
       </c>
       <c r="AB2" t="n">
-        <v>-33.67936157809048</v>
+        <v>-40.97310931814684</v>
       </c>
       <c r="AC2" t="n">
-        <v>-51.71092926131433</v>
+        <v>-32.6615594984216</v>
       </c>
     </row>
     <row r="3">
@@ -6589,88 +6589,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.394101247476243</v>
+        <v>12.39518636954047</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.037723642947785</v>
+        <v>6.929568048013945</v>
       </c>
       <c r="D3" t="n">
-        <v>11.8833492258559</v>
+        <v>-22.95415436024535</v>
       </c>
       <c r="E3" t="n">
-        <v>-26.54308370763818</v>
+        <v>12.97793320619123</v>
       </c>
       <c r="F3" t="n">
-        <v>-11.04216469614039</v>
+        <v>-10.26002597421481</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.219164392724981</v>
+        <v>-9.381756326588208</v>
       </c>
       <c r="H3" t="n">
-        <v>-16.4797652502598</v>
+        <v>-17.17399695926085</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.47614381974215</v>
+        <v>-1.361523370963393</v>
       </c>
       <c r="J3" t="n">
-        <v>8.908680827129229</v>
+        <v>-9.78474349986438</v>
       </c>
       <c r="K3" t="n">
-        <v>-8.519459271838137</v>
+        <v>-7.338960616516174</v>
       </c>
       <c r="L3" t="n">
-        <v>-7.997288668713796</v>
+        <v>-14.91609564354205</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.4266231361386499</v>
+        <v>-3.905396635170503</v>
       </c>
       <c r="N3" t="n">
-        <v>-15.40215387596766</v>
+        <v>1.702631995149371</v>
       </c>
       <c r="O3" t="n">
-        <v>-28.81728409003043</v>
+        <v>-7.694181846854771</v>
       </c>
       <c r="P3" t="n">
-        <v>-9.152364044541692</v>
+        <v>1.057443928358897</v>
       </c>
       <c r="Q3" t="n">
-        <v>-20.42599592846904</v>
+        <v>-0.5627969063080283</v>
       </c>
       <c r="R3" t="n">
-        <v>-7.083553802595839</v>
+        <v>-14.35793465805259</v>
       </c>
       <c r="S3" t="n">
-        <v>8.269906122956009</v>
+        <v>16.58524169500128</v>
       </c>
       <c r="T3" t="n">
-        <v>-2.621403731222573</v>
+        <v>-29.24420352888776</v>
       </c>
       <c r="U3" t="n">
-        <v>-23.50539768890134</v>
+        <v>-5.02205665565854</v>
       </c>
       <c r="V3" t="n">
-        <v>-6.094064682959742</v>
+        <v>-14.50510013349122</v>
       </c>
       <c r="W3" t="n">
-        <v>-22.48248042397574</v>
+        <v>-9.998229333907551</v>
       </c>
       <c r="X3" t="n">
-        <v>-14.07425297733877</v>
+        <v>-17.88620166963548</v>
       </c>
       <c r="Y3" t="n">
-        <v>-22.56869139586337</v>
+        <v>-39.28471090987739</v>
       </c>
       <c r="Z3" t="n">
-        <v>-22.26458665578632</v>
+        <v>-16.18412175623098</v>
       </c>
       <c r="AA3" t="n">
-        <v>-39.12738237241761</v>
+        <v>-18.18327809007035</v>
       </c>
       <c r="AB3" t="n">
-        <v>-33.85343418883674</v>
+        <v>-31.16041576578096</v>
       </c>
       <c r="AC3" t="n">
-        <v>-49.72010033463116</v>
+        <v>-64.28669417723407</v>
       </c>
     </row>
     <row r="4">
@@ -6678,88 +6678,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-11.59032230538127</v>
+        <v>-2.968110386434691</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2800456943796963</v>
+        <v>-14.61748344609265</v>
       </c>
       <c r="D4" t="n">
-        <v>1.463368058931021</v>
+        <v>-1.132065680226243</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.07288933459863</v>
+        <v>-22.40207334001754</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5587856490190406</v>
+        <v>-3.211698499347047</v>
       </c>
       <c r="G4" t="n">
-        <v>-15.89756719344058</v>
+        <v>1.991880989875706</v>
       </c>
       <c r="H4" t="n">
-        <v>3.929474296061652</v>
+        <v>-18.96752448675821</v>
       </c>
       <c r="I4" t="n">
-        <v>-12.38215242923007</v>
+        <v>6.736667330548284</v>
       </c>
       <c r="J4" t="n">
-        <v>-9.962681400305726</v>
+        <v>-7.796832820835219</v>
       </c>
       <c r="K4" t="n">
-        <v>2.758152974587735</v>
+        <v>-11.9381127722023</v>
       </c>
       <c r="L4" t="n">
-        <v>1.355559413535771</v>
+        <v>11.00203808662895</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.61390629707317</v>
+        <v>2.955104571841287</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.067964016043684</v>
+        <v>-7.912686507254712</v>
       </c>
       <c r="O4" t="n">
-        <v>-15.8628911380175</v>
+        <v>-4.328635842130758</v>
       </c>
       <c r="P4" t="n">
-        <v>17.01530512273238</v>
+        <v>2.172538973832721</v>
       </c>
       <c r="Q4" t="n">
-        <v>-10.04337498943837</v>
+        <v>-16.36980861738531</v>
       </c>
       <c r="R4" t="n">
-        <v>-8.181978499092644</v>
+        <v>-6.329873980943196</v>
       </c>
       <c r="S4" t="n">
-        <v>-12.26712908988567</v>
+        <v>-1.466563171219524</v>
       </c>
       <c r="T4" t="n">
-        <v>6.914681653236237</v>
+        <v>-10.20254837511936</v>
       </c>
       <c r="U4" t="n">
-        <v>-16.61037900308144</v>
+        <v>-16.3902637419314</v>
       </c>
       <c r="V4" t="n">
-        <v>2.832890769849515</v>
+        <v>-3.397194962389055</v>
       </c>
       <c r="W4" t="n">
-        <v>-13.32178805188577</v>
+        <v>-3.096383957965372</v>
       </c>
       <c r="X4" t="n">
-        <v>1.692154072448714</v>
+        <v>-26.59058948399647</v>
       </c>
       <c r="Y4" t="n">
-        <v>-16.34810059097689</v>
+        <v>-21.10920384229665</v>
       </c>
       <c r="Z4" t="n">
-        <v>-19.07740121044364</v>
+        <v>-28.8273030473105</v>
       </c>
       <c r="AA4" t="n">
-        <v>-31.50099272657053</v>
+        <v>-21.94236602963493</v>
       </c>
       <c r="AB4" t="n">
-        <v>-35.19016740738564</v>
+        <v>-54.01471171599908</v>
       </c>
       <c r="AC4" t="n">
-        <v>-38.37350827830718</v>
+        <v>-63.20583970473527</v>
       </c>
     </row>
     <row r="5">
@@ -6767,88 +6767,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.108573234077119</v>
+        <v>0.7488904799382867</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5611048914789944</v>
+        <v>-1.54580389474805</v>
       </c>
       <c r="D5" t="n">
-        <v>5.44236080073086</v>
+        <v>-10.82450670667273</v>
       </c>
       <c r="E5" t="n">
-        <v>21.47940042012291</v>
+        <v>-14.83404471707929</v>
       </c>
       <c r="F5" t="n">
-        <v>-17.9213590042714</v>
+        <v>-4.392983064403397</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.265780723527061</v>
+        <v>11.2099446268492</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.929102559333984</v>
+        <v>-32.30274932683342</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.356776838164359</v>
+        <v>-9.166706520827919</v>
       </c>
       <c r="J5" t="n">
-        <v>-23.20487343818868</v>
+        <v>-16.66759335952159</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.205896839293811</v>
+        <v>5.747348475710154</v>
       </c>
       <c r="L5" t="n">
-        <v>-5.15033687929833</v>
+        <v>-4.656721341323321</v>
       </c>
       <c r="M5" t="n">
-        <v>-5.863667641410715</v>
+        <v>21.04659348709439</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.505959475086431</v>
+        <v>-2.611301778047283</v>
       </c>
       <c r="O5" t="n">
-        <v>-14.86400939518934</v>
+        <v>-11.77743700399992</v>
       </c>
       <c r="P5" t="n">
-        <v>-14.04241343306271</v>
+        <v>-0.3873449348208942</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06695580933855538</v>
+        <v>-9.241752326324919</v>
       </c>
       <c r="R5" t="n">
-        <v>-33.16909821780358</v>
+        <v>-15.03497678166065</v>
       </c>
       <c r="S5" t="n">
-        <v>-13.47600533646563</v>
+        <v>6.74599316466772</v>
       </c>
       <c r="T5" t="n">
-        <v>-6.085466077185361</v>
+        <v>-9.553291191953436</v>
       </c>
       <c r="U5" t="n">
-        <v>-4.305188239094975</v>
+        <v>-4.511678357064538</v>
       </c>
       <c r="V5" t="n">
-        <v>-4.137913273524595</v>
+        <v>-15.5154694776256</v>
       </c>
       <c r="W5" t="n">
-        <v>-12.81253687462555</v>
+        <v>4.306190601475672</v>
       </c>
       <c r="X5" t="n">
-        <v>-20.78294494798011</v>
+        <v>-16.5674462290394</v>
       </c>
       <c r="Y5" t="n">
-        <v>-26.89934534373485</v>
+        <v>-28.41610948582339</v>
       </c>
       <c r="Z5" t="n">
-        <v>-20.22094291970755</v>
+        <v>-18.78208662993354</v>
       </c>
       <c r="AA5" t="n">
-        <v>-32.49251143442043</v>
+        <v>-20.33233377097549</v>
       </c>
       <c r="AB5" t="n">
-        <v>-57.70118119749532</v>
+        <v>-31.68030037807633</v>
       </c>
       <c r="AC5" t="n">
-        <v>-69.43844345974034</v>
+        <v>-54.0385455837351</v>
       </c>
     </row>
     <row r="6">
@@ -6856,88 +6856,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.543840696923084</v>
+        <v>-4.29194448163921</v>
       </c>
       <c r="C6" t="n">
-        <v>9.512092383586907</v>
+        <v>-10.36846569461073</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.410214029922251</v>
+        <v>13.42531355142682</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.704668117405861</v>
+        <v>1.894832299529105</v>
       </c>
       <c r="F6" t="n">
-        <v>-11.81022426153205</v>
+        <v>-0.3155394367666449</v>
       </c>
       <c r="G6" t="n">
-        <v>12.32152761446114</v>
+        <v>-4.963474092153852</v>
       </c>
       <c r="H6" t="n">
-        <v>1.204892123004812</v>
+        <v>-7.223482602150599</v>
       </c>
       <c r="I6" t="n">
-        <v>-3.25736135950978</v>
+        <v>-15.60867493408282</v>
       </c>
       <c r="J6" t="n">
-        <v>12.57467704504122</v>
+        <v>-35.18984219648566</v>
       </c>
       <c r="K6" t="n">
-        <v>17.57074687420431</v>
+        <v>-6.16747520200291</v>
       </c>
       <c r="L6" t="n">
-        <v>-13.30164928555287</v>
+        <v>-12.05998106209753</v>
       </c>
       <c r="M6" t="n">
-        <v>-13.25958713149861</v>
+        <v>-14.20627414287037</v>
       </c>
       <c r="N6" t="n">
-        <v>-10.72207889812513</v>
+        <v>-16.5527182466495</v>
       </c>
       <c r="O6" t="n">
-        <v>-4.925581317381412</v>
+        <v>-5.569973053486536</v>
       </c>
       <c r="P6" t="n">
-        <v>-9.767153418468018</v>
+        <v>-1.929184928228955</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14354972940002</v>
+        <v>-8.223658672345103</v>
       </c>
       <c r="R6" t="n">
-        <v>-6.117774518985434</v>
+        <v>7.278509013091978</v>
       </c>
       <c r="S6" t="n">
-        <v>-12.45702581342729</v>
+        <v>16.07128681988112</v>
       </c>
       <c r="T6" t="n">
-        <v>7.63211331087791</v>
+        <v>-16.12161587680161</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.150882225620153</v>
+        <v>16.20840551415303</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4993601289276</v>
+        <v>-21.30857602720294</v>
       </c>
       <c r="W6" t="n">
-        <v>-6.917880406197567</v>
+        <v>8.162734500824721</v>
       </c>
       <c r="X6" t="n">
-        <v>-6.500157746172912</v>
+        <v>-13.9276812097679</v>
       </c>
       <c r="Y6" t="n">
-        <v>-16.73996739595864</v>
+        <v>-25.81514550994981</v>
       </c>
       <c r="Z6" t="n">
-        <v>-26.74791826416376</v>
+        <v>-29.95946691321854</v>
       </c>
       <c r="AA6" t="n">
-        <v>-27.22518880861143</v>
+        <v>-30.42103533269686</v>
       </c>
       <c r="AB6" t="n">
-        <v>-45.13890620640772</v>
+        <v>-53.84567683386473</v>
       </c>
       <c r="AC6" t="n">
-        <v>-53.71953579526889</v>
+        <v>-37.90717595876681</v>
       </c>
     </row>
     <row r="7">
@@ -6945,88 +6945,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.753709300090961</v>
+        <v>-5.740255105064962</v>
       </c>
       <c r="C7" t="n">
-        <v>8.381602072226418</v>
+        <v>2.473219776697727</v>
       </c>
       <c r="D7" t="n">
-        <v>10.57296474025885</v>
+        <v>-5.069852432461497</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.80775836660948</v>
+        <v>-1.937863695057615</v>
       </c>
       <c r="F7" t="n">
-        <v>-20.39949385362171</v>
+        <v>-8.348310592736839</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.39341987372367</v>
+        <v>-14.06903419916329</v>
       </c>
       <c r="H7" t="n">
-        <v>-19.05105617758882</v>
+        <v>-14.66867482133938</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.996071462362285</v>
+        <v>2.728544510981394</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7798910497118818</v>
+        <v>-10.0753297469555</v>
       </c>
       <c r="K7" t="n">
-        <v>-16.01689937112959</v>
+        <v>0.7415698209059736</v>
       </c>
       <c r="L7" t="n">
-        <v>-11.58613301303276</v>
+        <v>-15.6893290319016</v>
       </c>
       <c r="M7" t="n">
-        <v>-20.46058982969385</v>
+        <v>20.65797766789635</v>
       </c>
       <c r="N7" t="n">
-        <v>1.624005339955192</v>
+        <v>-3.404871042531943</v>
       </c>
       <c r="O7" t="n">
-        <v>-7.912149064025917</v>
+        <v>-2.988676027360747</v>
       </c>
       <c r="P7" t="n">
-        <v>31.50706402777456</v>
+        <v>-9.157132839928387</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3415250738582625</v>
+        <v>-17.13510797693517</v>
       </c>
       <c r="R7" t="n">
-        <v>1.177183696422443</v>
+        <v>0.1381430723490418</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.9438547830944533</v>
+        <v>-5.434737264308803</v>
       </c>
       <c r="T7" t="n">
-        <v>-10.50327963709332</v>
+        <v>-5.38599077435467</v>
       </c>
       <c r="U7" t="n">
-        <v>-18.30354331519718</v>
+        <v>-14.37201509727224</v>
       </c>
       <c r="V7" t="n">
-        <v>-9.788866107433808</v>
+        <v>-0.6624522011100957</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.2781444431779487</v>
+        <v>-11.3809136766464</v>
       </c>
       <c r="X7" t="n">
-        <v>-29.40527904200127</v>
+        <v>-1.724946861646838</v>
       </c>
       <c r="Y7" t="n">
-        <v>-8.69928955383644</v>
+        <v>-14.66849517946318</v>
       </c>
       <c r="Z7" t="n">
-        <v>-28.99589384439067</v>
+        <v>-13.80956718381945</v>
       </c>
       <c r="AA7" t="n">
-        <v>-31.56335795891249</v>
+        <v>-16.75747186568359</v>
       </c>
       <c r="AB7" t="n">
-        <v>-32.48475895033828</v>
+        <v>-34.95479798812297</v>
       </c>
       <c r="AC7" t="n">
-        <v>-66.11512300221953</v>
+        <v>-46.23798253629178</v>
       </c>
     </row>
     <row r="8">
@@ -7034,88 +7034,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-19.72112066062511</v>
+        <v>-2.43718390128277</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.809004660858552</v>
+        <v>-3.629387379379102</v>
       </c>
       <c r="D8" t="n">
-        <v>6.67394888485012</v>
+        <v>-15.99766861235618</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.508665073941597</v>
+        <v>8.686705730597188</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.991193430049141</v>
+        <v>-0.7043473998196905</v>
       </c>
       <c r="G8" t="n">
-        <v>-21.09237917038809</v>
+        <v>-19.19842797611273</v>
       </c>
       <c r="H8" t="n">
-        <v>-13.72085468640163</v>
+        <v>-14.68978462634553</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.293072273482296</v>
+        <v>-5.389970109306911</v>
       </c>
       <c r="J8" t="n">
-        <v>10.38089263040715</v>
+        <v>3.037239101308675</v>
       </c>
       <c r="K8" t="n">
-        <v>14.00257668914248</v>
+        <v>-10.10664294531824</v>
       </c>
       <c r="L8" t="n">
-        <v>-38.62653595639472</v>
+        <v>-15.33810327920361</v>
       </c>
       <c r="M8" t="n">
-        <v>-12.04151410356232</v>
+        <v>4.815705051851119</v>
       </c>
       <c r="N8" t="n">
-        <v>-5.588595142981693</v>
+        <v>2.261559329868414</v>
       </c>
       <c r="O8" t="n">
-        <v>-12.05269709896098</v>
+        <v>-0.4888583275699103</v>
       </c>
       <c r="P8" t="n">
-        <v>-13.93461277249136</v>
+        <v>-10.0297344456963</v>
       </c>
       <c r="Q8" t="n">
-        <v>-3.968976764338679</v>
+        <v>-23.67832140324122</v>
       </c>
       <c r="R8" t="n">
-        <v>-3.842662981334106</v>
+        <v>-6.267612928202112</v>
       </c>
       <c r="S8" t="n">
-        <v>-16.74579342001708</v>
+        <v>-7.166073162914639</v>
       </c>
       <c r="T8" t="n">
-        <v>-23.66552928120858</v>
+        <v>-2.712965686804648</v>
       </c>
       <c r="U8" t="n">
-        <v>-24.32274556084441</v>
+        <v>-27.1150022821267</v>
       </c>
       <c r="V8" t="n">
-        <v>3.645808814738173</v>
+        <v>-14.50459787864995</v>
       </c>
       <c r="W8" t="n">
-        <v>-1.721120557380498</v>
+        <v>-13.28420523925934</v>
       </c>
       <c r="X8" t="n">
-        <v>-14.56740863525005</v>
+        <v>-3.233580542194991</v>
       </c>
       <c r="Y8" t="n">
-        <v>-20.09934909689521</v>
+        <v>-29.12480600085595</v>
       </c>
       <c r="Z8" t="n">
-        <v>-20.09950412635964</v>
+        <v>-33.93254101980127</v>
       </c>
       <c r="AA8" t="n">
-        <v>-23.76637957372212</v>
+        <v>-28.23502492580247</v>
       </c>
       <c r="AB8" t="n">
-        <v>-30.41054009561925</v>
+        <v>-28.57085055177846</v>
       </c>
       <c r="AC8" t="n">
-        <v>-76.68250082530778</v>
+        <v>-65.78086750818537</v>
       </c>
     </row>
     <row r="9">
@@ -7123,88 +7123,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.434608101576511</v>
+        <v>7.094119342693722</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.56750905683861</v>
+        <v>1.313759825776342</v>
       </c>
       <c r="D9" t="n">
-        <v>7.095021240454908</v>
+        <v>-12.0911637955808</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9751007096129283</v>
+        <v>-11.19310295864813</v>
       </c>
       <c r="F9" t="n">
-        <v>15.05141263893463</v>
+        <v>-8.633022015159522</v>
       </c>
       <c r="G9" t="n">
-        <v>-17.78361496631625</v>
+        <v>-16.88989352965462</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.109951454616848</v>
+        <v>6.67488466322856</v>
       </c>
       <c r="I9" t="n">
-        <v>-14.85895403598348</v>
+        <v>-1.670762505502636</v>
       </c>
       <c r="J9" t="n">
-        <v>3.160097807066571</v>
+        <v>22.78509716137793</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3766734562916403</v>
+        <v>-8.339825792882404</v>
       </c>
       <c r="L9" t="n">
-        <v>10.93602198945702</v>
+        <v>-6.549814783754909</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.143736810199959</v>
+        <v>-3.74977899166051</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.39247464157904</v>
+        <v>-10.68072238006761</v>
       </c>
       <c r="O9" t="n">
-        <v>-3.599401755532396</v>
+        <v>5.742412869643819</v>
       </c>
       <c r="P9" t="n">
-        <v>8.219872806735811</v>
+        <v>-5.147568659265178</v>
       </c>
       <c r="Q9" t="n">
-        <v>-3.237399105118739</v>
+        <v>13.75424672211083</v>
       </c>
       <c r="R9" t="n">
-        <v>-3.57343253833176</v>
+        <v>-25.87863547943961</v>
       </c>
       <c r="S9" t="n">
-        <v>8.933698285368244</v>
+        <v>4.431223084177017</v>
       </c>
       <c r="T9" t="n">
-        <v>-6.422524624821294</v>
+        <v>-4.34317744397051</v>
       </c>
       <c r="U9" t="n">
-        <v>-4.056866434871828</v>
+        <v>2.884680358061805</v>
       </c>
       <c r="V9" t="n">
-        <v>-8.920698818086548</v>
+        <v>-9.748528481599958</v>
       </c>
       <c r="W9" t="n">
-        <v>-10.16134249138101</v>
+        <v>-12.10460351596849</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.8789623072471642</v>
+        <v>-13.17015368932287</v>
       </c>
       <c r="Y9" t="n">
-        <v>-9.87378938873068</v>
+        <v>-25.55209607899236</v>
       </c>
       <c r="Z9" t="n">
-        <v>-17.29071175409366</v>
+        <v>6.106764540927053</v>
       </c>
       <c r="AA9" t="n">
-        <v>-34.36069793460161</v>
+        <v>-12.92848984715437</v>
       </c>
       <c r="AB9" t="n">
-        <v>-33.56854174796168</v>
+        <v>-32.49317705264438</v>
       </c>
       <c r="AC9" t="n">
-        <v>-65.06386007697617</v>
+        <v>-51.47401276253321</v>
       </c>
     </row>
     <row r="10">
@@ -7212,88 +7212,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.533661017782391</v>
+        <v>3.699190378218734</v>
       </c>
       <c r="C10" t="n">
-        <v>2.231176634924465</v>
+        <v>-1.923787633663021</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.951805733715489</v>
+        <v>-26.6250238774487</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.83032679554964</v>
+        <v>-9.527892256214246</v>
       </c>
       <c r="F10" t="n">
-        <v>-9.702054069809714</v>
+        <v>-8.672622678895408</v>
       </c>
       <c r="G10" t="n">
-        <v>-16.00521068970363</v>
+        <v>2.6879432814974</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7616354562943641</v>
+        <v>-4.542000096422315</v>
       </c>
       <c r="I10" t="n">
-        <v>2.543893719026523</v>
+        <v>-12.26534671696758</v>
       </c>
       <c r="J10" t="n">
-        <v>-4.077516425611453</v>
+        <v>-15.91496681989382</v>
       </c>
       <c r="K10" t="n">
-        <v>2.744667368004545</v>
+        <v>0.6327439115484799</v>
       </c>
       <c r="L10" t="n">
-        <v>-5.80928662161767</v>
+        <v>-3.451967061878892</v>
       </c>
       <c r="M10" t="n">
-        <v>3.019451600329524</v>
+        <v>-7.855549074012092</v>
       </c>
       <c r="N10" t="n">
-        <v>-14.81993952590074</v>
+        <v>-10.23909659614986</v>
       </c>
       <c r="O10" t="n">
-        <v>-12.17908928085016</v>
+        <v>-6.719137021337697</v>
       </c>
       <c r="P10" t="n">
-        <v>-8.70370496621574</v>
+        <v>9.713471435170934</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.592667606952523</v>
+        <v>-29.34386244495313</v>
       </c>
       <c r="R10" t="n">
-        <v>3.191042502262194</v>
+        <v>6.048049293170276</v>
       </c>
       <c r="S10" t="n">
-        <v>-15.30162523711845</v>
+        <v>-3.432122583290376</v>
       </c>
       <c r="T10" t="n">
-        <v>-3.154034935437423</v>
+        <v>5.090895226234633</v>
       </c>
       <c r="U10" t="n">
-        <v>-26.63661570521419</v>
+        <v>-27.02402715405555</v>
       </c>
       <c r="V10" t="n">
-        <v>-6.582880303637863</v>
+        <v>-15.26433012824845</v>
       </c>
       <c r="W10" t="n">
-        <v>-14.58129262562324</v>
+        <v>-5.7727328130544</v>
       </c>
       <c r="X10" t="n">
-        <v>-17.06066459407149</v>
+        <v>-11.69023846311138</v>
       </c>
       <c r="Y10" t="n">
-        <v>-18.50947816181699</v>
+        <v>-17.20443653677909</v>
       </c>
       <c r="Z10" t="n">
-        <v>-36.35155984156788</v>
+        <v>-25.26496332355396</v>
       </c>
       <c r="AA10" t="n">
-        <v>-44.11232161617639</v>
+        <v>-9.355304917011743</v>
       </c>
       <c r="AB10" t="n">
-        <v>-32.88548029971266</v>
+        <v>-46.15690289461732</v>
       </c>
       <c r="AC10" t="n">
-        <v>-42.07161050672274</v>
+        <v>-48.18430574527495</v>
       </c>
     </row>
     <row r="11">
@@ -7301,88 +7301,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-26.53164456989003</v>
+        <v>4.726710439832503</v>
       </c>
       <c r="C11" t="n">
-        <v>3.392696934048347</v>
+        <v>0.6614515963683085</v>
       </c>
       <c r="D11" t="n">
-        <v>-10.80348523454955</v>
+        <v>-0.2844655189084131</v>
       </c>
       <c r="E11" t="n">
-        <v>-27.68986319753513</v>
+        <v>-12.47753927691035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5178214611117014</v>
+        <v>7.673443211676103</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.240880447379737</v>
+        <v>-5.949704226938059</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.000092457441776</v>
+        <v>-5.257139765908742</v>
       </c>
       <c r="I11" t="n">
-        <v>-13.43252907929075</v>
+        <v>13.46186085181446</v>
       </c>
       <c r="J11" t="n">
-        <v>-3.339150859330482</v>
+        <v>-7.614394026099145</v>
       </c>
       <c r="K11" t="n">
-        <v>-8.57179110996041</v>
+        <v>-2.803481744829424</v>
       </c>
       <c r="L11" t="n">
-        <v>6.436423303886296</v>
+        <v>-28.32992903372682</v>
       </c>
       <c r="M11" t="n">
-        <v>-8.407173272570077</v>
+        <v>1.377644910492802</v>
       </c>
       <c r="N11" t="n">
-        <v>-4.857404364517905</v>
+        <v>-13.36695569901184</v>
       </c>
       <c r="O11" t="n">
-        <v>-5.144931354209596</v>
+        <v>-14.24147468076504</v>
       </c>
       <c r="P11" t="n">
-        <v>8.94822836320364</v>
+        <v>-24.64857198371029</v>
       </c>
       <c r="Q11" t="n">
-        <v>17.73150544918716</v>
+        <v>5.248065417127055</v>
       </c>
       <c r="R11" t="n">
-        <v>-21.33175542756918</v>
+        <v>-10.38171099304227</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.255519879756932</v>
+        <v>10.92464620859002</v>
       </c>
       <c r="T11" t="n">
-        <v>-12.96565560387077</v>
+        <v>-1.546581719397173</v>
       </c>
       <c r="U11" t="n">
-        <v>-13.09809282878414</v>
+        <v>-19.85565663112024</v>
       </c>
       <c r="V11" t="n">
-        <v>3.755222535434564</v>
+        <v>-3.453718180411684</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.960014123174378</v>
+        <v>-6.999963288180476</v>
       </c>
       <c r="X11" t="n">
-        <v>1.000935633777805</v>
+        <v>-12.96474780299549</v>
       </c>
       <c r="Y11" t="n">
-        <v>-12.84183140272017</v>
+        <v>-31.04556578502613</v>
       </c>
       <c r="Z11" t="n">
-        <v>-9.118047274889957</v>
+        <v>-34.12240020760635</v>
       </c>
       <c r="AA11" t="n">
-        <v>-39.58586290283927</v>
+        <v>-28.87897239191742</v>
       </c>
       <c r="AB11" t="n">
-        <v>-47.88404699098175</v>
+        <v>-35.10330828319024</v>
       </c>
       <c r="AC11" t="n">
-        <v>-62.53171223918649</v>
+        <v>-42.75142851805158</v>
       </c>
     </row>
   </sheetData>
